--- a/설계/테이블설계/1. 테이블정의서.xlsx
+++ b/설계/테이블설계/1. 테이블정의서.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\테이블설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\@산출문서(완료)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6160CA6-9F73-4EF7-BB65-48C39B7C7984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D69F98-47E6-4FC5-BC2D-DBBBFECABC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="-16125" windowWidth="28485" windowHeight="13530" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="211005" sheetId="6" r:id="rId1"/>
     <sheet name="테이블 정의서" sheetId="10" state="hidden" r:id="rId2"/>
-    <sheet name="테이블 정의서(1008수정)" sheetId="11" r:id="rId3"/>
+    <sheet name="테이블 정의서(1009수정)" sheetId="11" r:id="rId3"/>
     <sheet name="시퀀스정의" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="421">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1468,6 +1468,14 @@
   </si>
   <si>
     <t>아싸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천상품표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2190,7 +2198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2563,6 +2571,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2717,6 +2728,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3037,7 +3051,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
@@ -3098,10 +3112,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="132" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3122,8 +3136,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="135"/>
-      <c r="B4" s="132"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="17" t="s">
         <v>32</v>
       </c>
@@ -3140,8 +3154,8 @@
       <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="135"/>
-      <c r="B5" s="132"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
@@ -3160,8 +3174,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="135"/>
-      <c r="B6" s="132"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
@@ -3178,8 +3192,8 @@
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="135"/>
-      <c r="B7" s="132"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
@@ -3196,8 +3210,8 @@
       <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="135"/>
-      <c r="B8" s="132"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
@@ -3214,8 +3228,8 @@
       <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="135"/>
-      <c r="B9" s="132"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3232,8 +3246,8 @@
       <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="135"/>
-      <c r="B10" s="132"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3250,8 +3264,8 @@
       <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="135"/>
-      <c r="B11" s="132"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
@@ -3268,8 +3282,8 @@
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="135"/>
-      <c r="B12" s="132"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
@@ -3286,8 +3300,8 @@
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="136"/>
-      <c r="B13" s="133"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="58" t="s">
         <v>163</v>
       </c>
@@ -3304,10 +3318,10 @@
       <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="140" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3331,8 +3345,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="137"/>
-      <c r="B15" s="139"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
@@ -3351,8 +3365,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="148"/>
-      <c r="B16" s="139"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
@@ -3367,8 +3381,8 @@
       <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="148"/>
-      <c r="B17" s="139"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="8" t="s">
         <v>41</v>
       </c>
@@ -3383,8 +3397,8 @@
       <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="148"/>
-      <c r="B18" s="139"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
@@ -3399,8 +3413,8 @@
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="148"/>
-      <c r="B19" s="139"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="140"/>
       <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
@@ -3415,8 +3429,8 @@
       <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="148"/>
-      <c r="B20" s="139"/>
+      <c r="A20" s="149"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="8" t="s">
         <v>44</v>
       </c>
@@ -3437,8 +3451,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="A21" s="148"/>
-      <c r="B21" s="139"/>
+      <c r="A21" s="149"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
@@ -3457,8 +3471,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="149"/>
-      <c r="B22" s="147"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
@@ -3479,10 +3493,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="152" t="s">
+      <c r="A23" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="151" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -3503,8 +3517,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="153"/>
-      <c r="B24" s="151"/>
+      <c r="A24" s="154"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="10" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3537,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="153"/>
-      <c r="B25" s="151"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="22" t="s">
         <v>81</v>
       </c>
@@ -3545,8 +3559,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="153"/>
-      <c r="B26" s="151"/>
+      <c r="A26" s="154"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="10" t="s">
         <v>67</v>
       </c>
@@ -3563,8 +3577,8 @@
       <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="153"/>
-      <c r="B27" s="151"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
@@ -3581,8 +3595,8 @@
       <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="153"/>
-      <c r="B28" s="151"/>
+      <c r="A28" s="154"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -3599,8 +3613,8 @@
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="153"/>
-      <c r="B29" s="151"/>
+      <c r="A29" s="154"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
@@ -3617,8 +3631,8 @@
       <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="153"/>
-      <c r="B30" s="151"/>
+      <c r="A30" s="154"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="10" t="s">
         <v>68</v>
       </c>
@@ -3635,8 +3649,8 @@
       <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="153"/>
-      <c r="B31" s="151"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
@@ -3653,10 +3667,10 @@
       <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="139" t="s">
+      <c r="B32" s="140" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3679,8 +3693,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="148"/>
-      <c r="B33" s="139"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="20" t="s">
         <v>73</v>
       </c>
@@ -3700,8 +3714,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="148"/>
-      <c r="B34" s="139"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="20" t="s">
         <v>81</v>
       </c>
@@ -3722,8 +3736,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="148"/>
-      <c r="B35" s="139"/>
+      <c r="A35" s="149"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="8" t="s">
         <v>5</v>
       </c>
@@ -3740,8 +3754,8 @@
       <c r="H35" s="41"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="148"/>
-      <c r="B36" s="139"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
@@ -3758,8 +3772,8 @@
       <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="148"/>
-      <c r="B37" s="139"/>
+      <c r="A37" s="149"/>
+      <c r="B37" s="140"/>
       <c r="C37" s="8" t="s">
         <v>44</v>
       </c>
@@ -3776,8 +3790,8 @@
       <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="148"/>
-      <c r="B38" s="139"/>
+      <c r="A38" s="149"/>
+      <c r="B38" s="140"/>
       <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
@@ -3794,8 +3808,8 @@
       <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="148"/>
-      <c r="B39" s="139"/>
+      <c r="A39" s="149"/>
+      <c r="B39" s="140"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -3812,10 +3826,10 @@
       <c r="H39" s="41"/>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="151" t="s">
+      <c r="B40" s="152" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -3834,8 +3848,8 @@
       <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="154"/>
-      <c r="B41" s="151"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="152"/>
       <c r="C41" s="24" t="s">
         <v>73</v>
       </c>
@@ -3855,8 +3869,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="154"/>
-      <c r="B42" s="151"/>
+      <c r="A42" s="155"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="10" t="s">
         <v>77</v>
       </c>
@@ -3873,8 +3887,8 @@
       <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="154"/>
-      <c r="B43" s="151"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="152"/>
       <c r="C43" s="10" t="s">
         <v>78</v>
       </c>
@@ -3891,8 +3905,8 @@
       <c r="H43" s="38"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="154"/>
-      <c r="B44" s="151"/>
+      <c r="A44" s="155"/>
+      <c r="B44" s="152"/>
       <c r="C44" s="10" t="s">
         <v>79</v>
       </c>
@@ -3909,10 +3923,10 @@
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="137" t="s">
+      <c r="A45" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="139" t="s">
+      <c r="B45" s="140" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -3933,8 +3947,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="137"/>
-      <c r="B46" s="139"/>
+      <c r="A46" s="138"/>
+      <c r="B46" s="140"/>
       <c r="C46" s="20" t="s">
         <v>73</v>
       </c>
@@ -3954,8 +3968,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="137"/>
-      <c r="B47" s="139"/>
+      <c r="A47" s="138"/>
+      <c r="B47" s="140"/>
       <c r="C47" s="8" t="s">
         <v>103</v>
       </c>
@@ -3974,8 +3988,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="138"/>
-      <c r="B48" s="140"/>
+      <c r="A48" s="139"/>
+      <c r="B48" s="141"/>
       <c r="C48" s="48" t="s">
         <v>104</v>
       </c>
@@ -3994,10 +4008,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="144" t="s">
+      <c r="A49" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="141" t="s">
+      <c r="B49" s="142" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="52" t="s">
@@ -4016,8 +4030,8 @@
       <c r="H49" s="36"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="145"/>
-      <c r="B50" s="142"/>
+      <c r="A50" s="146"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="10" t="s">
         <v>109</v>
       </c>
@@ -4034,8 +4048,8 @@
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="145"/>
-      <c r="B51" s="142"/>
+      <c r="A51" s="146"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="22" t="s">
         <v>110</v>
       </c>
@@ -4056,8 +4070,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="145"/>
-      <c r="B52" s="142"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="10" t="s">
         <v>67</v>
       </c>
@@ -4074,8 +4088,8 @@
       <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="145"/>
-      <c r="B53" s="142"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="143"/>
       <c r="C53" s="10" t="s">
         <v>5</v>
       </c>
@@ -4092,8 +4106,8 @@
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="145"/>
-      <c r="B54" s="142"/>
+      <c r="A54" s="146"/>
+      <c r="B54" s="143"/>
       <c r="C54" s="10" t="s">
         <v>121</v>
       </c>
@@ -4112,8 +4126,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="145"/>
-      <c r="B55" s="142"/>
+      <c r="A55" s="146"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="10" t="s">
         <v>111</v>
       </c>
@@ -4130,8 +4144,8 @@
       <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="146"/>
-      <c r="B56" s="143"/>
+      <c r="A56" s="147"/>
+      <c r="B56" s="144"/>
       <c r="C56" s="25" t="s">
         <v>124</v>
       </c>
@@ -4150,8 +4164,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="130"/>
-      <c r="B57" s="130" t="s">
+      <c r="A57" s="131"/>
+      <c r="B57" s="131" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="53" t="s">
@@ -4170,8 +4184,8 @@
       <c r="H57" s="55"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="128"/>
-      <c r="B58" s="128"/>
+      <c r="A58" s="129"/>
+      <c r="B58" s="129"/>
       <c r="C58" s="55" t="s">
         <v>133</v>
       </c>
@@ -4188,8 +4202,8 @@
       <c r="H58" s="55"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="128"/>
-      <c r="B59" s="128"/>
+      <c r="A59" s="129"/>
+      <c r="B59" s="129"/>
       <c r="C59" s="55" t="s">
         <v>137</v>
       </c>
@@ -4206,8 +4220,8 @@
       <c r="H59" s="55"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="128"/>
-      <c r="B60" s="128"/>
+      <c r="A60" s="129"/>
+      <c r="B60" s="129"/>
       <c r="C60" s="55" t="s">
         <v>140</v>
       </c>
@@ -4224,8 +4238,8 @@
       <c r="H60" s="55"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="129"/>
-      <c r="B61" s="129"/>
+      <c r="A61" s="130"/>
+      <c r="B61" s="130"/>
       <c r="C61" s="55" t="s">
         <v>142</v>
       </c>
@@ -4242,8 +4256,8 @@
       <c r="H61" s="55"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="124"/>
-      <c r="B62" s="124" t="s">
+      <c r="A62" s="125"/>
+      <c r="B62" s="125" t="s">
         <v>144</v>
       </c>
       <c r="C62" s="56" t="s">
@@ -4262,8 +4276,8 @@
       <c r="H62" s="58"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="125"/>
-      <c r="B63" s="125"/>
+      <c r="A63" s="126"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="59" t="s">
         <v>145</v>
       </c>
@@ -4282,8 +4296,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="126"/>
-      <c r="B64" s="126"/>
+      <c r="A64" s="127"/>
+      <c r="B64" s="127"/>
       <c r="C64" s="58" t="s">
         <v>148</v>
       </c>
@@ -4300,10 +4314,10 @@
       <c r="H64" s="58"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="127" t="s">
+      <c r="A65" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="127" t="s">
+      <c r="B65" s="128" t="s">
         <v>151</v>
       </c>
       <c r="C65" s="53" t="s">
@@ -4322,8 +4336,8 @@
       <c r="H65" s="55"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="128"/>
-      <c r="B66" s="128"/>
+      <c r="A66" s="129"/>
+      <c r="B66" s="129"/>
       <c r="C66" s="61" t="s">
         <v>152</v>
       </c>
@@ -4342,8 +4356,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="128"/>
-      <c r="B67" s="128"/>
+      <c r="A67" s="129"/>
+      <c r="B67" s="129"/>
       <c r="C67" s="55" t="s">
         <v>154</v>
       </c>
@@ -4360,8 +4374,8 @@
       <c r="H67" s="55"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="128"/>
-      <c r="B68" s="128"/>
+      <c r="A68" s="129"/>
+      <c r="B68" s="129"/>
       <c r="C68" s="55" t="s">
         <v>158</v>
       </c>
@@ -4380,8 +4394,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="129"/>
-      <c r="B69" s="129"/>
+      <c r="A69" s="130"/>
+      <c r="B69" s="130"/>
       <c r="C69" s="55" t="s">
         <v>161</v>
       </c>
@@ -4398,10 +4412,10 @@
       <c r="H69" s="55"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="124" t="s">
+      <c r="A70" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="124" t="s">
+      <c r="B70" s="125" t="s">
         <v>166</v>
       </c>
       <c r="C70" s="56" t="s">
@@ -4420,8 +4434,8 @@
       <c r="H70" s="56"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="125"/>
-      <c r="B71" s="125"/>
+      <c r="A71" s="126"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="58" t="s">
         <v>167</v>
       </c>
@@ -4438,8 +4452,8 @@
       <c r="H71" s="56"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="125"/>
-      <c r="B72" s="125"/>
+      <c r="A72" s="126"/>
+      <c r="B72" s="126"/>
       <c r="C72" s="58" t="s">
         <v>169</v>
       </c>
@@ -4456,8 +4470,8 @@
       <c r="H72" s="56"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="125"/>
-      <c r="B73" s="125"/>
+      <c r="A73" s="126"/>
+      <c r="B73" s="126"/>
       <c r="C73" s="58" t="s">
         <v>140</v>
       </c>
@@ -4474,8 +4488,8 @@
       <c r="H73" s="56"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="126"/>
-      <c r="B74" s="126"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="58" t="s">
         <v>171</v>
       </c>
@@ -4495,7 +4509,7 @@
       <c r="A75" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="127" t="s">
+      <c r="B75" s="128" t="s">
         <v>180</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -4517,7 +4531,7 @@
       <c r="A76" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="128"/>
+      <c r="B76" s="129"/>
       <c r="C76" s="61" t="s">
         <v>152</v>
       </c>
@@ -4539,7 +4553,7 @@
       <c r="A77" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="128"/>
+      <c r="B77" s="129"/>
       <c r="C77" s="62" t="s">
         <v>181</v>
       </c>
@@ -4561,7 +4575,7 @@
       <c r="A78" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="128"/>
+      <c r="B78" s="129"/>
       <c r="C78" s="55" t="s">
         <v>183</v>
       </c>
@@ -4577,7 +4591,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="68"/>
-      <c r="B79" s="128"/>
+      <c r="B79" s="129"/>
       <c r="C79" s="55" t="s">
         <v>185</v>
       </c>
@@ -4595,7 +4609,7 @@
       <c r="A80" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="129"/>
+      <c r="B80" s="130"/>
       <c r="C80" s="55" t="s">
         <v>187</v>
       </c>
@@ -4674,66 +4688,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="161" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="162"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="155" t="s">
+      <c r="D1" s="163"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="156" t="s">
         <v>393</v>
       </c>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="159" t="s">
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="160" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="160"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="155" t="s">
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="157">
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="158">
         <v>44474</v>
       </c>
-      <c r="J2" s="158"/>
+      <c r="J2" s="159"/>
       <c r="K2" s="81"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="166" t="s">
+      <c r="B4" s="166"/>
+      <c r="C4" s="167" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="167"/>
+      <c r="D4" s="168"/>
       <c r="E4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="167"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="168"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="70" t="s">
@@ -5128,24 +5142,24 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="164" t="s">
+      <c r="A18" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166" t="s">
+      <c r="B18" s="166"/>
+      <c r="C18" s="167" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="167"/>
+      <c r="D18" s="168"/>
       <c r="E18" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F18" s="166" t="s">
+      <c r="F18" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="167"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="168"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="70" t="s">
@@ -5474,24 +5488,24 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="165"/>
-      <c r="C30" s="166" t="s">
+      <c r="B30" s="166"/>
+      <c r="C30" s="167" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="167"/>
+      <c r="D30" s="168"/>
       <c r="E30" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F30" s="166" t="s">
+      <c r="F30" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="167"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="168"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="70" t="s">
@@ -5822,24 +5836,24 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="164" t="s">
+      <c r="A42" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="169"/>
-      <c r="C42" s="170" t="s">
+      <c r="B42" s="170"/>
+      <c r="C42" s="171" t="s">
         <v>241</v>
       </c>
-      <c r="D42" s="171"/>
+      <c r="D42" s="172"/>
       <c r="E42" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="170" t="s">
+      <c r="F42" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="171"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="172"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="100" t="s">
@@ -6143,24 +6157,24 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A53" s="164" t="s">
+      <c r="A53" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="165"/>
-      <c r="C53" s="166" t="s">
+      <c r="B53" s="166"/>
+      <c r="C53" s="167" t="s">
         <v>247</v>
       </c>
-      <c r="D53" s="167"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F53" s="166" t="s">
+      <c r="F53" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="G53" s="168"/>
-      <c r="H53" s="168"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="167"/>
+      <c r="G53" s="169"/>
+      <c r="H53" s="169"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="168"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="70" t="s">
@@ -6369,24 +6383,24 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A61" s="164" t="s">
+      <c r="A61" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="165"/>
-      <c r="C61" s="166" t="s">
+      <c r="B61" s="166"/>
+      <c r="C61" s="167" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="167"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F61" s="166" t="s">
+      <c r="F61" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="G61" s="168"/>
-      <c r="H61" s="168"/>
-      <c r="I61" s="168"/>
-      <c r="J61" s="167"/>
+      <c r="G61" s="169"/>
+      <c r="H61" s="169"/>
+      <c r="I61" s="169"/>
+      <c r="J61" s="168"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="70" t="s">
@@ -6563,24 +6577,24 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A68" s="173" t="s">
+      <c r="A68" s="174" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="173"/>
-      <c r="C68" s="174" t="s">
+      <c r="B68" s="174"/>
+      <c r="C68" s="175" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="174"/>
+      <c r="D68" s="175"/>
       <c r="E68" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F68" s="174" t="s">
+      <c r="F68" s="175" t="s">
         <v>389</v>
       </c>
-      <c r="G68" s="174"/>
-      <c r="H68" s="174"/>
-      <c r="I68" s="174"/>
-      <c r="J68" s="174"/>
+      <c r="G68" s="175"/>
+      <c r="H68" s="175"/>
+      <c r="I68" s="175"/>
+      <c r="J68" s="175"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="105" t="s">
@@ -6880,24 +6894,24 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A79" s="173" t="s">
+      <c r="A79" s="174" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="173"/>
-      <c r="C79" s="174" t="s">
+      <c r="B79" s="174"/>
+      <c r="C79" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="174"/>
+      <c r="D79" s="175"/>
       <c r="E79" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="174" t="s">
+      <c r="F79" s="175" t="s">
         <v>389</v>
       </c>
-      <c r="G79" s="174"/>
-      <c r="H79" s="174"/>
-      <c r="I79" s="174"/>
-      <c r="J79" s="174"/>
+      <c r="G79" s="175"/>
+      <c r="H79" s="175"/>
+      <c r="I79" s="175"/>
+      <c r="J79" s="175"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="105" t="s">
@@ -7069,24 +7083,24 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A86" s="164" t="s">
+      <c r="A86" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="165"/>
-      <c r="C86" s="166" t="s">
+      <c r="B86" s="166"/>
+      <c r="C86" s="167" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="167"/>
+      <c r="D86" s="168"/>
       <c r="E86" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F86" s="166" t="s">
+      <c r="F86" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="G86" s="168"/>
-      <c r="H86" s="168"/>
-      <c r="I86" s="168"/>
-      <c r="J86" s="167"/>
+      <c r="G86" s="169"/>
+      <c r="H86" s="169"/>
+      <c r="I86" s="169"/>
+      <c r="J86" s="168"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="70" t="s">
@@ -7234,24 +7248,24 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A92" s="175" t="s">
+      <c r="A92" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="175"/>
-      <c r="C92" s="174" t="s">
+      <c r="B92" s="176"/>
+      <c r="C92" s="175" t="s">
         <v>391</v>
       </c>
-      <c r="D92" s="174"/>
+      <c r="D92" s="175"/>
       <c r="E92" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="F92" s="174" t="s">
+      <c r="F92" s="175" t="s">
         <v>389</v>
       </c>
-      <c r="G92" s="174"/>
-      <c r="H92" s="174"/>
-      <c r="I92" s="174"/>
-      <c r="J92" s="174"/>
+      <c r="G92" s="175"/>
+      <c r="H92" s="175"/>
+      <c r="I92" s="175"/>
+      <c r="J92" s="175"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="98" t="s">
@@ -7489,24 +7503,24 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A101" s="164" t="s">
+      <c r="A101" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="165"/>
-      <c r="C101" s="166" t="s">
+      <c r="B101" s="166"/>
+      <c r="C101" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="167"/>
+      <c r="D101" s="168"/>
       <c r="E101" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F101" s="166" t="s">
+      <c r="F101" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="G101" s="168"/>
-      <c r="H101" s="168"/>
-      <c r="I101" s="168"/>
-      <c r="J101" s="167"/>
+      <c r="G101" s="169"/>
+      <c r="H101" s="169"/>
+      <c r="I101" s="169"/>
+      <c r="J101" s="168"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="70" t="s">
@@ -7713,24 +7727,24 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A109" s="164" t="s">
+      <c r="A109" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="165"/>
-      <c r="C109" s="166" t="s">
+      <c r="B109" s="166"/>
+      <c r="C109" s="167" t="s">
         <v>276</v>
       </c>
-      <c r="D109" s="167"/>
+      <c r="D109" s="168"/>
       <c r="E109" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F109" s="166" t="s">
+      <c r="F109" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="G109" s="168"/>
-      <c r="H109" s="168"/>
-      <c r="I109" s="168"/>
-      <c r="J109" s="167"/>
+      <c r="G109" s="169"/>
+      <c r="H109" s="169"/>
+      <c r="I109" s="169"/>
+      <c r="J109" s="168"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" s="70" t="s">
@@ -7935,24 +7949,24 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A117" s="164" t="s">
+      <c r="A117" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="165"/>
-      <c r="C117" s="166" t="s">
+      <c r="B117" s="166"/>
+      <c r="C117" s="167" t="s">
         <v>297</v>
       </c>
-      <c r="D117" s="167"/>
+      <c r="D117" s="168"/>
       <c r="E117" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F117" s="166" t="s">
+      <c r="F117" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="G117" s="168"/>
-      <c r="H117" s="168"/>
-      <c r="I117" s="168"/>
-      <c r="J117" s="167"/>
+      <c r="G117" s="169"/>
+      <c r="H117" s="169"/>
+      <c r="I117" s="169"/>
+      <c r="J117" s="168"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" s="70" t="s">
@@ -8250,11 +8264,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O135"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -8277,24 +8291,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="161" t="s">
+      <c r="C1" s="156"/>
+      <c r="D1" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="155" t="s">
+      <c r="E1" s="163"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="156" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="159" t="s">
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="160" t="s">
         <v>394</v>
       </c>
-      <c r="K1" s="160"/>
+      <c r="K1" s="161"/>
       <c r="L1" s="78" t="s">
         <v>417</v>
       </c>
@@ -8303,47 +8317,47 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="155" t="s">
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="157">
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="158">
         <v>44474</v>
       </c>
-      <c r="K2" s="158"/>
+      <c r="K2" s="159"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="78">
         <v>1</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="166" t="s">
+      <c r="C4" s="166"/>
+      <c r="D4" s="167" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="167"/>
+      <c r="E4" s="168"/>
       <c r="F4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="166" t="s">
+      <c r="G4" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="167"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="168"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="70" t="s">
@@ -8407,7 +8421,7 @@
       <c r="J6" s="54"/>
       <c r="K6" s="107"/>
       <c r="L6" s="78" t="str">
-        <f>C6&amp;" "&amp;E6&amp;IF(E6="varchar2","("&amp;F6&amp;")","")&amp;IF(G6="",""," "&amp;G6)&amp;IF(H6="",""," unique")&amp;IF(I6="",""," primary key")&amp;IF(J6="",""," default "&amp;J6)&amp;","</f>
+        <f>C6&amp;" "&amp;E6&amp;IF(E6="varchar2","("&amp;F6&amp;")","")&amp;IF(J6="",""," default "&amp;J6)&amp;IF(G6="",""," "&amp;G6)&amp;IF(H6="",""," unique")&amp;IF(I6="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N6" s="78" t="s">
@@ -8440,7 +8454,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="107"/>
       <c r="L7" s="78" t="str">
-        <f t="shared" ref="L7:L11" si="0">C7&amp;" "&amp;E7&amp;IF(E7="varchar2","("&amp;F7&amp;")","")&amp;IF(G7="",""," "&amp;G7)&amp;IF(H7="",""," unique")&amp;IF(I7="",""," primary key")&amp;IF(J7="",""," default "&amp;J7)&amp;","</f>
+        <f t="shared" ref="L7:L12" si="0">C7&amp;" "&amp;E7&amp;IF(E7="varchar2","("&amp;F7&amp;")","")&amp;IF(J7="",""," default "&amp;J7)&amp;IF(G7="",""," "&amp;G7)&amp;IF(H7="",""," unique")&amp;IF(I7="",""," primary key")&amp;","</f>
         <v>EMAIL varchar2(50) not null unique,</v>
       </c>
       <c r="N7" s="78" t="s">
@@ -8597,7 +8611,7 @@
         <v>398</v>
       </c>
       <c r="L12" s="78" t="str">
-        <f>C12&amp;" "&amp;E12&amp;IF(E12="varchar2","("&amp;F12&amp;")","")&amp;IF(G12="",""," "&amp;G12)&amp;IF(H12="",""," unique")&amp;IF(I12="",""," primary key")&amp;IF(J12="",""," default "&amp;J12)</f>
+        <f>C12&amp;" "&amp;E12&amp;IF(E12="varchar2","("&amp;F12&amp;")","")&amp;IF(J12="",""," default "&amp;J12)&amp;IF(G12="",""," "&amp;G12)&amp;IF(H12="",""," unique")&amp;IF(I12="",""," primary key")</f>
         <v>OUTDATE date</v>
       </c>
       <c r="N12" s="78" t="s">
@@ -8616,24 +8630,24 @@
       <c r="A14" s="78">
         <v>2</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166" t="s">
+      <c r="C14" s="166"/>
+      <c r="D14" s="167" t="s">
         <v>400</v>
       </c>
-      <c r="E14" s="167"/>
+      <c r="E14" s="168"/>
       <c r="F14" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G14" s="166" t="s">
+      <c r="G14" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="167"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="168"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="70" t="s">
@@ -8697,7 +8711,7 @@
       <c r="J16" s="54"/>
       <c r="K16" s="55"/>
       <c r="L16" s="78" t="str">
-        <f t="shared" ref="L16:L19" si="1">C16&amp;" "&amp;E16&amp;IF(E16="varchar2","("&amp;F16&amp;")","")&amp;IF(G16="",""," "&amp;G16)&amp;IF(H16="",""," unique")&amp;IF(I16="",""," primary key")&amp;IF(J16="",""," default "&amp;J16)&amp;","</f>
+        <f t="shared" ref="L16:L18" si="1">C16&amp;" "&amp;E16&amp;IF(E16="varchar2","("&amp;F16&amp;")","")&amp;IF(J16="",""," default "&amp;J16)&amp;IF(G16="",""," "&amp;G16)&amp;IF(H16="",""," unique")&amp;IF(I16="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N16" s="78" t="s">
@@ -8798,7 +8812,7 @@
         <v>289</v>
       </c>
       <c r="L19" s="78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L19:L20" si="2">C19&amp;" "&amp;E19&amp;IF(E19="varchar2","("&amp;F19&amp;")","")&amp;IF(J19="",""," default "&amp;J19)&amp;IF(G19="",""," "&amp;G19)&amp;IF(H19="",""," unique")&amp;IF(I19="",""," primary key")&amp;","</f>
         <v>INDATE date default sysdate,</v>
       </c>
       <c r="N19" s="78" t="s">
@@ -8827,7 +8841,7 @@
         <v>290</v>
       </c>
       <c r="L20" s="78" t="str">
-        <f>C20&amp;" "&amp;E20&amp;IF(E20="varchar2","("&amp;F20&amp;")","")&amp;IF(G20="",""," "&amp;G20)&amp;IF(H20="",""," unique")&amp;IF(I20="",""," primary key")&amp;IF(J20="",""," default "&amp;J20)</f>
+        <f>C20&amp;" "&amp;E20&amp;IF(E20="varchar2","("&amp;F20&amp;")","")&amp;IF(J20="",""," default "&amp;J20)&amp;IF(G20="",""," "&amp;G20)&amp;IF(H20="",""," unique")&amp;IF(I20="",""," primary key")</f>
         <v>STOREDATE date</v>
       </c>
       <c r="N20" s="78" t="s">
@@ -8846,24 +8860,24 @@
       <c r="A22" s="78">
         <v>3</v>
       </c>
-      <c r="B22" s="164" t="s">
+      <c r="B22" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="165"/>
-      <c r="D22" s="166" t="s">
+      <c r="C22" s="166"/>
+      <c r="D22" s="167" t="s">
         <v>403</v>
       </c>
-      <c r="E22" s="167"/>
+      <c r="E22" s="168"/>
       <c r="F22" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G22" s="166" t="s">
+      <c r="G22" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="167"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="168"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B23" s="70" t="s">
@@ -8927,7 +8941,7 @@
       <c r="J24" s="54"/>
       <c r="K24" s="55"/>
       <c r="L24" s="78" t="str">
-        <f t="shared" ref="L24:L30" si="2">C24&amp;" "&amp;E24&amp;IF(E24="varchar2","("&amp;F24&amp;")","")&amp;IF(G24="",""," "&amp;G24)&amp;IF(H24="",""," unique")&amp;IF(I24="",""," primary key")&amp;IF(J24="",""," default "&amp;J24)&amp;","</f>
+        <f t="shared" ref="L24:L29" si="3">C24&amp;" "&amp;E24&amp;IF(E24="varchar2","("&amp;F24&amp;")","")&amp;IF(J24="",""," default "&amp;J24)&amp;IF(G24="",""," "&amp;G24)&amp;IF(H24="",""," unique")&amp;IF(I24="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N24" s="78" t="s">
@@ -8962,7 +8976,7 @@
         <v>401</v>
       </c>
       <c r="L25" s="78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NICKNAME varchar2(20) not null unique,</v>
       </c>
       <c r="N25" s="78" t="s">
@@ -8997,7 +9011,7 @@
         <v>404</v>
       </c>
       <c r="L26" s="78" t="str">
-        <f>C26&amp;" "&amp;E26&amp;IF(E26="varchar2","("&amp;F26&amp;")","")&amp;IF(G26="",""," "&amp;G26)&amp;IF(H26="",""," unique")&amp;IF(I26="",""," primary key")&amp;IF(J26="",""," default "&amp;J26)&amp;","</f>
+        <f t="shared" si="3"/>
         <v>PHONE1 varchar2(10),</v>
       </c>
       <c r="N26" s="78" t="s">
@@ -9028,7 +9042,7 @@
         <v>405</v>
       </c>
       <c r="L27" s="78" t="str">
-        <f>C27&amp;" "&amp;E27&amp;IF(E27="varchar2","("&amp;F27&amp;")","")&amp;IF(G27="",""," "&amp;G27)&amp;IF(H27="",""," unique")&amp;IF(I27="",""," primary key")&amp;IF(J27="",""," default "&amp;J27)&amp;","</f>
+        <f t="shared" si="3"/>
         <v>PHONE2 varchar2(20),</v>
       </c>
       <c r="N27" s="78" t="s">
@@ -9057,7 +9071,7 @@
       <c r="J28" s="54"/>
       <c r="K28" s="55"/>
       <c r="L28" s="78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ADDRNUM varchar2(10),</v>
       </c>
       <c r="N28" s="78" t="s">
@@ -9086,7 +9100,7 @@
       <c r="J29" s="54"/>
       <c r="K29" s="55"/>
       <c r="L29" s="78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ADDR varchar2(100),</v>
       </c>
       <c r="N29" s="78" t="s">
@@ -9115,7 +9129,7 @@
       <c r="J30" s="54"/>
       <c r="K30" s="55"/>
       <c r="L30" s="78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L30:L31" si="4">C30&amp;" "&amp;E30&amp;IF(E30="varchar2","("&amp;F30&amp;")","")&amp;IF(J30="",""," default "&amp;J30)&amp;IF(G30="",""," "&amp;G30)&amp;IF(H30="",""," unique")&amp;IF(I30="",""," primary key")&amp;","</f>
         <v>ADDRSUB varchar2(100),</v>
       </c>
       <c r="N30" s="78" t="s">
@@ -9146,7 +9160,7 @@
         <v>284</v>
       </c>
       <c r="L31" s="78" t="str">
-        <f>C31&amp;" "&amp;E31&amp;IF(E31="varchar2","("&amp;F31&amp;")","")&amp;IF(G31="",""," "&amp;G31)&amp;IF(H31="",""," unique")&amp;IF(I31="",""," primary key")&amp;IF(J31="",""," default "&amp;J31)</f>
+        <f>C31&amp;" "&amp;E31&amp;IF(E31="varchar2","("&amp;F31&amp;")","")&amp;IF(J31="",""," default "&amp;J31)&amp;IF(G31="",""," "&amp;G31)&amp;IF(H31="",""," unique")&amp;IF(I31="",""," primary key")</f>
         <v>POINT number default 0</v>
       </c>
       <c r="N31" s="78" t="s">
@@ -9165,24 +9179,24 @@
       <c r="A33" s="78">
         <v>4</v>
       </c>
-      <c r="B33" s="164" t="s">
+      <c r="B33" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="165"/>
-      <c r="D33" s="166" t="s">
+      <c r="C33" s="166"/>
+      <c r="D33" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="E33" s="167"/>
+      <c r="E33" s="168"/>
       <c r="F33" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G33" s="166" t="s">
+      <c r="G33" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="167"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="168"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B34" s="70" t="s">
@@ -9246,7 +9260,7 @@
       <c r="J35" s="54"/>
       <c r="K35" s="55"/>
       <c r="L35" s="78" t="str">
-        <f t="shared" ref="L35:L38" si="3">C35&amp;" "&amp;E35&amp;IF(E35="varchar2","("&amp;F35&amp;")","")&amp;IF(G35="",""," "&amp;G35)&amp;IF(H35="",""," unique")&amp;IF(I35="",""," primary key")&amp;IF(J35="",""," default "&amp;J35)&amp;","</f>
+        <f t="shared" ref="L35:L39" si="5">C35&amp;" "&amp;E35&amp;IF(E35="varchar2","("&amp;F35&amp;")","")&amp;IF(J35="",""," default "&amp;J35)&amp;IF(G35="",""," "&amp;G35)&amp;IF(H35="",""," unique")&amp;IF(I35="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N35" s="78" t="s">
@@ -9279,7 +9293,7 @@
         <v>388</v>
       </c>
       <c r="L36" s="78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
       <c r="N36" s="78" t="s">
@@ -9312,7 +9326,7 @@
       </c>
       <c r="K37" s="55"/>
       <c r="L37" s="78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>CHANGEDATE date default sysdate,</v>
       </c>
       <c r="N37" s="78" t="s">
@@ -9343,7 +9357,7 @@
         <v>160</v>
       </c>
       <c r="L38" s="78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>CHANGEPOINT number not null,</v>
       </c>
       <c r="N38" s="78" t="s">
@@ -9374,7 +9388,7 @@
       <c r="J39" s="54"/>
       <c r="K39" s="55"/>
       <c r="L39" s="78" t="str">
-        <f>C39&amp;" "&amp;E39&amp;IF(E39="varchar2","("&amp;F39&amp;")","")&amp;IF(G39="",""," "&amp;G39)&amp;IF(H39="",""," unique")&amp;IF(I39="",""," primary key")&amp;IF(J39="",""," default "&amp;J39)</f>
+        <f>C39&amp;" "&amp;E39&amp;IF(E39="varchar2","("&amp;F39&amp;")","")&amp;IF(J39="",""," default "&amp;J39)&amp;IF(G39="",""," "&amp;G39)&amp;IF(H39="",""," unique")&amp;IF(I39="",""," primary key")</f>
         <v>CHANGEWHY varchar2(20) not null</v>
       </c>
       <c r="N39" s="78" t="s">
@@ -9393,24 +9407,24 @@
       <c r="A41" s="78">
         <v>5</v>
       </c>
-      <c r="B41" s="164" t="s">
+      <c r="B41" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="165"/>
-      <c r="D41" s="166" t="s">
+      <c r="C41" s="166"/>
+      <c r="D41" s="167" t="s">
         <v>226</v>
       </c>
-      <c r="E41" s="167"/>
+      <c r="E41" s="168"/>
       <c r="F41" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G41" s="166" t="s">
+      <c r="G41" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="167"/>
+      <c r="H41" s="169"/>
+      <c r="I41" s="169"/>
+      <c r="J41" s="169"/>
+      <c r="K41" s="168"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B42" s="70" t="s">
@@ -9474,7 +9488,7 @@
       <c r="J43" s="54"/>
       <c r="K43" s="55"/>
       <c r="L43" s="78" t="str">
-        <f t="shared" ref="L43:L50" si="4">C43&amp;" "&amp;E43&amp;IF(E43="varchar2","("&amp;F43&amp;")","")&amp;IF(G43="",""," "&amp;G43)&amp;IF(H43="",""," unique")&amp;IF(I43="",""," primary key")&amp;IF(J43="",""," default "&amp;J43)&amp;","</f>
+        <f t="shared" ref="L43:L50" si="6">C43&amp;" "&amp;E43&amp;IF(E43="varchar2","("&amp;F43&amp;")","")&amp;IF(J43="",""," default "&amp;J43)&amp;IF(G43="",""," "&amp;G43)&amp;IF(H43="",""," unique")&amp;IF(I43="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N43" s="78" t="s">
@@ -9507,7 +9521,7 @@
         <v>230</v>
       </c>
       <c r="L44" s="78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>BOARDCODE varchar2(20) not null,</v>
       </c>
       <c r="N44" s="78" t="s">
@@ -9540,7 +9554,7 @@
         <v>401</v>
       </c>
       <c r="L45" s="78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>WRITER varchar2(20) not null,</v>
       </c>
       <c r="N45" s="78" t="s">
@@ -9575,7 +9589,7 @@
       <c r="J46" s="54"/>
       <c r="K46" s="55"/>
       <c r="L46" s="78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N46" s="78" t="s">
@@ -9606,7 +9620,7 @@
       <c r="J47" s="54"/>
       <c r="K47" s="55"/>
       <c r="L47" s="78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N47" s="78" t="s">
@@ -9637,7 +9651,7 @@
         <v>292</v>
       </c>
       <c r="L48" s="78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>REGDATE date default sysdate,</v>
       </c>
       <c r="N48" s="78" t="s">
@@ -9668,7 +9682,7 @@
         <v>293</v>
       </c>
       <c r="L49" s="78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>MODDATE date default sysdate,</v>
       </c>
       <c r="N49" s="78" t="s">
@@ -9697,7 +9711,7 @@
       </c>
       <c r="K50" s="55"/>
       <c r="L50" s="78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>HIT number default 0,</v>
       </c>
       <c r="N50" s="78" t="s">
@@ -9726,7 +9740,7 @@
       </c>
       <c r="K51" s="55"/>
       <c r="L51" s="78" t="str">
-        <f>C51&amp;" "&amp;E51&amp;IF(E51="varchar2","("&amp;F51&amp;")","")&amp;IF(G51="",""," "&amp;G51)&amp;IF(H51="",""," unique")&amp;IF(I51="",""," primary key")&amp;IF(J51="",""," default "&amp;J51)</f>
+        <f>C51&amp;" "&amp;E51&amp;IF(E51="varchar2","("&amp;F51&amp;")","")&amp;IF(J51="",""," default "&amp;J51)&amp;IF(G51="",""," "&amp;G51)&amp;IF(H51="",""," unique")&amp;IF(I51="",""," primary key")</f>
         <v>HEART number default 0</v>
       </c>
       <c r="N51" s="78" t="s">
@@ -9745,24 +9759,24 @@
       <c r="A53" s="78">
         <v>6</v>
       </c>
-      <c r="B53" s="164" t="s">
+      <c r="B53" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="169"/>
-      <c r="D53" s="170" t="s">
+      <c r="C53" s="170"/>
+      <c r="D53" s="171" t="s">
         <v>241</v>
       </c>
-      <c r="E53" s="171"/>
+      <c r="E53" s="172"/>
       <c r="F53" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="G53" s="170" t="s">
+      <c r="G53" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="H53" s="172"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="172"/>
-      <c r="K53" s="171"/>
+      <c r="H53" s="173"/>
+      <c r="I53" s="173"/>
+      <c r="J53" s="173"/>
+      <c r="K53" s="172"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B54" s="111" t="s">
@@ -9826,7 +9840,7 @@
       <c r="J55" s="114"/>
       <c r="K55" s="91"/>
       <c r="L55" s="78" t="str">
-        <f t="shared" ref="L55:L61" si="5">C55&amp;" "&amp;E55&amp;IF(E55="varchar2","("&amp;F55&amp;")","")&amp;IF(G55="",""," "&amp;G55)&amp;IF(H55="",""," unique")&amp;IF(I55="",""," primary key")&amp;IF(J55="",""," default "&amp;J55)&amp;","</f>
+        <f t="shared" ref="L55:L61" si="7">C55&amp;" "&amp;E55&amp;IF(E55="varchar2","("&amp;F55&amp;")","")&amp;IF(J55="",""," default "&amp;J55)&amp;IF(G55="",""," "&amp;G55)&amp;IF(H55="",""," unique")&amp;IF(I55="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N55" s="78" t="s">
@@ -9857,7 +9871,7 @@
         <v>362</v>
       </c>
       <c r="L56" s="78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>BOARDNUM number not null,</v>
       </c>
       <c r="N56" s="78" t="s">
@@ -9894,7 +9908,7 @@
         <v>401</v>
       </c>
       <c r="L57" s="78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>WRITER varchar2(20) not null,</v>
       </c>
       <c r="N57" s="78" t="s">
@@ -9929,7 +9943,7 @@
       <c r="J58" s="114"/>
       <c r="K58" s="91"/>
       <c r="L58" s="78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>CONTENT varchar2(1000) not null,</v>
       </c>
       <c r="N58" s="78" t="s">
@@ -9960,7 +9974,7 @@
         <v>292</v>
       </c>
       <c r="L59" s="78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>REGDATE date default sysdate,</v>
       </c>
       <c r="N59" s="78" t="s">
@@ -9991,7 +10005,7 @@
         <v>293</v>
       </c>
       <c r="L60" s="78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>MODDATE date default sysdate,</v>
       </c>
       <c r="N60" s="78" t="s">
@@ -10020,7 +10034,7 @@
       </c>
       <c r="K61" s="91"/>
       <c r="L61" s="78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>DEPTH number default 0,</v>
       </c>
       <c r="N61" s="78" t="s">
@@ -10051,7 +10065,7 @@
         <v>364</v>
       </c>
       <c r="L62" s="78" t="str">
-        <f>C62&amp;" "&amp;E62&amp;IF(E62="varchar2","("&amp;F62&amp;")","")&amp;IF(G62="",""," "&amp;G62)&amp;IF(H62="",""," unique")&amp;IF(I62="",""," primary key")&amp;IF(J62="",""," default "&amp;J62)</f>
+        <f>C62&amp;" "&amp;E62&amp;IF(E62="varchar2","("&amp;F62&amp;")","")&amp;IF(J62="",""," default "&amp;J62)&amp;IF(G62="",""," "&amp;G62)&amp;IF(H62="",""," unique")&amp;IF(I62="",""," primary key")</f>
         <v>REFNUM number default 0</v>
       </c>
       <c r="N62" s="78" t="s">
@@ -10070,24 +10084,24 @@
       <c r="A64" s="78">
         <v>7</v>
       </c>
-      <c r="B64" s="164" t="s">
+      <c r="B64" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="165"/>
-      <c r="D64" s="166" t="s">
+      <c r="C64" s="166"/>
+      <c r="D64" s="167" t="s">
         <v>247</v>
       </c>
-      <c r="E64" s="167"/>
+      <c r="E64" s="168"/>
       <c r="F64" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G64" s="166" t="s">
+      <c r="G64" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="H64" s="168"/>
-      <c r="I64" s="168"/>
-      <c r="J64" s="168"/>
-      <c r="K64" s="167"/>
+      <c r="H64" s="169"/>
+      <c r="I64" s="169"/>
+      <c r="J64" s="169"/>
+      <c r="K64" s="168"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B65" s="70" t="s">
@@ -10151,7 +10165,7 @@
       <c r="J66" s="110"/>
       <c r="K66" s="67"/>
       <c r="L66" s="78" t="str">
-        <f t="shared" ref="L66:L69" si="6">C66&amp;" "&amp;E66&amp;IF(E66="varchar2","("&amp;F66&amp;")","")&amp;IF(G66="",""," "&amp;G66)&amp;IF(H66="",""," unique")&amp;IF(I66="",""," primary key")&amp;IF(J66="",""," default "&amp;J66)&amp;","</f>
+        <f t="shared" ref="L66:L69" si="8">C66&amp;" "&amp;E66&amp;IF(E66="varchar2","("&amp;F66&amp;")","")&amp;IF(J66="",""," default "&amp;J66)&amp;IF(G66="",""," "&amp;G66)&amp;IF(H66="",""," unique")&amp;IF(I66="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N66" s="78" t="s">
@@ -10182,7 +10196,7 @@
         <v>362</v>
       </c>
       <c r="L67" s="78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>BOARDNUM number not null,</v>
       </c>
       <c r="N67" s="78" t="s">
@@ -10217,7 +10231,7 @@
       <c r="J68" s="54"/>
       <c r="K68" s="55"/>
       <c r="L68" s="78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ORIGINNAME varchar2(50) not null,</v>
       </c>
       <c r="N68" s="78" t="s">
@@ -10250,7 +10264,7 @@
         <v>294</v>
       </c>
       <c r="L69" s="78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>SAVENAME varchar2(100) not null,</v>
       </c>
       <c r="N69" s="78" t="s">
@@ -10281,7 +10295,7 @@
       <c r="J70" s="54"/>
       <c r="K70" s="55"/>
       <c r="L70" s="78" t="str">
-        <f>C70&amp;" "&amp;E70&amp;IF(E70="varchar2","("&amp;F70&amp;")","")&amp;IF(G70="",""," "&amp;G70)&amp;IF(H70="",""," unique")&amp;IF(I70="",""," primary key")&amp;IF(J70="",""," default "&amp;J70)</f>
+        <f>C70&amp;" "&amp;E70&amp;IF(E70="varchar2","("&amp;F70&amp;")","")&amp;IF(J70="",""," default "&amp;J70)&amp;IF(G70="",""," "&amp;G70)&amp;IF(H70="",""," unique")&amp;IF(I70="",""," primary key")</f>
         <v>FILETYPE varchar2(10) not null</v>
       </c>
       <c r="N70" s="78" t="s">
@@ -10300,24 +10314,24 @@
       <c r="A72" s="78">
         <v>8</v>
       </c>
-      <c r="B72" s="164" t="s">
+      <c r="B72" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C72" s="165"/>
-      <c r="D72" s="166" t="s">
+      <c r="C72" s="166"/>
+      <c r="D72" s="167" t="s">
         <v>252</v>
       </c>
-      <c r="E72" s="167"/>
+      <c r="E72" s="168"/>
       <c r="F72" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G72" s="166" t="s">
+      <c r="G72" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="H72" s="168"/>
-      <c r="I72" s="168"/>
-      <c r="J72" s="168"/>
-      <c r="K72" s="167"/>
+      <c r="H72" s="169"/>
+      <c r="I72" s="169"/>
+      <c r="J72" s="169"/>
+      <c r="K72" s="168"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B73" s="70" t="s">
@@ -10381,7 +10395,7 @@
       <c r="J74" s="54"/>
       <c r="K74" s="55"/>
       <c r="L74" s="78" t="str">
-        <f t="shared" ref="L74:L76" si="7">C74&amp;" "&amp;E74&amp;IF(E74="varchar2","("&amp;F74&amp;")","")&amp;IF(G74="",""," "&amp;G74)&amp;IF(H74="",""," unique")&amp;IF(I74="",""," primary key")&amp;IF(J74="",""," default "&amp;J74)&amp;","</f>
+        <f t="shared" ref="L74:L76" si="9">C74&amp;" "&amp;E74&amp;IF(E74="varchar2","("&amp;F74&amp;")","")&amp;IF(J74="",""," default "&amp;J74)&amp;IF(G74="",""," "&amp;G74)&amp;IF(H74="",""," unique")&amp;IF(I74="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N74" s="78" t="s">
@@ -10412,7 +10426,7 @@
         <v>362</v>
       </c>
       <c r="L75" s="78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>BOARDNUM number not null,</v>
       </c>
       <c r="N75" s="78" t="s">
@@ -10447,7 +10461,7 @@
         <v>295</v>
       </c>
       <c r="L76" s="78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>STARTDATE date not null,</v>
       </c>
       <c r="N76" s="78" t="s">
@@ -10478,7 +10492,7 @@
         <v>295</v>
       </c>
       <c r="L77" s="78" t="str">
-        <f>C77&amp;" "&amp;E77&amp;IF(E77="varchar2","("&amp;F77&amp;")","")&amp;IF(G77="",""," "&amp;G77)&amp;IF(H77="",""," unique")&amp;IF(I77="",""," primary key")&amp;IF(J77="",""," default "&amp;J77)</f>
+        <f>C77&amp;" "&amp;E77&amp;IF(E77="varchar2","("&amp;F77&amp;")","")&amp;IF(J77="",""," default "&amp;J77)&amp;IF(G77="",""," "&amp;G77)&amp;IF(H77="",""," unique")&amp;IF(I77="",""," primary key")</f>
         <v>ENDDATE date not null</v>
       </c>
       <c r="N77" s="78" t="s">
@@ -10498,24 +10512,24 @@
       <c r="A79" s="78">
         <v>9</v>
       </c>
-      <c r="B79" s="173" t="s">
+      <c r="B79" s="174" t="s">
         <v>189</v>
       </c>
-      <c r="C79" s="173"/>
-      <c r="D79" s="174" t="s">
+      <c r="C79" s="174"/>
+      <c r="D79" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="E79" s="174"/>
+      <c r="E79" s="175"/>
       <c r="F79" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G79" s="174" t="s">
+      <c r="G79" s="175" t="s">
         <v>389</v>
       </c>
-      <c r="H79" s="174"/>
-      <c r="I79" s="174"/>
-      <c r="J79" s="174"/>
-      <c r="K79" s="174"/>
+      <c r="H79" s="175"/>
+      <c r="I79" s="175"/>
+      <c r="J79" s="175"/>
+      <c r="K79" s="175"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B80" s="115" t="s">
@@ -10578,8 +10592,8 @@
       </c>
       <c r="J81" s="96"/>
       <c r="K81" s="96"/>
-      <c r="L81" s="121" t="str">
-        <f t="shared" ref="L81:L84" si="8">C81&amp;" "&amp;E81&amp;IF(E81="varchar2","("&amp;F81&amp;")","")&amp;IF(G81="",""," "&amp;G81)&amp;IF(H81="",""," unique")&amp;IF(I81="",""," primary key")&amp;IF(J81="",""," default "&amp;J81)&amp;","</f>
+      <c r="L81" s="78" t="str">
+        <f t="shared" ref="L81:L85" si="10">C81&amp;" "&amp;E81&amp;IF(E81="varchar2","("&amp;F81&amp;")","")&amp;IF(J81="",""," default "&amp;J81)&amp;IF(G81="",""," "&amp;G81)&amp;IF(H81="",""," unique")&amp;IF(I81="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N81" s="78" t="s">
@@ -10607,8 +10621,8 @@
       <c r="I82" s="122"/>
       <c r="J82" s="122"/>
       <c r="K82" s="122"/>
-      <c r="L82" s="121" t="str">
-        <f t="shared" si="8"/>
+      <c r="L82" s="78" t="str">
+        <f t="shared" si="10"/>
         <v>GOODSCODE varchar2(100),</v>
       </c>
     </row>
@@ -10636,7 +10650,7 @@
       <c r="J83" s="114"/>
       <c r="K83" s="114"/>
       <c r="L83" s="78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>GOODS varchar2(100) not null,</v>
       </c>
       <c r="N83" s="78" t="s">
@@ -10667,7 +10681,7 @@
       <c r="J84" s="114"/>
       <c r="K84" s="114"/>
       <c r="L84" s="78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>CONTENT varchar2(100) not null,</v>
       </c>
       <c r="N84" s="78" t="s">
@@ -10696,334 +10710,329 @@
       </c>
       <c r="K85" s="114"/>
       <c r="L85" s="78" t="str">
-        <f>C85&amp;" "&amp;E85&amp;IF(E85="varchar2","("&amp;F85&amp;")","")&amp;IF(G85="",""," "&amp;G85)&amp;IF(H85="",""," unique")&amp;IF(I85="",""," primary key")&amp;IF(J85="",""," default "&amp;J85)</f>
-        <v>PRICE number default 0</v>
+        <f t="shared" si="10"/>
+        <v>PRICE number default 0,</v>
       </c>
       <c r="N85" s="78" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L86" s="78" t="s">
+      <c r="B86" s="122">
+        <v>6</v>
+      </c>
+      <c r="C86" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="E86" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="124">
+        <v>10</v>
+      </c>
+      <c r="G86" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
+      <c r="J86" s="177" t="s">
+        <v>390</v>
+      </c>
+      <c r="K86" s="124" t="s">
+        <v>420</v>
+      </c>
+      <c r="L86" s="78" t="str">
+        <f>C86&amp;" "&amp;E86&amp;IF(E86="varchar2","("&amp;F86&amp;")","")&amp;IF(J86="",""," default "&amp;J86)&amp;IF(G86="",""," "&amp;G86)&amp;IF(H86="",""," unique")&amp;IF(I86="",""," primary key")</f>
+        <v>HEART varchar2(10) default 'N' not null</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L87" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N86" s="78" t="s">
+      <c r="N87" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A87" s="78">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A88" s="78">
         <v>10</v>
       </c>
-      <c r="B87" s="164" t="s">
+      <c r="B88" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="165"/>
-      <c r="D87" s="166" t="s">
+      <c r="C88" s="166"/>
+      <c r="D88" s="167" t="s">
         <v>270</v>
       </c>
-      <c r="E87" s="167"/>
-      <c r="F87" s="70" t="s">
+      <c r="E88" s="168"/>
+      <c r="F88" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G87" s="166" t="s">
+      <c r="G88" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="H87" s="168"/>
-      <c r="I87" s="168"/>
-      <c r="J87" s="168"/>
-      <c r="K87" s="167"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B88" s="70" t="s">
+      <c r="H88" s="169"/>
+      <c r="I88" s="169"/>
+      <c r="J88" s="169"/>
+      <c r="K88" s="168"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B89" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C88" s="70" t="s">
+      <c r="C89" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D88" s="70" t="s">
+      <c r="D89" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E88" s="70" t="s">
+      <c r="E89" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F88" s="70" t="s">
+      <c r="F89" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G88" s="70" t="s">
+      <c r="G89" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H88" s="70" t="s">
+      <c r="H89" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I88" s="70" t="s">
+      <c r="I89" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J88" s="70" t="s">
+      <c r="J89" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K88" s="70" t="s">
+      <c r="K89" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L88" s="78" t="str">
-        <f>"create table "&amp;D87&amp;"("</f>
+      <c r="L89" s="78" t="str">
+        <f>"create table "&amp;D88&amp;"("</f>
         <v>create table GOODS_IMAGE(</v>
       </c>
-      <c r="N88" s="78" t="s">
+      <c r="N89" s="78" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B89" s="110">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B90" s="110">
         <v>1</v>
       </c>
-      <c r="C89" s="75" t="s">
+      <c r="C90" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D89" s="53" t="str">
-        <f>"번호 ("&amp;D87&amp;"_SEQ.nextval)"</f>
+      <c r="D90" s="53" t="str">
+        <f>"번호 ("&amp;D88&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_IMAGE_SEQ.nextval)</v>
       </c>
-      <c r="E89" s="75" t="s">
+      <c r="E90" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F89" s="110"/>
-      <c r="G89" s="110"/>
-      <c r="H89" s="110"/>
-      <c r="I89" s="110" t="s">
+      <c r="F90" s="110"/>
+      <c r="G90" s="110"/>
+      <c r="H90" s="110"/>
+      <c r="I90" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J89" s="110"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="78" t="str">
-        <f t="shared" ref="L89:L90" si="9">C89&amp;" "&amp;E89&amp;IF(E89="varchar2","("&amp;F89&amp;")","")&amp;IF(G89="",""," "&amp;G89)&amp;IF(H89="",""," unique")&amp;IF(I89="",""," primary key")&amp;IF(J89="",""," default "&amp;J89)&amp;","</f>
+      <c r="J90" s="110"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="78" t="str">
+        <f t="shared" ref="L90:L91" si="11">C90&amp;" "&amp;E90&amp;IF(E90="varchar2","("&amp;F90&amp;")","")&amp;IF(J90="",""," default "&amp;J90)&amp;IF(G90="",""," "&amp;G90)&amp;IF(H90="",""," unique")&amp;IF(I90="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N89" s="78" t="s">
+      <c r="N90" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B90" s="73">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B91" s="73">
         <v>2</v>
       </c>
-      <c r="C90" s="74" t="s">
+      <c r="C91" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="D90" s="74" t="s">
+      <c r="D91" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="E90" s="74" t="s">
+      <c r="E91" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F90" s="73">
+      <c r="F91" s="73">
         <v>100</v>
       </c>
-      <c r="G90" s="73" t="s">
+      <c r="G91" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="H90" s="73"/>
-      <c r="I90" s="73"/>
-      <c r="J90" s="73"/>
-      <c r="K90" s="74" t="s">
+      <c r="H91" s="73"/>
+      <c r="I91" s="73"/>
+      <c r="J91" s="73"/>
+      <c r="K91" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="L90" s="78" t="str">
-        <f t="shared" si="9"/>
+      <c r="L91" s="78" t="str">
+        <f t="shared" si="11"/>
         <v>GOODSCODE varchar2(100) not null,</v>
       </c>
-      <c r="N90" s="78" t="s">
+      <c r="N91" s="78" t="s">
         <v>345</v>
       </c>
-      <c r="O90" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C90&amp;") references "&amp;K90</f>
+      <c r="O91" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C91&amp;") references "&amp;K91</f>
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B91" s="54">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B92" s="54">
         <v>3</v>
       </c>
-      <c r="C91" s="55" t="s">
+      <c r="C92" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D91" s="55" t="s">
+      <c r="D92" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E91" s="55" t="s">
+      <c r="E92" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F91" s="54">
+      <c r="F92" s="54">
         <v>100</v>
       </c>
-      <c r="G91" s="54" t="s">
+      <c r="G92" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="78" t="str">
-        <f>C91&amp;" "&amp;E91&amp;IF(E91="varchar2","("&amp;F91&amp;")","")&amp;IF(G91="",""," "&amp;G91)&amp;IF(H91="",""," unique")&amp;IF(I91="",""," primary key")&amp;IF(J91="",""," default "&amp;J91)</f>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="78" t="str">
+        <f>C92&amp;" "&amp;E92&amp;IF(E92="varchar2","("&amp;F92&amp;")","")&amp;IF(J92="",""," default "&amp;J92)&amp;IF(G92="",""," "&amp;G92)&amp;IF(H92="",""," unique")&amp;IF(I92="",""," primary key")</f>
         <v>SAVENAME varchar2(100) not null</v>
       </c>
-      <c r="N91" s="78" t="s">
+      <c r="N92" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="K92" s="108"/>
-      <c r="L92" s="78" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K93" s="108"/>
+      <c r="L93" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N92" s="78" t="s">
+      <c r="N93" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A93" s="78">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A94" s="78">
         <v>11</v>
       </c>
-      <c r="B93" s="175" t="s">
+      <c r="B94" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="C93" s="175"/>
-      <c r="D93" s="174" t="s">
+      <c r="C94" s="176"/>
+      <c r="D94" s="175" t="s">
         <v>414</v>
       </c>
-      <c r="E93" s="174"/>
-      <c r="F93" s="113" t="s">
+      <c r="E94" s="175"/>
+      <c r="F94" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="G93" s="174" t="s">
+      <c r="G94" s="175" t="s">
         <v>389</v>
       </c>
-      <c r="H93" s="174"/>
-      <c r="I93" s="174"/>
-      <c r="J93" s="174"/>
-      <c r="K93" s="174"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B94" s="113" t="s">
+      <c r="H94" s="175"/>
+      <c r="I94" s="175"/>
+      <c r="J94" s="175"/>
+      <c r="K94" s="175"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B95" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="113" t="s">
+      <c r="C95" s="113" t="s">
         <v>287</v>
       </c>
-      <c r="D94" s="113" t="s">
+      <c r="D95" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="E94" s="113" t="s">
+      <c r="E95" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="F94" s="113" t="s">
+      <c r="F95" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="G94" s="113" t="s">
+      <c r="G95" s="113" t="s">
         <v>288</v>
       </c>
-      <c r="H94" s="113" t="s">
+      <c r="H95" s="113" t="s">
         <v>395</v>
       </c>
-      <c r="I94" s="113" t="s">
+      <c r="I95" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="J94" s="113" t="s">
+      <c r="J95" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="K94" s="113" t="s">
+      <c r="K95" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="L94" s="78" t="str">
-        <f>"create table "&amp;D93&amp;"("</f>
+      <c r="L95" s="78" t="str">
+        <f>"create table "&amp;D94&amp;"("</f>
         <v>create table GOODS_SALES(</v>
       </c>
-      <c r="N94" s="78" t="s">
+      <c r="N95" s="78" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B95" s="114">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B96" s="114">
         <v>1</v>
       </c>
-      <c r="C95" s="90" t="s">
+      <c r="C96" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D95" s="53" t="str">
-        <f>"번호 ("&amp;D93&amp;"_SEQ.nextval)"</f>
+      <c r="D96" s="53" t="str">
+        <f>"번호 ("&amp;D94&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_SALES_SEQ.nextval)</v>
       </c>
-      <c r="E95" s="90" t="s">
+      <c r="E96" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F95" s="114"/>
-      <c r="G95" s="114"/>
-      <c r="H95" s="114"/>
-      <c r="I95" s="114" t="s">
+      <c r="F96" s="114"/>
+      <c r="G96" s="114"/>
+      <c r="H96" s="114"/>
+      <c r="I96" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J95" s="114"/>
-      <c r="K95" s="91"/>
-      <c r="L95" s="78" t="str">
-        <f t="shared" ref="L95:L98" si="10">C95&amp;" "&amp;E95&amp;IF(E95="varchar2","("&amp;F95&amp;")","")&amp;IF(G95="",""," "&amp;G95)&amp;IF(H95="",""," unique")&amp;IF(I95="",""," primary key")&amp;IF(J95="",""," default "&amp;J95)&amp;","</f>
+      <c r="J96" s="114"/>
+      <c r="K96" s="91"/>
+      <c r="L96" s="78" t="str">
+        <f t="shared" ref="L96:L99" si="12">C96&amp;" "&amp;E96&amp;IF(E96="varchar2","("&amp;F96&amp;")","")&amp;IF(J96="",""," default "&amp;J96)&amp;IF(G96="",""," "&amp;G96)&amp;IF(H96="",""," unique")&amp;IF(I96="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N95" s="78" t="s">
+      <c r="N96" s="78" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B96" s="93">
-        <v>2</v>
-      </c>
-      <c r="C96" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="D96" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F96" s="93">
-        <v>100</v>
-      </c>
-      <c r="G96" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H96" s="93"/>
-      <c r="I96" s="93"/>
-      <c r="J96" s="93"/>
-      <c r="K96" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="L96" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>GOODSCODE varchar2(100) not null,</v>
-      </c>
-      <c r="N96" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="O96" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C96&amp;") references "&amp;K96</f>
-        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B97" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" s="92" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="D97" s="92" t="s">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="E97" s="92" t="s">
         <v>135</v>
       </c>
       <c r="F97" s="93">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G97" s="93" t="s">
         <v>139</v>
@@ -11032,214 +11041,218 @@
       <c r="I97" s="93"/>
       <c r="J97" s="93"/>
       <c r="K97" s="92" t="s">
-        <v>401</v>
+        <v>271</v>
       </c>
       <c r="L97" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>NICKNAME varchar2(20) not null,</v>
+        <f t="shared" si="12"/>
+        <v>GOODSCODE varchar2(100) not null,</v>
       </c>
       <c r="N97" s="78" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="O97" s="78" t="str">
         <f>"constraint FK1 foreign key("&amp;C97&amp;") references "&amp;K97</f>
+        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B98" s="93">
+        <v>3</v>
+      </c>
+      <c r="C98" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="E98" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F98" s="93">
+        <v>20</v>
+      </c>
+      <c r="G98" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H98" s="93"/>
+      <c r="I98" s="93"/>
+      <c r="J98" s="93"/>
+      <c r="K98" s="92" t="s">
+        <v>401</v>
+      </c>
+      <c r="L98" s="78" t="str">
+        <f t="shared" si="12"/>
+        <v>NICKNAME varchar2(20) not null,</v>
+      </c>
+      <c r="N98" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="O98" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C98&amp;") references "&amp;K98</f>
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B98" s="114">
-        <v>4</v>
-      </c>
-      <c r="C98" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="D98" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="E98" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="F98" s="117"/>
-      <c r="G98" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="H98" s="104"/>
-      <c r="I98" s="117"/>
-      <c r="J98" s="117"/>
-      <c r="K98" s="109"/>
-      <c r="L98" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>SALES number not null,</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B99" s="114">
+        <v>4</v>
+      </c>
+      <c r="C99" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="D99" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="E99" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="117"/>
+      <c r="G99" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="104"/>
+      <c r="I99" s="117"/>
+      <c r="J99" s="117"/>
+      <c r="K99" s="109"/>
+      <c r="L99" s="78" t="str">
+        <f t="shared" si="12"/>
+        <v>SALES number not null,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B100" s="114">
         <v>5</v>
       </c>
-      <c r="C99" s="91" t="s">
+      <c r="C100" s="91" t="s">
         <v>383</v>
       </c>
-      <c r="D99" s="91" t="s">
+      <c r="D100" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E99" s="91" t="s">
+      <c r="E100" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F99" s="114"/>
-      <c r="G99" s="104"/>
-      <c r="H99" s="104"/>
-      <c r="I99" s="114"/>
-      <c r="J99" s="114" t="s">
+      <c r="F100" s="114"/>
+      <c r="G100" s="104"/>
+      <c r="H100" s="104"/>
+      <c r="I100" s="114"/>
+      <c r="J100" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="K99" s="91"/>
-      <c r="L99" s="78" t="str">
-        <f>C99&amp;" "&amp;E99&amp;IF(E99="varchar2","("&amp;F99&amp;")","")&amp;IF(G99="",""," "&amp;G99)&amp;IF(H99="",""," unique")&amp;IF(I99="",""," primary key")&amp;IF(J99="",""," default "&amp;J99)</f>
+      <c r="K100" s="91"/>
+      <c r="L100" s="78" t="str">
+        <f>C100&amp;" "&amp;E100&amp;IF(E100="varchar2","("&amp;F100&amp;")","")&amp;IF(J100="",""," default "&amp;J100)&amp;IF(G100="",""," "&amp;G100)&amp;IF(H100="",""," unique")&amp;IF(I100="",""," primary key")</f>
         <v>ORDERDATE date default sysdate</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L100" s="78" t="s">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L101" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N100" s="78" t="s">
+      <c r="N101" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A101" s="78">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A102" s="78">
         <v>12</v>
       </c>
-      <c r="B101" s="164" t="s">
+      <c r="B102" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C101" s="165"/>
-      <c r="D101" s="166" t="s">
+      <c r="C102" s="166"/>
+      <c r="D102" s="167" t="s">
         <v>276</v>
       </c>
-      <c r="E101" s="167"/>
-      <c r="F101" s="70" t="s">
+      <c r="E102" s="168"/>
+      <c r="F102" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G101" s="166" t="s">
+      <c r="G102" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="H101" s="168"/>
-      <c r="I101" s="168"/>
-      <c r="J101" s="168"/>
-      <c r="K101" s="167"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B102" s="70" t="s">
+      <c r="H102" s="169"/>
+      <c r="I102" s="169"/>
+      <c r="J102" s="169"/>
+      <c r="K102" s="168"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B103" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C102" s="70" t="s">
+      <c r="C103" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D102" s="70" t="s">
+      <c r="D103" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E102" s="70" t="s">
+      <c r="E103" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F102" s="70" t="s">
+      <c r="F103" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G102" s="70" t="s">
+      <c r="G103" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H102" s="70" t="s">
+      <c r="H103" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I102" s="70" t="s">
+      <c r="I103" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J102" s="70" t="s">
+      <c r="J103" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K102" s="70" t="s">
+      <c r="K103" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L102" s="78" t="str">
-        <f>"create table "&amp;D101&amp;"("</f>
+      <c r="L103" s="78" t="str">
+        <f>"create table "&amp;D102&amp;"("</f>
         <v>create table ASSATALK(</v>
       </c>
-      <c r="N102" s="78" t="s">
+      <c r="N103" s="78" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B103" s="54">
-        <v>1</v>
-      </c>
-      <c r="C103" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D103" s="53" t="str">
-        <f>"번호 ("&amp;D101&amp;"_SEQ.nextval)"</f>
-        <v>번호 (ASSATALK_SEQ.nextval)</v>
-      </c>
-      <c r="E103" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J103" s="54"/>
-      <c r="K103" s="55"/>
-      <c r="L103" s="78" t="str">
-        <f t="shared" ref="L103:L106" si="11">C103&amp;" "&amp;E103&amp;IF(E103="varchar2","("&amp;F103&amp;")","")&amp;IF(G103="",""," "&amp;G103)&amp;IF(H103="",""," unique")&amp;IF(I103="",""," primary key")&amp;IF(J103="",""," default "&amp;J103)&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N103" s="78" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B104" s="54">
-        <v>2</v>
-      </c>
-      <c r="C104" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D104" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="E104" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F104" s="54">
-        <v>20</v>
-      </c>
-      <c r="G104" s="54" t="s">
-        <v>139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C104" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="53" t="str">
+        <f>"번호 ("&amp;D102&amp;"_SEQ.nextval)"</f>
+        <v>번호 (ASSATALK_SEQ.nextval)</v>
+      </c>
+      <c r="E104" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
       <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
+      <c r="I104" s="54" t="s">
+        <v>205</v>
+      </c>
       <c r="J104" s="54"/>
-      <c r="K104" s="55" t="s">
-        <v>296</v>
-      </c>
+      <c r="K104" s="55"/>
       <c r="L104" s="78" t="str">
-        <f t="shared" si="11"/>
-        <v>SPEAKER varchar2(20) not null,</v>
+        <f t="shared" ref="L104:L107" si="13">C104&amp;" "&amp;E104&amp;IF(E104="varchar2","("&amp;F104&amp;")","")&amp;IF(J104="",""," default "&amp;J104)&amp;IF(G104="",""," "&amp;G104)&amp;IF(H104="",""," unique")&amp;IF(I104="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N104" s="78" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B105" s="54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" s="55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D105" s="55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E105" s="55" t="s">
         <v>135</v>
@@ -11257,28 +11270,28 @@
         <v>296</v>
       </c>
       <c r="L105" s="78" t="str">
-        <f t="shared" si="11"/>
-        <v>LISTENER varchar2(20) not null,</v>
+        <f t="shared" si="13"/>
+        <v>SPEAKER varchar2(20) not null,</v>
       </c>
       <c r="N105" s="78" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B106" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D106" s="55" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="E106" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F106" s="54">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G106" s="54" t="s">
         <v>139</v>
@@ -11286,186 +11299,186 @@
       <c r="H106" s="54"/>
       <c r="I106" s="54"/>
       <c r="J106" s="54"/>
-      <c r="K106" s="55"/>
+      <c r="K106" s="55" t="s">
+        <v>296</v>
+      </c>
       <c r="L106" s="78" t="str">
-        <f t="shared" si="11"/>
-        <v>CONTENT varchar2(200) not null,</v>
+        <f t="shared" si="13"/>
+        <v>LISTENER varchar2(20) not null,</v>
       </c>
       <c r="N106" s="78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B107" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F107" s="54">
+        <v>200</v>
+      </c>
+      <c r="G107" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H107" s="54"/>
       <c r="I107" s="54"/>
-      <c r="J107" s="54" t="s">
-        <v>174</v>
-      </c>
+      <c r="J107" s="54"/>
       <c r="K107" s="55"/>
       <c r="L107" s="78" t="str">
-        <f>C107&amp;" "&amp;E107&amp;IF(E107="varchar2","("&amp;F107&amp;")","")&amp;IF(G107="",""," "&amp;G107)&amp;IF(H107="",""," unique")&amp;IF(I107="",""," primary key")&amp;IF(J107="",""," default "&amp;J107)</f>
+        <f t="shared" si="13"/>
+        <v>CONTENT varchar2(200) not null,</v>
+      </c>
+      <c r="N107" s="78" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B108" s="54">
+        <v>5</v>
+      </c>
+      <c r="C108" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E108" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="K108" s="55"/>
+      <c r="L108" s="78" t="str">
+        <f>C108&amp;" "&amp;E108&amp;IF(E108="varchar2","("&amp;F108&amp;")","")&amp;IF(J108="",""," default "&amp;J108)&amp;IF(G108="",""," "&amp;G108)&amp;IF(H108="",""," unique")&amp;IF(I108="",""," primary key")</f>
         <v>SENDTIME timestamp default systimestamp</v>
       </c>
-      <c r="N107" s="78" t="s">
+      <c r="N108" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L108" s="78" t="s">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L109" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N108" s="78" t="s">
+      <c r="N109" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A109" s="78">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A110" s="78">
         <v>13</v>
       </c>
-      <c r="B109" s="164" t="s">
+      <c r="B110" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C109" s="165"/>
-      <c r="D109" s="166" t="s">
+      <c r="C110" s="166"/>
+      <c r="D110" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="E109" s="167"/>
-      <c r="F109" s="70" t="s">
+      <c r="E110" s="168"/>
+      <c r="F110" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G109" s="166" t="s">
+      <c r="G110" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="H109" s="168"/>
-      <c r="I109" s="168"/>
-      <c r="J109" s="168"/>
-      <c r="K109" s="167"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B110" s="70" t="s">
+      <c r="H110" s="169"/>
+      <c r="I110" s="169"/>
+      <c r="J110" s="169"/>
+      <c r="K110" s="168"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B111" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C110" s="70" t="s">
+      <c r="C111" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D110" s="70" t="s">
+      <c r="D111" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E110" s="70" t="s">
+      <c r="E111" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F110" s="70" t="s">
+      <c r="F111" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G110" s="70" t="s">
+      <c r="G111" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H110" s="70" t="s">
+      <c r="H111" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I110" s="70" t="s">
+      <c r="I111" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J110" s="70" t="s">
+      <c r="J111" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K110" s="70" t="s">
+      <c r="K111" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L110" s="78" t="str">
-        <f>"create table "&amp;D109&amp;"("</f>
+      <c r="L111" s="78" t="str">
+        <f>"create table "&amp;D110&amp;"("</f>
         <v>create table ASSATALK_KEYWORD(</v>
       </c>
-      <c r="N110" s="78" t="s">
+      <c r="N111" s="78" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B111" s="54">
-        <v>1</v>
-      </c>
-      <c r="C111" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D111" s="53" t="str">
-        <f>"번호 ("&amp;D109&amp;"_SEQ.nextval)"</f>
-        <v>번호 (ASSATALK_KEYWORD_SEQ.nextval)</v>
-      </c>
-      <c r="E111" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J111" s="54"/>
-      <c r="K111" s="55"/>
-      <c r="L111" s="78" t="str">
-        <f t="shared" ref="L111:L113" si="12">C111&amp;" "&amp;E111&amp;IF(E111="varchar2","("&amp;F111&amp;")","")&amp;IF(G111="",""," "&amp;G111)&amp;IF(H111="",""," unique")&amp;IF(I111="",""," primary key")&amp;IF(J111="",""," default "&amp;J111)&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N111" s="78" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B112" s="54">
-        <v>2</v>
-      </c>
-      <c r="C112" s="55" t="s">
-        <v>411</v>
-      </c>
-      <c r="D112" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="E112" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F112" s="54">
-        <v>20</v>
-      </c>
-      <c r="G112" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H112" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="I112" s="54"/>
+        <v>1</v>
+      </c>
+      <c r="C112" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="53" t="str">
+        <f>"번호 ("&amp;D110&amp;"_SEQ.nextval)"</f>
+        <v>번호 (ASSATALK_KEYWORD_SEQ.nextval)</v>
+      </c>
+      <c r="E112" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F112" s="54"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54" t="s">
+        <v>205</v>
+      </c>
       <c r="J112" s="54"/>
       <c r="K112" s="55"/>
       <c r="L112" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>KEYWORD varchar2(20) not null unique,</v>
+        <f t="shared" ref="L112:L114" si="14">C112&amp;" "&amp;E112&amp;IF(E112="varchar2","("&amp;F112&amp;")","")&amp;IF(J112="",""," default "&amp;J112)&amp;IF(G112="",""," "&amp;G112)&amp;IF(H112="",""," unique")&amp;IF(I112="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N112" s="78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B113" s="54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E113" s="55" t="s">
         <v>4</v>
@@ -11476,35 +11489,35 @@
       <c r="G113" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H113" s="54"/>
+      <c r="H113" s="54" t="s">
+        <v>396</v>
+      </c>
       <c r="I113" s="54"/>
       <c r="J113" s="54"/>
-      <c r="K113" s="55" t="s">
-        <v>413</v>
-      </c>
+      <c r="K113" s="55"/>
       <c r="L113" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>ANSWERTYPE varchar2(20) not null,</v>
+        <f t="shared" si="14"/>
+        <v>KEYWORD varchar2(20) not null unique,</v>
       </c>
       <c r="N113" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="32" x14ac:dyDescent="0.45">
       <c r="B114" s="54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C114" s="55" t="s">
-        <v>122</v>
+        <v>412</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E114" s="55" t="s">
         <v>4</v>
       </c>
       <c r="F114" s="54">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="G114" s="54" t="s">
         <v>3</v>
@@ -11512,229 +11525,231 @@
       <c r="H114" s="54"/>
       <c r="I114" s="54"/>
       <c r="J114" s="54"/>
-      <c r="K114" s="55"/>
+      <c r="K114" s="55" t="s">
+        <v>413</v>
+      </c>
       <c r="L114" s="78" t="str">
-        <f>C114&amp;" "&amp;E114&amp;IF(E114="varchar2","("&amp;F114&amp;")","")&amp;IF(G114="",""," "&amp;G114)&amp;IF(H114="",""," unique")&amp;IF(I114="",""," primary key")&amp;IF(J114="",""," default "&amp;J114)</f>
+        <f t="shared" si="14"/>
+        <v>ANSWERTYPE varchar2(20) not null,</v>
+      </c>
+      <c r="N114" s="78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B115" s="54">
+        <v>5</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="E115" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G115" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" s="54"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="55"/>
+      <c r="L115" s="78" t="str">
+        <f>C115&amp;" "&amp;E115&amp;IF(E115="varchar2","("&amp;F115&amp;")","")&amp;IF(J115="",""," default "&amp;J115)&amp;IF(G115="",""," "&amp;G115)&amp;IF(H115="",""," unique")&amp;IF(I115="",""," primary key")</f>
         <v>ANSWER varchar2(4000) not null</v>
       </c>
-      <c r="N114" s="78" t="s">
+      <c r="N115" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L115" s="78" t="s">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L116" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N115" s="78" t="s">
+      <c r="N116" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A116" s="78">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A117" s="78">
         <v>14</v>
       </c>
-      <c r="B116" s="173" t="s">
+      <c r="B117" s="174" t="s">
         <v>189</v>
       </c>
-      <c r="C116" s="173"/>
-      <c r="D116" s="174" t="s">
+      <c r="C117" s="174"/>
+      <c r="D117" s="175" t="s">
         <v>257</v>
       </c>
-      <c r="E116" s="174"/>
-      <c r="F116" s="115" t="s">
+      <c r="E117" s="175"/>
+      <c r="F117" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G116" s="174" t="s">
+      <c r="G117" s="175" t="s">
         <v>389</v>
       </c>
-      <c r="H116" s="174"/>
-      <c r="I116" s="174"/>
-      <c r="J116" s="174"/>
-      <c r="K116" s="174"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B117" s="115" t="s">
+      <c r="H117" s="175"/>
+      <c r="I117" s="175"/>
+      <c r="J117" s="175"/>
+      <c r="K117" s="175"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B118" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C117" s="115" t="s">
+      <c r="C118" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D117" s="115" t="s">
+      <c r="D118" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E117" s="115" t="s">
+      <c r="E118" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F117" s="115" t="s">
+      <c r="F118" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G117" s="115" t="s">
+      <c r="G118" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H117" s="70" t="s">
+      <c r="H118" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I117" s="115" t="s">
+      <c r="I118" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J117" s="115" t="s">
+      <c r="J118" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K117" s="115" t="s">
+      <c r="K118" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L117" s="78" t="str">
-        <f>"create table "&amp;D116&amp;"("</f>
+      <c r="L118" s="78" t="str">
+        <f>"create table "&amp;D117&amp;"("</f>
         <v>create table QUESTION(</v>
       </c>
-      <c r="N117" s="78" t="s">
+      <c r="N118" s="78" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B118" s="114">
-        <v>1</v>
-      </c>
-      <c r="C118" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="D118" s="53" t="str">
-        <f>"번호 ("&amp;D116&amp;"_SEQ.nextval)"</f>
-        <v>번호 (QUESTION_SEQ.nextval)</v>
-      </c>
-      <c r="E118" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="F118" s="114"/>
-      <c r="G118" s="114"/>
-      <c r="H118" s="114"/>
-      <c r="I118" s="114" t="s">
-        <v>205</v>
-      </c>
-      <c r="J118" s="114"/>
-      <c r="K118" s="91"/>
-      <c r="L118" s="78" t="str">
-        <f t="shared" ref="L118:L124" si="13">C118&amp;" "&amp;E118&amp;IF(E118="varchar2","("&amp;F118&amp;")","")&amp;IF(G118="",""," "&amp;G118)&amp;IF(H118="",""," unique")&amp;IF(I118="",""," primary key")&amp;IF(J118="",""," default "&amp;J118)&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N118" s="78" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B119" s="114">
-        <v>2</v>
-      </c>
-      <c r="C119" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="D119" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="E119" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F119" s="114">
-        <v>20</v>
-      </c>
-      <c r="G119" s="114" t="s">
-        <v>139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C119" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="D119" s="53" t="str">
+        <f>"번호 ("&amp;D117&amp;"_SEQ.nextval)"</f>
+        <v>번호 (QUESTION_SEQ.nextval)</v>
+      </c>
+      <c r="E119" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119" s="114"/>
+      <c r="G119" s="114"/>
       <c r="H119" s="114"/>
-      <c r="I119" s="114"/>
+      <c r="I119" s="114" t="s">
+        <v>205</v>
+      </c>
       <c r="J119" s="114"/>
       <c r="K119" s="91"/>
       <c r="L119" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>ASKTYPE varchar2(20) not null,</v>
+        <f t="shared" ref="L119:L125" si="15">C119&amp;" "&amp;E119&amp;IF(E119="varchar2","("&amp;F119&amp;")","")&amp;IF(J119="",""," default "&amp;J119)&amp;IF(G119="",""," "&amp;G119)&amp;IF(H119="",""," unique")&amp;IF(I119="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N119" s="78" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B120" s="114">
-        <v>3</v>
-      </c>
-      <c r="C120" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="D120" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="E120" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D120" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="E120" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F120" s="95">
+      <c r="F120" s="114">
         <v>20</v>
       </c>
-      <c r="G120" s="95" t="s">
+      <c r="G120" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="H120" s="95"/>
-      <c r="I120" s="95"/>
-      <c r="J120" s="95"/>
-      <c r="K120" s="94" t="s">
-        <v>388</v>
-      </c>
+      <c r="H120" s="114"/>
+      <c r="I120" s="114"/>
+      <c r="J120" s="114"/>
+      <c r="K120" s="91"/>
       <c r="L120" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>NICKNAME varchar2(20) not null,</v>
+        <f t="shared" si="15"/>
+        <v>ASKTYPE varchar2(20) not null,</v>
       </c>
       <c r="N120" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="O120" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C120&amp;") references "&amp;K120</f>
-        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B121" s="114">
-        <v>4</v>
-      </c>
-      <c r="C121" s="91" t="s">
-        <v>232</v>
-      </c>
-      <c r="D121" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="E121" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="D121" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="E121" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F121" s="114">
-        <v>50</v>
-      </c>
-      <c r="G121" s="114" t="s">
+      <c r="F121" s="95">
+        <v>20</v>
+      </c>
+      <c r="G121" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="H121" s="114"/>
-      <c r="I121" s="114"/>
-      <c r="J121" s="114"/>
-      <c r="K121" s="91"/>
+      <c r="H121" s="95"/>
+      <c r="I121" s="95"/>
+      <c r="J121" s="95"/>
+      <c r="K121" s="94" t="s">
+        <v>388</v>
+      </c>
       <c r="L121" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>TITLE varchar2(50) not null,</v>
+        <f t="shared" si="15"/>
+        <v>NICKNAME varchar2(20) not null,</v>
       </c>
       <c r="N121" s="78" t="s">
-        <v>319</v>
+        <v>303</v>
+      </c>
+      <c r="O121" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C121&amp;") references "&amp;K121</f>
+        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B122" s="114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122" s="91" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="D122" s="91" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="E122" s="91" t="s">
         <v>135</v>
       </c>
       <c r="F122" s="114">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G122" s="114" t="s">
         <v>139</v>
@@ -11744,22 +11759,22 @@
       <c r="J122" s="114"/>
       <c r="K122" s="91"/>
       <c r="L122" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>CONTENT varchar2(4000) not null,</v>
+        <f t="shared" si="15"/>
+        <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N122" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B123" s="114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" s="91" t="s">
-        <v>262</v>
+        <v>141</v>
       </c>
       <c r="D123" s="91" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="E123" s="91" t="s">
         <v>135</v>
@@ -11767,61 +11782,61 @@
       <c r="F123" s="114">
         <v>4000</v>
       </c>
-      <c r="G123" s="114"/>
+      <c r="G123" s="114" t="s">
+        <v>139</v>
+      </c>
       <c r="H123" s="114"/>
       <c r="I123" s="114"/>
       <c r="J123" s="114"/>
-      <c r="K123" s="91" t="s">
-        <v>365</v>
-      </c>
+      <c r="K123" s="91"/>
       <c r="L123" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>ANSWER varchar2(4000),</v>
+        <f t="shared" si="15"/>
+        <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N123" s="78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="32" x14ac:dyDescent="0.45">
       <c r="B124" s="114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" s="91" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D124" s="91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E124" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F124" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="F124" s="114">
+        <v>4000</v>
+      </c>
       <c r="G124" s="114"/>
       <c r="H124" s="114"/>
       <c r="I124" s="114"/>
-      <c r="J124" s="114" t="s">
-        <v>157</v>
-      </c>
+      <c r="J124" s="114"/>
       <c r="K124" s="91" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="L124" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>ASKDATE date default sysdate,</v>
+        <f t="shared" si="15"/>
+        <v>ANSWER varchar2(4000),</v>
       </c>
       <c r="N124" s="78" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B125" s="114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" s="91" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D125" s="91" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E125" s="91" t="s">
         <v>156</v>
@@ -11830,234 +11845,236 @@
       <c r="G125" s="114"/>
       <c r="H125" s="114"/>
       <c r="I125" s="114"/>
-      <c r="J125" s="114"/>
+      <c r="J125" s="114" t="s">
+        <v>157</v>
+      </c>
       <c r="K125" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="L125" s="78" t="str">
+        <f t="shared" si="15"/>
+        <v>ASKDATE date default sysdate,</v>
+      </c>
+      <c r="N125" s="78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B126" s="114">
+        <v>8</v>
+      </c>
+      <c r="C126" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D126" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E126" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F126" s="114"/>
+      <c r="G126" s="114"/>
+      <c r="H126" s="114"/>
+      <c r="I126" s="114"/>
+      <c r="J126" s="114"/>
+      <c r="K126" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="L125" s="78" t="str">
-        <f>C125&amp;" "&amp;E125&amp;IF(E125="varchar2","("&amp;F125&amp;")","")&amp;IF(G125="",""," "&amp;G125)&amp;IF(H125="",""," unique")&amp;IF(I125="",""," primary key")&amp;IF(J125="",""," default "&amp;J125)</f>
+      <c r="L126" s="78" t="str">
+        <f>C126&amp;" "&amp;E126&amp;IF(E126="varchar2","("&amp;F126&amp;")","")&amp;IF(J126="",""," default "&amp;J126)&amp;IF(G126="",""," "&amp;G126)&amp;IF(H126="",""," unique")&amp;IF(I126="",""," primary key")</f>
         <v>ANSWERDATE date</v>
       </c>
-      <c r="N125" s="78" t="s">
+      <c r="N126" s="78" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L126" s="78" t="s">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L127" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N126" s="78" t="s">
+      <c r="N127" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A127" s="78">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A128" s="78">
         <v>15</v>
       </c>
-      <c r="B127" s="164" t="s">
+      <c r="B128" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C127" s="165"/>
-      <c r="D127" s="166" t="s">
+      <c r="C128" s="166"/>
+      <c r="D128" s="167" t="s">
         <v>297</v>
       </c>
-      <c r="E127" s="167"/>
-      <c r="F127" s="70" t="s">
+      <c r="E128" s="168"/>
+      <c r="F128" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G127" s="166" t="s">
+      <c r="G128" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="H127" s="168"/>
-      <c r="I127" s="168"/>
-      <c r="J127" s="168"/>
-      <c r="K127" s="167"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B128" s="70" t="s">
+      <c r="H128" s="169"/>
+      <c r="I128" s="169"/>
+      <c r="J128" s="169"/>
+      <c r="K128" s="168"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B129" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C128" s="70" t="s">
+      <c r="C129" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D128" s="70" t="s">
+      <c r="D129" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E128" s="70" t="s">
+      <c r="E129" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F128" s="70" t="s">
+      <c r="F129" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G128" s="70" t="s">
+      <c r="G129" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H128" s="70" t="s">
+      <c r="H129" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I128" s="70" t="s">
+      <c r="I129" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J128" s="70" t="s">
+      <c r="J129" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K128" s="70" t="s">
+      <c r="K129" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L128" s="78" t="str">
-        <f>"create table "&amp;D127&amp;"("</f>
+      <c r="L129" s="78" t="str">
+        <f>"create table "&amp;D128&amp;"("</f>
         <v>create table WARNING(</v>
       </c>
-      <c r="N128" s="78" t="s">
+      <c r="N129" s="78" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B129" s="54">
-        <v>1</v>
-      </c>
-      <c r="C129" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D129" s="53" t="str">
-        <f>"번호 ("&amp;D127&amp;"_SEQ.nextval)"</f>
-        <v>번호 (WARNING_SEQ.nextval)</v>
-      </c>
-      <c r="E129" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F129" s="54"/>
-      <c r="G129" s="54"/>
-      <c r="H129" s="54"/>
-      <c r="I129" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J129" s="54"/>
-      <c r="K129" s="55"/>
-      <c r="L129" s="78" t="str">
-        <f t="shared" ref="L129:L133" si="14">C129&amp;" "&amp;E129&amp;IF(E129="varchar2","("&amp;F129&amp;")","")&amp;IF(G129="",""," "&amp;G129)&amp;IF(H129="",""," unique")&amp;IF(I129="",""," primary key")&amp;IF(J129="",""," default "&amp;J129)&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N129" s="78" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B130" s="54">
+        <v>1</v>
+      </c>
+      <c r="C130" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" s="53" t="str">
+        <f>"번호 ("&amp;D128&amp;"_SEQ.nextval)"</f>
+        <v>번호 (WARNING_SEQ.nextval)</v>
+      </c>
+      <c r="E130" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F130" s="54"/>
+      <c r="G130" s="54"/>
+      <c r="H130" s="54"/>
+      <c r="I130" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J130" s="54"/>
+      <c r="K130" s="55"/>
+      <c r="L130" s="78" t="str">
+        <f t="shared" ref="L130:L134" si="16">C130&amp;" "&amp;E130&amp;IF(E130="varchar2","("&amp;F130&amp;")","")&amp;IF(J130="",""," default "&amp;J130)&amp;IF(G130="",""," "&amp;G130)&amp;IF(H130="",""," unique")&amp;IF(I130="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N130" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B131" s="54">
         <v>2</v>
       </c>
-      <c r="C130" s="82" t="s">
+      <c r="C131" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D130" s="82" t="s">
+      <c r="D131" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="E130" s="82" t="s">
+      <c r="E131" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F130" s="83">
+      <c r="F131" s="83">
         <v>20</v>
       </c>
-      <c r="G130" s="83" t="s">
+      <c r="G131" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H130" s="83"/>
-      <c r="I130" s="83"/>
-      <c r="J130" s="83"/>
-      <c r="K130" s="85" t="s">
+      <c r="H131" s="83"/>
+      <c r="I131" s="83"/>
+      <c r="J131" s="83"/>
+      <c r="K131" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="L130" s="78" t="str">
-        <f t="shared" si="14"/>
+      <c r="L131" s="78" t="str">
+        <f t="shared" si="16"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N130" s="78" t="s">
+      <c r="N131" s="78" t="s">
         <v>303</v>
-      </c>
-      <c r="O130" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C130&amp;") references "&amp;K130</f>
-        <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
-      </c>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B131" s="110">
-        <v>3</v>
-      </c>
-      <c r="C131" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="D131" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="E131" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="F131" s="84"/>
-      <c r="G131" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="H131" s="84"/>
-      <c r="I131" s="84"/>
-      <c r="J131" s="84"/>
-      <c r="K131" s="85" t="s">
-        <v>386</v>
-      </c>
-      <c r="L131" s="78" t="str">
-        <f t="shared" si="14"/>
-        <v>BOARDNUM number not null,</v>
-      </c>
-      <c r="N131" s="78" t="s">
-        <v>326</v>
       </c>
       <c r="O131" s="78" t="str">
         <f>"constraint FK1 foreign key("&amp;C131&amp;") references "&amp;K131</f>
+        <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B132" s="110">
+        <v>3</v>
+      </c>
+      <c r="C132" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="D132" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="E132" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="F132" s="84"/>
+      <c r="G132" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="H132" s="84"/>
+      <c r="I132" s="84"/>
+      <c r="J132" s="84"/>
+      <c r="K132" s="85" t="s">
+        <v>386</v>
+      </c>
+      <c r="L132" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v>BOARDNUM number not null,</v>
+      </c>
+      <c r="N132" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="O132" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C132&amp;") references "&amp;K132</f>
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
-      </c>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B132" s="54">
-        <v>4</v>
-      </c>
-      <c r="C132" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="D132" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="E132" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F132" s="54">
-        <v>30</v>
-      </c>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="55"/>
-      <c r="L132" s="78" t="str">
-        <f t="shared" si="14"/>
-        <v>WARNTYPE varchar2(30),</v>
-      </c>
-      <c r="N132" s="78" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B133" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C133" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D133" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E133" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F133" s="54">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G133" s="54"/>
       <c r="H133" s="54"/>
@@ -12065,79 +12082,108 @@
       <c r="J133" s="54"/>
       <c r="K133" s="55"/>
       <c r="L133" s="78" t="str">
-        <f t="shared" si="14"/>
-        <v>WARNWHY varchar2(300),</v>
+        <f t="shared" si="16"/>
+        <v>WARNTYPE varchar2(30),</v>
       </c>
       <c r="N133" s="78" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B134" s="54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D134" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E134" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F134" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F134" s="54">
+        <v>300</v>
+      </c>
       <c r="G134" s="54"/>
       <c r="H134" s="54"/>
       <c r="I134" s="54"/>
-      <c r="J134" s="54" t="s">
-        <v>157</v>
-      </c>
+      <c r="J134" s="54"/>
       <c r="K134" s="55"/>
       <c r="L134" s="78" t="str">
-        <f>C134&amp;" "&amp;E134&amp;IF(E134="varchar2","("&amp;F134&amp;")","")&amp;IF(G134="",""," "&amp;G134)&amp;IF(H134="",""," unique")&amp;IF(I134="",""," primary key")&amp;IF(J134="",""," default "&amp;J134)</f>
+        <f t="shared" si="16"/>
+        <v>WARNWHY varchar2(300),</v>
+      </c>
+      <c r="N134" s="78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B135" s="54">
+        <v>6</v>
+      </c>
+      <c r="C135" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D135" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E135" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F135" s="54"/>
+      <c r="G135" s="54"/>
+      <c r="H135" s="54"/>
+      <c r="I135" s="54"/>
+      <c r="J135" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K135" s="55"/>
+      <c r="L135" s="78" t="str">
+        <f>C135&amp;" "&amp;E135&amp;IF(E135="varchar2","("&amp;F135&amp;")","")&amp;IF(J135="",""," default "&amp;J135)&amp;IF(G135="",""," "&amp;G135)&amp;IF(H135="",""," unique")&amp;IF(I135="",""," primary key")</f>
         <v>WARNTIME date default sysdate</v>
       </c>
-      <c r="N134" s="78" t="s">
+      <c r="N135" s="78" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="L135" s="78" t="s">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="L136" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N135" s="78" t="s">
+      <c r="N136" s="78" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="G128:K128"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G22:K22"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="G110:K110"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="G33:K33"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="G117:K117"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="G79:K79"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:K87"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="G94:K94"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="G64:K64"/>
@@ -12197,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="str">
-        <f>VLOOKUP(B1, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>MEMBER</v>
       </c>
     </row>
@@ -12210,7 +12256,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>MEMBER_PLUS</v>
       </c>
     </row>
@@ -12223,7 +12269,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>MEMBER_ADDR</v>
       </c>
     </row>
@@ -12236,7 +12282,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>POINT</v>
       </c>
     </row>
@@ -12246,7 +12292,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>BOARD</v>
       </c>
     </row>
@@ -12256,7 +12302,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>BOARD_REF</v>
       </c>
     </row>
@@ -12266,7 +12312,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>BOARD_IMAGE</v>
       </c>
     </row>
@@ -12276,7 +12322,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>BOARD_TERM</v>
       </c>
     </row>
@@ -12286,7 +12332,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>GOODS</v>
       </c>
     </row>
@@ -12296,7 +12342,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>GOODS_IMAGE</v>
       </c>
     </row>
@@ -12306,7 +12352,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>GOODS_SALES</v>
       </c>
     </row>
@@ -12316,7 +12362,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>ASSATALK</v>
       </c>
     </row>
@@ -12326,7 +12372,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>ASSATALK_KEYWORD</v>
       </c>
     </row>
@@ -12336,7 +12382,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>QUESTION</v>
       </c>
     </row>
@@ -12346,7 +12392,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15, '테이블 정의서(1008수정)'!$A$4:$E$134,4,FALSE)</f>
+        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
         <v>WARNING</v>
       </c>
     </row>

--- a/설계/테이블설계/1. 테이블정의서.xlsx
+++ b/설계/테이블설계/1. 테이블정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\@산출문서(완료)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\테이블설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D69F98-47E6-4FC5-BC2D-DBBBFECABC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B7F36E-1AC9-426D-809F-6539D2EF09FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="426">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1475,7 +1475,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y/N</t>
+    <t>GOODSNAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'NO'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES/NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SESSIONID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동로그인 시 유지할 세션정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동로그인 세션ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2574,6 +2594,81 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2595,77 +2690,41 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2693,45 +2752,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3112,10 +3132,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="126" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3136,8 +3156,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="136"/>
-      <c r="B4" s="133"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="17" t="s">
         <v>32</v>
       </c>
@@ -3154,8 +3174,8 @@
       <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="136"/>
-      <c r="B5" s="133"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
@@ -3174,8 +3194,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="136"/>
-      <c r="B6" s="133"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
@@ -3192,8 +3212,8 @@
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="136"/>
-      <c r="B7" s="133"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
@@ -3210,8 +3230,8 @@
       <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="136"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
@@ -3228,8 +3248,8 @@
       <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="136"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3246,8 +3266,8 @@
       <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="136"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3264,8 +3284,8 @@
       <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="136"/>
-      <c r="B11" s="133"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
@@ -3282,8 +3302,8 @@
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="136"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
@@ -3300,8 +3320,8 @@
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="137"/>
-      <c r="B13" s="134"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="58" t="s">
         <v>163</v>
       </c>
@@ -3318,10 +3338,10 @@
       <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="134" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3345,8 +3365,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="138"/>
-      <c r="B15" s="140"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
@@ -3365,8 +3385,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="149"/>
-      <c r="B16" s="140"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
@@ -3381,8 +3401,8 @@
       <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="149"/>
-      <c r="B17" s="140"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="8" t="s">
         <v>41</v>
       </c>
@@ -3397,8 +3417,8 @@
       <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="149"/>
-      <c r="B18" s="140"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="134"/>
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
@@ -3413,8 +3433,8 @@
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="149"/>
-      <c r="B19" s="140"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
@@ -3429,8 +3449,8 @@
       <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="149"/>
-      <c r="B20" s="140"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="8" t="s">
         <v>44</v>
       </c>
@@ -3451,8 +3471,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="A21" s="149"/>
-      <c r="B21" s="140"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
@@ -3471,8 +3491,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="150"/>
-      <c r="B22" s="148"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="142"/>
       <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
@@ -3493,10 +3513,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="153" t="s">
+      <c r="A23" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="145" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -3517,8 +3537,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="154"/>
-      <c r="B24" s="152"/>
+      <c r="A24" s="148"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="10" t="s">
         <v>65</v>
       </c>
@@ -3537,8 +3557,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="154"/>
-      <c r="B25" s="152"/>
+      <c r="A25" s="148"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="22" t="s">
         <v>81</v>
       </c>
@@ -3559,8 +3579,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="154"/>
-      <c r="B26" s="152"/>
+      <c r="A26" s="148"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="10" t="s">
         <v>67</v>
       </c>
@@ -3577,8 +3597,8 @@
       <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="154"/>
-      <c r="B27" s="152"/>
+      <c r="A27" s="148"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
@@ -3595,8 +3615,8 @@
       <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="154"/>
-      <c r="B28" s="152"/>
+      <c r="A28" s="148"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -3613,8 +3633,8 @@
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="154"/>
-      <c r="B29" s="152"/>
+      <c r="A29" s="148"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
@@ -3631,8 +3651,8 @@
       <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="154"/>
-      <c r="B30" s="152"/>
+      <c r="A30" s="148"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="10" t="s">
         <v>68</v>
       </c>
@@ -3649,8 +3669,8 @@
       <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="154"/>
-      <c r="B31" s="152"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
@@ -3667,10 +3687,10 @@
       <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="149" t="s">
+      <c r="A32" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="134" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3693,8 +3713,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="149"/>
-      <c r="B33" s="140"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="20" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3734,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="149"/>
-      <c r="B34" s="140"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="20" t="s">
         <v>81</v>
       </c>
@@ -3736,8 +3756,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="149"/>
-      <c r="B35" s="140"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="8" t="s">
         <v>5</v>
       </c>
@@ -3754,8 +3774,8 @@
       <c r="H35" s="41"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="149"/>
-      <c r="B36" s="140"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
@@ -3772,8 +3792,8 @@
       <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="149"/>
-      <c r="B37" s="140"/>
+      <c r="A37" s="143"/>
+      <c r="B37" s="134"/>
       <c r="C37" s="8" t="s">
         <v>44</v>
       </c>
@@ -3790,8 +3810,8 @@
       <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="149"/>
-      <c r="B38" s="140"/>
+      <c r="A38" s="143"/>
+      <c r="B38" s="134"/>
       <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
@@ -3808,8 +3828,8 @@
       <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="149"/>
-      <c r="B39" s="140"/>
+      <c r="A39" s="143"/>
+      <c r="B39" s="134"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -3826,10 +3846,10 @@
       <c r="H39" s="41"/>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="155" t="s">
+      <c r="A40" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="146" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -3848,8 +3868,8 @@
       <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="155"/>
-      <c r="B41" s="152"/>
+      <c r="A41" s="149"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="24" t="s">
         <v>73</v>
       </c>
@@ -3869,8 +3889,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="155"/>
-      <c r="B42" s="152"/>
+      <c r="A42" s="149"/>
+      <c r="B42" s="146"/>
       <c r="C42" s="10" t="s">
         <v>77</v>
       </c>
@@ -3887,8 +3907,8 @@
       <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="155"/>
-      <c r="B43" s="152"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="146"/>
       <c r="C43" s="10" t="s">
         <v>78</v>
       </c>
@@ -3905,8 +3925,8 @@
       <c r="H43" s="38"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="155"/>
-      <c r="B44" s="152"/>
+      <c r="A44" s="149"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="10" t="s">
         <v>79</v>
       </c>
@@ -3923,10 +3943,10 @@
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="138" t="s">
+      <c r="A45" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="140" t="s">
+      <c r="B45" s="134" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -3947,8 +3967,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="138"/>
-      <c r="B46" s="140"/>
+      <c r="A46" s="132"/>
+      <c r="B46" s="134"/>
       <c r="C46" s="20" t="s">
         <v>73</v>
       </c>
@@ -3968,8 +3988,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="138"/>
-      <c r="B47" s="140"/>
+      <c r="A47" s="132"/>
+      <c r="B47" s="134"/>
       <c r="C47" s="8" t="s">
         <v>103</v>
       </c>
@@ -3988,8 +4008,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="139"/>
-      <c r="B48" s="141"/>
+      <c r="A48" s="133"/>
+      <c r="B48" s="135"/>
       <c r="C48" s="48" t="s">
         <v>104</v>
       </c>
@@ -4008,10 +4028,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="145" t="s">
+      <c r="A49" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="142" t="s">
+      <c r="B49" s="136" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="52" t="s">
@@ -4030,8 +4050,8 @@
       <c r="H49" s="36"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="146"/>
-      <c r="B50" s="143"/>
+      <c r="A50" s="140"/>
+      <c r="B50" s="137"/>
       <c r="C50" s="10" t="s">
         <v>109</v>
       </c>
@@ -4048,8 +4068,8 @@
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="146"/>
-      <c r="B51" s="143"/>
+      <c r="A51" s="140"/>
+      <c r="B51" s="137"/>
       <c r="C51" s="22" t="s">
         <v>110</v>
       </c>
@@ -4070,8 +4090,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="146"/>
-      <c r="B52" s="143"/>
+      <c r="A52" s="140"/>
+      <c r="B52" s="137"/>
       <c r="C52" s="10" t="s">
         <v>67</v>
       </c>
@@ -4088,8 +4108,8 @@
       <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="146"/>
-      <c r="B53" s="143"/>
+      <c r="A53" s="140"/>
+      <c r="B53" s="137"/>
       <c r="C53" s="10" t="s">
         <v>5</v>
       </c>
@@ -4106,8 +4126,8 @@
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="146"/>
-      <c r="B54" s="143"/>
+      <c r="A54" s="140"/>
+      <c r="B54" s="137"/>
       <c r="C54" s="10" t="s">
         <v>121</v>
       </c>
@@ -4126,8 +4146,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="146"/>
-      <c r="B55" s="143"/>
+      <c r="A55" s="140"/>
+      <c r="B55" s="137"/>
       <c r="C55" s="10" t="s">
         <v>111</v>
       </c>
@@ -4144,8 +4164,8 @@
       <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="147"/>
-      <c r="B56" s="144"/>
+      <c r="A56" s="141"/>
+      <c r="B56" s="138"/>
       <c r="C56" s="25" t="s">
         <v>124</v>
       </c>
@@ -4164,8 +4184,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="131"/>
-      <c r="B57" s="131" t="s">
+      <c r="A57" s="156"/>
+      <c r="B57" s="156" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="53" t="s">
@@ -4184,8 +4204,8 @@
       <c r="H57" s="55"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="129"/>
-      <c r="B58" s="129"/>
+      <c r="A58" s="154"/>
+      <c r="B58" s="154"/>
       <c r="C58" s="55" t="s">
         <v>133</v>
       </c>
@@ -4202,8 +4222,8 @@
       <c r="H58" s="55"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="129"/>
-      <c r="B59" s="129"/>
+      <c r="A59" s="154"/>
+      <c r="B59" s="154"/>
       <c r="C59" s="55" t="s">
         <v>137</v>
       </c>
@@ -4220,8 +4240,8 @@
       <c r="H59" s="55"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="129"/>
-      <c r="B60" s="129"/>
+      <c r="A60" s="154"/>
+      <c r="B60" s="154"/>
       <c r="C60" s="55" t="s">
         <v>140</v>
       </c>
@@ -4238,8 +4258,8 @@
       <c r="H60" s="55"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="130"/>
-      <c r="B61" s="130"/>
+      <c r="A61" s="155"/>
+      <c r="B61" s="155"/>
       <c r="C61" s="55" t="s">
         <v>142</v>
       </c>
@@ -4256,8 +4276,8 @@
       <c r="H61" s="55"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="125"/>
-      <c r="B62" s="125" t="s">
+      <c r="A62" s="150"/>
+      <c r="B62" s="150" t="s">
         <v>144</v>
       </c>
       <c r="C62" s="56" t="s">
@@ -4276,8 +4296,8 @@
       <c r="H62" s="58"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="126"/>
-      <c r="B63" s="126"/>
+      <c r="A63" s="151"/>
+      <c r="B63" s="151"/>
       <c r="C63" s="59" t="s">
         <v>145</v>
       </c>
@@ -4296,8 +4316,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="127"/>
-      <c r="B64" s="127"/>
+      <c r="A64" s="152"/>
+      <c r="B64" s="152"/>
       <c r="C64" s="58" t="s">
         <v>148</v>
       </c>
@@ -4314,10 +4334,10 @@
       <c r="H64" s="58"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="128" t="s">
+      <c r="A65" s="153" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="128" t="s">
+      <c r="B65" s="153" t="s">
         <v>151</v>
       </c>
       <c r="C65" s="53" t="s">
@@ -4336,8 +4356,8 @@
       <c r="H65" s="55"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="129"/>
-      <c r="B66" s="129"/>
+      <c r="A66" s="154"/>
+      <c r="B66" s="154"/>
       <c r="C66" s="61" t="s">
         <v>152</v>
       </c>
@@ -4356,8 +4376,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="129"/>
-      <c r="B67" s="129"/>
+      <c r="A67" s="154"/>
+      <c r="B67" s="154"/>
       <c r="C67" s="55" t="s">
         <v>154</v>
       </c>
@@ -4374,8 +4394,8 @@
       <c r="H67" s="55"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="129"/>
-      <c r="B68" s="129"/>
+      <c r="A68" s="154"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="55" t="s">
         <v>158</v>
       </c>
@@ -4394,8 +4414,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="130"/>
-      <c r="B69" s="130"/>
+      <c r="A69" s="155"/>
+      <c r="B69" s="155"/>
       <c r="C69" s="55" t="s">
         <v>161</v>
       </c>
@@ -4412,10 +4432,10 @@
       <c r="H69" s="55"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="125" t="s">
+      <c r="A70" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="125" t="s">
+      <c r="B70" s="150" t="s">
         <v>166</v>
       </c>
       <c r="C70" s="56" t="s">
@@ -4434,8 +4454,8 @@
       <c r="H70" s="56"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="126"/>
-      <c r="B71" s="126"/>
+      <c r="A71" s="151"/>
+      <c r="B71" s="151"/>
       <c r="C71" s="58" t="s">
         <v>167</v>
       </c>
@@ -4452,8 +4472,8 @@
       <c r="H71" s="56"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="126"/>
-      <c r="B72" s="126"/>
+      <c r="A72" s="151"/>
+      <c r="B72" s="151"/>
       <c r="C72" s="58" t="s">
         <v>169</v>
       </c>
@@ -4470,8 +4490,8 @@
       <c r="H72" s="56"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="126"/>
-      <c r="B73" s="126"/>
+      <c r="A73" s="151"/>
+      <c r="B73" s="151"/>
       <c r="C73" s="58" t="s">
         <v>140</v>
       </c>
@@ -4488,8 +4508,8 @@
       <c r="H73" s="56"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="127"/>
-      <c r="B74" s="127"/>
+      <c r="A74" s="152"/>
+      <c r="B74" s="152"/>
       <c r="C74" s="58" t="s">
         <v>171</v>
       </c>
@@ -4509,7 +4529,7 @@
       <c r="A75" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="128" t="s">
+      <c r="B75" s="153" t="s">
         <v>180</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -4531,7 +4551,7 @@
       <c r="A76" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="129"/>
+      <c r="B76" s="154"/>
       <c r="C76" s="61" t="s">
         <v>152</v>
       </c>
@@ -4553,7 +4573,7 @@
       <c r="A77" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="129"/>
+      <c r="B77" s="154"/>
       <c r="C77" s="62" t="s">
         <v>181</v>
       </c>
@@ -4575,7 +4595,7 @@
       <c r="A78" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="129"/>
+      <c r="B78" s="154"/>
       <c r="C78" s="55" t="s">
         <v>183</v>
       </c>
@@ -4591,7 +4611,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="68"/>
-      <c r="B79" s="129"/>
+      <c r="B79" s="154"/>
       <c r="C79" s="55" t="s">
         <v>185</v>
       </c>
@@ -4609,7 +4629,7 @@
       <c r="A80" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="130"/>
+      <c r="B80" s="155"/>
       <c r="C80" s="55" t="s">
         <v>187</v>
       </c>
@@ -4627,6 +4647,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="A45:A48"/>
@@ -4641,15 +4670,6 @@
     <mergeCell ref="B32:B39"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4688,66 +4708,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="162" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="163"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="156" t="s">
+      <c r="D1" s="176"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="169" t="s">
         <v>393</v>
       </c>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="160" t="s">
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="173" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="161"/>
+      <c r="J1" s="174"/>
       <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="157" t="s">
+      <c r="B2" s="169"/>
+      <c r="C2" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="156" t="s">
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="158">
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="171">
         <v>44474</v>
       </c>
-      <c r="J2" s="159"/>
+      <c r="J2" s="172"/>
       <c r="K2" s="81"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="167" t="s">
+      <c r="B4" s="158"/>
+      <c r="C4" s="159" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="168"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="168"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="160"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="70" t="s">
@@ -5142,24 +5162,24 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="167" t="s">
+      <c r="B18" s="158"/>
+      <c r="C18" s="159" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="168"/>
+      <c r="D18" s="160"/>
       <c r="E18" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F18" s="167" t="s">
+      <c r="F18" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="168"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="70" t="s">
@@ -5488,24 +5508,24 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="166"/>
-      <c r="C30" s="167" t="s">
+      <c r="B30" s="158"/>
+      <c r="C30" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="168"/>
+      <c r="D30" s="160"/>
       <c r="E30" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F30" s="167" t="s">
+      <c r="F30" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="168"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="160"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="70" t="s">
@@ -5836,24 +5856,24 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="165" t="s">
+      <c r="A42" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="171" t="s">
+      <c r="B42" s="165"/>
+      <c r="C42" s="166" t="s">
         <v>241</v>
       </c>
-      <c r="D42" s="172"/>
+      <c r="D42" s="167"/>
       <c r="E42" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="171" t="s">
+      <c r="F42" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="172"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="167"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="100" t="s">
@@ -6157,24 +6177,24 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A53" s="165" t="s">
+      <c r="A53" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="166"/>
-      <c r="C53" s="167" t="s">
+      <c r="B53" s="158"/>
+      <c r="C53" s="159" t="s">
         <v>247</v>
       </c>
-      <c r="D53" s="168"/>
+      <c r="D53" s="160"/>
       <c r="E53" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F53" s="167" t="s">
+      <c r="F53" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="G53" s="169"/>
-      <c r="H53" s="169"/>
-      <c r="I53" s="169"/>
-      <c r="J53" s="168"/>
+      <c r="G53" s="161"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="160"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="70" t="s">
@@ -6383,24 +6403,24 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A61" s="165" t="s">
+      <c r="A61" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="166"/>
-      <c r="C61" s="167" t="s">
+      <c r="B61" s="158"/>
+      <c r="C61" s="159" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="168"/>
+      <c r="D61" s="160"/>
       <c r="E61" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F61" s="167" t="s">
+      <c r="F61" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="G61" s="169"/>
-      <c r="H61" s="169"/>
-      <c r="I61" s="169"/>
-      <c r="J61" s="168"/>
+      <c r="G61" s="161"/>
+      <c r="H61" s="161"/>
+      <c r="I61" s="161"/>
+      <c r="J61" s="160"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="70" t="s">
@@ -6577,24 +6597,24 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A68" s="174" t="s">
+      <c r="A68" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="174"/>
-      <c r="C68" s="175" t="s">
+      <c r="B68" s="164"/>
+      <c r="C68" s="163" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="175"/>
+      <c r="D68" s="163"/>
       <c r="E68" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F68" s="175" t="s">
+      <c r="F68" s="163" t="s">
         <v>389</v>
       </c>
-      <c r="G68" s="175"/>
-      <c r="H68" s="175"/>
-      <c r="I68" s="175"/>
-      <c r="J68" s="175"/>
+      <c r="G68" s="163"/>
+      <c r="H68" s="163"/>
+      <c r="I68" s="163"/>
+      <c r="J68" s="163"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="105" t="s">
@@ -6894,24 +6914,24 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A79" s="174" t="s">
+      <c r="A79" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="174"/>
-      <c r="C79" s="175" t="s">
+      <c r="B79" s="164"/>
+      <c r="C79" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="175"/>
+      <c r="D79" s="163"/>
       <c r="E79" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="175" t="s">
+      <c r="F79" s="163" t="s">
         <v>389</v>
       </c>
-      <c r="G79" s="175"/>
-      <c r="H79" s="175"/>
-      <c r="I79" s="175"/>
-      <c r="J79" s="175"/>
+      <c r="G79" s="163"/>
+      <c r="H79" s="163"/>
+      <c r="I79" s="163"/>
+      <c r="J79" s="163"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="105" t="s">
@@ -7083,24 +7103,24 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A86" s="165" t="s">
+      <c r="A86" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="166"/>
-      <c r="C86" s="167" t="s">
+      <c r="B86" s="158"/>
+      <c r="C86" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="168"/>
+      <c r="D86" s="160"/>
       <c r="E86" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F86" s="167" t="s">
+      <c r="F86" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="G86" s="169"/>
-      <c r="H86" s="169"/>
-      <c r="I86" s="169"/>
-      <c r="J86" s="168"/>
+      <c r="G86" s="161"/>
+      <c r="H86" s="161"/>
+      <c r="I86" s="161"/>
+      <c r="J86" s="160"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="70" t="s">
@@ -7248,24 +7268,24 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A92" s="176" t="s">
+      <c r="A92" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="176"/>
-      <c r="C92" s="175" t="s">
+      <c r="B92" s="162"/>
+      <c r="C92" s="163" t="s">
         <v>391</v>
       </c>
-      <c r="D92" s="175"/>
+      <c r="D92" s="163"/>
       <c r="E92" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="F92" s="175" t="s">
+      <c r="F92" s="163" t="s">
         <v>389</v>
       </c>
-      <c r="G92" s="175"/>
-      <c r="H92" s="175"/>
-      <c r="I92" s="175"/>
-      <c r="J92" s="175"/>
+      <c r="G92" s="163"/>
+      <c r="H92" s="163"/>
+      <c r="I92" s="163"/>
+      <c r="J92" s="163"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="98" t="s">
@@ -7503,24 +7523,24 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A101" s="165" t="s">
+      <c r="A101" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="166"/>
-      <c r="C101" s="167" t="s">
+      <c r="B101" s="158"/>
+      <c r="C101" s="159" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="168"/>
+      <c r="D101" s="160"/>
       <c r="E101" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F101" s="167" t="s">
+      <c r="F101" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="G101" s="169"/>
-      <c r="H101" s="169"/>
-      <c r="I101" s="169"/>
-      <c r="J101" s="168"/>
+      <c r="G101" s="161"/>
+      <c r="H101" s="161"/>
+      <c r="I101" s="161"/>
+      <c r="J101" s="160"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="70" t="s">
@@ -7727,24 +7747,24 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A109" s="165" t="s">
+      <c r="A109" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="166"/>
-      <c r="C109" s="167" t="s">
+      <c r="B109" s="158"/>
+      <c r="C109" s="159" t="s">
         <v>276</v>
       </c>
-      <c r="D109" s="168"/>
+      <c r="D109" s="160"/>
       <c r="E109" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F109" s="167" t="s">
+      <c r="F109" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="G109" s="169"/>
-      <c r="H109" s="169"/>
-      <c r="I109" s="169"/>
-      <c r="J109" s="168"/>
+      <c r="G109" s="161"/>
+      <c r="H109" s="161"/>
+      <c r="I109" s="161"/>
+      <c r="J109" s="160"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" s="70" t="s">
@@ -7949,24 +7969,24 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A117" s="165" t="s">
+      <c r="A117" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="166"/>
-      <c r="C117" s="167" t="s">
+      <c r="B117" s="158"/>
+      <c r="C117" s="159" t="s">
         <v>297</v>
       </c>
-      <c r="D117" s="168"/>
+      <c r="D117" s="160"/>
       <c r="E117" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F117" s="167" t="s">
+      <c r="F117" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="G117" s="169"/>
-      <c r="H117" s="169"/>
-      <c r="I117" s="169"/>
-      <c r="J117" s="168"/>
+      <c r="G117" s="161"/>
+      <c r="H117" s="161"/>
+      <c r="I117" s="161"/>
+      <c r="J117" s="160"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" s="70" t="s">
@@ -8205,6 +8225,44 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:J92"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="C117:D117"/>
     <mergeCell ref="F117:J117"/>
@@ -8214,44 +8272,6 @@
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="F109:J109"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:J92"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8264,11 +8284,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:O137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -8291,24 +8311,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="162" t="s">
+      <c r="C1" s="169"/>
+      <c r="D1" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="163"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="156" t="s">
+      <c r="E1" s="176"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="169" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="160" t="s">
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="173" t="s">
         <v>394</v>
       </c>
-      <c r="K1" s="161"/>
+      <c r="K1" s="174"/>
       <c r="L1" s="78" t="s">
         <v>417</v>
       </c>
@@ -8317,47 +8337,47 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157" t="s">
+      <c r="C2" s="169"/>
+      <c r="D2" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="156" t="s">
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="158">
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="171">
         <v>44474</v>
       </c>
-      <c r="K2" s="159"/>
+      <c r="K2" s="172"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="78">
         <v>1</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="167" t="s">
+      <c r="C4" s="158"/>
+      <c r="D4" s="159" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="168"/>
+      <c r="E4" s="160"/>
       <c r="F4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="168"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="160"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="70" t="s">
@@ -8589,245 +8609,242 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="54">
         <v>7</v>
       </c>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="55" t="s">
+        <v>423</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="54">
+        <v>100</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="L12" s="78" t="str">
+        <f t="shared" si="0"/>
+        <v>SESSIONID varchar2(100),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.45">
+      <c r="B13" s="54">
+        <v>8</v>
+      </c>
+      <c r="C13" s="118" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D13" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E13" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="118" t="s">
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="118" t="s">
         <v>398</v>
       </c>
-      <c r="L12" s="78" t="str">
-        <f>C12&amp;" "&amp;E12&amp;IF(E12="varchar2","("&amp;F12&amp;")","")&amp;IF(J12="",""," default "&amp;J12)&amp;IF(G12="",""," "&amp;G12)&amp;IF(H12="",""," unique")&amp;IF(I12="",""," primary key")</f>
+      <c r="L13" s="78" t="str">
+        <f>C13&amp;" "&amp;E13&amp;IF(E13="varchar2","("&amp;F13&amp;")","")&amp;IF(J13="",""," default "&amp;J13)&amp;IF(G13="",""," "&amp;G13)&amp;IF(H13="",""," unique")&amp;IF(I13="",""," primary key")</f>
         <v>OUTDATE date</v>
       </c>
-      <c r="N12" s="78" t="s">
+      <c r="N13" s="78" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="L13" s="78" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="L14" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N13" s="78" t="s">
+      <c r="N14" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="78">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="78">
         <v>2</v>
       </c>
-      <c r="B14" s="165" t="s">
+      <c r="B15" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="166"/>
-      <c r="D14" s="167" t="s">
+      <c r="C15" s="158"/>
+      <c r="D15" s="159" t="s">
         <v>400</v>
       </c>
-      <c r="E14" s="168"/>
-      <c r="F14" s="70" t="s">
+      <c r="E15" s="160"/>
+      <c r="F15" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G14" s="167" t="s">
+      <c r="G15" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="168"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="70" t="s">
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="160"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B16" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C16" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D16" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E16" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F16" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G16" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H16" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I16" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J15" s="70" t="s">
+      <c r="J16" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K16" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L15" s="78" t="str">
-        <f>"create table "&amp;D14&amp;"("</f>
+      <c r="L16" s="78" t="str">
+        <f>"create table "&amp;D15&amp;"("</f>
         <v>create table MEMBER_PLUS(</v>
       </c>
-      <c r="N15" s="78" t="s">
+      <c r="N16" s="78" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B16" s="54">
-        <v>1</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="53" t="str">
-        <f>"번호 ("&amp;D14&amp;"_SEQ.nextval)"</f>
-        <v>번호 (MEMBER_PLUS_SEQ.nextval)</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="78" t="str">
-        <f t="shared" ref="L16:L18" si="1">C16&amp;" "&amp;E16&amp;IF(E16="varchar2","("&amp;F16&amp;")","")&amp;IF(J16="",""," default "&amp;J16)&amp;IF(G16="",""," "&amp;G16)&amp;IF(H16="",""," unique")&amp;IF(I16="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N16" s="78" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B17" s="54">
+        <v>1</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="53" t="str">
+        <f>"번호 ("&amp;D15&amp;"_SEQ.nextval)"</f>
+        <v>번호 (MEMBER_PLUS_SEQ.nextval)</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="78" t="str">
+        <f t="shared" ref="L17:L19" si="1">C17&amp;" "&amp;E17&amp;IF(E17="varchar2","("&amp;F17&amp;")","")&amp;IF(J17="",""," default "&amp;J17)&amp;IF(G17="",""," "&amp;G17)&amp;IF(H17="",""," unique")&amp;IF(I17="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N17" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="54">
         <v>2</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C18" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D18" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E18" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F18" s="73">
         <v>20</v>
       </c>
-      <c r="G17" s="73" t="s">
+      <c r="G18" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H18" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74" t="s">
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="L17" s="78" t="str">
+      <c r="L18" s="78" t="str">
         <f t="shared" si="1"/>
         <v>NICKNAME varchar2(20) not null unique,</v>
       </c>
-      <c r="N17" s="78" t="s">
+      <c r="N18" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="O17" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C17&amp;") references "&amp;K17</f>
+      <c r="O18" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C18&amp;") references "&amp;K18</f>
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="54">
-        <v>3</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="54">
-        <v>10</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="L18" s="78" t="str">
-        <f t="shared" si="1"/>
-        <v>GENDER varchar2(10),</v>
-      </c>
-      <c r="N18" s="78" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B19" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F19" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F19" s="54">
+        <v>10</v>
+      </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
-      <c r="J19" s="54" t="s">
-        <v>157</v>
-      </c>
+      <c r="J19" s="54"/>
       <c r="K19" s="55" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="L19" s="78" t="str">
-        <f t="shared" ref="L19:L20" si="2">C19&amp;" "&amp;E19&amp;IF(E19="varchar2","("&amp;F19&amp;")","")&amp;IF(J19="",""," default "&amp;J19)&amp;IF(G19="",""," "&amp;G19)&amp;IF(H19="",""," unique")&amp;IF(I19="",""," primary key")&amp;","</f>
-        <v>INDATE date default sysdate,</v>
+        <f t="shared" si="1"/>
+        <v>GENDER varchar2(10),</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="48" x14ac:dyDescent="0.45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B20" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E20" s="55" t="s">
         <v>156</v>
@@ -8836,263 +8853,265 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="J20" s="54" t="s">
+        <v>157</v>
+      </c>
       <c r="K20" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" s="78" t="str">
+        <f t="shared" ref="L20" si="2">C20&amp;" "&amp;E20&amp;IF(E20="varchar2","("&amp;F20&amp;")","")&amp;IF(J20="",""," default "&amp;J20)&amp;IF(G20="",""," "&amp;G20)&amp;IF(H20="",""," unique")&amp;IF(I20="",""," primary key")&amp;","</f>
+        <v>INDATE date default sysdate,</v>
+      </c>
+      <c r="N20" s="78" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="48" x14ac:dyDescent="0.45">
+      <c r="B21" s="54">
+        <v>5</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="L20" s="78" t="str">
-        <f>C20&amp;" "&amp;E20&amp;IF(E20="varchar2","("&amp;F20&amp;")","")&amp;IF(J20="",""," default "&amp;J20)&amp;IF(G20="",""," "&amp;G20)&amp;IF(H20="",""," unique")&amp;IF(I20="",""," primary key")</f>
+      <c r="L21" s="78" t="str">
+        <f>C21&amp;" "&amp;E21&amp;IF(E21="varchar2","("&amp;F21&amp;")","")&amp;IF(J21="",""," default "&amp;J21)&amp;IF(G21="",""," "&amp;G21)&amp;IF(H21="",""," unique")&amp;IF(I21="",""," primary key")</f>
         <v>STOREDATE date</v>
       </c>
-      <c r="N20" s="78" t="s">
+      <c r="N21" s="78" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L21" s="78" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L22" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N21" s="78" t="s">
+      <c r="N22" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A22" s="78">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="78">
         <v>3</v>
       </c>
-      <c r="B22" s="165" t="s">
+      <c r="B23" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167" t="s">
+      <c r="C23" s="158"/>
+      <c r="D23" s="159" t="s">
         <v>403</v>
       </c>
-      <c r="E22" s="168"/>
-      <c r="F22" s="70" t="s">
+      <c r="E23" s="160"/>
+      <c r="F23" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G22" s="167" t="s">
+      <c r="G23" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="168"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B23" s="70" t="s">
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="160"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C24" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D24" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E24" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F24" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G24" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H24" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I23" s="70" t="s">
+      <c r="I24" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J23" s="70" t="s">
+      <c r="J24" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K23" s="70" t="s">
+      <c r="K24" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L23" s="78" t="str">
-        <f>"create table "&amp;D22&amp;"("</f>
+      <c r="L24" s="78" t="str">
+        <f>"create table "&amp;D23&amp;"("</f>
         <v>create table MEMBER_ADDR(</v>
       </c>
-      <c r="N23" s="78" t="s">
+      <c r="N24" s="78" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B24" s="54">
-        <v>1</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="53" t="str">
-        <f>"번호 ("&amp;D22&amp;"_SEQ.nextval)"</f>
-        <v>번호 (MEMBER_ADDR_SEQ.nextval)</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="78" t="str">
-        <f t="shared" ref="L24:L29" si="3">C24&amp;" "&amp;E24&amp;IF(E24="varchar2","("&amp;F24&amp;")","")&amp;IF(J24="",""," default "&amp;J24)&amp;IF(G24="",""," "&amp;G24)&amp;IF(H24="",""," unique")&amp;IF(I24="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N24" s="78" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B25" s="54">
+        <v>1</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="53" t="str">
+        <f>"번호 ("&amp;D23&amp;"_SEQ.nextval)"</f>
+        <v>번호 (MEMBER_ADDR_SEQ.nextval)</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" s="54"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="78" t="str">
+        <f t="shared" ref="L25:L30" si="3">C25&amp;" "&amp;E25&amp;IF(E25="varchar2","("&amp;F25&amp;")","")&amp;IF(J25="",""," default "&amp;J25)&amp;IF(G25="",""," "&amp;G25)&amp;IF(H25="",""," unique")&amp;IF(I25="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N25" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="54">
         <v>2</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C26" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D26" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E26" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="73">
+      <c r="F26" s="73">
         <v>20</v>
       </c>
-      <c r="G25" s="73" t="s">
+      <c r="G26" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H26" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74" t="s">
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="L25" s="78" t="str">
+      <c r="L26" s="78" t="str">
         <f t="shared" si="3"/>
         <v>NICKNAME varchar2(20) not null unique,</v>
       </c>
-      <c r="N25" s="78" t="s">
+      <c r="N26" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="O25" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C25&amp;") references "&amp;K25</f>
+      <c r="O26" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C26&amp;") references "&amp;K26</f>
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B26" s="54">
-        <v>3</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="54">
-        <v>10</v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="L26" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>PHONE1 varchar2(10),</v>
-      </c>
-      <c r="N26" s="78" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="E27" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F27" s="54">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G27" s="54"/>
       <c r="H27" s="54"/>
       <c r="I27" s="54"/>
       <c r="J27" s="54"/>
       <c r="K27" s="107" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L27" s="78" t="str">
         <f t="shared" si="3"/>
-        <v>PHONE2 varchar2(20),</v>
+        <v>PHONE1 varchar2(10),</v>
       </c>
       <c r="N27" s="78" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="E28" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F28" s="54">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
       <c r="I28" s="54"/>
       <c r="J28" s="54"/>
-      <c r="K28" s="55"/>
+      <c r="K28" s="107" t="s">
+        <v>405</v>
+      </c>
       <c r="L28" s="78" t="str">
         <f t="shared" si="3"/>
-        <v>ADDRNUM varchar2(10),</v>
+        <v>PHONE2 varchar2(20),</v>
       </c>
       <c r="N28" s="78" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E29" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F29" s="54">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G29" s="54"/>
       <c r="H29" s="54"/>
@@ -9101,21 +9120,21 @@
       <c r="K29" s="55"/>
       <c r="L29" s="78" t="str">
         <f t="shared" si="3"/>
-        <v>ADDR varchar2(100),</v>
+        <v>ADDRNUM varchar2(10),</v>
       </c>
       <c r="N29" s="78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B30" s="54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E30" s="55" t="s">
         <v>135</v>
@@ -9129,488 +9148,486 @@
       <c r="J30" s="54"/>
       <c r="K30" s="55"/>
       <c r="L30" s="78" t="str">
-        <f t="shared" ref="L30:L31" si="4">C30&amp;" "&amp;E30&amp;IF(E30="varchar2","("&amp;F30&amp;")","")&amp;IF(J30="",""," default "&amp;J30)&amp;IF(G30="",""," "&amp;G30)&amp;IF(H30="",""," unique")&amp;IF(I30="",""," primary key")&amp;","</f>
-        <v>ADDRSUB varchar2(100),</v>
+        <f t="shared" si="3"/>
+        <v>ADDR varchar2(100),</v>
       </c>
       <c r="N30" s="78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B31" s="54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F31" s="54">
+        <v>100</v>
+      </c>
       <c r="G31" s="54"/>
       <c r="H31" s="54"/>
       <c r="I31" s="54"/>
-      <c r="J31" s="54">
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="78" t="str">
+        <f t="shared" ref="L31" si="4">C31&amp;" "&amp;E31&amp;IF(E31="varchar2","("&amp;F31&amp;")","")&amp;IF(J31="",""," default "&amp;J31)&amp;IF(G31="",""," "&amp;G31)&amp;IF(H31="",""," unique")&amp;IF(I31="",""," primary key")&amp;","</f>
+        <v>ADDRSUB varchar2(100),</v>
+      </c>
+      <c r="N31" s="78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B32" s="54">
+        <v>8</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54">
         <v>0</v>
       </c>
-      <c r="K31" s="107" t="s">
+      <c r="K32" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="L31" s="78" t="str">
-        <f>C31&amp;" "&amp;E31&amp;IF(E31="varchar2","("&amp;F31&amp;")","")&amp;IF(J31="",""," default "&amp;J31)&amp;IF(G31="",""," "&amp;G31)&amp;IF(H31="",""," unique")&amp;IF(I31="",""," primary key")</f>
+      <c r="L32" s="78" t="str">
+        <f>C32&amp;" "&amp;E32&amp;IF(E32="varchar2","("&amp;F32&amp;")","")&amp;IF(J32="",""," default "&amp;J32)&amp;IF(G32="",""," "&amp;G32)&amp;IF(H32="",""," unique")&amp;IF(I32="",""," primary key")</f>
         <v>POINT number default 0</v>
       </c>
-      <c r="N31" s="78" t="s">
+      <c r="N32" s="78" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L32" s="78" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L33" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N32" s="78" t="s">
+      <c r="N33" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A33" s="78">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A34" s="78">
         <v>4</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B34" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167" t="s">
+      <c r="C34" s="158"/>
+      <c r="D34" s="159" t="s">
         <v>196</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="70" t="s">
+      <c r="E34" s="160"/>
+      <c r="F34" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G33" s="167" t="s">
+      <c r="G34" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="168"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B34" s="70" t="s">
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="160"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B35" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C35" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D34" s="70" t="s">
+      <c r="D35" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E35" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F34" s="70" t="s">
+      <c r="F35" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G34" s="70" t="s">
+      <c r="G35" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H34" s="70" t="s">
+      <c r="H35" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I34" s="70" t="s">
+      <c r="I35" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J34" s="70" t="s">
+      <c r="J35" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K34" s="70" t="s">
+      <c r="K35" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L34" s="78" t="str">
-        <f>"create table "&amp;D33&amp;"("</f>
+      <c r="L35" s="78" t="str">
+        <f>"create table "&amp;D34&amp;"("</f>
         <v>create table POINT(</v>
       </c>
-      <c r="N34" s="78" t="s">
+      <c r="N35" s="78" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B35" s="54">
-        <v>1</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="53" t="str">
-        <f>"번호 ("&amp;D33&amp;"_SEQ.nextval)"</f>
-        <v>번호 (POINT_SEQ.nextval)</v>
-      </c>
-      <c r="E35" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="78" t="str">
-        <f t="shared" ref="L35:L39" si="5">C35&amp;" "&amp;E35&amp;IF(E35="varchar2","("&amp;F35&amp;")","")&amp;IF(J35="",""," default "&amp;J35)&amp;IF(G35="",""," "&amp;G35)&amp;IF(H35="",""," unique")&amp;IF(I35="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N35" s="78" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B36" s="54">
+        <v>1</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="53" t="str">
+        <f>"번호 ("&amp;D34&amp;"_SEQ.nextval)"</f>
+        <v>번호 (POINT_SEQ.nextval)</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J36" s="54"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="78" t="str">
+        <f t="shared" ref="L36:L39" si="5">C36&amp;" "&amp;E36&amp;IF(E36="varchar2","("&amp;F36&amp;")","")&amp;IF(J36="",""," default "&amp;J36)&amp;IF(G36="",""," "&amp;G36)&amp;IF(H36="",""," unique")&amp;IF(I36="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N36" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B37" s="54">
         <v>2</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C37" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="82" t="s">
+      <c r="D37" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E37" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="83">
+      <c r="F37" s="83">
         <v>20</v>
       </c>
-      <c r="G36" s="83" t="s">
+      <c r="G37" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="82" t="s">
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="82" t="s">
         <v>388</v>
       </c>
-      <c r="L36" s="78" t="str">
+      <c r="L37" s="78" t="str">
         <f t="shared" si="5"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N36" s="78" t="s">
+      <c r="N37" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="O36" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C36&amp;") references "&amp;K36</f>
+      <c r="O37" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C37&amp;") references "&amp;K37</f>
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B37" s="54">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B38" s="54">
         <v>3</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C38" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D38" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E38" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54" t="s">
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="K37" s="55"/>
-      <c r="L37" s="78" t="str">
+      <c r="K38" s="55"/>
+      <c r="L38" s="78" t="str">
         <f t="shared" si="5"/>
         <v>CHANGEDATE date default sysdate,</v>
       </c>
-      <c r="N37" s="78" t="s">
+      <c r="N38" s="78" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B38" s="54">
-        <v>4</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="L38" s="78" t="str">
-        <f t="shared" si="5"/>
-        <v>CHANGEPOINT number not null,</v>
-      </c>
-      <c r="N38" s="78" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B39" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="54">
-        <v>20</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F39" s="54"/>
       <c r="G39" s="54" t="s">
         <v>139</v>
       </c>
       <c r="H39" s="54"/>
       <c r="I39" s="54"/>
       <c r="J39" s="54"/>
-      <c r="K39" s="55"/>
+      <c r="K39" s="55" t="s">
+        <v>160</v>
+      </c>
       <c r="L39" s="78" t="str">
-        <f>C39&amp;" "&amp;E39&amp;IF(E39="varchar2","("&amp;F39&amp;")","")&amp;IF(J39="",""," default "&amp;J39)&amp;IF(G39="",""," "&amp;G39)&amp;IF(H39="",""," unique")&amp;IF(I39="",""," primary key")</f>
+        <f t="shared" si="5"/>
+        <v>CHANGEPOINT number not null,</v>
+      </c>
+      <c r="N39" s="78" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B40" s="54">
+        <v>5</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="54">
+        <v>20</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="78" t="str">
+        <f>C40&amp;" "&amp;E40&amp;IF(E40="varchar2","("&amp;F40&amp;")","")&amp;IF(J40="",""," default "&amp;J40)&amp;IF(G40="",""," "&amp;G40)&amp;IF(H40="",""," unique")&amp;IF(I40="",""," primary key")</f>
         <v>CHANGEWHY varchar2(20) not null</v>
       </c>
-      <c r="N39" s="78" t="s">
+      <c r="N40" s="78" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L40" s="78" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L41" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N40" s="78" t="s">
+      <c r="N41" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A41" s="78">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A42" s="78">
         <v>5</v>
       </c>
-      <c r="B41" s="165" t="s">
+      <c r="B42" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="166"/>
-      <c r="D41" s="167" t="s">
+      <c r="C42" s="158"/>
+      <c r="D42" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="E41" s="168"/>
-      <c r="F41" s="70" t="s">
+      <c r="E42" s="160"/>
+      <c r="F42" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G41" s="167" t="s">
+      <c r="G42" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="H41" s="169"/>
-      <c r="I41" s="169"/>
-      <c r="J41" s="169"/>
-      <c r="K41" s="168"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B42" s="70" t="s">
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="160"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B43" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C43" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D43" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="E43" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="70" t="s">
+      <c r="F43" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G42" s="70" t="s">
+      <c r="G43" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H42" s="70" t="s">
+      <c r="H43" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I42" s="70" t="s">
+      <c r="I43" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J42" s="70" t="s">
+      <c r="J43" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K42" s="70" t="s">
+      <c r="K43" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L42" s="78" t="str">
-        <f>"create table "&amp;D41&amp;"("</f>
+      <c r="L43" s="78" t="str">
+        <f>"create table "&amp;D42&amp;"("</f>
         <v>create table BOARD(</v>
       </c>
-      <c r="N42" s="78" t="s">
+      <c r="N43" s="78" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B43" s="54">
-        <v>1</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="53" t="str">
-        <f>"번호 ("&amp;D41&amp;"_SEQ.nextval)"</f>
-        <v>번호 (BOARD_SEQ.nextval)</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J43" s="54"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="78" t="str">
-        <f t="shared" ref="L43:L50" si="6">C43&amp;" "&amp;E43&amp;IF(E43="varchar2","("&amp;F43&amp;")","")&amp;IF(J43="",""," default "&amp;J43)&amp;IF(G43="",""," "&amp;G43)&amp;IF(H43="",""," unique")&amp;IF(I43="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N43" s="78" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B44" s="54">
+        <v>1</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="53" t="str">
+        <f>"번호 ("&amp;D42&amp;"_SEQ.nextval)"</f>
+        <v>번호 (BOARD_SEQ.nextval)</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" s="54"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="78" t="str">
+        <f t="shared" ref="L44:L51" si="6">C44&amp;" "&amp;E44&amp;IF(E44="varchar2","("&amp;F44&amp;")","")&amp;IF(J44="",""," default "&amp;J44)&amp;IF(G44="",""," "&amp;G44)&amp;IF(H44="",""," unique")&amp;IF(I44="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N44" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B45" s="54">
         <v>2</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C45" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D45" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E45" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="54">
+      <c r="F45" s="54">
         <v>20</v>
       </c>
-      <c r="G44" s="54" t="s">
+      <c r="G45" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55" t="s">
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="L44" s="78" t="str">
+      <c r="L45" s="78" t="str">
         <f t="shared" si="6"/>
         <v>BOARDCODE varchar2(20) not null,</v>
       </c>
-      <c r="N44" s="78" t="s">
+      <c r="N45" s="78" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B45" s="73">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B46" s="73">
         <v>3</v>
       </c>
-      <c r="C45" s="74" t="s">
+      <c r="C46" s="74" t="s">
         <v>367</v>
       </c>
-      <c r="D45" s="74" t="s">
+      <c r="D46" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="E45" s="74" t="s">
+      <c r="E46" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="73">
+      <c r="F46" s="73">
         <v>20</v>
       </c>
-      <c r="G45" s="73" t="s">
+      <c r="G46" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="74" t="s">
+      <c r="H46" s="54"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="L45" s="78" t="str">
+      <c r="L46" s="78" t="str">
         <f t="shared" si="6"/>
         <v>WRITER varchar2(20) not null,</v>
       </c>
-      <c r="N45" s="78" t="s">
+      <c r="N46" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="O45" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C45&amp;") references "&amp;K45</f>
+      <c r="O46" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C46&amp;") references "&amp;K46</f>
         <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B46" s="54">
-        <v>4</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" s="54">
-        <v>50</v>
-      </c>
-      <c r="G46" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE varchar2(50) not null,</v>
-      </c>
-      <c r="N46" s="78" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B47" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="E47" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F47" s="54">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G47" s="54" t="s">
         <v>139</v>
@@ -9621,52 +9638,52 @@
       <c r="K47" s="55"/>
       <c r="L47" s="78" t="str">
         <f t="shared" si="6"/>
-        <v>CONTENT varchar2(4000) not null,</v>
+        <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N47" s="78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B48" s="54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F48" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H48" s="54"/>
       <c r="I48" s="54"/>
-      <c r="J48" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K48" s="55" t="s">
-        <v>292</v>
-      </c>
+      <c r="J48" s="54"/>
+      <c r="K48" s="55"/>
       <c r="L48" s="78" t="str">
         <f t="shared" si="6"/>
-        <v>REGDATE date default sysdate,</v>
+        <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N48" s="78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B49" s="54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E49" s="55" t="s">
         <v>156</v>
@@ -9679,54 +9696,56 @@
         <v>157</v>
       </c>
       <c r="K49" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L49" s="78" t="str">
         <f t="shared" si="6"/>
-        <v>MODDATE date default sysdate,</v>
+        <v>REGDATE date default sysdate,</v>
       </c>
       <c r="N49" s="78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B50" s="54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
-      <c r="J50" s="54">
-        <v>0</v>
-      </c>
-      <c r="K50" s="55"/>
+      <c r="J50" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50" s="55" t="s">
+        <v>293</v>
+      </c>
       <c r="L50" s="78" t="str">
         <f t="shared" si="6"/>
-        <v>HIT number default 0,</v>
+        <v>MODDATE date default sysdate,</v>
       </c>
       <c r="N50" s="78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B51" s="54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E51" s="55" t="s">
         <v>128</v>
@@ -9740,164 +9759,156 @@
       </c>
       <c r="K51" s="55"/>
       <c r="L51" s="78" t="str">
-        <f>C51&amp;" "&amp;E51&amp;IF(E51="varchar2","("&amp;F51&amp;")","")&amp;IF(J51="",""," default "&amp;J51)&amp;IF(G51="",""," "&amp;G51)&amp;IF(H51="",""," unique")&amp;IF(I51="",""," primary key")</f>
+        <f t="shared" si="6"/>
+        <v>HIT number default 0,</v>
+      </c>
+      <c r="N51" s="78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B52" s="54">
+        <v>9</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54">
+        <v>0</v>
+      </c>
+      <c r="K52" s="55"/>
+      <c r="L52" s="78" t="str">
+        <f>C52&amp;" "&amp;E52&amp;IF(E52="varchar2","("&amp;F52&amp;")","")&amp;IF(J52="",""," default "&amp;J52)&amp;IF(G52="",""," "&amp;G52)&amp;IF(H52="",""," unique")&amp;IF(I52="",""," primary key")</f>
         <v>HEART number default 0</v>
       </c>
-      <c r="N51" s="78" t="s">
+      <c r="N52" s="78" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L52" s="78" t="s">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L53" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N52" s="78" t="s">
+      <c r="N53" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A53" s="78">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A54" s="78">
         <v>6</v>
       </c>
-      <c r="B53" s="165" t="s">
+      <c r="B54" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="170"/>
-      <c r="D53" s="171" t="s">
+      <c r="C54" s="165"/>
+      <c r="D54" s="166" t="s">
         <v>241</v>
       </c>
-      <c r="E53" s="172"/>
-      <c r="F53" s="89" t="s">
+      <c r="E54" s="167"/>
+      <c r="F54" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="G53" s="171" t="s">
+      <c r="G54" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H53" s="173"/>
-      <c r="I53" s="173"/>
-      <c r="J53" s="173"/>
-      <c r="K53" s="172"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B54" s="111" t="s">
+      <c r="H54" s="168"/>
+      <c r="I54" s="168"/>
+      <c r="J54" s="168"/>
+      <c r="K54" s="167"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B55" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="C54" s="115" t="s">
+      <c r="C55" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D54" s="115" t="s">
+      <c r="D55" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E54" s="115" t="s">
+      <c r="E55" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F54" s="115" t="s">
+      <c r="F55" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G54" s="115" t="s">
+      <c r="G55" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H54" s="70" t="s">
+      <c r="H55" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I54" s="115" t="s">
+      <c r="I55" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J54" s="115" t="s">
+      <c r="J55" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K54" s="115" t="s">
+      <c r="K55" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L54" s="78" t="str">
-        <f>"create table "&amp;D53&amp;"("</f>
+      <c r="L55" s="78" t="str">
+        <f>"create table "&amp;D54&amp;"("</f>
         <v>create table BOARD_REF(</v>
       </c>
-      <c r="N54" s="78" t="s">
+      <c r="N55" s="78" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B55" s="116">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B56" s="116">
         <v>1</v>
       </c>
-      <c r="C55" s="90" t="s">
+      <c r="C56" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="53" t="str">
-        <f>"번호 ("&amp;D53&amp;"_SEQ.nextval)"</f>
+      <c r="D56" s="53" t="str">
+        <f>"번호 ("&amp;D54&amp;"_SEQ.nextval)"</f>
         <v>번호 (BOARD_REF_SEQ.nextval)</v>
       </c>
-      <c r="E55" s="90" t="s">
+      <c r="E56" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114" t="s">
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J55" s="114"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="78" t="str">
-        <f t="shared" ref="L55:L61" si="7">C55&amp;" "&amp;E55&amp;IF(E55="varchar2","("&amp;F55&amp;")","")&amp;IF(J55="",""," default "&amp;J55)&amp;IF(G55="",""," "&amp;G55)&amp;IF(H55="",""," unique")&amp;IF(I55="",""," primary key")&amp;","</f>
+      <c r="J56" s="114"/>
+      <c r="K56" s="91"/>
+      <c r="L56" s="78" t="str">
+        <f t="shared" ref="L56:L62" si="7">C56&amp;" "&amp;E56&amp;IF(E56="varchar2","("&amp;F56&amp;")","")&amp;IF(J56="",""," default "&amp;J56)&amp;IF(G56="",""," "&amp;G56)&amp;IF(H56="",""," unique")&amp;IF(I56="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N55" s="78" t="s">
+      <c r="N56" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="32" x14ac:dyDescent="0.45">
-      <c r="B56" s="87">
+    <row r="57" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B57" s="87">
         <v>2</v>
       </c>
-      <c r="C56" s="92" t="s">
+      <c r="C57" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="D56" s="92" t="s">
+      <c r="D57" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="E56" s="92" t="s">
+      <c r="E57" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H56" s="93"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="92" t="s">
-        <v>362</v>
-      </c>
-      <c r="L56" s="78" t="str">
-        <f t="shared" si="7"/>
-        <v>BOARDNUM number not null,</v>
-      </c>
-      <c r="N56" s="78" t="s">
-        <v>326</v>
-      </c>
-      <c r="O56" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C56&amp;") references "&amp;K56</f>
-        <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B57" s="88">
-        <v>3</v>
-      </c>
-      <c r="C57" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="D57" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="E57" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F57" s="93">
-        <v>20</v>
-      </c>
+      <c r="F57" s="93"/>
       <c r="G57" s="93" t="s">
         <v>139</v>
       </c>
@@ -9905,91 +9916,97 @@
       <c r="I57" s="93"/>
       <c r="J57" s="93"/>
       <c r="K57" s="92" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="L57" s="78" t="str">
         <f t="shared" si="7"/>
-        <v>WRITER varchar2(20) not null,</v>
+        <v>BOARDNUM number not null,</v>
       </c>
       <c r="N57" s="78" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="O57" s="78" t="str">
         <f>"constraint FK1 foreign key("&amp;C57&amp;") references "&amp;K57</f>
-        <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
+        <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B58" s="112">
-        <v>4</v>
-      </c>
-      <c r="C58" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="91" t="s">
+      <c r="B58" s="88">
+        <v>3</v>
+      </c>
+      <c r="C58" s="92" t="s">
+        <v>367</v>
+      </c>
+      <c r="D58" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="114">
-        <v>1000</v>
-      </c>
-      <c r="G58" s="114" t="s">
+      <c r="F58" s="93">
+        <v>20</v>
+      </c>
+      <c r="G58" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="91"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="93"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="92" t="s">
+        <v>401</v>
+      </c>
       <c r="L58" s="78" t="str">
         <f t="shared" si="7"/>
-        <v>CONTENT varchar2(1000) not null,</v>
+        <v>WRITER varchar2(20) not null,</v>
       </c>
       <c r="N58" s="78" t="s">
-        <v>327</v>
+        <v>369</v>
+      </c>
+      <c r="O58" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C58&amp;") references "&amp;K58</f>
+        <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B59" s="112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="91" t="s">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="D59" s="91" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="E59" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="F59" s="114">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="114" t="s">
+        <v>139</v>
+      </c>
       <c r="H59" s="114"/>
       <c r="I59" s="114"/>
-      <c r="J59" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="K59" s="91" t="s">
-        <v>292</v>
-      </c>
+      <c r="J59" s="114"/>
+      <c r="K59" s="91"/>
       <c r="L59" s="78" t="str">
         <f t="shared" si="7"/>
-        <v>REGDATE date default sysdate,</v>
+        <v>CONTENT varchar2(1000) not null,</v>
       </c>
       <c r="N59" s="78" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B60" s="112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" s="91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D60" s="91" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E60" s="91" t="s">
         <v>156</v>
@@ -10002,54 +10019,56 @@
         <v>157</v>
       </c>
       <c r="K60" s="91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L60" s="78" t="str">
         <f t="shared" si="7"/>
-        <v>MODDATE date default sysdate,</v>
+        <v>REGDATE date default sysdate,</v>
       </c>
       <c r="N60" s="78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B61" s="112">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" s="91" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D61" s="91" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E61" s="91" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F61" s="114"/>
       <c r="G61" s="114"/>
       <c r="H61" s="114"/>
       <c r="I61" s="114"/>
-      <c r="J61" s="114">
-        <v>0</v>
-      </c>
-      <c r="K61" s="91"/>
+      <c r="J61" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="K61" s="91" t="s">
+        <v>293</v>
+      </c>
       <c r="L61" s="78" t="str">
         <f t="shared" si="7"/>
-        <v>DEPTH number default 0,</v>
+        <v>MODDATE date default sysdate,</v>
       </c>
       <c r="N61" s="78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="32" x14ac:dyDescent="0.45">
-      <c r="B62" s="116">
-        <v>8</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B62" s="112">
+        <v>7</v>
       </c>
       <c r="C62" s="91" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D62" s="91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E62" s="91" t="s">
         <v>128</v>
@@ -10061,198 +10080,196 @@
       <c r="J62" s="114">
         <v>0</v>
       </c>
-      <c r="K62" s="91" t="s">
+      <c r="K62" s="91"/>
+      <c r="L62" s="78" t="str">
+        <f t="shared" si="7"/>
+        <v>DEPTH number default 0,</v>
+      </c>
+      <c r="N62" s="78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B63" s="116">
+        <v>8</v>
+      </c>
+      <c r="C63" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114">
+        <v>0</v>
+      </c>
+      <c r="K63" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="L62" s="78" t="str">
-        <f>C62&amp;" "&amp;E62&amp;IF(E62="varchar2","("&amp;F62&amp;")","")&amp;IF(J62="",""," default "&amp;J62)&amp;IF(G62="",""," "&amp;G62)&amp;IF(H62="",""," unique")&amp;IF(I62="",""," primary key")</f>
+      <c r="L63" s="78" t="str">
+        <f>C63&amp;" "&amp;E63&amp;IF(E63="varchar2","("&amp;F63&amp;")","")&amp;IF(J63="",""," default "&amp;J63)&amp;IF(G63="",""," "&amp;G63)&amp;IF(H63="",""," unique")&amp;IF(I63="",""," primary key")</f>
         <v>REFNUM number default 0</v>
       </c>
-      <c r="N62" s="78" t="s">
+      <c r="N63" s="78" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L63" s="78" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L64" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N63" s="78" t="s">
+      <c r="N64" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A64" s="78">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A65" s="78">
         <v>7</v>
       </c>
-      <c r="B64" s="165" t="s">
+      <c r="B65" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="166"/>
-      <c r="D64" s="167" t="s">
+      <c r="C65" s="158"/>
+      <c r="D65" s="159" t="s">
         <v>247</v>
       </c>
-      <c r="E64" s="168"/>
-      <c r="F64" s="70" t="s">
+      <c r="E65" s="160"/>
+      <c r="F65" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G64" s="167" t="s">
+      <c r="G65" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="H64" s="169"/>
-      <c r="I64" s="169"/>
-      <c r="J64" s="169"/>
-      <c r="K64" s="168"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B65" s="70" t="s">
+      <c r="H65" s="161"/>
+      <c r="I65" s="161"/>
+      <c r="J65" s="161"/>
+      <c r="K65" s="160"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B66" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="70" t="s">
+      <c r="C66" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D65" s="70" t="s">
+      <c r="D66" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="70" t="s">
+      <c r="E66" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F65" s="70" t="s">
+      <c r="F66" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G65" s="70" t="s">
+      <c r="G66" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H65" s="70" t="s">
+      <c r="H66" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I65" s="70" t="s">
+      <c r="I66" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J65" s="70" t="s">
+      <c r="J66" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K65" s="70" t="s">
+      <c r="K66" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L65" s="78" t="str">
-        <f>"create table "&amp;D64&amp;"("</f>
+      <c r="L66" s="78" t="str">
+        <f>"create table "&amp;D65&amp;"("</f>
         <v>create table BOARD_IMAGE(</v>
       </c>
-      <c r="N65" s="78" t="s">
+      <c r="N66" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B66" s="110">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B67" s="110">
         <v>1</v>
       </c>
-      <c r="C66" s="75" t="s">
+      <c r="C67" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="53" t="str">
-        <f>"번호 ("&amp;D64&amp;"_SEQ.nextval)"</f>
+      <c r="D67" s="53" t="str">
+        <f>"번호 ("&amp;D65&amp;"_SEQ.nextval)"</f>
         <v>번호 (BOARD_IMAGE_SEQ.nextval)</v>
       </c>
-      <c r="E66" s="75" t="s">
+      <c r="E67" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="110"/>
-      <c r="I66" s="110" t="s">
+      <c r="F67" s="110"/>
+      <c r="G67" s="110"/>
+      <c r="H67" s="110"/>
+      <c r="I67" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J66" s="110"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="78" t="str">
-        <f t="shared" ref="L66:L69" si="8">C66&amp;" "&amp;E66&amp;IF(E66="varchar2","("&amp;F66&amp;")","")&amp;IF(J66="",""," default "&amp;J66)&amp;IF(G66="",""," "&amp;G66)&amp;IF(H66="",""," unique")&amp;IF(I66="",""," primary key")&amp;","</f>
+      <c r="J67" s="110"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="78" t="str">
+        <f t="shared" ref="L67:L70" si="8">C67&amp;" "&amp;E67&amp;IF(E67="varchar2","("&amp;F67&amp;")","")&amp;IF(J67="",""," default "&amp;J67)&amp;IF(G67="",""," "&amp;G67)&amp;IF(H67="",""," unique")&amp;IF(I67="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N66" s="78" t="s">
+      <c r="N67" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.45">
-      <c r="B67" s="110">
+    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B68" s="110">
         <v>2</v>
       </c>
-      <c r="C67" s="77" t="s">
+      <c r="C68" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="77" t="s">
+      <c r="D68" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="E67" s="77" t="s">
+      <c r="E68" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76" t="s">
+      <c r="F68" s="76"/>
+      <c r="G68" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="76"/>
-      <c r="K67" s="77" t="s">
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="L67" s="78" t="str">
+      <c r="L68" s="78" t="str">
         <f t="shared" si="8"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N67" s="78" t="s">
+      <c r="N68" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O67" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C67&amp;") references "&amp;K67</f>
+      <c r="O68" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C68&amp;") references "&amp;K68</f>
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B68" s="54">
-        <v>3</v>
-      </c>
-      <c r="C68" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="D68" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="E68" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F68" s="54">
-        <v>50</v>
-      </c>
-      <c r="G68" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="78" t="str">
-        <f t="shared" si="8"/>
-        <v>ORIGINNAME varchar2(50) not null,</v>
-      </c>
-      <c r="N68" s="78" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B69" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>149</v>
+        <v>248</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="E69" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F69" s="54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G69" s="54" t="s">
         <v>139</v>
@@ -10260,32 +10277,30 @@
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
       <c r="J69" s="54"/>
-      <c r="K69" s="55" t="s">
-        <v>294</v>
-      </c>
+      <c r="K69" s="55"/>
       <c r="L69" s="78" t="str">
         <f t="shared" si="8"/>
-        <v>SAVENAME varchar2(100) not null,</v>
+        <v>ORIGINNAME varchar2(50) not null,</v>
       </c>
       <c r="N69" s="78" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B70" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="E70" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F70" s="54">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G70" s="54" t="s">
         <v>139</v>
@@ -10293,190 +10308,192 @@
       <c r="H70" s="54"/>
       <c r="I70" s="54"/>
       <c r="J70" s="54"/>
-      <c r="K70" s="55"/>
+      <c r="K70" s="55" t="s">
+        <v>294</v>
+      </c>
       <c r="L70" s="78" t="str">
-        <f>C70&amp;" "&amp;E70&amp;IF(E70="varchar2","("&amp;F70&amp;")","")&amp;IF(J70="",""," default "&amp;J70)&amp;IF(G70="",""," "&amp;G70)&amp;IF(H70="",""," unique")&amp;IF(I70="",""," primary key")</f>
+        <f t="shared" si="8"/>
+        <v>SAVENAME varchar2(100) not null,</v>
+      </c>
+      <c r="N70" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B71" s="54">
+        <v>5</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="E71" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" s="54">
+        <v>10</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="78" t="str">
+        <f>C71&amp;" "&amp;E71&amp;IF(E71="varchar2","("&amp;F71&amp;")","")&amp;IF(J71="",""," default "&amp;J71)&amp;IF(G71="",""," "&amp;G71)&amp;IF(H71="",""," unique")&amp;IF(I71="",""," primary key")</f>
         <v>FILETYPE varchar2(10) not null</v>
       </c>
-      <c r="N70" s="78" t="s">
+      <c r="N71" s="78" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L71" s="78" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L72" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N71" s="78" t="s">
+      <c r="N72" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A72" s="78">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A73" s="78">
         <v>8</v>
       </c>
-      <c r="B72" s="165" t="s">
+      <c r="B73" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C72" s="166"/>
-      <c r="D72" s="167" t="s">
+      <c r="C73" s="158"/>
+      <c r="D73" s="159" t="s">
         <v>252</v>
       </c>
-      <c r="E72" s="168"/>
-      <c r="F72" s="70" t="s">
+      <c r="E73" s="160"/>
+      <c r="F73" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G72" s="167" t="s">
+      <c r="G73" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="H72" s="169"/>
-      <c r="I72" s="169"/>
-      <c r="J72" s="169"/>
-      <c r="K72" s="168"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B73" s="70" t="s">
+      <c r="H73" s="161"/>
+      <c r="I73" s="161"/>
+      <c r="J73" s="161"/>
+      <c r="K73" s="160"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B74" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C73" s="70" t="s">
+      <c r="C74" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D73" s="70" t="s">
+      <c r="D74" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E73" s="70" t="s">
+      <c r="E74" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F73" s="70" t="s">
+      <c r="F74" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G73" s="70" t="s">
+      <c r="G74" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H73" s="70" t="s">
+      <c r="H74" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I73" s="70" t="s">
+      <c r="I74" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J73" s="70" t="s">
+      <c r="J74" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K73" s="70" t="s">
+      <c r="K74" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L73" s="78" t="str">
-        <f>"create table "&amp;D72&amp;"("</f>
+      <c r="L74" s="78" t="str">
+        <f>"create table "&amp;D73&amp;"("</f>
         <v>create table BOARD_TERM(</v>
       </c>
-      <c r="N73" s="78" t="s">
+      <c r="N74" s="78" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B74" s="54">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B75" s="54">
         <v>1</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C75" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D74" s="53" t="str">
-        <f>"번호 ("&amp;D72&amp;"_SEQ.nextval)"</f>
+      <c r="D75" s="53" t="str">
+        <f>"번호 ("&amp;D73&amp;"_SEQ.nextval)"</f>
         <v>번호 (BOARD_TERM_SEQ.nextval)</v>
       </c>
-      <c r="E74" s="53" t="s">
+      <c r="E75" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54" t="s">
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J74" s="54"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="78" t="str">
-        <f t="shared" ref="L74:L76" si="9">C74&amp;" "&amp;E74&amp;IF(E74="varchar2","("&amp;F74&amp;")","")&amp;IF(J74="",""," default "&amp;J74)&amp;IF(G74="",""," "&amp;G74)&amp;IF(H74="",""," unique")&amp;IF(I74="",""," primary key")&amp;","</f>
+      <c r="J75" s="54"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="78" t="str">
+        <f t="shared" ref="L75:L77" si="9">C75&amp;" "&amp;E75&amp;IF(E75="varchar2","("&amp;F75&amp;")","")&amp;IF(J75="",""," default "&amp;J75)&amp;IF(G75="",""," "&amp;G75)&amp;IF(H75="",""," unique")&amp;IF(I75="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N74" s="78" t="s">
+      <c r="N75" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="32" x14ac:dyDescent="0.45">
-      <c r="B75" s="110">
+    <row r="76" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B76" s="110">
         <v>2</v>
       </c>
-      <c r="C75" s="77" t="s">
+      <c r="C76" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="D75" s="77" t="s">
+      <c r="D76" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="E75" s="77" t="s">
+      <c r="E76" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76" t="s">
+      <c r="F76" s="76"/>
+      <c r="G76" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="76"/>
-      <c r="K75" s="77" t="s">
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="L75" s="78" t="str">
+      <c r="L76" s="78" t="str">
         <f t="shared" si="9"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N75" s="78" t="s">
+      <c r="N76" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O75" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C75&amp;") references "&amp;K75</f>
+      <c r="O76" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C76&amp;") references "&amp;K76</f>
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B76" s="54">
-        <v>3</v>
-      </c>
-      <c r="C76" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="D76" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="E76" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="L76" s="78" t="str">
-        <f t="shared" si="9"/>
-        <v>STARTDATE date not null,</v>
-      </c>
-      <c r="N76" s="78" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B77" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E77" s="55" t="s">
         <v>156</v>
@@ -10492,180 +10509,180 @@
         <v>295</v>
       </c>
       <c r="L77" s="78" t="str">
-        <f>C77&amp;" "&amp;E77&amp;IF(E77="varchar2","("&amp;F77&amp;")","")&amp;IF(J77="",""," default "&amp;J77)&amp;IF(G77="",""," "&amp;G77)&amp;IF(H77="",""," unique")&amp;IF(I77="",""," primary key")</f>
+        <f t="shared" si="9"/>
+        <v>STARTDATE date not null,</v>
+      </c>
+      <c r="N77" s="78" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B78" s="54">
+        <v>4</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="L78" s="78" t="str">
+        <f>C78&amp;" "&amp;E78&amp;IF(E78="varchar2","("&amp;F78&amp;")","")&amp;IF(J78="",""," default "&amp;J78)&amp;IF(G78="",""," "&amp;G78)&amp;IF(H78="",""," unique")&amp;IF(I78="",""," primary key")</f>
         <v>ENDDATE date not null</v>
       </c>
-      <c r="N77" s="78" t="s">
+      <c r="N78" s="78" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="K78" s="108"/>
-      <c r="L78" s="78" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K79" s="108"/>
+      <c r="L79" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N78" s="78" t="s">
+      <c r="N79" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A79" s="78">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A80" s="78">
         <v>9</v>
       </c>
-      <c r="B79" s="174" t="s">
+      <c r="B80" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C79" s="174"/>
-      <c r="D79" s="175" t="s">
+      <c r="C80" s="164"/>
+      <c r="D80" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="E79" s="175"/>
-      <c r="F79" s="115" t="s">
+      <c r="E80" s="163"/>
+      <c r="F80" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G79" s="175" t="s">
+      <c r="G80" s="163" t="s">
         <v>389</v>
       </c>
-      <c r="H79" s="175"/>
-      <c r="I79" s="175"/>
-      <c r="J79" s="175"/>
-      <c r="K79" s="175"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B80" s="115" t="s">
+      <c r="H80" s="163"/>
+      <c r="I80" s="163"/>
+      <c r="J80" s="163"/>
+      <c r="K80" s="163"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B81" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C80" s="115" t="s">
+      <c r="C81" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D80" s="115" t="s">
+      <c r="D81" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E80" s="115" t="s">
+      <c r="E81" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F80" s="115" t="s">
+      <c r="F81" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G80" s="115" t="s">
+      <c r="G81" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H80" s="70" t="s">
+      <c r="H81" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I80" s="115" t="s">
+      <c r="I81" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J80" s="115" t="s">
+      <c r="J81" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K80" s="115" t="s">
+      <c r="K81" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L80" s="78" t="str">
-        <f>"create table "&amp;D79&amp;"("</f>
+      <c r="L81" s="78" t="str">
+        <f>"create table "&amp;D80&amp;"("</f>
         <v>create table GOODS(</v>
       </c>
-      <c r="N80" s="78" t="s">
+      <c r="N81" s="78" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B81" s="96">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B82" s="96">
         <v>1</v>
       </c>
-      <c r="C81" s="90" t="s">
+      <c r="C82" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="53" t="str">
-        <f>"번호 ("&amp;D79&amp;"_SEQ.nextval)"</f>
+      <c r="D82" s="53" t="str">
+        <f>"번호 ("&amp;D80&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_SEQ.nextval)</v>
       </c>
-      <c r="E81" s="90" t="s">
+      <c r="E82" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="96" t="s">
+      <c r="F82" s="96"/>
+      <c r="G82" s="96"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="78" t="str">
-        <f t="shared" ref="L81:L85" si="10">C81&amp;" "&amp;E81&amp;IF(E81="varchar2","("&amp;F81&amp;")","")&amp;IF(J81="",""," default "&amp;J81)&amp;IF(G81="",""," "&amp;G81)&amp;IF(H81="",""," unique")&amp;IF(I81="",""," primary key")&amp;","</f>
+      <c r="J82" s="96"/>
+      <c r="K82" s="96"/>
+      <c r="L82" s="78" t="str">
+        <f t="shared" ref="L82:L86" si="10">C82&amp;" "&amp;E82&amp;IF(E82="varchar2","("&amp;F82&amp;")","")&amp;IF(J82="",""," default "&amp;J82)&amp;IF(G82="",""," "&amp;G82)&amp;IF(H82="",""," unique")&amp;IF(I82="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N81" s="78" t="s">
+      <c r="N82" s="78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="121" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="122">
+    <row r="83" spans="1:15" s="121" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="122">
         <v>2</v>
       </c>
-      <c r="C82" s="123" t="s">
+      <c r="C83" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="D82" s="123" t="s">
+      <c r="D83" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="E82" s="123" t="s">
+      <c r="E83" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="F82" s="122">
+      <c r="F83" s="122">
         <v>100</v>
       </c>
-      <c r="G82" s="122"/>
-      <c r="H82" s="122"/>
-      <c r="I82" s="122"/>
-      <c r="J82" s="122"/>
-      <c r="K82" s="122"/>
-      <c r="L82" s="78" t="str">
+      <c r="G83" s="122"/>
+      <c r="H83" s="122"/>
+      <c r="I83" s="122"/>
+      <c r="J83" s="122"/>
+      <c r="K83" s="122"/>
+      <c r="L83" s="78" t="str">
         <f t="shared" si="10"/>
         <v>GOODSCODE varchar2(100),</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B83" s="122">
-        <v>3</v>
-      </c>
-      <c r="C83" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="D83" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="E83" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F83" s="114">
-        <v>100</v>
-      </c>
-      <c r="G83" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H83" s="114"/>
-      <c r="I83" s="114"/>
-      <c r="J83" s="114"/>
-      <c r="K83" s="114"/>
-      <c r="L83" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>GOODS varchar2(100) not null,</v>
-      </c>
-      <c r="N83" s="78" t="s">
-        <v>342</v>
-      </c>
-    </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B84" s="122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="91" t="s">
-        <v>141</v>
+        <v>420</v>
       </c>
       <c r="D84" s="91" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E84" s="91" t="s">
         <v>135</v>
@@ -10682,394 +10699,388 @@
       <c r="K84" s="114"/>
       <c r="L84" s="78" t="str">
         <f t="shared" si="10"/>
-        <v>CONTENT varchar2(100) not null,</v>
+        <v>GOODSNAME varchar2(100) not null,</v>
       </c>
       <c r="N84" s="78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B85" s="122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" s="91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D85" s="91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E85" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="F85" s="114"/>
-      <c r="G85" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="F85" s="114">
+        <v>100</v>
+      </c>
+      <c r="G85" s="114" t="s">
+        <v>139</v>
+      </c>
       <c r="H85" s="114"/>
       <c r="I85" s="114"/>
-      <c r="J85" s="114">
-        <v>0</v>
-      </c>
+      <c r="J85" s="114"/>
       <c r="K85" s="114"/>
       <c r="L85" s="78" t="str">
         <f t="shared" si="10"/>
-        <v>PRICE number default 0,</v>
+        <v>CONTENT varchar2(100) not null,</v>
       </c>
       <c r="N85" s="78" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B86" s="122">
+        <v>5</v>
+      </c>
+      <c r="C86" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" s="114"/>
+      <c r="G86" s="114"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="114"/>
+      <c r="J86" s="114">
+        <v>0</v>
+      </c>
+      <c r="K86" s="114"/>
+      <c r="L86" s="78" t="str">
+        <f t="shared" si="10"/>
+        <v>PRICE number default 0,</v>
+      </c>
+      <c r="N86" s="78" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B87" s="122">
         <v>6</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C87" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="91" t="s">
+      <c r="D87" s="91" t="s">
         <v>419</v>
       </c>
-      <c r="E86" s="91" t="s">
+      <c r="E87" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="F86" s="124">
+      <c r="F87" s="124">
         <v>10</v>
       </c>
-      <c r="G86" s="124" t="s">
+      <c r="G87" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="H86" s="124"/>
-      <c r="I86" s="124"/>
-      <c r="J86" s="177" t="s">
-        <v>390</v>
-      </c>
-      <c r="K86" s="124" t="s">
-        <v>420</v>
-      </c>
-      <c r="L86" s="78" t="str">
-        <f>C86&amp;" "&amp;E86&amp;IF(E86="varchar2","("&amp;F86&amp;")","")&amp;IF(J86="",""," default "&amp;J86)&amp;IF(G86="",""," "&amp;G86)&amp;IF(H86="",""," unique")&amp;IF(I86="",""," primary key")</f>
-        <v>HEART varchar2(10) default 'N' not null</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L87" s="78" t="s">
+      <c r="H87" s="124"/>
+      <c r="I87" s="124"/>
+      <c r="J87" s="125" t="s">
+        <v>421</v>
+      </c>
+      <c r="K87" s="124" t="s">
+        <v>422</v>
+      </c>
+      <c r="L87" s="78" t="str">
+        <f>C87&amp;" "&amp;E87&amp;IF(E87="varchar2","("&amp;F87&amp;")","")&amp;IF(J87="",""," default "&amp;J87)&amp;IF(G87="",""," "&amp;G87)&amp;IF(H87="",""," unique")&amp;IF(I87="",""," primary key")</f>
+        <v>HEART varchar2(10) default 'NO' not null</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L88" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N87" s="78" t="s">
+      <c r="N88" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A88" s="78">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A89" s="78">
         <v>10</v>
       </c>
-      <c r="B88" s="165" t="s">
+      <c r="B89" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C88" s="166"/>
-      <c r="D88" s="167" t="s">
+      <c r="C89" s="158"/>
+      <c r="D89" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="E88" s="168"/>
-      <c r="F88" s="70" t="s">
+      <c r="E89" s="160"/>
+      <c r="F89" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G88" s="167" t="s">
+      <c r="G89" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="H88" s="169"/>
-      <c r="I88" s="169"/>
-      <c r="J88" s="169"/>
-      <c r="K88" s="168"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B89" s="70" t="s">
+      <c r="H89" s="161"/>
+      <c r="I89" s="161"/>
+      <c r="J89" s="161"/>
+      <c r="K89" s="160"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B90" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C89" s="70" t="s">
+      <c r="C90" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D89" s="70" t="s">
+      <c r="D90" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E89" s="70" t="s">
+      <c r="E90" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F89" s="70" t="s">
+      <c r="F90" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G89" s="70" t="s">
+      <c r="G90" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H89" s="70" t="s">
+      <c r="H90" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I89" s="70" t="s">
+      <c r="I90" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J89" s="70" t="s">
+      <c r="J90" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K89" s="70" t="s">
+      <c r="K90" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L89" s="78" t="str">
-        <f>"create table "&amp;D88&amp;"("</f>
+      <c r="L90" s="78" t="str">
+        <f>"create table "&amp;D89&amp;"("</f>
         <v>create table GOODS_IMAGE(</v>
       </c>
-      <c r="N89" s="78" t="s">
+      <c r="N90" s="78" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B90" s="110">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B91" s="110">
         <v>1</v>
       </c>
-      <c r="C90" s="75" t="s">
+      <c r="C91" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D90" s="53" t="str">
-        <f>"번호 ("&amp;D88&amp;"_SEQ.nextval)"</f>
+      <c r="D91" s="53" t="str">
+        <f>"번호 ("&amp;D89&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_IMAGE_SEQ.nextval)</v>
       </c>
-      <c r="E90" s="75" t="s">
+      <c r="E91" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F90" s="110"/>
-      <c r="G90" s="110"/>
-      <c r="H90" s="110"/>
-      <c r="I90" s="110" t="s">
+      <c r="F91" s="110"/>
+      <c r="G91" s="110"/>
+      <c r="H91" s="110"/>
+      <c r="I91" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J90" s="110"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="78" t="str">
-        <f t="shared" ref="L90:L91" si="11">C90&amp;" "&amp;E90&amp;IF(E90="varchar2","("&amp;F90&amp;")","")&amp;IF(J90="",""," default "&amp;J90)&amp;IF(G90="",""," "&amp;G90)&amp;IF(H90="",""," unique")&amp;IF(I90="",""," primary key")&amp;","</f>
+      <c r="J91" s="110"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="78" t="str">
+        <f t="shared" ref="L91:L92" si="11">C91&amp;" "&amp;E91&amp;IF(E91="varchar2","("&amp;F91&amp;")","")&amp;IF(J91="",""," default "&amp;J91)&amp;IF(G91="",""," "&amp;G91)&amp;IF(H91="",""," unique")&amp;IF(I91="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N90" s="78" t="s">
+      <c r="N91" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B91" s="73">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B92" s="73">
         <v>2</v>
       </c>
-      <c r="C91" s="74" t="s">
+      <c r="C92" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="D91" s="74" t="s">
+      <c r="D92" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="E91" s="74" t="s">
+      <c r="E92" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F91" s="73">
+      <c r="F92" s="73">
         <v>100</v>
       </c>
-      <c r="G91" s="73" t="s">
+      <c r="G92" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="H91" s="73"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="73"/>
-      <c r="K91" s="74" t="s">
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="L91" s="78" t="str">
+      <c r="L92" s="78" t="str">
         <f t="shared" si="11"/>
         <v>GOODSCODE varchar2(100) not null,</v>
       </c>
-      <c r="N91" s="78" t="s">
+      <c r="N92" s="78" t="s">
         <v>345</v>
       </c>
-      <c r="O91" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C91&amp;") references "&amp;K91</f>
+      <c r="O92" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C92&amp;") references "&amp;K92</f>
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B92" s="54">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B93" s="54">
         <v>3</v>
       </c>
-      <c r="C92" s="55" t="s">
+      <c r="C93" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D92" s="55" t="s">
+      <c r="D93" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="55" t="s">
+      <c r="E93" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F92" s="54">
+      <c r="F93" s="54">
         <v>100</v>
       </c>
-      <c r="G92" s="54" t="s">
+      <c r="G93" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="78" t="str">
-        <f>C92&amp;" "&amp;E92&amp;IF(E92="varchar2","("&amp;F92&amp;")","")&amp;IF(J92="",""," default "&amp;J92)&amp;IF(G92="",""," "&amp;G92)&amp;IF(H92="",""," unique")&amp;IF(I92="",""," primary key")</f>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="78" t="str">
+        <f>C93&amp;" "&amp;E93&amp;IF(E93="varchar2","("&amp;F93&amp;")","")&amp;IF(J93="",""," default "&amp;J93)&amp;IF(G93="",""," "&amp;G93)&amp;IF(H93="",""," unique")&amp;IF(I93="",""," primary key")</f>
         <v>SAVENAME varchar2(100) not null</v>
       </c>
-      <c r="N92" s="78" t="s">
+      <c r="N93" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="K93" s="108"/>
-      <c r="L93" s="78" t="s">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K94" s="108"/>
+      <c r="L94" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N93" s="78" t="s">
+      <c r="N94" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A94" s="78">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A95" s="78">
         <v>11</v>
       </c>
-      <c r="B94" s="176" t="s">
+      <c r="B95" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="176"/>
-      <c r="D94" s="175" t="s">
+      <c r="C95" s="162"/>
+      <c r="D95" s="163" t="s">
         <v>414</v>
       </c>
-      <c r="E94" s="175"/>
-      <c r="F94" s="113" t="s">
+      <c r="E95" s="163"/>
+      <c r="F95" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="G94" s="175" t="s">
+      <c r="G95" s="163" t="s">
         <v>389</v>
       </c>
-      <c r="H94" s="175"/>
-      <c r="I94" s="175"/>
-      <c r="J94" s="175"/>
-      <c r="K94" s="175"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B95" s="113" t="s">
+      <c r="H95" s="163"/>
+      <c r="I95" s="163"/>
+      <c r="J95" s="163"/>
+      <c r="K95" s="163"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B96" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="113" t="s">
+      <c r="C96" s="113" t="s">
         <v>287</v>
       </c>
-      <c r="D95" s="113" t="s">
+      <c r="D96" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="E95" s="113" t="s">
+      <c r="E96" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="F95" s="113" t="s">
+      <c r="F96" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="G95" s="113" t="s">
+      <c r="G96" s="113" t="s">
         <v>288</v>
       </c>
-      <c r="H95" s="113" t="s">
+      <c r="H96" s="113" t="s">
         <v>395</v>
       </c>
-      <c r="I95" s="113" t="s">
+      <c r="I96" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="J95" s="113" t="s">
+      <c r="J96" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="K95" s="113" t="s">
+      <c r="K96" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="L95" s="78" t="str">
-        <f>"create table "&amp;D94&amp;"("</f>
+      <c r="L96" s="78" t="str">
+        <f>"create table "&amp;D95&amp;"("</f>
         <v>create table GOODS_SALES(</v>
       </c>
-      <c r="N95" s="78" t="s">
+      <c r="N96" s="78" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B96" s="114">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B97" s="114">
         <v>1</v>
       </c>
-      <c r="C96" s="90" t="s">
+      <c r="C97" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D96" s="53" t="str">
-        <f>"번호 ("&amp;D94&amp;"_SEQ.nextval)"</f>
+      <c r="D97" s="53" t="str">
+        <f>"번호 ("&amp;D95&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_SALES_SEQ.nextval)</v>
       </c>
-      <c r="E96" s="90" t="s">
+      <c r="E97" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F96" s="114"/>
-      <c r="G96" s="114"/>
-      <c r="H96" s="114"/>
-      <c r="I96" s="114" t="s">
+      <c r="F97" s="114"/>
+      <c r="G97" s="114"/>
+      <c r="H97" s="114"/>
+      <c r="I97" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J96" s="114"/>
-      <c r="K96" s="91"/>
-      <c r="L96" s="78" t="str">
-        <f t="shared" ref="L96:L99" si="12">C96&amp;" "&amp;E96&amp;IF(E96="varchar2","("&amp;F96&amp;")","")&amp;IF(J96="",""," default "&amp;J96)&amp;IF(G96="",""," "&amp;G96)&amp;IF(H96="",""," unique")&amp;IF(I96="",""," primary key")&amp;","</f>
+      <c r="J97" s="114"/>
+      <c r="K97" s="91"/>
+      <c r="L97" s="78" t="str">
+        <f t="shared" ref="L97:L100" si="12">C97&amp;" "&amp;E97&amp;IF(E97="varchar2","("&amp;F97&amp;")","")&amp;IF(J97="",""," default "&amp;J97)&amp;IF(G97="",""," "&amp;G97)&amp;IF(H97="",""," unique")&amp;IF(I97="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N96" s="78" t="s">
+      <c r="N97" s="78" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B97" s="93">
-        <v>2</v>
-      </c>
-      <c r="C97" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="D97" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F97" s="93">
-        <v>100</v>
-      </c>
-      <c r="G97" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H97" s="93"/>
-      <c r="I97" s="93"/>
-      <c r="J97" s="93"/>
-      <c r="K97" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="L97" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>GOODSCODE varchar2(100) not null,</v>
-      </c>
-      <c r="N97" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="O97" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C97&amp;") references "&amp;K97</f>
-        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B98" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" s="92" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="D98" s="92" t="s">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="E98" s="92" t="s">
         <v>135</v>
       </c>
       <c r="F98" s="93">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G98" s="93" t="s">
         <v>139</v>
@@ -11078,214 +11089,218 @@
       <c r="I98" s="93"/>
       <c r="J98" s="93"/>
       <c r="K98" s="92" t="s">
-        <v>401</v>
+        <v>271</v>
       </c>
       <c r="L98" s="78" t="str">
         <f t="shared" si="12"/>
-        <v>NICKNAME varchar2(20) not null,</v>
+        <v>GOODSCODE varchar2(100) not null,</v>
       </c>
       <c r="N98" s="78" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="O98" s="78" t="str">
         <f>"constraint FK1 foreign key("&amp;C98&amp;") references "&amp;K98</f>
-        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
+        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B99" s="114">
-        <v>4</v>
-      </c>
-      <c r="C99" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="D99" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="E99" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="F99" s="117"/>
-      <c r="G99" s="104" t="s">
+      <c r="B99" s="93">
         <v>3</v>
       </c>
-      <c r="H99" s="104"/>
-      <c r="I99" s="117"/>
-      <c r="J99" s="117"/>
-      <c r="K99" s="109"/>
+      <c r="C99" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="E99" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F99" s="93">
+        <v>20</v>
+      </c>
+      <c r="G99" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H99" s="93"/>
+      <c r="I99" s="93"/>
+      <c r="J99" s="93"/>
+      <c r="K99" s="92" t="s">
+        <v>401</v>
+      </c>
       <c r="L99" s="78" t="str">
         <f t="shared" si="12"/>
-        <v>SALES number not null,</v>
+        <v>NICKNAME varchar2(20) not null,</v>
+      </c>
+      <c r="N99" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="O99" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C99&amp;") references "&amp;K99</f>
+        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B100" s="114">
+        <v>4</v>
+      </c>
+      <c r="C100" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="D100" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="E100" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="117"/>
+      <c r="G100" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="104"/>
+      <c r="I100" s="117"/>
+      <c r="J100" s="117"/>
+      <c r="K100" s="109"/>
+      <c r="L100" s="78" t="str">
+        <f t="shared" si="12"/>
+        <v>SALES number not null,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B101" s="114">
         <v>5</v>
       </c>
-      <c r="C100" s="91" t="s">
+      <c r="C101" s="91" t="s">
         <v>383</v>
       </c>
-      <c r="D100" s="91" t="s">
+      <c r="D101" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E100" s="91" t="s">
+      <c r="E101" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F100" s="114"/>
-      <c r="G100" s="104"/>
-      <c r="H100" s="104"/>
-      <c r="I100" s="114"/>
-      <c r="J100" s="114" t="s">
+      <c r="F101" s="114"/>
+      <c r="G101" s="104"/>
+      <c r="H101" s="104"/>
+      <c r="I101" s="114"/>
+      <c r="J101" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="K100" s="91"/>
-      <c r="L100" s="78" t="str">
-        <f>C100&amp;" "&amp;E100&amp;IF(E100="varchar2","("&amp;F100&amp;")","")&amp;IF(J100="",""," default "&amp;J100)&amp;IF(G100="",""," "&amp;G100)&amp;IF(H100="",""," unique")&amp;IF(I100="",""," primary key")</f>
+      <c r="K101" s="91"/>
+      <c r="L101" s="78" t="str">
+        <f>C101&amp;" "&amp;E101&amp;IF(E101="varchar2","("&amp;F101&amp;")","")&amp;IF(J101="",""," default "&amp;J101)&amp;IF(G101="",""," "&amp;G101)&amp;IF(H101="",""," unique")&amp;IF(I101="",""," primary key")</f>
         <v>ORDERDATE date default sysdate</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L101" s="78" t="s">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L102" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N101" s="78" t="s">
+      <c r="N102" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A102" s="78">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A103" s="78">
         <v>12</v>
       </c>
-      <c r="B102" s="165" t="s">
+      <c r="B103" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C102" s="166"/>
-      <c r="D102" s="167" t="s">
+      <c r="C103" s="158"/>
+      <c r="D103" s="159" t="s">
         <v>276</v>
       </c>
-      <c r="E102" s="168"/>
-      <c r="F102" s="70" t="s">
+      <c r="E103" s="160"/>
+      <c r="F103" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G102" s="167" t="s">
+      <c r="G103" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="H102" s="169"/>
-      <c r="I102" s="169"/>
-      <c r="J102" s="169"/>
-      <c r="K102" s="168"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B103" s="70" t="s">
+      <c r="H103" s="161"/>
+      <c r="I103" s="161"/>
+      <c r="J103" s="161"/>
+      <c r="K103" s="160"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B104" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C103" s="70" t="s">
+      <c r="C104" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D103" s="70" t="s">
+      <c r="D104" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E103" s="70" t="s">
+      <c r="E104" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F103" s="70" t="s">
+      <c r="F104" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G103" s="70" t="s">
+      <c r="G104" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H103" s="70" t="s">
+      <c r="H104" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I103" s="70" t="s">
+      <c r="I104" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J103" s="70" t="s">
+      <c r="J104" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K103" s="70" t="s">
+      <c r="K104" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L103" s="78" t="str">
-        <f>"create table "&amp;D102&amp;"("</f>
+      <c r="L104" s="78" t="str">
+        <f>"create table "&amp;D103&amp;"("</f>
         <v>create table ASSATALK(</v>
       </c>
-      <c r="N103" s="78" t="s">
+      <c r="N104" s="78" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B104" s="54">
-        <v>1</v>
-      </c>
-      <c r="C104" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D104" s="53" t="str">
-        <f>"번호 ("&amp;D102&amp;"_SEQ.nextval)"</f>
-        <v>번호 (ASSATALK_SEQ.nextval)</v>
-      </c>
-      <c r="E104" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J104" s="54"/>
-      <c r="K104" s="55"/>
-      <c r="L104" s="78" t="str">
-        <f t="shared" ref="L104:L107" si="13">C104&amp;" "&amp;E104&amp;IF(E104="varchar2","("&amp;F104&amp;")","")&amp;IF(J104="",""," default "&amp;J104)&amp;IF(G104="",""," "&amp;G104)&amp;IF(H104="",""," unique")&amp;IF(I104="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N104" s="78" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B105" s="54">
-        <v>2</v>
-      </c>
-      <c r="C105" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D105" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="E105" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F105" s="54">
-        <v>20</v>
-      </c>
-      <c r="G105" s="54" t="s">
-        <v>139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C105" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="53" t="str">
+        <f>"번호 ("&amp;D103&amp;"_SEQ.nextval)"</f>
+        <v>번호 (ASSATALK_SEQ.nextval)</v>
+      </c>
+      <c r="E105" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
       <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
+      <c r="I105" s="54" t="s">
+        <v>205</v>
+      </c>
       <c r="J105" s="54"/>
-      <c r="K105" s="55" t="s">
-        <v>296</v>
-      </c>
+      <c r="K105" s="55"/>
       <c r="L105" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>SPEAKER varchar2(20) not null,</v>
+        <f t="shared" ref="L105:L108" si="13">C105&amp;" "&amp;E105&amp;IF(E105="varchar2","("&amp;F105&amp;")","")&amp;IF(J105="",""," default "&amp;J105)&amp;IF(G105="",""," "&amp;G105)&amp;IF(H105="",""," unique")&amp;IF(I105="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N105" s="78" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B106" s="54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D106" s="55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E106" s="55" t="s">
         <v>135</v>
@@ -11304,27 +11319,27 @@
       </c>
       <c r="L106" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>LISTENER varchar2(20) not null,</v>
+        <v>SPEAKER varchar2(20) not null,</v>
       </c>
       <c r="N106" s="78" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B107" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="E107" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F107" s="54">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G107" s="54" t="s">
         <v>139</v>
@@ -11332,225 +11347,225 @@
       <c r="H107" s="54"/>
       <c r="I107" s="54"/>
       <c r="J107" s="54"/>
-      <c r="K107" s="55"/>
+      <c r="K107" s="55" t="s">
+        <v>296</v>
+      </c>
       <c r="L107" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>CONTENT varchar2(200) not null,</v>
+        <v>LISTENER varchar2(20) not null,</v>
       </c>
       <c r="N107" s="78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B108" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F108" s="54">
+        <v>200</v>
+      </c>
+      <c r="G108" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H108" s="54"/>
       <c r="I108" s="54"/>
-      <c r="J108" s="54" t="s">
-        <v>174</v>
-      </c>
+      <c r="J108" s="54"/>
       <c r="K108" s="55"/>
       <c r="L108" s="78" t="str">
-        <f>C108&amp;" "&amp;E108&amp;IF(E108="varchar2","("&amp;F108&amp;")","")&amp;IF(J108="",""," default "&amp;J108)&amp;IF(G108="",""," "&amp;G108)&amp;IF(H108="",""," unique")&amp;IF(I108="",""," primary key")</f>
+        <f t="shared" si="13"/>
+        <v>CONTENT varchar2(200) not null,</v>
+      </c>
+      <c r="N108" s="78" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B109" s="54">
+        <v>5</v>
+      </c>
+      <c r="C109" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D109" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E109" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="K109" s="55"/>
+      <c r="L109" s="78" t="str">
+        <f>C109&amp;" "&amp;E109&amp;IF(E109="varchar2","("&amp;F109&amp;")","")&amp;IF(J109="",""," default "&amp;J109)&amp;IF(G109="",""," "&amp;G109)&amp;IF(H109="",""," unique")&amp;IF(I109="",""," primary key")</f>
         <v>SENDTIME timestamp default systimestamp</v>
       </c>
-      <c r="N108" s="78" t="s">
+      <c r="N109" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L109" s="78" t="s">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L110" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N109" s="78" t="s">
+      <c r="N110" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A110" s="78">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A111" s="78">
         <v>13</v>
       </c>
-      <c r="B110" s="165" t="s">
+      <c r="B111" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C110" s="166"/>
-      <c r="D110" s="167" t="s">
+      <c r="C111" s="158"/>
+      <c r="D111" s="159" t="s">
         <v>407</v>
       </c>
-      <c r="E110" s="168"/>
-      <c r="F110" s="70" t="s">
+      <c r="E111" s="160"/>
+      <c r="F111" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G110" s="167" t="s">
+      <c r="G111" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="H110" s="169"/>
-      <c r="I110" s="169"/>
-      <c r="J110" s="169"/>
-      <c r="K110" s="168"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B111" s="70" t="s">
+      <c r="H111" s="161"/>
+      <c r="I111" s="161"/>
+      <c r="J111" s="161"/>
+      <c r="K111" s="160"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B112" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="70" t="s">
+      <c r="C112" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D111" s="70" t="s">
+      <c r="D112" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E111" s="70" t="s">
+      <c r="E112" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F111" s="70" t="s">
+      <c r="F112" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G111" s="70" t="s">
+      <c r="G112" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H111" s="70" t="s">
+      <c r="H112" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I111" s="70" t="s">
+      <c r="I112" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J111" s="70" t="s">
+      <c r="J112" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K111" s="70" t="s">
+      <c r="K112" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L111" s="78" t="str">
-        <f>"create table "&amp;D110&amp;"("</f>
+      <c r="L112" s="78" t="str">
+        <f>"create table "&amp;D111&amp;"("</f>
         <v>create table ASSATALK_KEYWORD(</v>
       </c>
-      <c r="N111" s="78" t="s">
+      <c r="N112" s="78" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B112" s="54">
-        <v>1</v>
-      </c>
-      <c r="C112" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D112" s="53" t="str">
-        <f>"번호 ("&amp;D110&amp;"_SEQ.nextval)"</f>
-        <v>번호 (ASSATALK_KEYWORD_SEQ.nextval)</v>
-      </c>
-      <c r="E112" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F112" s="54"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="54"/>
-      <c r="I112" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J112" s="54"/>
-      <c r="K112" s="55"/>
-      <c r="L112" s="78" t="str">
-        <f t="shared" ref="L112:L114" si="14">C112&amp;" "&amp;E112&amp;IF(E112="varchar2","("&amp;F112&amp;")","")&amp;IF(J112="",""," default "&amp;J112)&amp;IF(G112="",""," "&amp;G112)&amp;IF(H112="",""," unique")&amp;IF(I112="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N112" s="78" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B113" s="54">
-        <v>2</v>
-      </c>
-      <c r="C113" s="55" t="s">
-        <v>411</v>
-      </c>
-      <c r="D113" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="E113" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F113" s="54">
-        <v>20</v>
-      </c>
-      <c r="G113" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H113" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="I113" s="54"/>
+        <v>1</v>
+      </c>
+      <c r="C113" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" s="53" t="str">
+        <f>"번호 ("&amp;D111&amp;"_SEQ.nextval)"</f>
+        <v>번호 (ASSATALK_KEYWORD_SEQ.nextval)</v>
+      </c>
+      <c r="E113" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54" t="s">
+        <v>205</v>
+      </c>
       <c r="J113" s="54"/>
       <c r="K113" s="55"/>
       <c r="L113" s="78" t="str">
+        <f t="shared" ref="L113:L115" si="14">C113&amp;" "&amp;E113&amp;IF(E113="varchar2","("&amp;F113&amp;")","")&amp;IF(J113="",""," default "&amp;J113)&amp;IF(G113="",""," "&amp;G113)&amp;IF(H113="",""," unique")&amp;IF(I113="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N113" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B114" s="54">
+        <v>2</v>
+      </c>
+      <c r="C114" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="D114" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="E114" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="54">
+        <v>20</v>
+      </c>
+      <c r="G114" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H114" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="I114" s="54"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="55"/>
+      <c r="L114" s="78" t="str">
         <f t="shared" si="14"/>
         <v>KEYWORD varchar2(20) not null unique,</v>
       </c>
-      <c r="N113" s="78" t="s">
+      <c r="N114" s="78" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="32" x14ac:dyDescent="0.45">
-      <c r="B114" s="54">
+    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B115" s="54">
         <v>3</v>
       </c>
-      <c r="C114" s="55" t="s">
+      <c r="C115" s="55" t="s">
         <v>412</v>
       </c>
-      <c r="D114" s="55" t="s">
+      <c r="D115" s="55" t="s">
         <v>409</v>
-      </c>
-      <c r="E114" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" s="54">
-        <v>20</v>
-      </c>
-      <c r="G114" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="L114" s="78" t="str">
-        <f t="shared" si="14"/>
-        <v>ANSWERTYPE varchar2(20) not null,</v>
-      </c>
-      <c r="N114" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B115" s="54">
-        <v>5</v>
-      </c>
-      <c r="C115" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D115" s="55" t="s">
-        <v>410</v>
       </c>
       <c r="E115" s="55" t="s">
         <v>4</v>
       </c>
       <c r="F115" s="54">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="G115" s="54" t="s">
         <v>3</v>
@@ -11558,229 +11573,231 @@
       <c r="H115" s="54"/>
       <c r="I115" s="54"/>
       <c r="J115" s="54"/>
-      <c r="K115" s="55"/>
+      <c r="K115" s="55" t="s">
+        <v>413</v>
+      </c>
       <c r="L115" s="78" t="str">
-        <f>C115&amp;" "&amp;E115&amp;IF(E115="varchar2","("&amp;F115&amp;")","")&amp;IF(J115="",""," default "&amp;J115)&amp;IF(G115="",""," "&amp;G115)&amp;IF(H115="",""," unique")&amp;IF(I115="",""," primary key")</f>
+        <f t="shared" si="14"/>
+        <v>ANSWERTYPE varchar2(20) not null,</v>
+      </c>
+      <c r="N115" s="78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B116" s="54">
+        <v>5</v>
+      </c>
+      <c r="C116" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="E116" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G116" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="55"/>
+      <c r="L116" s="78" t="str">
+        <f>C116&amp;" "&amp;E116&amp;IF(E116="varchar2","("&amp;F116&amp;")","")&amp;IF(J116="",""," default "&amp;J116)&amp;IF(G116="",""," "&amp;G116)&amp;IF(H116="",""," unique")&amp;IF(I116="",""," primary key")</f>
         <v>ANSWER varchar2(4000) not null</v>
       </c>
-      <c r="N115" s="78" t="s">
+      <c r="N116" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L116" s="78" t="s">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L117" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N116" s="78" t="s">
+      <c r="N117" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A117" s="78">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A118" s="78">
         <v>14</v>
       </c>
-      <c r="B117" s="174" t="s">
+      <c r="B118" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C117" s="174"/>
-      <c r="D117" s="175" t="s">
+      <c r="C118" s="164"/>
+      <c r="D118" s="163" t="s">
         <v>257</v>
       </c>
-      <c r="E117" s="175"/>
-      <c r="F117" s="115" t="s">
+      <c r="E118" s="163"/>
+      <c r="F118" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G117" s="175" t="s">
+      <c r="G118" s="163" t="s">
         <v>389</v>
       </c>
-      <c r="H117" s="175"/>
-      <c r="I117" s="175"/>
-      <c r="J117" s="175"/>
-      <c r="K117" s="175"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B118" s="115" t="s">
+      <c r="H118" s="163"/>
+      <c r="I118" s="163"/>
+      <c r="J118" s="163"/>
+      <c r="K118" s="163"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B119" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C118" s="115" t="s">
+      <c r="C119" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D118" s="115" t="s">
+      <c r="D119" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E118" s="115" t="s">
+      <c r="E119" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F118" s="115" t="s">
+      <c r="F119" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G118" s="115" t="s">
+      <c r="G119" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H118" s="70" t="s">
+      <c r="H119" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I118" s="115" t="s">
+      <c r="I119" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J118" s="115" t="s">
+      <c r="J119" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K118" s="115" t="s">
+      <c r="K119" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L118" s="78" t="str">
-        <f>"create table "&amp;D117&amp;"("</f>
+      <c r="L119" s="78" t="str">
+        <f>"create table "&amp;D118&amp;"("</f>
         <v>create table QUESTION(</v>
       </c>
-      <c r="N118" s="78" t="s">
+      <c r="N119" s="78" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B119" s="114">
-        <v>1</v>
-      </c>
-      <c r="C119" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="D119" s="53" t="str">
-        <f>"번호 ("&amp;D117&amp;"_SEQ.nextval)"</f>
-        <v>번호 (QUESTION_SEQ.nextval)</v>
-      </c>
-      <c r="E119" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="F119" s="114"/>
-      <c r="G119" s="114"/>
-      <c r="H119" s="114"/>
-      <c r="I119" s="114" t="s">
-        <v>205</v>
-      </c>
-      <c r="J119" s="114"/>
-      <c r="K119" s="91"/>
-      <c r="L119" s="78" t="str">
-        <f t="shared" ref="L119:L125" si="15">C119&amp;" "&amp;E119&amp;IF(E119="varchar2","("&amp;F119&amp;")","")&amp;IF(J119="",""," default "&amp;J119)&amp;IF(G119="",""," "&amp;G119)&amp;IF(H119="",""," unique")&amp;IF(I119="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N119" s="78" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B120" s="114">
-        <v>2</v>
-      </c>
-      <c r="C120" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="D120" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="E120" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F120" s="114">
-        <v>20</v>
-      </c>
-      <c r="G120" s="114" t="s">
-        <v>139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C120" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="53" t="str">
+        <f>"번호 ("&amp;D118&amp;"_SEQ.nextval)"</f>
+        <v>번호 (QUESTION_SEQ.nextval)</v>
+      </c>
+      <c r="E120" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="F120" s="114"/>
+      <c r="G120" s="114"/>
       <c r="H120" s="114"/>
-      <c r="I120" s="114"/>
+      <c r="I120" s="114" t="s">
+        <v>205</v>
+      </c>
       <c r="J120" s="114"/>
       <c r="K120" s="91"/>
       <c r="L120" s="78" t="str">
+        <f t="shared" ref="L120:L126" si="15">C120&amp;" "&amp;E120&amp;IF(E120="varchar2","("&amp;F120&amp;")","")&amp;IF(J120="",""," default "&amp;J120)&amp;IF(G120="",""," "&amp;G120)&amp;IF(H120="",""," unique")&amp;IF(I120="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N120" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B121" s="114">
+        <v>2</v>
+      </c>
+      <c r="C121" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D121" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="E121" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F121" s="114">
+        <v>20</v>
+      </c>
+      <c r="G121" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H121" s="114"/>
+      <c r="I121" s="114"/>
+      <c r="J121" s="114"/>
+      <c r="K121" s="91"/>
+      <c r="L121" s="78" t="str">
         <f t="shared" si="15"/>
         <v>ASKTYPE varchar2(20) not null,</v>
       </c>
-      <c r="N120" s="78" t="s">
+      <c r="N121" s="78" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B121" s="114">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B122" s="114">
         <v>3</v>
       </c>
-      <c r="C121" s="94" t="s">
+      <c r="C122" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="D121" s="94" t="s">
+      <c r="D122" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="E121" s="94" t="s">
+      <c r="E122" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F121" s="95">
+      <c r="F122" s="95">
         <v>20</v>
       </c>
-      <c r="G121" s="95" t="s">
+      <c r="G122" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="H121" s="95"/>
-      <c r="I121" s="95"/>
-      <c r="J121" s="95"/>
-      <c r="K121" s="94" t="s">
+      <c r="H122" s="95"/>
+      <c r="I122" s="95"/>
+      <c r="J122" s="95"/>
+      <c r="K122" s="94" t="s">
         <v>388</v>
       </c>
-      <c r="L121" s="78" t="str">
+      <c r="L122" s="78" t="str">
         <f t="shared" si="15"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N121" s="78" t="s">
+      <c r="N122" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="O121" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C121&amp;") references "&amp;K121</f>
+      <c r="O122" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C122&amp;") references "&amp;K122</f>
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B122" s="114">
-        <v>4</v>
-      </c>
-      <c r="C122" s="91" t="s">
-        <v>232</v>
-      </c>
-      <c r="D122" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="E122" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F122" s="114">
-        <v>50</v>
-      </c>
-      <c r="G122" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H122" s="114"/>
-      <c r="I122" s="114"/>
-      <c r="J122" s="114"/>
-      <c r="K122" s="91"/>
-      <c r="L122" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>TITLE varchar2(50) not null,</v>
-      </c>
-      <c r="N122" s="78" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B123" s="114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" s="91" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="D123" s="91" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="E123" s="91" t="s">
         <v>135</v>
       </c>
       <c r="F123" s="114">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G123" s="114" t="s">
         <v>139</v>
@@ -11791,21 +11808,21 @@
       <c r="K123" s="91"/>
       <c r="L123" s="78" t="str">
         <f t="shared" si="15"/>
-        <v>CONTENT varchar2(4000) not null,</v>
+        <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N123" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B124" s="114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" s="91" t="s">
-        <v>262</v>
+        <v>141</v>
       </c>
       <c r="D124" s="91" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="E124" s="91" t="s">
         <v>135</v>
@@ -11813,61 +11830,61 @@
       <c r="F124" s="114">
         <v>4000</v>
       </c>
-      <c r="G124" s="114"/>
+      <c r="G124" s="114" t="s">
+        <v>139</v>
+      </c>
       <c r="H124" s="114"/>
       <c r="I124" s="114"/>
       <c r="J124" s="114"/>
-      <c r="K124" s="91" t="s">
-        <v>365</v>
-      </c>
+      <c r="K124" s="91"/>
       <c r="L124" s="78" t="str">
         <f t="shared" si="15"/>
-        <v>ANSWER varchar2(4000),</v>
+        <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N124" s="78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="32" x14ac:dyDescent="0.45">
       <c r="B125" s="114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" s="91" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D125" s="91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E125" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F125" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="F125" s="114">
+        <v>4000</v>
+      </c>
       <c r="G125" s="114"/>
       <c r="H125" s="114"/>
       <c r="I125" s="114"/>
-      <c r="J125" s="114" t="s">
-        <v>157</v>
-      </c>
+      <c r="J125" s="114"/>
       <c r="K125" s="91" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="L125" s="78" t="str">
         <f t="shared" si="15"/>
-        <v>ASKDATE date default sysdate,</v>
+        <v>ANSWER varchar2(4000),</v>
       </c>
       <c r="N125" s="78" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B126" s="114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" s="91" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D126" s="91" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E126" s="91" t="s">
         <v>156</v>
@@ -11876,234 +11893,236 @@
       <c r="G126" s="114"/>
       <c r="H126" s="114"/>
       <c r="I126" s="114"/>
-      <c r="J126" s="114"/>
+      <c r="J126" s="114" t="s">
+        <v>157</v>
+      </c>
       <c r="K126" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="L126" s="78" t="str">
+        <f t="shared" si="15"/>
+        <v>ASKDATE date default sysdate,</v>
+      </c>
+      <c r="N126" s="78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B127" s="114">
+        <v>8</v>
+      </c>
+      <c r="C127" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D127" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E127" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F127" s="114"/>
+      <c r="G127" s="114"/>
+      <c r="H127" s="114"/>
+      <c r="I127" s="114"/>
+      <c r="J127" s="114"/>
+      <c r="K127" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="L126" s="78" t="str">
-        <f>C126&amp;" "&amp;E126&amp;IF(E126="varchar2","("&amp;F126&amp;")","")&amp;IF(J126="",""," default "&amp;J126)&amp;IF(G126="",""," "&amp;G126)&amp;IF(H126="",""," unique")&amp;IF(I126="",""," primary key")</f>
+      <c r="L127" s="78" t="str">
+        <f>C127&amp;" "&amp;E127&amp;IF(E127="varchar2","("&amp;F127&amp;")","")&amp;IF(J127="",""," default "&amp;J127)&amp;IF(G127="",""," "&amp;G127)&amp;IF(H127="",""," unique")&amp;IF(I127="",""," primary key")</f>
         <v>ANSWERDATE date</v>
       </c>
-      <c r="N126" s="78" t="s">
+      <c r="N127" s="78" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L127" s="78" t="s">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L128" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N127" s="78" t="s">
+      <c r="N128" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A128" s="78">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A129" s="78">
         <v>15</v>
       </c>
-      <c r="B128" s="165" t="s">
+      <c r="B129" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C128" s="166"/>
-      <c r="D128" s="167" t="s">
+      <c r="C129" s="158"/>
+      <c r="D129" s="159" t="s">
         <v>297</v>
       </c>
-      <c r="E128" s="168"/>
-      <c r="F128" s="70" t="s">
+      <c r="E129" s="160"/>
+      <c r="F129" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G128" s="167" t="s">
+      <c r="G129" s="159" t="s">
         <v>389</v>
       </c>
-      <c r="H128" s="169"/>
-      <c r="I128" s="169"/>
-      <c r="J128" s="169"/>
-      <c r="K128" s="168"/>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B129" s="70" t="s">
+      <c r="H129" s="161"/>
+      <c r="I129" s="161"/>
+      <c r="J129" s="161"/>
+      <c r="K129" s="160"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B130" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C129" s="70" t="s">
+      <c r="C130" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D129" s="70" t="s">
+      <c r="D130" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E129" s="70" t="s">
+      <c r="E130" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F129" s="70" t="s">
+      <c r="F130" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G129" s="70" t="s">
+      <c r="G130" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H129" s="70" t="s">
+      <c r="H130" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I129" s="70" t="s">
+      <c r="I130" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J129" s="70" t="s">
+      <c r="J130" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K129" s="70" t="s">
+      <c r="K130" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L129" s="78" t="str">
-        <f>"create table "&amp;D128&amp;"("</f>
+      <c r="L130" s="78" t="str">
+        <f>"create table "&amp;D129&amp;"("</f>
         <v>create table WARNING(</v>
       </c>
-      <c r="N129" s="78" t="s">
+      <c r="N130" s="78" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B130" s="54">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B131" s="54">
         <v>1</v>
       </c>
-      <c r="C130" s="53" t="s">
+      <c r="C131" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D130" s="53" t="str">
-        <f>"번호 ("&amp;D128&amp;"_SEQ.nextval)"</f>
+      <c r="D131" s="53" t="str">
+        <f>"번호 ("&amp;D129&amp;"_SEQ.nextval)"</f>
         <v>번호 (WARNING_SEQ.nextval)</v>
       </c>
-      <c r="E130" s="53" t="s">
+      <c r="E131" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F130" s="54"/>
-      <c r="G130" s="54"/>
-      <c r="H130" s="54"/>
-      <c r="I130" s="54" t="s">
+      <c r="F131" s="54"/>
+      <c r="G131" s="54"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J130" s="54"/>
-      <c r="K130" s="55"/>
-      <c r="L130" s="78" t="str">
-        <f t="shared" ref="L130:L134" si="16">C130&amp;" "&amp;E130&amp;IF(E130="varchar2","("&amp;F130&amp;")","")&amp;IF(J130="",""," default "&amp;J130)&amp;IF(G130="",""," "&amp;G130)&amp;IF(H130="",""," unique")&amp;IF(I130="",""," primary key")&amp;","</f>
+      <c r="J131" s="54"/>
+      <c r="K131" s="55"/>
+      <c r="L131" s="78" t="str">
+        <f t="shared" ref="L131:L135" si="16">C131&amp;" "&amp;E131&amp;IF(E131="varchar2","("&amp;F131&amp;")","")&amp;IF(J131="",""," default "&amp;J131)&amp;IF(G131="",""," "&amp;G131)&amp;IF(H131="",""," unique")&amp;IF(I131="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N130" s="78" t="s">
+      <c r="N131" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B131" s="54">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B132" s="54">
         <v>2</v>
       </c>
-      <c r="C131" s="82" t="s">
+      <c r="C132" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D131" s="82" t="s">
+      <c r="D132" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="E131" s="82" t="s">
+      <c r="E132" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F131" s="83">
+      <c r="F132" s="83">
         <v>20</v>
       </c>
-      <c r="G131" s="83" t="s">
+      <c r="G132" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H131" s="83"/>
-      <c r="I131" s="83"/>
-      <c r="J131" s="83"/>
-      <c r="K131" s="85" t="s">
+      <c r="H132" s="83"/>
+      <c r="I132" s="83"/>
+      <c r="J132" s="83"/>
+      <c r="K132" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="L131" s="78" t="str">
+      <c r="L132" s="78" t="str">
         <f t="shared" si="16"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N131" s="78" t="s">
+      <c r="N132" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="O131" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C131&amp;") references "&amp;K131</f>
+      <c r="O132" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C132&amp;") references "&amp;K132</f>
         <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B132" s="110">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B133" s="110">
         <v>3</v>
       </c>
-      <c r="C132" s="85" t="s">
+      <c r="C133" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="D132" s="85" t="s">
+      <c r="D133" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="E132" s="85" t="s">
+      <c r="E133" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="F132" s="84"/>
-      <c r="G132" s="84" t="s">
+      <c r="F133" s="84"/>
+      <c r="G133" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="H132" s="84"/>
-      <c r="I132" s="84"/>
-      <c r="J132" s="84"/>
-      <c r="K132" s="85" t="s">
+      <c r="H133" s="84"/>
+      <c r="I133" s="84"/>
+      <c r="J133" s="84"/>
+      <c r="K133" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="L132" s="78" t="str">
+      <c r="L133" s="78" t="str">
         <f t="shared" si="16"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N132" s="78" t="s">
+      <c r="N133" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O132" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C132&amp;") references "&amp;K132</f>
+      <c r="O133" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C133&amp;") references "&amp;K133</f>
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B133" s="54">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B134" s="54">
         <v>4</v>
       </c>
-      <c r="C133" s="55" t="s">
+      <c r="C134" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D133" s="55" t="s">
+      <c r="D134" s="55" t="s">
         <v>183</v>
-      </c>
-      <c r="E133" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F133" s="54">
-        <v>30</v>
-      </c>
-      <c r="G133" s="54"/>
-      <c r="H133" s="54"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
-      <c r="K133" s="55"/>
-      <c r="L133" s="78" t="str">
-        <f t="shared" si="16"/>
-        <v>WARNTYPE varchar2(30),</v>
-      </c>
-      <c r="N133" s="78" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B134" s="54">
-        <v>5</v>
-      </c>
-      <c r="C134" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D134" s="55" t="s">
-        <v>185</v>
       </c>
       <c r="E134" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F134" s="54">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G134" s="54"/>
       <c r="H134" s="54"/>
@@ -12112,96 +12131,80 @@
       <c r="K134" s="55"/>
       <c r="L134" s="78" t="str">
         <f t="shared" si="16"/>
-        <v>WARNWHY varchar2(300),</v>
+        <v>WARNTYPE varchar2(30),</v>
       </c>
       <c r="N134" s="78" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B135" s="54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D135" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E135" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F135" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F135" s="54">
+        <v>300</v>
+      </c>
       <c r="G135" s="54"/>
       <c r="H135" s="54"/>
       <c r="I135" s="54"/>
-      <c r="J135" s="54" t="s">
-        <v>157</v>
-      </c>
+      <c r="J135" s="54"/>
       <c r="K135" s="55"/>
       <c r="L135" s="78" t="str">
-        <f>C135&amp;" "&amp;E135&amp;IF(E135="varchar2","("&amp;F135&amp;")","")&amp;IF(J135="",""," default "&amp;J135)&amp;IF(G135="",""," "&amp;G135)&amp;IF(H135="",""," unique")&amp;IF(I135="",""," primary key")</f>
+        <f t="shared" si="16"/>
+        <v>WARNWHY varchar2(300),</v>
+      </c>
+      <c r="N135" s="78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B136" s="54">
+        <v>6</v>
+      </c>
+      <c r="C136" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D136" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E136" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F136" s="54"/>
+      <c r="G136" s="54"/>
+      <c r="H136" s="54"/>
+      <c r="I136" s="54"/>
+      <c r="J136" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K136" s="55"/>
+      <c r="L136" s="78" t="str">
+        <f>C136&amp;" "&amp;E136&amp;IF(E136="varchar2","("&amp;F136&amp;")","")&amp;IF(J136="",""," default "&amp;J136)&amp;IF(G136="",""," "&amp;G136)&amp;IF(H136="",""," unique")&amp;IF(I136="",""," primary key")</f>
         <v>WARNTIME date default sysdate</v>
       </c>
-      <c r="N135" s="78" t="s">
+      <c r="N136" s="78" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="L136" s="78" t="s">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L137" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N136" s="78" t="s">
+      <c r="N137" s="78" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="G128:K128"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:K14"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -12210,6 +12213,51 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="G129:K129"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="B89:C89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12243,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="str">
-        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>MEMBER</v>
       </c>
     </row>
@@ -12256,7 +12304,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>MEMBER_PLUS</v>
       </c>
     </row>
@@ -12269,7 +12317,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>MEMBER_ADDR</v>
       </c>
     </row>
@@ -12282,7 +12330,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>POINT</v>
       </c>
     </row>
@@ -12292,7 +12340,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>BOARD</v>
       </c>
     </row>
@@ -12302,7 +12350,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>BOARD_REF</v>
       </c>
     </row>
@@ -12312,7 +12360,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>BOARD_IMAGE</v>
       </c>
     </row>
@@ -12322,7 +12370,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>BOARD_TERM</v>
       </c>
     </row>
@@ -12332,7 +12380,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>GOODS</v>
       </c>
     </row>
@@ -12342,7 +12390,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>GOODS_IMAGE</v>
       </c>
     </row>
@@ -12352,7 +12400,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>GOODS_SALES</v>
       </c>
     </row>
@@ -12362,7 +12410,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>ASSATALK</v>
       </c>
     </row>
@@ -12372,7 +12420,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>ASSATALK_KEYWORD</v>
       </c>
     </row>
@@ -12382,7 +12430,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>QUESTION</v>
       </c>
     </row>
@@ -12392,7 +12440,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$135,4,FALSE)</f>
+        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
         <v>WARNING</v>
       </c>
     </row>

--- a/설계/테이블설계/1. 테이블정의서.xlsx
+++ b/설계/테이블설계/1. 테이블정의서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\테이블설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B7F36E-1AC9-426D-809F-6539D2EF09FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE66CF78-5BC9-4A77-B2A3-837AF31D3173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="428">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1496,6 +1496,14 @@
   </si>
   <si>
     <t>자동로그인 세션ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 수량(재고)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1503,7 +1511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2218,7 +2226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2597,6 +2605,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2669,26 +2701,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2705,53 +2743,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3077,7 +3088,7 @@
       <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -3089,7 +3100,7 @@
     <col min="8" max="8" width="59.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -3105,7 +3116,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="17.5" thickBot="1">
       <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
@@ -3131,11 +3142,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="129" t="s">
+    <row r="3" spans="1:8" s="4" customFormat="1">
+      <c r="A3" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="134" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3155,9 +3166,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="130"/>
-      <c r="B4" s="127"/>
+    <row r="4" spans="1:8" s="19" customFormat="1">
+      <c r="A4" s="138"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="17" t="s">
         <v>32</v>
       </c>
@@ -3173,9 +3184,9 @@
       <c r="G4" s="18"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="130"/>
-      <c r="B5" s="127"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="138"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
@@ -3193,9 +3204,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="130"/>
-      <c r="B6" s="127"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="138"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
@@ -3211,9 +3222,9 @@
       <c r="G6" s="11"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="130"/>
-      <c r="B7" s="127"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="138"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
@@ -3229,9 +3240,9 @@
       <c r="G7" s="11"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="130"/>
-      <c r="B8" s="127"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="138"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
@@ -3247,9 +3258,9 @@
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="130"/>
-      <c r="B9" s="127"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="138"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3265,9 +3276,9 @@
       <c r="G9" s="11"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="130"/>
-      <c r="B10" s="127"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="138"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3283,9 +3294,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="38"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="130"/>
-      <c r="B11" s="127"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="138"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
@@ -3301,9 +3312,9 @@
       <c r="G11" s="11"/>
       <c r="H11" s="38"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="130"/>
-      <c r="B12" s="127"/>
+    <row r="12" spans="1:8" s="3" customFormat="1">
+      <c r="A12" s="138"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
@@ -3319,9 +3330,9 @@
       </c>
       <c r="H12" s="38"/>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="131"/>
-      <c r="B13" s="128"/>
+    <row r="13" spans="1:8" s="3" customFormat="1">
+      <c r="A13" s="139"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="58" t="s">
         <v>163</v>
       </c>
@@ -3337,11 +3348,11 @@
       </c>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="132" t="s">
+    <row r="14" spans="1:8" s="4" customFormat="1">
+      <c r="A14" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="142" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3364,9 +3375,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="132"/>
-      <c r="B15" s="134"/>
+    <row r="15" spans="1:8" s="3" customFormat="1">
+      <c r="A15" s="140"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
@@ -3384,9 +3395,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="143"/>
-      <c r="B16" s="134"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="151"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
@@ -3400,9 +3411,9 @@
       <c r="G16" s="9"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="143"/>
-      <c r="B17" s="134"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="151"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="8" t="s">
         <v>41</v>
       </c>
@@ -3416,9 +3427,9 @@
       <c r="G17" s="9"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="143"/>
-      <c r="B18" s="134"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="151"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
@@ -3432,9 +3443,9 @@
       <c r="G18" s="9"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="143"/>
-      <c r="B19" s="134"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="151"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
@@ -3448,9 +3459,9 @@
       <c r="G19" s="9"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="143"/>
-      <c r="B20" s="134"/>
+    <row r="20" spans="1:8" s="3" customFormat="1">
+      <c r="A20" s="151"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="8" t="s">
         <v>44</v>
       </c>
@@ -3470,9 +3481,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="A21" s="143"/>
-      <c r="B21" s="134"/>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="34">
+      <c r="A21" s="151"/>
+      <c r="B21" s="142"/>
       <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
@@ -3490,9 +3501,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="144"/>
-      <c r="B22" s="142"/>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="17.5" thickBot="1">
+      <c r="A22" s="152"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
@@ -3512,11 +3523,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="147" t="s">
+    <row r="23" spans="1:8" s="4" customFormat="1">
+      <c r="A23" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="153" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -3536,9 +3547,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="148"/>
-      <c r="B24" s="146"/>
+    <row r="24" spans="1:8" s="3" customFormat="1">
+      <c r="A24" s="156"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="10" t="s">
         <v>65</v>
       </c>
@@ -3556,9 +3567,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="148"/>
-      <c r="B25" s="146"/>
+    <row r="25" spans="1:8" s="21" customFormat="1">
+      <c r="A25" s="156"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="22" t="s">
         <v>81</v>
       </c>
@@ -3578,9 +3589,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="148"/>
-      <c r="B26" s="146"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="156"/>
+      <c r="B26" s="154"/>
       <c r="C26" s="10" t="s">
         <v>67</v>
       </c>
@@ -3596,9 +3607,9 @@
       <c r="G26" s="11"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="148"/>
-      <c r="B27" s="146"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="156"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
@@ -3614,9 +3625,9 @@
       <c r="G27" s="11"/>
       <c r="H27" s="38"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="148"/>
-      <c r="B28" s="146"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="156"/>
+      <c r="B28" s="154"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -3632,9 +3643,9 @@
       </c>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="148"/>
-      <c r="B29" s="146"/>
+    <row r="29" spans="1:8">
+      <c r="A29" s="156"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
@@ -3650,9 +3661,9 @@
       </c>
       <c r="H29" s="38"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="148"/>
-      <c r="B30" s="146"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="156"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="10" t="s">
         <v>68</v>
       </c>
@@ -3668,9 +3679,9 @@
       </c>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="148"/>
-      <c r="B31" s="146"/>
+    <row r="31" spans="1:8" s="4" customFormat="1">
+      <c r="A31" s="156"/>
+      <c r="B31" s="154"/>
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
@@ -3686,11 +3697,11 @@
       </c>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="143" t="s">
+    <row r="32" spans="1:8" s="4" customFormat="1">
+      <c r="A32" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="142" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3712,9 +3723,9 @@
         <v>nextval</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="143"/>
-      <c r="B33" s="134"/>
+    <row r="33" spans="1:8" s="21" customFormat="1">
+      <c r="A33" s="151"/>
+      <c r="B33" s="142"/>
       <c r="C33" s="20" t="s">
         <v>73</v>
       </c>
@@ -3733,9 +3744,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="143"/>
-      <c r="B34" s="134"/>
+    <row r="34" spans="1:8" s="21" customFormat="1">
+      <c r="A34" s="151"/>
+      <c r="B34" s="142"/>
       <c r="C34" s="20" t="s">
         <v>81</v>
       </c>
@@ -3755,9 +3766,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="143"/>
-      <c r="B35" s="134"/>
+    <row r="35" spans="1:8">
+      <c r="A35" s="151"/>
+      <c r="B35" s="142"/>
       <c r="C35" s="8" t="s">
         <v>5</v>
       </c>
@@ -3773,9 +3784,9 @@
       <c r="G35" s="9"/>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="143"/>
-      <c r="B36" s="134"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="151"/>
+      <c r="B36" s="142"/>
       <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
@@ -3791,9 +3802,9 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="143"/>
-      <c r="B37" s="134"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="151"/>
+      <c r="B37" s="142"/>
       <c r="C37" s="8" t="s">
         <v>44</v>
       </c>
@@ -3809,9 +3820,9 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="143"/>
-      <c r="B38" s="134"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="151"/>
+      <c r="B38" s="142"/>
       <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
@@ -3827,9 +3838,9 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="143"/>
-      <c r="B39" s="134"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="151"/>
+      <c r="B39" s="142"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -3845,11 +3856,11 @@
       <c r="G39" s="9"/>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="149" t="s">
+    <row r="40" spans="1:8" s="4" customFormat="1">
+      <c r="A40" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="146" t="s">
+      <c r="B40" s="154" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -3867,9 +3878,9 @@
       <c r="G40" s="14"/>
       <c r="H40" s="46"/>
     </row>
-    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="149"/>
-      <c r="B41" s="146"/>
+    <row r="41" spans="1:8" s="21" customFormat="1">
+      <c r="A41" s="157"/>
+      <c r="B41" s="154"/>
       <c r="C41" s="24" t="s">
         <v>73</v>
       </c>
@@ -3888,9 +3899,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="149"/>
-      <c r="B42" s="146"/>
+    <row r="42" spans="1:8">
+      <c r="A42" s="157"/>
+      <c r="B42" s="154"/>
       <c r="C42" s="10" t="s">
         <v>77</v>
       </c>
@@ -3906,9 +3917,9 @@
       <c r="G42" s="11"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="149"/>
-      <c r="B43" s="146"/>
+    <row r="43" spans="1:8">
+      <c r="A43" s="157"/>
+      <c r="B43" s="154"/>
       <c r="C43" s="10" t="s">
         <v>78</v>
       </c>
@@ -3924,9 +3935,9 @@
       <c r="G43" s="11"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="149"/>
-      <c r="B44" s="146"/>
+    <row r="44" spans="1:8">
+      <c r="A44" s="157"/>
+      <c r="B44" s="154"/>
       <c r="C44" s="10" t="s">
         <v>79</v>
       </c>
@@ -3942,11 +3953,11 @@
       <c r="G44" s="11"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="132" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="134" t="s">
+      <c r="B45" s="142" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -3966,9 +3977,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="132"/>
-      <c r="B46" s="134"/>
+    <row r="46" spans="1:8">
+      <c r="A46" s="140"/>
+      <c r="B46" s="142"/>
       <c r="C46" s="20" t="s">
         <v>73</v>
       </c>
@@ -3987,9 +3998,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="132"/>
-      <c r="B47" s="134"/>
+    <row r="47" spans="1:8">
+      <c r="A47" s="140"/>
+      <c r="B47" s="142"/>
       <c r="C47" s="8" t="s">
         <v>103</v>
       </c>
@@ -4007,9 +4018,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="133"/>
-      <c r="B48" s="135"/>
+    <row r="48" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A48" s="141"/>
+      <c r="B48" s="143"/>
       <c r="C48" s="48" t="s">
         <v>104</v>
       </c>
@@ -4027,11 +4038,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="139" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="136" t="s">
+      <c r="B49" s="144" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="52" t="s">
@@ -4049,9 +4060,9 @@
       <c r="G49" s="35"/>
       <c r="H49" s="36"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="140"/>
-      <c r="B50" s="137"/>
+    <row r="50" spans="1:8">
+      <c r="A50" s="148"/>
+      <c r="B50" s="145"/>
       <c r="C50" s="10" t="s">
         <v>109</v>
       </c>
@@ -4067,9 +4078,9 @@
       <c r="G50" s="11"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="140"/>
-      <c r="B51" s="137"/>
+    <row r="51" spans="1:8">
+      <c r="A51" s="148"/>
+      <c r="B51" s="145"/>
       <c r="C51" s="22" t="s">
         <v>110</v>
       </c>
@@ -4089,9 +4100,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="140"/>
-      <c r="B52" s="137"/>
+    <row r="52" spans="1:8">
+      <c r="A52" s="148"/>
+      <c r="B52" s="145"/>
       <c r="C52" s="10" t="s">
         <v>67</v>
       </c>
@@ -4107,9 +4118,9 @@
       <c r="G52" s="11"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="140"/>
-      <c r="B53" s="137"/>
+    <row r="53" spans="1:8">
+      <c r="A53" s="148"/>
+      <c r="B53" s="145"/>
       <c r="C53" s="10" t="s">
         <v>5</v>
       </c>
@@ -4125,9 +4136,9 @@
       <c r="G53" s="11"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="140"/>
-      <c r="B54" s="137"/>
+    <row r="54" spans="1:8">
+      <c r="A54" s="148"/>
+      <c r="B54" s="145"/>
       <c r="C54" s="10" t="s">
         <v>121</v>
       </c>
@@ -4145,9 +4156,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="140"/>
-      <c r="B55" s="137"/>
+    <row r="55" spans="1:8">
+      <c r="A55" s="148"/>
+      <c r="B55" s="145"/>
       <c r="C55" s="10" t="s">
         <v>111</v>
       </c>
@@ -4163,9 +4174,9 @@
       </c>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="141"/>
-      <c r="B56" s="138"/>
+    <row r="56" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A56" s="149"/>
+      <c r="B56" s="146"/>
       <c r="C56" s="25" t="s">
         <v>124</v>
       </c>
@@ -4183,9 +4194,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="156"/>
-      <c r="B57" s="156" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="133"/>
+      <c r="B57" s="133" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="53" t="s">
@@ -4203,9 +4214,9 @@
       <c r="G57" s="54"/>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="154"/>
-      <c r="B58" s="154"/>
+    <row r="58" spans="1:8">
+      <c r="A58" s="131"/>
+      <c r="B58" s="131"/>
       <c r="C58" s="55" t="s">
         <v>133</v>
       </c>
@@ -4221,9 +4232,9 @@
       <c r="G58" s="54"/>
       <c r="H58" s="55"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="154"/>
-      <c r="B59" s="154"/>
+    <row r="59" spans="1:8">
+      <c r="A59" s="131"/>
+      <c r="B59" s="131"/>
       <c r="C59" s="55" t="s">
         <v>137</v>
       </c>
@@ -4239,9 +4250,9 @@
       <c r="G59" s="54"/>
       <c r="H59" s="55"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="154"/>
-      <c r="B60" s="154"/>
+    <row r="60" spans="1:8">
+      <c r="A60" s="131"/>
+      <c r="B60" s="131"/>
       <c r="C60" s="55" t="s">
         <v>140</v>
       </c>
@@ -4257,9 +4268,9 @@
       <c r="G60" s="54"/>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="155"/>
-      <c r="B61" s="155"/>
+    <row r="61" spans="1:8">
+      <c r="A61" s="132"/>
+      <c r="B61" s="132"/>
       <c r="C61" s="55" t="s">
         <v>142</v>
       </c>
@@ -4275,9 +4286,9 @@
       </c>
       <c r="H61" s="55"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="150"/>
-      <c r="B62" s="150" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="127"/>
+      <c r="B62" s="127" t="s">
         <v>144</v>
       </c>
       <c r="C62" s="56" t="s">
@@ -4295,9 +4306,9 @@
       <c r="G62" s="57"/>
       <c r="H62" s="58"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="151"/>
-      <c r="B63" s="151"/>
+    <row r="63" spans="1:8">
+      <c r="A63" s="128"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="59" t="s">
         <v>145</v>
       </c>
@@ -4315,9 +4326,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="152"/>
-      <c r="B64" s="152"/>
+    <row r="64" spans="1:8">
+      <c r="A64" s="129"/>
+      <c r="B64" s="129"/>
       <c r="C64" s="58" t="s">
         <v>148</v>
       </c>
@@ -4333,11 +4344,11 @@
       <c r="G64" s="57"/>
       <c r="H64" s="58"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="153" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="153" t="s">
+      <c r="B65" s="130" t="s">
         <v>151</v>
       </c>
       <c r="C65" s="53" t="s">
@@ -4355,9 +4366,9 @@
       <c r="G65" s="54"/>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="154"/>
-      <c r="B66" s="154"/>
+    <row r="66" spans="1:8">
+      <c r="A66" s="131"/>
+      <c r="B66" s="131"/>
       <c r="C66" s="61" t="s">
         <v>152</v>
       </c>
@@ -4375,9 +4386,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="154"/>
-      <c r="B67" s="154"/>
+    <row r="67" spans="1:8">
+      <c r="A67" s="131"/>
+      <c r="B67" s="131"/>
       <c r="C67" s="55" t="s">
         <v>154</v>
       </c>
@@ -4393,9 +4404,9 @@
       </c>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="154"/>
-      <c r="B68" s="154"/>
+    <row r="68" spans="1:8">
+      <c r="A68" s="131"/>
+      <c r="B68" s="131"/>
       <c r="C68" s="55" t="s">
         <v>158</v>
       </c>
@@ -4413,9 +4424,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="155"/>
-      <c r="B69" s="155"/>
+    <row r="69" spans="1:8">
+      <c r="A69" s="132"/>
+      <c r="B69" s="132"/>
       <c r="C69" s="55" t="s">
         <v>161</v>
       </c>
@@ -4431,11 +4442,11 @@
       <c r="G69" s="54"/>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="150" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="150" t="s">
+      <c r="B70" s="127" t="s">
         <v>166</v>
       </c>
       <c r="C70" s="56" t="s">
@@ -4453,9 +4464,9 @@
       <c r="G70" s="66"/>
       <c r="H70" s="56"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="151"/>
-      <c r="B71" s="151"/>
+    <row r="71" spans="1:8">
+      <c r="A71" s="128"/>
+      <c r="B71" s="128"/>
       <c r="C71" s="58" t="s">
         <v>167</v>
       </c>
@@ -4471,9 +4482,9 @@
       <c r="G71" s="57"/>
       <c r="H71" s="56"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="151"/>
-      <c r="B72" s="151"/>
+    <row r="72" spans="1:8">
+      <c r="A72" s="128"/>
+      <c r="B72" s="128"/>
       <c r="C72" s="58" t="s">
         <v>169</v>
       </c>
@@ -4489,9 +4500,9 @@
       <c r="G72" s="57"/>
       <c r="H72" s="56"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="151"/>
-      <c r="B73" s="151"/>
+    <row r="73" spans="1:8">
+      <c r="A73" s="128"/>
+      <c r="B73" s="128"/>
       <c r="C73" s="58" t="s">
         <v>140</v>
       </c>
@@ -4507,9 +4518,9 @@
       <c r="G73" s="57"/>
       <c r="H73" s="56"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="152"/>
-      <c r="B74" s="152"/>
+    <row r="74" spans="1:8">
+      <c r="A74" s="129"/>
+      <c r="B74" s="129"/>
       <c r="C74" s="58" t="s">
         <v>171</v>
       </c>
@@ -4525,11 +4536,11 @@
       </c>
       <c r="H74" s="58"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="153" t="s">
+      <c r="B75" s="130" t="s">
         <v>180</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -4547,11 +4558,11 @@
       <c r="G75" s="54"/>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="154"/>
+      <c r="B76" s="131"/>
       <c r="C76" s="61" t="s">
         <v>152</v>
       </c>
@@ -4569,11 +4580,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="154"/>
+      <c r="B77" s="131"/>
       <c r="C77" s="62" t="s">
         <v>181</v>
       </c>
@@ -4591,11 +4602,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="154"/>
+      <c r="B78" s="131"/>
       <c r="C78" s="55" t="s">
         <v>183</v>
       </c>
@@ -4609,9 +4620,9 @@
       <c r="G78" s="54"/>
       <c r="H78" s="55"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="68"/>
-      <c r="B79" s="154"/>
+      <c r="B79" s="131"/>
       <c r="C79" s="55" t="s">
         <v>185</v>
       </c>
@@ -4625,11 +4636,11 @@
       <c r="G79" s="54"/>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="155"/>
+      <c r="B80" s="132"/>
       <c r="C80" s="55" t="s">
         <v>187</v>
       </c>
@@ -4647,15 +4658,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="A45:A48"/>
@@ -4670,6 +4672,15 @@
     <mergeCell ref="B32:B39"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4689,7 +4700,7 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.9140625" style="78" bestFit="1" customWidth="1"/>
@@ -4707,69 +4718,69 @@
     <col min="17" max="16384" width="8.6640625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="169" t="s">
+    <row r="1" spans="1:13" ht="18">
+      <c r="A1" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="175" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="176"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="169" t="s">
+      <c r="D1" s="165"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="158" t="s">
         <v>393</v>
       </c>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="173" t="s">
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="162" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="174"/>
+      <c r="J1" s="163"/>
       <c r="K1" s="80"/>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:13" ht="18">
+      <c r="A2" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="170" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="169" t="s">
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="171">
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="160">
         <v>44474</v>
       </c>
-      <c r="J2" s="172"/>
+      <c r="J2" s="161"/>
       <c r="K2" s="81"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="157" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159" t="s">
+      <c r="B4" s="168"/>
+      <c r="C4" s="169" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="160"/>
+      <c r="D4" s="170"/>
       <c r="E4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="160"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="170"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="70" t="s">
         <v>190</v>
       </c>
@@ -4808,7 +4819,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="A6" s="54">
         <v>1</v>
       </c>
@@ -4837,7 +4848,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13">
       <c r="A7" s="54">
         <v>2</v>
       </c>
@@ -4870,7 +4881,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13">
       <c r="A8" s="54">
         <v>3</v>
       </c>
@@ -4903,7 +4914,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13">
       <c r="A9" s="54">
         <v>4</v>
       </c>
@@ -4934,7 +4945,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13">
       <c r="A10" s="54">
         <v>5</v>
       </c>
@@ -4967,7 +4978,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13">
       <c r="A11" s="54">
         <v>6</v>
       </c>
@@ -4998,7 +5009,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13">
       <c r="A12" s="54">
         <v>7</v>
       </c>
@@ -5029,7 +5040,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13">
       <c r="A13" s="54">
         <v>8</v>
       </c>
@@ -5060,7 +5071,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13">
       <c r="A14" s="54">
         <v>9</v>
       </c>
@@ -5091,7 +5102,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13">
       <c r="A15" s="54">
         <v>10</v>
       </c>
@@ -5122,7 +5133,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13">
       <c r="A16" s="54">
         <v>11</v>
       </c>
@@ -5153,7 +5164,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14">
       <c r="K17" s="78" t="s">
         <v>360</v>
       </c>
@@ -5161,27 +5172,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="157" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159" t="s">
+      <c r="B18" s="168"/>
+      <c r="C18" s="169" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="160"/>
+      <c r="D18" s="170"/>
       <c r="E18" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F18" s="159" t="s">
+      <c r="F18" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="160"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="170"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="70" t="s">
         <v>190</v>
       </c>
@@ -5220,7 +5231,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14">
       <c r="A20" s="54">
         <v>1</v>
       </c>
@@ -5249,7 +5260,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14">
       <c r="A21" s="71">
         <v>2</v>
       </c>
@@ -5288,7 +5299,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14">
       <c r="A22" s="54">
         <v>3</v>
       </c>
@@ -5317,7 +5328,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14">
       <c r="A23" s="54">
         <v>4</v>
       </c>
@@ -5346,7 +5357,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14">
       <c r="A24" s="54">
         <v>5</v>
       </c>
@@ -5375,7 +5386,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14">
       <c r="A25" s="54">
         <v>6</v>
       </c>
@@ -5406,7 +5417,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14">
       <c r="A26" s="54">
         <v>7</v>
       </c>
@@ -5437,7 +5448,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="48" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="48">
       <c r="A27" s="54">
         <v>8</v>
       </c>
@@ -5466,7 +5477,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14">
       <c r="A28" s="54">
         <v>9</v>
       </c>
@@ -5499,7 +5510,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14">
       <c r="K29" s="78" t="s">
         <v>360</v>
       </c>
@@ -5507,27 +5518,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="157" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="158"/>
-      <c r="C30" s="159" t="s">
+      <c r="B30" s="168"/>
+      <c r="C30" s="169" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="160"/>
+      <c r="D30" s="170"/>
       <c r="E30" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F30" s="159" t="s">
+      <c r="F30" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="160"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="170"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="70" t="s">
         <v>190</v>
       </c>
@@ -5566,7 +5577,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14">
       <c r="A32" s="54">
         <v>1</v>
       </c>
@@ -5595,7 +5606,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14">
       <c r="A33" s="54">
         <v>2</v>
       </c>
@@ -5628,7 +5639,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14">
       <c r="A34" s="73">
         <v>3</v>
       </c>
@@ -5665,7 +5676,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14">
       <c r="A35" s="54">
         <v>4</v>
       </c>
@@ -5696,7 +5707,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14">
       <c r="A36" s="54">
         <v>5</v>
       </c>
@@ -5727,7 +5738,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14">
       <c r="A37" s="54">
         <v>6</v>
       </c>
@@ -5758,7 +5769,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14">
       <c r="A38" s="54">
         <v>7</v>
       </c>
@@ -5789,7 +5800,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14">
       <c r="A39" s="54">
         <v>8</v>
       </c>
@@ -5818,7 +5829,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14">
       <c r="A40" s="54">
         <v>9</v>
       </c>
@@ -5847,7 +5858,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14">
       <c r="K41" s="78" t="s">
         <v>360</v>
       </c>
@@ -5855,27 +5866,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="157" t="s">
+    <row r="42" spans="1:14">
+      <c r="A42" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="165"/>
-      <c r="C42" s="166" t="s">
+      <c r="B42" s="172"/>
+      <c r="C42" s="173" t="s">
         <v>241</v>
       </c>
-      <c r="D42" s="167"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="166" t="s">
+      <c r="F42" s="173" t="s">
         <v>389</v>
       </c>
-      <c r="G42" s="168"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="167"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="174"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="100" t="s">
         <v>190</v>
       </c>
@@ -5914,7 +5925,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14">
       <c r="A44" s="102">
         <v>1</v>
       </c>
@@ -5943,7 +5954,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="32">
       <c r="A45" s="87">
         <v>2</v>
       </c>
@@ -5978,7 +5989,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14">
       <c r="A46" s="88">
         <v>3</v>
       </c>
@@ -6015,7 +6026,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14">
       <c r="A47" s="101">
         <v>4</v>
       </c>
@@ -6046,7 +6057,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14">
       <c r="A48" s="101">
         <v>5</v>
       </c>
@@ -6077,7 +6088,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14">
       <c r="A49" s="101">
         <v>6</v>
       </c>
@@ -6108,7 +6119,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14">
       <c r="A50" s="101">
         <v>7</v>
       </c>
@@ -6137,7 +6148,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="32">
       <c r="A51" s="102">
         <v>8</v>
       </c>
@@ -6168,7 +6179,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14">
       <c r="K52" s="78" t="s">
         <v>360</v>
       </c>
@@ -6176,27 +6187,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A53" s="157" t="s">
+    <row r="53" spans="1:14">
+      <c r="A53" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="158"/>
-      <c r="C53" s="159" t="s">
+      <c r="B53" s="168"/>
+      <c r="C53" s="169" t="s">
         <v>247</v>
       </c>
-      <c r="D53" s="160"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F53" s="159" t="s">
+      <c r="F53" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="G53" s="161"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="160"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="170"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="70" t="s">
         <v>190</v>
       </c>
@@ -6235,7 +6246,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="32">
       <c r="A55" s="97">
         <v>1</v>
       </c>
@@ -6264,7 +6275,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="32">
       <c r="A56" s="97">
         <v>2</v>
       </c>
@@ -6299,7 +6310,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14">
       <c r="A57" s="54">
         <v>3</v>
       </c>
@@ -6330,7 +6341,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14">
       <c r="A58" s="54">
         <v>4</v>
       </c>
@@ -6363,7 +6374,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14">
       <c r="A59" s="54">
         <v>5</v>
       </c>
@@ -6394,7 +6405,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14">
       <c r="K60" s="78" t="s">
         <v>360</v>
       </c>
@@ -6402,27 +6413,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A61" s="157" t="s">
+    <row r="61" spans="1:14">
+      <c r="A61" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="158"/>
-      <c r="C61" s="159" t="s">
+      <c r="B61" s="168"/>
+      <c r="C61" s="169" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="160"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F61" s="159" t="s">
+      <c r="F61" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="G61" s="161"/>
-      <c r="H61" s="161"/>
-      <c r="I61" s="161"/>
-      <c r="J61" s="160"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G61" s="171"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="170"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="70" t="s">
         <v>190</v>
       </c>
@@ -6461,7 +6472,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14">
       <c r="A63" s="54">
         <v>1</v>
       </c>
@@ -6490,7 +6501,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="32">
       <c r="A64" s="97">
         <v>2</v>
       </c>
@@ -6525,7 +6536,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14">
       <c r="A65" s="54">
         <v>3</v>
       </c>
@@ -6556,7 +6567,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14">
       <c r="A66" s="54">
         <v>4</v>
       </c>
@@ -6587,7 +6598,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14">
       <c r="J67" s="108"/>
       <c r="K67" s="78" t="s">
         <v>360</v>
@@ -6596,27 +6607,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A68" s="164" t="s">
+    <row r="68" spans="1:14">
+      <c r="A68" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="164"/>
-      <c r="C68" s="163" t="s">
+      <c r="B68" s="176"/>
+      <c r="C68" s="177" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="163"/>
+      <c r="D68" s="177"/>
       <c r="E68" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F68" s="163" t="s">
+      <c r="F68" s="177" t="s">
         <v>389</v>
       </c>
-      <c r="G68" s="163"/>
-      <c r="H68" s="163"/>
-      <c r="I68" s="163"/>
-      <c r="J68" s="163"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G68" s="177"/>
+      <c r="H68" s="177"/>
+      <c r="I68" s="177"/>
+      <c r="J68" s="177"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="105" t="s">
         <v>190</v>
       </c>
@@ -6655,7 +6666,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14">
       <c r="A70" s="99">
         <v>1</v>
       </c>
@@ -6684,7 +6695,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14">
       <c r="A71" s="99">
         <v>2</v>
       </c>
@@ -6715,7 +6726,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14">
       <c r="A72" s="99">
         <v>3</v>
       </c>
@@ -6752,7 +6763,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14">
       <c r="A73" s="99">
         <v>4</v>
       </c>
@@ -6783,7 +6794,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14">
       <c r="A74" s="99">
         <v>5</v>
       </c>
@@ -6814,7 +6825,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" ht="32">
       <c r="A75" s="99">
         <v>6</v>
       </c>
@@ -6845,7 +6856,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14">
       <c r="A76" s="99">
         <v>7</v>
       </c>
@@ -6876,7 +6887,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14">
       <c r="A77" s="99">
         <v>8</v>
       </c>
@@ -6905,7 +6916,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14">
       <c r="K78" s="78" t="s">
         <v>360</v>
       </c>
@@ -6913,27 +6924,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A79" s="164" t="s">
+    <row r="79" spans="1:14">
+      <c r="A79" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="164"/>
-      <c r="C79" s="163" t="s">
+      <c r="B79" s="176"/>
+      <c r="C79" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="163"/>
+      <c r="D79" s="177"/>
       <c r="E79" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="163" t="s">
+      <c r="F79" s="177" t="s">
         <v>389</v>
       </c>
-      <c r="G79" s="163"/>
-      <c r="H79" s="163"/>
-      <c r="I79" s="163"/>
-      <c r="J79" s="163"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G79" s="177"/>
+      <c r="H79" s="177"/>
+      <c r="I79" s="177"/>
+      <c r="J79" s="177"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="105" t="s">
         <v>190</v>
       </c>
@@ -6972,7 +6983,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14">
       <c r="A81" s="96">
         <v>1</v>
       </c>
@@ -7003,7 +7014,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14">
       <c r="A82" s="99">
         <v>2</v>
       </c>
@@ -7034,7 +7045,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14">
       <c r="A83" s="99">
         <v>3</v>
       </c>
@@ -7065,7 +7076,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14">
       <c r="A84" s="99">
         <v>4</v>
       </c>
@@ -7094,7 +7105,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14">
       <c r="K85" s="78" t="s">
         <v>360</v>
       </c>
@@ -7102,27 +7113,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A86" s="157" t="s">
+    <row r="86" spans="1:14">
+      <c r="A86" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="158"/>
-      <c r="C86" s="159" t="s">
+      <c r="B86" s="168"/>
+      <c r="C86" s="169" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="160"/>
+      <c r="D86" s="170"/>
       <c r="E86" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F86" s="159" t="s">
+      <c r="F86" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="G86" s="161"/>
-      <c r="H86" s="161"/>
-      <c r="I86" s="161"/>
-      <c r="J86" s="160"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G86" s="171"/>
+      <c r="H86" s="171"/>
+      <c r="I86" s="171"/>
+      <c r="J86" s="170"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="70" t="s">
         <v>190</v>
       </c>
@@ -7161,7 +7172,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14">
       <c r="A88" s="97">
         <v>1</v>
       </c>
@@ -7190,7 +7201,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14">
       <c r="A89" s="73">
         <v>2</v>
       </c>
@@ -7227,7 +7238,7 @@
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14">
       <c r="A90" s="54">
         <v>3</v>
       </c>
@@ -7258,7 +7269,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14">
       <c r="J91" s="108"/>
       <c r="K91" s="78" t="s">
         <v>360</v>
@@ -7267,27 +7278,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A92" s="162" t="s">
+    <row r="92" spans="1:14">
+      <c r="A92" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="162"/>
-      <c r="C92" s="163" t="s">
+      <c r="B92" s="178"/>
+      <c r="C92" s="177" t="s">
         <v>391</v>
       </c>
-      <c r="D92" s="163"/>
+      <c r="D92" s="177"/>
       <c r="E92" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="F92" s="163" t="s">
+      <c r="F92" s="177" t="s">
         <v>389</v>
       </c>
-      <c r="G92" s="163"/>
-      <c r="H92" s="163"/>
-      <c r="I92" s="163"/>
-      <c r="J92" s="163"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G92" s="177"/>
+      <c r="H92" s="177"/>
+      <c r="I92" s="177"/>
+      <c r="J92" s="177"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="98" t="s">
         <v>190</v>
       </c>
@@ -7326,7 +7337,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14">
       <c r="A94" s="99">
         <v>1</v>
       </c>
@@ -7355,7 +7366,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14">
       <c r="A95" s="93">
         <v>2</v>
       </c>
@@ -7392,7 +7403,7 @@
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14">
       <c r="A96" s="93">
         <v>3</v>
       </c>
@@ -7429,7 +7440,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14">
       <c r="A97" s="99">
         <f>A96+1</f>
         <v>4</v>
@@ -7456,7 +7467,7 @@
         <v>SALES number not null,</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14">
       <c r="A98" s="99">
         <f t="shared" ref="A98:A99" si="10">A97+1</f>
         <v>5</v>
@@ -7483,7 +7494,7 @@
         <v>ORDERDATE date default sysdate,</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14">
       <c r="A99" s="99">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -7514,7 +7525,7 @@
         <v>PHONENUM varchar2(30) not null</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14">
       <c r="K100" s="78" t="s">
         <v>360</v>
       </c>
@@ -7522,27 +7533,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A101" s="157" t="s">
+    <row r="101" spans="1:14">
+      <c r="A101" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="158"/>
-      <c r="C101" s="159" t="s">
+      <c r="B101" s="168"/>
+      <c r="C101" s="169" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="160"/>
+      <c r="D101" s="170"/>
       <c r="E101" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F101" s="159" t="s">
+      <c r="F101" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="G101" s="161"/>
-      <c r="H101" s="161"/>
-      <c r="I101" s="161"/>
-      <c r="J101" s="160"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G101" s="171"/>
+      <c r="H101" s="171"/>
+      <c r="I101" s="171"/>
+      <c r="J101" s="170"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="70" t="s">
         <v>190</v>
       </c>
@@ -7581,7 +7592,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14">
       <c r="A103" s="54">
         <v>1</v>
       </c>
@@ -7610,7 +7621,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14">
       <c r="A104" s="54">
         <v>2</v>
       </c>
@@ -7647,7 +7658,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14">
       <c r="A105" s="54">
         <v>3</v>
       </c>
@@ -7676,7 +7687,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14">
       <c r="A106" s="54">
         <v>4</v>
       </c>
@@ -7707,7 +7718,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14">
       <c r="A107" s="54">
         <v>5</v>
       </c>
@@ -7738,7 +7749,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14">
       <c r="K108" s="78" t="s">
         <v>360</v>
       </c>
@@ -7746,27 +7757,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A109" s="157" t="s">
+    <row r="109" spans="1:14">
+      <c r="A109" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="158"/>
-      <c r="C109" s="159" t="s">
+      <c r="B109" s="168"/>
+      <c r="C109" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="D109" s="160"/>
+      <c r="D109" s="170"/>
       <c r="E109" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F109" s="159" t="s">
+      <c r="F109" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="G109" s="161"/>
-      <c r="H109" s="161"/>
-      <c r="I109" s="161"/>
-      <c r="J109" s="160"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G109" s="171"/>
+      <c r="H109" s="171"/>
+      <c r="I109" s="171"/>
+      <c r="J109" s="170"/>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="70" t="s">
         <v>190</v>
       </c>
@@ -7805,7 +7816,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14">
       <c r="A111" s="54">
         <v>1</v>
       </c>
@@ -7834,7 +7845,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14">
       <c r="A112" s="54">
         <v>2</v>
       </c>
@@ -7867,7 +7878,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14">
       <c r="A113" s="54">
         <v>3</v>
       </c>
@@ -7900,7 +7911,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14">
       <c r="A114" s="54">
         <v>4</v>
       </c>
@@ -7931,7 +7942,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14">
       <c r="A115" s="54">
         <v>5</v>
       </c>
@@ -7960,7 +7971,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14">
       <c r="K116" s="78" t="s">
         <v>360</v>
       </c>
@@ -7968,27 +7979,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A117" s="157" t="s">
+    <row r="117" spans="1:14">
+      <c r="A117" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="158"/>
-      <c r="C117" s="159" t="s">
+      <c r="B117" s="168"/>
+      <c r="C117" s="169" t="s">
         <v>297</v>
       </c>
-      <c r="D117" s="160"/>
+      <c r="D117" s="170"/>
       <c r="E117" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F117" s="159" t="s">
+      <c r="F117" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="G117" s="161"/>
-      <c r="H117" s="161"/>
-      <c r="I117" s="161"/>
-      <c r="J117" s="160"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G117" s="171"/>
+      <c r="H117" s="171"/>
+      <c r="I117" s="171"/>
+      <c r="J117" s="170"/>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="70" t="s">
         <v>190</v>
       </c>
@@ -8027,7 +8038,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14">
       <c r="A119" s="54">
         <v>1</v>
       </c>
@@ -8056,7 +8067,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14">
       <c r="A120" s="54">
         <v>2</v>
       </c>
@@ -8093,7 +8104,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14">
       <c r="A121" s="97">
         <v>3</v>
       </c>
@@ -8128,7 +8139,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14">
       <c r="A122" s="54">
         <v>4</v>
       </c>
@@ -8157,7 +8168,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:14">
       <c r="A123" s="54">
         <v>5</v>
       </c>
@@ -8186,7 +8197,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:14">
       <c r="A124" s="54">
         <v>6</v>
       </c>
@@ -8215,7 +8226,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:14">
       <c r="K125" s="78" t="s">
         <v>360</v>
       </c>
@@ -8225,44 +8236,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:J92"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="C117:D117"/>
     <mergeCell ref="F117:J117"/>
@@ -8272,6 +8245,44 @@
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="F109:J109"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:J92"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8284,14 +8295,14 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O137"/>
+  <dimension ref="A1:O138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
@@ -8310,25 +8321,25 @@
     <col min="18" max="16384" width="8.6640625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B1" s="169" t="s">
+    <row r="1" spans="1:14">
+      <c r="B1" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="175" t="s">
+      <c r="C1" s="158"/>
+      <c r="D1" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="169" t="s">
+      <c r="E1" s="165"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="158" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="173" t="s">
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="162" t="s">
         <v>394</v>
       </c>
-      <c r="K1" s="174"/>
+      <c r="K1" s="163"/>
       <c r="L1" s="78" t="s">
         <v>417</v>
       </c>
@@ -8336,50 +8347,50 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="169" t="s">
+    <row r="2" spans="1:14">
+      <c r="B2" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170" t="s">
+      <c r="C2" s="158"/>
+      <c r="D2" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="169" t="s">
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="171">
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="160">
         <v>44474</v>
       </c>
-      <c r="K2" s="172"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K2" s="161"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="78">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159" t="s">
+      <c r="C4" s="168"/>
+      <c r="D4" s="169" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="160"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="160"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="170"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" s="70" t="s">
         <v>190</v>
       </c>
@@ -8418,7 +8429,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14">
       <c r="B6" s="54">
         <v>1</v>
       </c>
@@ -8448,7 +8459,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14">
       <c r="B7" s="54">
         <v>2</v>
       </c>
@@ -8481,7 +8492,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14">
       <c r="B8" s="54">
         <v>3</v>
       </c>
@@ -8514,7 +8525,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14">
       <c r="B9" s="54">
         <v>4</v>
       </c>
@@ -8545,7 +8556,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14">
       <c r="B10" s="54">
         <v>5</v>
       </c>
@@ -8578,7 +8589,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14">
       <c r="B11" s="54">
         <v>6</v>
       </c>
@@ -8609,7 +8620,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14">
       <c r="B12" s="54">
         <v>7</v>
       </c>
@@ -8637,7 +8648,7 @@
         <v>SESSIONID varchar2(100),</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="17">
       <c r="B13" s="54">
         <v>8</v>
       </c>
@@ -8666,7 +8677,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14">
       <c r="L14" s="78" t="s">
         <v>360</v>
       </c>
@@ -8674,30 +8685,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14">
       <c r="A15" s="78">
         <v>2</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159" t="s">
+      <c r="C15" s="168"/>
+      <c r="D15" s="169" t="s">
         <v>400</v>
       </c>
-      <c r="E15" s="160"/>
+      <c r="E15" s="170"/>
       <c r="F15" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G15" s="159" t="s">
+      <c r="G15" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="160"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="170"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" s="70" t="s">
         <v>190</v>
       </c>
@@ -8736,7 +8747,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15">
       <c r="B17" s="54">
         <v>1</v>
       </c>
@@ -8766,7 +8777,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15">
       <c r="B18" s="54">
         <v>2</v>
       </c>
@@ -8805,7 +8816,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15">
       <c r="B19" s="54">
         <v>3</v>
       </c>
@@ -8836,7 +8847,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15">
       <c r="B20" s="54">
         <v>4</v>
       </c>
@@ -8867,7 +8878,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="48" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="48">
       <c r="B21" s="54">
         <v>5</v>
       </c>
@@ -8896,7 +8907,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15">
       <c r="L22" s="78" t="s">
         <v>360</v>
       </c>
@@ -8904,30 +8915,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15">
       <c r="A23" s="78">
         <v>3</v>
       </c>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="159" t="s">
+      <c r="C23" s="168"/>
+      <c r="D23" s="169" t="s">
         <v>403</v>
       </c>
-      <c r="E23" s="160"/>
+      <c r="E23" s="170"/>
       <c r="F23" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G23" s="159" t="s">
+      <c r="G23" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="160"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="170"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="B24" s="70" t="s">
         <v>190</v>
       </c>
@@ -8966,7 +8977,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15">
       <c r="B25" s="54">
         <v>1</v>
       </c>
@@ -8996,7 +9007,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15">
       <c r="B26" s="54">
         <v>2</v>
       </c>
@@ -9035,7 +9046,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15">
       <c r="B27" s="54">
         <v>3</v>
       </c>
@@ -9066,7 +9077,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15">
       <c r="B28" s="54">
         <v>4</v>
       </c>
@@ -9097,7 +9108,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15">
       <c r="B29" s="54">
         <v>5</v>
       </c>
@@ -9126,7 +9137,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15">
       <c r="B30" s="54">
         <v>6</v>
       </c>
@@ -9155,7 +9166,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15">
       <c r="B31" s="54">
         <v>7</v>
       </c>
@@ -9184,7 +9195,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15">
       <c r="B32" s="54">
         <v>8</v>
       </c>
@@ -9215,7 +9226,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15">
       <c r="L33" s="78" t="s">
         <v>360</v>
       </c>
@@ -9223,30 +9234,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15">
       <c r="A34" s="78">
         <v>4</v>
       </c>
-      <c r="B34" s="157" t="s">
+      <c r="B34" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C34" s="158"/>
-      <c r="D34" s="159" t="s">
+      <c r="C34" s="168"/>
+      <c r="D34" s="169" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="160"/>
+      <c r="E34" s="170"/>
       <c r="F34" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G34" s="159" t="s">
+      <c r="G34" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="160"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="170"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="B35" s="70" t="s">
         <v>190</v>
       </c>
@@ -9285,7 +9296,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15">
       <c r="B36" s="54">
         <v>1</v>
       </c>
@@ -9315,7 +9326,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15">
       <c r="B37" s="54">
         <v>2</v>
       </c>
@@ -9352,7 +9363,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15">
       <c r="B38" s="54">
         <v>3</v>
       </c>
@@ -9381,7 +9392,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15">
       <c r="B39" s="54">
         <v>4</v>
       </c>
@@ -9412,7 +9423,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15">
       <c r="B40" s="54">
         <v>5</v>
       </c>
@@ -9443,7 +9454,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15">
       <c r="L41" s="78" t="s">
         <v>360</v>
       </c>
@@ -9451,30 +9462,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15">
       <c r="A42" s="78">
         <v>5</v>
       </c>
-      <c r="B42" s="157" t="s">
+      <c r="B42" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="158"/>
-      <c r="D42" s="159" t="s">
+      <c r="C42" s="168"/>
+      <c r="D42" s="169" t="s">
         <v>226</v>
       </c>
-      <c r="E42" s="160"/>
+      <c r="E42" s="170"/>
       <c r="F42" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G42" s="159" t="s">
+      <c r="G42" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="160"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H42" s="171"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="171"/>
+      <c r="K42" s="170"/>
+    </row>
+    <row r="43" spans="1:15">
       <c r="B43" s="70" t="s">
         <v>190</v>
       </c>
@@ -9513,7 +9524,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15">
       <c r="B44" s="54">
         <v>1</v>
       </c>
@@ -9543,7 +9554,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15">
       <c r="B45" s="54">
         <v>2</v>
       </c>
@@ -9576,7 +9587,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15">
       <c r="B46" s="73">
         <v>3</v>
       </c>
@@ -9613,7 +9624,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15">
       <c r="B47" s="54">
         <v>4</v>
       </c>
@@ -9644,7 +9655,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15">
       <c r="B48" s="54">
         <v>5</v>
       </c>
@@ -9675,7 +9686,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15">
       <c r="B49" s="54">
         <v>6</v>
       </c>
@@ -9706,7 +9717,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15">
       <c r="B50" s="54">
         <v>7</v>
       </c>
@@ -9737,7 +9748,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15">
       <c r="B51" s="54">
         <v>8</v>
       </c>
@@ -9766,7 +9777,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15">
       <c r="B52" s="54">
         <v>9</v>
       </c>
@@ -9795,7 +9806,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15">
       <c r="L53" s="78" t="s">
         <v>360</v>
       </c>
@@ -9803,30 +9814,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15">
       <c r="A54" s="78">
         <v>6</v>
       </c>
-      <c r="B54" s="157" t="s">
+      <c r="B54" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="165"/>
-      <c r="D54" s="166" t="s">
+      <c r="C54" s="172"/>
+      <c r="D54" s="173" t="s">
         <v>241</v>
       </c>
-      <c r="E54" s="167"/>
+      <c r="E54" s="174"/>
       <c r="F54" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="G54" s="166" t="s">
+      <c r="G54" s="173" t="s">
         <v>389</v>
       </c>
-      <c r="H54" s="168"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="168"/>
-      <c r="K54" s="167"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H54" s="175"/>
+      <c r="I54" s="175"/>
+      <c r="J54" s="175"/>
+      <c r="K54" s="174"/>
+    </row>
+    <row r="55" spans="1:15">
       <c r="B55" s="111" t="s">
         <v>190</v>
       </c>
@@ -9865,7 +9876,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15">
       <c r="B56" s="116">
         <v>1</v>
       </c>
@@ -9895,7 +9906,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" ht="32">
       <c r="B57" s="87">
         <v>2</v>
       </c>
@@ -9930,7 +9941,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15">
       <c r="B58" s="88">
         <v>3</v>
       </c>
@@ -9967,7 +9978,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15">
       <c r="B59" s="112">
         <v>4</v>
       </c>
@@ -9998,7 +10009,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15">
       <c r="B60" s="112">
         <v>5</v>
       </c>
@@ -10029,7 +10040,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15">
       <c r="B61" s="112">
         <v>6</v>
       </c>
@@ -10060,7 +10071,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15">
       <c r="B62" s="112">
         <v>7</v>
       </c>
@@ -10089,7 +10100,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" ht="32">
       <c r="B63" s="116">
         <v>8</v>
       </c>
@@ -10120,7 +10131,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15">
       <c r="L64" s="78" t="s">
         <v>360</v>
       </c>
@@ -10128,30 +10139,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15">
       <c r="A65" s="78">
         <v>7</v>
       </c>
-      <c r="B65" s="157" t="s">
+      <c r="B65" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="158"/>
-      <c r="D65" s="159" t="s">
+      <c r="C65" s="168"/>
+      <c r="D65" s="169" t="s">
         <v>247</v>
       </c>
-      <c r="E65" s="160"/>
+      <c r="E65" s="170"/>
       <c r="F65" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G65" s="159" t="s">
+      <c r="G65" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="H65" s="161"/>
-      <c r="I65" s="161"/>
-      <c r="J65" s="161"/>
-      <c r="K65" s="160"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H65" s="171"/>
+      <c r="I65" s="171"/>
+      <c r="J65" s="171"/>
+      <c r="K65" s="170"/>
+    </row>
+    <row r="66" spans="1:15">
       <c r="B66" s="70" t="s">
         <v>190</v>
       </c>
@@ -10190,7 +10201,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15">
       <c r="B67" s="110">
         <v>1</v>
       </c>
@@ -10220,7 +10231,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" ht="32">
       <c r="B68" s="110">
         <v>2</v>
       </c>
@@ -10255,7 +10266,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15">
       <c r="B69" s="54">
         <v>3</v>
       </c>
@@ -10286,7 +10297,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15">
       <c r="B70" s="54">
         <v>4</v>
       </c>
@@ -10319,7 +10330,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15">
       <c r="B71" s="54">
         <v>5</v>
       </c>
@@ -10350,7 +10361,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15">
       <c r="L72" s="78" t="s">
         <v>360</v>
       </c>
@@ -10358,30 +10369,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15">
       <c r="A73" s="78">
         <v>8</v>
       </c>
-      <c r="B73" s="157" t="s">
+      <c r="B73" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="158"/>
-      <c r="D73" s="159" t="s">
+      <c r="C73" s="168"/>
+      <c r="D73" s="169" t="s">
         <v>252</v>
       </c>
-      <c r="E73" s="160"/>
+      <c r="E73" s="170"/>
       <c r="F73" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G73" s="159" t="s">
+      <c r="G73" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="H73" s="161"/>
-      <c r="I73" s="161"/>
-      <c r="J73" s="161"/>
-      <c r="K73" s="160"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H73" s="171"/>
+      <c r="I73" s="171"/>
+      <c r="J73" s="171"/>
+      <c r="K73" s="170"/>
+    </row>
+    <row r="74" spans="1:15">
       <c r="B74" s="70" t="s">
         <v>190</v>
       </c>
@@ -10420,7 +10431,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15">
       <c r="B75" s="54">
         <v>1</v>
       </c>
@@ -10450,7 +10461,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" ht="32">
       <c r="B76" s="110">
         <v>2</v>
       </c>
@@ -10485,7 +10496,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15">
       <c r="B77" s="54">
         <v>3</v>
       </c>
@@ -10516,7 +10527,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15">
       <c r="B78" s="54">
         <v>4</v>
       </c>
@@ -10547,7 +10558,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15">
       <c r="K79" s="108"/>
       <c r="L79" s="78" t="s">
         <v>360</v>
@@ -10556,30 +10567,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15">
       <c r="A80" s="78">
         <v>9</v>
       </c>
-      <c r="B80" s="164" t="s">
+      <c r="B80" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="164"/>
-      <c r="D80" s="163" t="s">
+      <c r="C80" s="176"/>
+      <c r="D80" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="E80" s="163"/>
+      <c r="E80" s="177"/>
       <c r="F80" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G80" s="163" t="s">
+      <c r="G80" s="177" t="s">
         <v>389</v>
       </c>
-      <c r="H80" s="163"/>
-      <c r="I80" s="163"/>
-      <c r="J80" s="163"/>
-      <c r="K80" s="163"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H80" s="177"/>
+      <c r="I80" s="177"/>
+      <c r="J80" s="177"/>
+      <c r="K80" s="177"/>
+    </row>
+    <row r="81" spans="1:15">
       <c r="B81" s="115" t="s">
         <v>190</v>
       </c>
@@ -10618,7 +10629,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15">
       <c r="B82" s="96">
         <v>1</v>
       </c>
@@ -10641,14 +10652,14 @@
       <c r="J82" s="96"/>
       <c r="K82" s="96"/>
       <c r="L82" s="78" t="str">
-        <f t="shared" ref="L82:L86" si="10">C82&amp;" "&amp;E82&amp;IF(E82="varchar2","("&amp;F82&amp;")","")&amp;IF(J82="",""," default "&amp;J82)&amp;IF(G82="",""," "&amp;G82)&amp;IF(H82="",""," unique")&amp;IF(I82="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L82:L87" si="10">C82&amp;" "&amp;E82&amp;IF(E82="varchar2","("&amp;F82&amp;")","")&amp;IF(J82="",""," default "&amp;J82)&amp;IF(G82="",""," "&amp;G82)&amp;IF(H82="",""," unique")&amp;IF(I82="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N82" s="78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="121" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" s="121" customFormat="1">
       <c r="B83" s="122">
         <v>2</v>
       </c>
@@ -10674,7 +10685,7 @@
         <v>GOODSCODE varchar2(100),</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15">
       <c r="B84" s="122">
         <v>3</v>
       </c>
@@ -10705,7 +10716,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15">
       <c r="B85" s="122">
         <v>4</v>
       </c>
@@ -10736,7 +10747,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15">
       <c r="B86" s="122">
         <v>5</v>
       </c>
@@ -10765,7 +10776,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15">
       <c r="B87" s="122">
         <v>6</v>
       </c>
@@ -10793,331 +10804,320 @@
         <v>422</v>
       </c>
       <c r="L87" s="78" t="str">
-        <f>C87&amp;" "&amp;E87&amp;IF(E87="varchar2","("&amp;F87&amp;")","")&amp;IF(J87="",""," default "&amp;J87)&amp;IF(G87="",""," "&amp;G87)&amp;IF(H87="",""," unique")&amp;IF(I87="",""," primary key")</f>
-        <v>HEART varchar2(10) default 'NO' not null</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L88" s="78" t="s">
+        <f t="shared" si="10"/>
+        <v>HEART varchar2(10) default 'NO' not null,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="B88" s="122">
+        <v>7</v>
+      </c>
+      <c r="C88" s="91" t="s">
+        <v>426</v>
+      </c>
+      <c r="D88" s="91" t="s">
+        <v>427</v>
+      </c>
+      <c r="E88" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="126"/>
+      <c r="G88" s="126"/>
+      <c r="H88" s="126"/>
+      <c r="I88" s="126"/>
+      <c r="J88" s="125">
+        <v>20</v>
+      </c>
+      <c r="K88" s="126"/>
+      <c r="L88" s="78" t="str">
+        <f>C88&amp;" "&amp;E88&amp;IF(E88="varchar2","("&amp;F88&amp;")","")&amp;IF(J88="",""," default "&amp;J88)&amp;IF(G88="",""," "&amp;G88)&amp;IF(H88="",""," unique")&amp;IF(I88="",""," primary key")</f>
+        <v>STORAGE number default 20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="L89" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N88" s="78" t="s">
+      <c r="N89" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A89" s="78">
+    <row r="90" spans="1:15">
+      <c r="A90" s="78">
         <v>10</v>
       </c>
-      <c r="B89" s="157" t="s">
+      <c r="B90" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C89" s="158"/>
-      <c r="D89" s="159" t="s">
+      <c r="C90" s="168"/>
+      <c r="D90" s="169" t="s">
         <v>270</v>
       </c>
-      <c r="E89" s="160"/>
-      <c r="F89" s="70" t="s">
+      <c r="E90" s="170"/>
+      <c r="F90" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G89" s="159" t="s">
+      <c r="G90" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="H89" s="161"/>
-      <c r="I89" s="161"/>
-      <c r="J89" s="161"/>
-      <c r="K89" s="160"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B90" s="70" t="s">
+      <c r="H90" s="171"/>
+      <c r="I90" s="171"/>
+      <c r="J90" s="171"/>
+      <c r="K90" s="170"/>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="B91" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C90" s="70" t="s">
+      <c r="C91" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D90" s="70" t="s">
+      <c r="D91" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E90" s="70" t="s">
+      <c r="E91" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F90" s="70" t="s">
+      <c r="F91" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G90" s="70" t="s">
+      <c r="G91" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H90" s="70" t="s">
+      <c r="H91" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I90" s="70" t="s">
+      <c r="I91" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J90" s="70" t="s">
+      <c r="J91" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K90" s="70" t="s">
+      <c r="K91" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L90" s="78" t="str">
-        <f>"create table "&amp;D89&amp;"("</f>
+      <c r="L91" s="78" t="str">
+        <f>"create table "&amp;D90&amp;"("</f>
         <v>create table GOODS_IMAGE(</v>
       </c>
-      <c r="N90" s="78" t="s">
+      <c r="N91" s="78" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B91" s="110">
+    <row r="92" spans="1:15">
+      <c r="B92" s="110">
         <v>1</v>
       </c>
-      <c r="C91" s="75" t="s">
+      <c r="C92" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D91" s="53" t="str">
-        <f>"번호 ("&amp;D89&amp;"_SEQ.nextval)"</f>
+      <c r="D92" s="53" t="str">
+        <f>"번호 ("&amp;D90&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_IMAGE_SEQ.nextval)</v>
       </c>
-      <c r="E91" s="75" t="s">
+      <c r="E92" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F91" s="110"/>
-      <c r="G91" s="110"/>
-      <c r="H91" s="110"/>
-      <c r="I91" s="110" t="s">
+      <c r="F92" s="110"/>
+      <c r="G92" s="110"/>
+      <c r="H92" s="110"/>
+      <c r="I92" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J91" s="110"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="78" t="str">
-        <f t="shared" ref="L91:L92" si="11">C91&amp;" "&amp;E91&amp;IF(E91="varchar2","("&amp;F91&amp;")","")&amp;IF(J91="",""," default "&amp;J91)&amp;IF(G91="",""," "&amp;G91)&amp;IF(H91="",""," unique")&amp;IF(I91="",""," primary key")&amp;","</f>
+      <c r="J92" s="110"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="78" t="str">
+        <f t="shared" ref="L92:L93" si="11">C92&amp;" "&amp;E92&amp;IF(E92="varchar2","("&amp;F92&amp;")","")&amp;IF(J92="",""," default "&amp;J92)&amp;IF(G92="",""," "&amp;G92)&amp;IF(H92="",""," unique")&amp;IF(I92="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N91" s="78" t="s">
+      <c r="N92" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B92" s="73">
+    <row r="93" spans="1:15">
+      <c r="B93" s="73">
         <v>2</v>
       </c>
-      <c r="C92" s="74" t="s">
+      <c r="C93" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="D92" s="74" t="s">
+      <c r="D93" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="E92" s="74" t="s">
+      <c r="E93" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F92" s="73">
+      <c r="F93" s="73">
         <v>100</v>
       </c>
-      <c r="G92" s="73" t="s">
+      <c r="G93" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="H92" s="73"/>
-      <c r="I92" s="73"/>
-      <c r="J92" s="73"/>
-      <c r="K92" s="74" t="s">
+      <c r="H93" s="73"/>
+      <c r="I93" s="73"/>
+      <c r="J93" s="73"/>
+      <c r="K93" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="L92" s="78" t="str">
+      <c r="L93" s="78" t="str">
         <f t="shared" si="11"/>
         <v>GOODSCODE varchar2(100) not null,</v>
       </c>
-      <c r="N92" s="78" t="s">
+      <c r="N93" s="78" t="s">
         <v>345</v>
       </c>
-      <c r="O92" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C92&amp;") references "&amp;K92</f>
+      <c r="O93" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C93&amp;") references "&amp;K93</f>
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B93" s="54">
+    <row r="94" spans="1:15">
+      <c r="B94" s="54">
         <v>3</v>
       </c>
-      <c r="C93" s="55" t="s">
+      <c r="C94" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D93" s="55" t="s">
+      <c r="D94" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E93" s="55" t="s">
+      <c r="E94" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F93" s="54">
+      <c r="F94" s="54">
         <v>100</v>
       </c>
-      <c r="G93" s="54" t="s">
+      <c r="G94" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="78" t="str">
-        <f>C93&amp;" "&amp;E93&amp;IF(E93="varchar2","("&amp;F93&amp;")","")&amp;IF(J93="",""," default "&amp;J93)&amp;IF(G93="",""," "&amp;G93)&amp;IF(H93="",""," unique")&amp;IF(I93="",""," primary key")</f>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="78" t="str">
+        <f>C94&amp;" "&amp;E94&amp;IF(E94="varchar2","("&amp;F94&amp;")","")&amp;IF(J94="",""," default "&amp;J94)&amp;IF(G94="",""," "&amp;G94)&amp;IF(H94="",""," unique")&amp;IF(I94="",""," primary key")</f>
         <v>SAVENAME varchar2(100) not null</v>
       </c>
-      <c r="N93" s="78" t="s">
+      <c r="N94" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="K94" s="108"/>
-      <c r="L94" s="78" t="s">
+    <row r="95" spans="1:15">
+      <c r="K95" s="108"/>
+      <c r="L95" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N94" s="78" t="s">
+      <c r="N95" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A95" s="78">
+    <row r="96" spans="1:15">
+      <c r="A96" s="78">
         <v>11</v>
       </c>
-      <c r="B95" s="162" t="s">
+      <c r="B96" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="162"/>
-      <c r="D95" s="163" t="s">
+      <c r="C96" s="178"/>
+      <c r="D96" s="177" t="s">
         <v>414</v>
       </c>
-      <c r="E95" s="163"/>
-      <c r="F95" s="113" t="s">
+      <c r="E96" s="177"/>
+      <c r="F96" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="G95" s="163" t="s">
+      <c r="G96" s="177" t="s">
         <v>389</v>
       </c>
-      <c r="H95" s="163"/>
-      <c r="I95" s="163"/>
-      <c r="J95" s="163"/>
-      <c r="K95" s="163"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B96" s="113" t="s">
+      <c r="H96" s="177"/>
+      <c r="I96" s="177"/>
+      <c r="J96" s="177"/>
+      <c r="K96" s="177"/>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="B97" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="C96" s="113" t="s">
+      <c r="C97" s="113" t="s">
         <v>287</v>
       </c>
-      <c r="D96" s="113" t="s">
+      <c r="D97" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="E96" s="113" t="s">
+      <c r="E97" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="F96" s="113" t="s">
+      <c r="F97" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="G96" s="113" t="s">
+      <c r="G97" s="113" t="s">
         <v>288</v>
       </c>
-      <c r="H96" s="113" t="s">
+      <c r="H97" s="113" t="s">
         <v>395</v>
       </c>
-      <c r="I96" s="113" t="s">
+      <c r="I97" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="J96" s="113" t="s">
+      <c r="J97" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="K96" s="113" t="s">
+      <c r="K97" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="L96" s="78" t="str">
-        <f>"create table "&amp;D95&amp;"("</f>
+      <c r="L97" s="78" t="str">
+        <f>"create table "&amp;D96&amp;"("</f>
         <v>create table GOODS_SALES(</v>
       </c>
-      <c r="N96" s="78" t="s">
+      <c r="N97" s="78" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B97" s="114">
+    <row r="98" spans="1:15">
+      <c r="B98" s="114">
         <v>1</v>
       </c>
-      <c r="C97" s="90" t="s">
+      <c r="C98" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="53" t="str">
-        <f>"번호 ("&amp;D95&amp;"_SEQ.nextval)"</f>
+      <c r="D98" s="53" t="str">
+        <f>"번호 ("&amp;D96&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_SALES_SEQ.nextval)</v>
       </c>
-      <c r="E97" s="90" t="s">
+      <c r="E98" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F97" s="114"/>
-      <c r="G97" s="114"/>
-      <c r="H97" s="114"/>
-      <c r="I97" s="114" t="s">
+      <c r="F98" s="114"/>
+      <c r="G98" s="114"/>
+      <c r="H98" s="114"/>
+      <c r="I98" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J97" s="114"/>
-      <c r="K97" s="91"/>
-      <c r="L97" s="78" t="str">
-        <f t="shared" ref="L97:L100" si="12">C97&amp;" "&amp;E97&amp;IF(E97="varchar2","("&amp;F97&amp;")","")&amp;IF(J97="",""," default "&amp;J97)&amp;IF(G97="",""," "&amp;G97)&amp;IF(H97="",""," unique")&amp;IF(I97="",""," primary key")&amp;","</f>
+      <c r="J98" s="114"/>
+      <c r="K98" s="91"/>
+      <c r="L98" s="78" t="str">
+        <f t="shared" ref="L98:L101" si="12">C98&amp;" "&amp;E98&amp;IF(E98="varchar2","("&amp;F98&amp;")","")&amp;IF(J98="",""," default "&amp;J98)&amp;IF(G98="",""," "&amp;G98)&amp;IF(H98="",""," unique")&amp;IF(I98="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N97" s="78" t="s">
+      <c r="N98" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B98" s="93">
+    <row r="99" spans="1:15">
+      <c r="B99" s="93">
         <v>2</v>
       </c>
-      <c r="C98" s="92" t="s">
+      <c r="C99" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="D98" s="92" t="s">
+      <c r="D99" s="92" t="s">
         <v>133</v>
-      </c>
-      <c r="E98" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F98" s="93">
-        <v>100</v>
-      </c>
-      <c r="G98" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H98" s="93"/>
-      <c r="I98" s="93"/>
-      <c r="J98" s="93"/>
-      <c r="K98" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="L98" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>GOODSCODE varchar2(100) not null,</v>
-      </c>
-      <c r="N98" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="O98" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C98&amp;") references "&amp;K98</f>
-        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B99" s="93">
-        <v>3</v>
-      </c>
-      <c r="C99" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="D99" s="92" t="s">
-        <v>379</v>
       </c>
       <c r="E99" s="92" t="s">
         <v>135</v>
       </c>
       <c r="F99" s="93">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G99" s="93" t="s">
         <v>139</v>
@@ -11126,214 +11126,218 @@
       <c r="I99" s="93"/>
       <c r="J99" s="93"/>
       <c r="K99" s="92" t="s">
-        <v>401</v>
+        <v>271</v>
       </c>
       <c r="L99" s="78" t="str">
         <f t="shared" si="12"/>
-        <v>NICKNAME varchar2(20) not null,</v>
+        <v>GOODSCODE varchar2(100) not null,</v>
       </c>
       <c r="N99" s="78" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="O99" s="78" t="str">
         <f>"constraint FK1 foreign key("&amp;C99&amp;") references "&amp;K99</f>
-        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B100" s="114">
-        <v>4</v>
-      </c>
-      <c r="C100" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="D100" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="E100" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="F100" s="117"/>
-      <c r="G100" s="104" t="s">
+        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="B100" s="93">
         <v>3</v>
       </c>
-      <c r="H100" s="104"/>
-      <c r="I100" s="117"/>
-      <c r="J100" s="117"/>
-      <c r="K100" s="109"/>
+      <c r="C100" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="E100" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F100" s="93">
+        <v>20</v>
+      </c>
+      <c r="G100" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H100" s="93"/>
+      <c r="I100" s="93"/>
+      <c r="J100" s="93"/>
+      <c r="K100" s="92" t="s">
+        <v>401</v>
+      </c>
       <c r="L100" s="78" t="str">
         <f t="shared" si="12"/>
+        <v>NICKNAME varchar2(20) not null,</v>
+      </c>
+      <c r="N100" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="O100" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C100&amp;") references "&amp;K100</f>
+        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="B101" s="114">
+        <v>4</v>
+      </c>
+      <c r="C101" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="D101" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="E101" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="117"/>
+      <c r="G101" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="104"/>
+      <c r="I101" s="117"/>
+      <c r="J101" s="117"/>
+      <c r="K101" s="109"/>
+      <c r="L101" s="78" t="str">
+        <f t="shared" si="12"/>
         <v>SALES number not null,</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B101" s="114">
+    <row r="102" spans="1:15">
+      <c r="B102" s="114">
         <v>5</v>
       </c>
-      <c r="C101" s="91" t="s">
+      <c r="C102" s="91" t="s">
         <v>383</v>
       </c>
-      <c r="D101" s="91" t="s">
+      <c r="D102" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E101" s="91" t="s">
+      <c r="E102" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F101" s="114"/>
-      <c r="G101" s="104"/>
-      <c r="H101" s="104"/>
-      <c r="I101" s="114"/>
-      <c r="J101" s="114" t="s">
+      <c r="F102" s="114"/>
+      <c r="G102" s="104"/>
+      <c r="H102" s="104"/>
+      <c r="I102" s="114"/>
+      <c r="J102" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="K101" s="91"/>
-      <c r="L101" s="78" t="str">
-        <f>C101&amp;" "&amp;E101&amp;IF(E101="varchar2","("&amp;F101&amp;")","")&amp;IF(J101="",""," default "&amp;J101)&amp;IF(G101="",""," "&amp;G101)&amp;IF(H101="",""," unique")&amp;IF(I101="",""," primary key")</f>
+      <c r="K102" s="91"/>
+      <c r="L102" s="78" t="str">
+        <f>C102&amp;" "&amp;E102&amp;IF(E102="varchar2","("&amp;F102&amp;")","")&amp;IF(J102="",""," default "&amp;J102)&amp;IF(G102="",""," "&amp;G102)&amp;IF(H102="",""," unique")&amp;IF(I102="",""," primary key")</f>
         <v>ORDERDATE date default sysdate</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L102" s="78" t="s">
+    <row r="103" spans="1:15">
+      <c r="L103" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N102" s="78" t="s">
+      <c r="N103" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A103" s="78">
+    <row r="104" spans="1:15">
+      <c r="A104" s="78">
         <v>12</v>
       </c>
-      <c r="B103" s="157" t="s">
+      <c r="B104" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C103" s="158"/>
-      <c r="D103" s="159" t="s">
+      <c r="C104" s="168"/>
+      <c r="D104" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="E103" s="160"/>
-      <c r="F103" s="70" t="s">
+      <c r="E104" s="170"/>
+      <c r="F104" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G103" s="159" t="s">
+      <c r="G104" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="H103" s="161"/>
-      <c r="I103" s="161"/>
-      <c r="J103" s="161"/>
-      <c r="K103" s="160"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B104" s="70" t="s">
+      <c r="H104" s="171"/>
+      <c r="I104" s="171"/>
+      <c r="J104" s="171"/>
+      <c r="K104" s="170"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="B105" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C104" s="70" t="s">
+      <c r="C105" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D104" s="70" t="s">
+      <c r="D105" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E104" s="70" t="s">
+      <c r="E105" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F104" s="70" t="s">
+      <c r="F105" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G104" s="70" t="s">
+      <c r="G105" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H104" s="70" t="s">
+      <c r="H105" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I104" s="70" t="s">
+      <c r="I105" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J104" s="70" t="s">
+      <c r="J105" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K104" s="70" t="s">
+      <c r="K105" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L104" s="78" t="str">
-        <f>"create table "&amp;D103&amp;"("</f>
+      <c r="L105" s="78" t="str">
+        <f>"create table "&amp;D104&amp;"("</f>
         <v>create table ASSATALK(</v>
       </c>
-      <c r="N104" s="78" t="s">
+      <c r="N105" s="78" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B105" s="54">
+    <row r="106" spans="1:15">
+      <c r="B106" s="54">
         <v>1</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C106" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D105" s="53" t="str">
-        <f>"번호 ("&amp;D103&amp;"_SEQ.nextval)"</f>
+      <c r="D106" s="53" t="str">
+        <f>"번호 ("&amp;D104&amp;"_SEQ.nextval)"</f>
         <v>번호 (ASSATALK_SEQ.nextval)</v>
       </c>
-      <c r="E105" s="53" t="s">
+      <c r="E106" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F105" s="54"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54" t="s">
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J105" s="54"/>
-      <c r="K105" s="55"/>
-      <c r="L105" s="78" t="str">
-        <f t="shared" ref="L105:L108" si="13">C105&amp;" "&amp;E105&amp;IF(E105="varchar2","("&amp;F105&amp;")","")&amp;IF(J105="",""," default "&amp;J105)&amp;IF(G105="",""," "&amp;G105)&amp;IF(H105="",""," unique")&amp;IF(I105="",""," primary key")&amp;","</f>
+      <c r="J106" s="54"/>
+      <c r="K106" s="55"/>
+      <c r="L106" s="78" t="str">
+        <f t="shared" ref="L106:L109" si="13">C106&amp;" "&amp;E106&amp;IF(E106="varchar2","("&amp;F106&amp;")","")&amp;IF(J106="",""," default "&amp;J106)&amp;IF(G106="",""," "&amp;G106)&amp;IF(H106="",""," unique")&amp;IF(I106="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N105" s="78" t="s">
+      <c r="N106" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B106" s="54">
+    <row r="107" spans="1:15">
+      <c r="B107" s="54">
         <v>2</v>
       </c>
-      <c r="C106" s="55" t="s">
+      <c r="C107" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D106" s="55" t="s">
+      <c r="D107" s="55" t="s">
         <v>167</v>
-      </c>
-      <c r="E106" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F106" s="54">
-        <v>20</v>
-      </c>
-      <c r="G106" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L106" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>SPEAKER varchar2(20) not null,</v>
-      </c>
-      <c r="N106" s="78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B107" s="54">
-        <v>3</v>
-      </c>
-      <c r="C107" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D107" s="55" t="s">
-        <v>169</v>
       </c>
       <c r="E107" s="55" t="s">
         <v>135</v>
@@ -11352,27 +11356,27 @@
       </c>
       <c r="L107" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>LISTENER varchar2(20) not null,</v>
+        <v>SPEAKER varchar2(20) not null,</v>
       </c>
       <c r="N107" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="B108" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="E108" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F108" s="54">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G108" s="54" t="s">
         <v>139</v>
@@ -11380,225 +11384,225 @@
       <c r="H108" s="54"/>
       <c r="I108" s="54"/>
       <c r="J108" s="54"/>
-      <c r="K108" s="55"/>
+      <c r="K108" s="55" t="s">
+        <v>296</v>
+      </c>
       <c r="L108" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>CONTENT varchar2(200) not null,</v>
+        <v>LISTENER varchar2(20) not null,</v>
       </c>
       <c r="N108" s="78" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="B109" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109" s="55" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F109" s="54">
+        <v>200</v>
+      </c>
+      <c r="G109" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H109" s="54"/>
       <c r="I109" s="54"/>
-      <c r="J109" s="54" t="s">
-        <v>174</v>
-      </c>
+      <c r="J109" s="54"/>
       <c r="K109" s="55"/>
       <c r="L109" s="78" t="str">
-        <f>C109&amp;" "&amp;E109&amp;IF(E109="varchar2","("&amp;F109&amp;")","")&amp;IF(J109="",""," default "&amp;J109)&amp;IF(G109="",""," "&amp;G109)&amp;IF(H109="",""," unique")&amp;IF(I109="",""," primary key")</f>
+        <f t="shared" si="13"/>
+        <v>CONTENT varchar2(200) not null,</v>
+      </c>
+      <c r="N109" s="78" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="B110" s="54">
+        <v>5</v>
+      </c>
+      <c r="C110" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D110" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E110" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F110" s="54"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="K110" s="55"/>
+      <c r="L110" s="78" t="str">
+        <f>C110&amp;" "&amp;E110&amp;IF(E110="varchar2","("&amp;F110&amp;")","")&amp;IF(J110="",""," default "&amp;J110)&amp;IF(G110="",""," "&amp;G110)&amp;IF(H110="",""," unique")&amp;IF(I110="",""," primary key")</f>
         <v>SENDTIME timestamp default systimestamp</v>
       </c>
-      <c r="N109" s="78" t="s">
+      <c r="N110" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L110" s="78" t="s">
+    <row r="111" spans="1:15">
+      <c r="L111" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N110" s="78" t="s">
+      <c r="N111" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A111" s="78">
+    <row r="112" spans="1:15">
+      <c r="A112" s="78">
         <v>13</v>
       </c>
-      <c r="B111" s="157" t="s">
+      <c r="B112" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C111" s="158"/>
-      <c r="D111" s="159" t="s">
+      <c r="C112" s="168"/>
+      <c r="D112" s="169" t="s">
         <v>407</v>
       </c>
-      <c r="E111" s="160"/>
-      <c r="F111" s="70" t="s">
+      <c r="E112" s="170"/>
+      <c r="F112" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G111" s="159" t="s">
+      <c r="G112" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="H111" s="161"/>
-      <c r="I111" s="161"/>
-      <c r="J111" s="161"/>
-      <c r="K111" s="160"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B112" s="70" t="s">
+      <c r="H112" s="171"/>
+      <c r="I112" s="171"/>
+      <c r="J112" s="171"/>
+      <c r="K112" s="170"/>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="B113" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C112" s="70" t="s">
+      <c r="C113" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D112" s="70" t="s">
+      <c r="D113" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E112" s="70" t="s">
+      <c r="E113" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F112" s="70" t="s">
+      <c r="F113" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G112" s="70" t="s">
+      <c r="G113" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H112" s="70" t="s">
+      <c r="H113" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I112" s="70" t="s">
+      <c r="I113" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J112" s="70" t="s">
+      <c r="J113" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K112" s="70" t="s">
+      <c r="K113" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L112" s="78" t="str">
-        <f>"create table "&amp;D111&amp;"("</f>
+      <c r="L113" s="78" t="str">
+        <f>"create table "&amp;D112&amp;"("</f>
         <v>create table ASSATALK_KEYWORD(</v>
       </c>
-      <c r="N112" s="78" t="s">
+      <c r="N113" s="78" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B113" s="54">
+    <row r="114" spans="1:15">
+      <c r="B114" s="54">
         <v>1</v>
       </c>
-      <c r="C113" s="53" t="s">
+      <c r="C114" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D113" s="53" t="str">
-        <f>"번호 ("&amp;D111&amp;"_SEQ.nextval)"</f>
+      <c r="D114" s="53" t="str">
+        <f>"번호 ("&amp;D112&amp;"_SEQ.nextval)"</f>
         <v>번호 (ASSATALK_KEYWORD_SEQ.nextval)</v>
       </c>
-      <c r="E113" s="53" t="s">
+      <c r="E114" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54" t="s">
+      <c r="F114" s="54"/>
+      <c r="G114" s="54"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J113" s="54"/>
-      <c r="K113" s="55"/>
-      <c r="L113" s="78" t="str">
-        <f t="shared" ref="L113:L115" si="14">C113&amp;" "&amp;E113&amp;IF(E113="varchar2","("&amp;F113&amp;")","")&amp;IF(J113="",""," default "&amp;J113)&amp;IF(G113="",""," "&amp;G113)&amp;IF(H113="",""," unique")&amp;IF(I113="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N113" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B114" s="54">
-        <v>2</v>
-      </c>
-      <c r="C114" s="55" t="s">
-        <v>411</v>
-      </c>
-      <c r="D114" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="E114" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" s="54">
-        <v>20</v>
-      </c>
-      <c r="G114" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H114" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="I114" s="54"/>
       <c r="J114" s="54"/>
       <c r="K114" s="55"/>
       <c r="L114" s="78" t="str">
+        <f t="shared" ref="L114:L116" si="14">C114&amp;" "&amp;E114&amp;IF(E114="varchar2","("&amp;F114&amp;")","")&amp;IF(J114="",""," default "&amp;J114)&amp;IF(G114="",""," "&amp;G114)&amp;IF(H114="",""," unique")&amp;IF(I114="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N114" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="B115" s="54">
+        <v>2</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="D115" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="E115" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="54">
+        <v>20</v>
+      </c>
+      <c r="G115" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="55"/>
+      <c r="L115" s="78" t="str">
         <f t="shared" si="14"/>
         <v>KEYWORD varchar2(20) not null unique,</v>
       </c>
-      <c r="N114" s="78" t="s">
+      <c r="N115" s="78" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.45">
-      <c r="B115" s="54">
+    <row r="116" spans="1:15" ht="32">
+      <c r="B116" s="54">
         <v>3</v>
       </c>
-      <c r="C115" s="55" t="s">
+      <c r="C116" s="55" t="s">
         <v>412</v>
       </c>
-      <c r="D115" s="55" t="s">
+      <c r="D116" s="55" t="s">
         <v>409</v>
-      </c>
-      <c r="E115" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="54">
-        <v>20</v>
-      </c>
-      <c r="G115" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H115" s="54"/>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="L115" s="78" t="str">
-        <f t="shared" si="14"/>
-        <v>ANSWERTYPE varchar2(20) not null,</v>
-      </c>
-      <c r="N115" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B116" s="54">
-        <v>5</v>
-      </c>
-      <c r="C116" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D116" s="55" t="s">
-        <v>410</v>
       </c>
       <c r="E116" s="55" t="s">
         <v>4</v>
       </c>
       <c r="F116" s="54">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="G116" s="54" t="s">
         <v>3</v>
@@ -11606,229 +11610,231 @@
       <c r="H116" s="54"/>
       <c r="I116" s="54"/>
       <c r="J116" s="54"/>
-      <c r="K116" s="55"/>
+      <c r="K116" s="55" t="s">
+        <v>413</v>
+      </c>
       <c r="L116" s="78" t="str">
-        <f>C116&amp;" "&amp;E116&amp;IF(E116="varchar2","("&amp;F116&amp;")","")&amp;IF(J116="",""," default "&amp;J116)&amp;IF(G116="",""," "&amp;G116)&amp;IF(H116="",""," unique")&amp;IF(I116="",""," primary key")</f>
+        <f t="shared" si="14"/>
+        <v>ANSWERTYPE varchar2(20) not null,</v>
+      </c>
+      <c r="N116" s="78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="B117" s="54">
+        <v>5</v>
+      </c>
+      <c r="C117" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="E117" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G117" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="55"/>
+      <c r="L117" s="78" t="str">
+        <f>C117&amp;" "&amp;E117&amp;IF(E117="varchar2","("&amp;F117&amp;")","")&amp;IF(J117="",""," default "&amp;J117)&amp;IF(G117="",""," "&amp;G117)&amp;IF(H117="",""," unique")&amp;IF(I117="",""," primary key")</f>
         <v>ANSWER varchar2(4000) not null</v>
       </c>
-      <c r="N116" s="78" t="s">
+      <c r="N117" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L117" s="78" t="s">
+    <row r="118" spans="1:15">
+      <c r="L118" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N117" s="78" t="s">
+      <c r="N118" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A118" s="78">
+    <row r="119" spans="1:15">
+      <c r="A119" s="78">
         <v>14</v>
       </c>
-      <c r="B118" s="164" t="s">
+      <c r="B119" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="C118" s="164"/>
-      <c r="D118" s="163" t="s">
+      <c r="C119" s="176"/>
+      <c r="D119" s="177" t="s">
         <v>257</v>
       </c>
-      <c r="E118" s="163"/>
-      <c r="F118" s="115" t="s">
+      <c r="E119" s="177"/>
+      <c r="F119" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G118" s="163" t="s">
+      <c r="G119" s="177" t="s">
         <v>389</v>
       </c>
-      <c r="H118" s="163"/>
-      <c r="I118" s="163"/>
-      <c r="J118" s="163"/>
-      <c r="K118" s="163"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B119" s="115" t="s">
+      <c r="H119" s="177"/>
+      <c r="I119" s="177"/>
+      <c r="J119" s="177"/>
+      <c r="K119" s="177"/>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="B120" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C119" s="115" t="s">
+      <c r="C120" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D119" s="115" t="s">
+      <c r="D120" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E119" s="115" t="s">
+      <c r="E120" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F119" s="115" t="s">
+      <c r="F120" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G119" s="115" t="s">
+      <c r="G120" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H119" s="70" t="s">
+      <c r="H120" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I119" s="115" t="s">
+      <c r="I120" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J119" s="115" t="s">
+      <c r="J120" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K119" s="115" t="s">
+      <c r="K120" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L119" s="78" t="str">
-        <f>"create table "&amp;D118&amp;"("</f>
+      <c r="L120" s="78" t="str">
+        <f>"create table "&amp;D119&amp;"("</f>
         <v>create table QUESTION(</v>
       </c>
-      <c r="N119" s="78" t="s">
+      <c r="N120" s="78" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B120" s="114">
+    <row r="121" spans="1:15">
+      <c r="B121" s="114">
         <v>1</v>
       </c>
-      <c r="C120" s="90" t="s">
+      <c r="C121" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D120" s="53" t="str">
-        <f>"번호 ("&amp;D118&amp;"_SEQ.nextval)"</f>
+      <c r="D121" s="53" t="str">
+        <f>"번호 ("&amp;D119&amp;"_SEQ.nextval)"</f>
         <v>번호 (QUESTION_SEQ.nextval)</v>
       </c>
-      <c r="E120" s="90" t="s">
+      <c r="E121" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F120" s="114"/>
-      <c r="G120" s="114"/>
-      <c r="H120" s="114"/>
-      <c r="I120" s="114" t="s">
+      <c r="F121" s="114"/>
+      <c r="G121" s="114"/>
+      <c r="H121" s="114"/>
+      <c r="I121" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J120" s="114"/>
-      <c r="K120" s="91"/>
-      <c r="L120" s="78" t="str">
-        <f t="shared" ref="L120:L126" si="15">C120&amp;" "&amp;E120&amp;IF(E120="varchar2","("&amp;F120&amp;")","")&amp;IF(J120="",""," default "&amp;J120)&amp;IF(G120="",""," "&amp;G120)&amp;IF(H120="",""," unique")&amp;IF(I120="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N120" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B121" s="114">
-        <v>2</v>
-      </c>
-      <c r="C121" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="D121" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="E121" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F121" s="114">
-        <v>20</v>
-      </c>
-      <c r="G121" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H121" s="114"/>
-      <c r="I121" s="114"/>
       <c r="J121" s="114"/>
       <c r="K121" s="91"/>
       <c r="L121" s="78" t="str">
+        <f t="shared" ref="L121:L127" si="15">C121&amp;" "&amp;E121&amp;IF(E121="varchar2","("&amp;F121&amp;")","")&amp;IF(J121="",""," default "&amp;J121)&amp;IF(G121="",""," "&amp;G121)&amp;IF(H121="",""," unique")&amp;IF(I121="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N121" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="B122" s="114">
+        <v>2</v>
+      </c>
+      <c r="C122" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="E122" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F122" s="114">
+        <v>20</v>
+      </c>
+      <c r="G122" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H122" s="114"/>
+      <c r="I122" s="114"/>
+      <c r="J122" s="114"/>
+      <c r="K122" s="91"/>
+      <c r="L122" s="78" t="str">
         <f t="shared" si="15"/>
         <v>ASKTYPE varchar2(20) not null,</v>
       </c>
-      <c r="N121" s="78" t="s">
+      <c r="N122" s="78" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B122" s="114">
+    <row r="123" spans="1:15">
+      <c r="B123" s="114">
         <v>3</v>
       </c>
-      <c r="C122" s="94" t="s">
+      <c r="C123" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="D122" s="94" t="s">
+      <c r="D123" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="E122" s="94" t="s">
+      <c r="E123" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F122" s="95">
+      <c r="F123" s="95">
         <v>20</v>
       </c>
-      <c r="G122" s="95" t="s">
+      <c r="G123" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="H122" s="95"/>
-      <c r="I122" s="95"/>
-      <c r="J122" s="95"/>
-      <c r="K122" s="94" t="s">
+      <c r="H123" s="95"/>
+      <c r="I123" s="95"/>
+      <c r="J123" s="95"/>
+      <c r="K123" s="94" t="s">
         <v>388</v>
       </c>
-      <c r="L122" s="78" t="str">
+      <c r="L123" s="78" t="str">
         <f t="shared" si="15"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N122" s="78" t="s">
+      <c r="N123" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="O122" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C122&amp;") references "&amp;K122</f>
+      <c r="O123" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C123&amp;") references "&amp;K123</f>
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B123" s="114">
+    <row r="124" spans="1:15">
+      <c r="B124" s="114">
         <v>4</v>
       </c>
-      <c r="C123" s="91" t="s">
+      <c r="C124" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="D123" s="91" t="s">
+      <c r="D124" s="91" t="s">
         <v>233</v>
-      </c>
-      <c r="E123" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F123" s="114">
-        <v>50</v>
-      </c>
-      <c r="G123" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H123" s="114"/>
-      <c r="I123" s="114"/>
-      <c r="J123" s="114"/>
-      <c r="K123" s="91"/>
-      <c r="L123" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>TITLE varchar2(50) not null,</v>
-      </c>
-      <c r="N123" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B124" s="114">
-        <v>5</v>
-      </c>
-      <c r="C124" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="D124" s="91" t="s">
-        <v>140</v>
       </c>
       <c r="E124" s="91" t="s">
         <v>135</v>
       </c>
       <c r="F124" s="114">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G124" s="114" t="s">
         <v>139</v>
@@ -11839,21 +11845,21 @@
       <c r="K124" s="91"/>
       <c r="L124" s="78" t="str">
         <f t="shared" si="15"/>
-        <v>CONTENT varchar2(4000) not null,</v>
+        <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N124" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="B125" s="114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" s="91" t="s">
-        <v>262</v>
+        <v>141</v>
       </c>
       <c r="D125" s="91" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="E125" s="91" t="s">
         <v>135</v>
@@ -11861,61 +11867,61 @@
       <c r="F125" s="114">
         <v>4000</v>
       </c>
-      <c r="G125" s="114"/>
+      <c r="G125" s="114" t="s">
+        <v>139</v>
+      </c>
       <c r="H125" s="114"/>
       <c r="I125" s="114"/>
       <c r="J125" s="114"/>
-      <c r="K125" s="91" t="s">
-        <v>365</v>
-      </c>
+      <c r="K125" s="91"/>
       <c r="L125" s="78" t="str">
         <f t="shared" si="15"/>
-        <v>ANSWER varchar2(4000),</v>
+        <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N125" s="78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="32">
       <c r="B126" s="114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" s="91" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D126" s="91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E126" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F126" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="F126" s="114">
+        <v>4000</v>
+      </c>
       <c r="G126" s="114"/>
       <c r="H126" s="114"/>
       <c r="I126" s="114"/>
-      <c r="J126" s="114" t="s">
-        <v>157</v>
-      </c>
+      <c r="J126" s="114"/>
       <c r="K126" s="91" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="L126" s="78" t="str">
         <f t="shared" si="15"/>
-        <v>ASKDATE date default sysdate,</v>
+        <v>ANSWER varchar2(4000),</v>
       </c>
       <c r="N126" s="78" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="B127" s="114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" s="91" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D127" s="91" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E127" s="91" t="s">
         <v>156</v>
@@ -11924,234 +11930,236 @@
       <c r="G127" s="114"/>
       <c r="H127" s="114"/>
       <c r="I127" s="114"/>
-      <c r="J127" s="114"/>
+      <c r="J127" s="114" t="s">
+        <v>157</v>
+      </c>
       <c r="K127" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="L127" s="78" t="str">
+        <f t="shared" si="15"/>
+        <v>ASKDATE date default sysdate,</v>
+      </c>
+      <c r="N127" s="78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="B128" s="114">
+        <v>8</v>
+      </c>
+      <c r="C128" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E128" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F128" s="114"/>
+      <c r="G128" s="114"/>
+      <c r="H128" s="114"/>
+      <c r="I128" s="114"/>
+      <c r="J128" s="114"/>
+      <c r="K128" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="L127" s="78" t="str">
-        <f>C127&amp;" "&amp;E127&amp;IF(E127="varchar2","("&amp;F127&amp;")","")&amp;IF(J127="",""," default "&amp;J127)&amp;IF(G127="",""," "&amp;G127)&amp;IF(H127="",""," unique")&amp;IF(I127="",""," primary key")</f>
+      <c r="L128" s="78" t="str">
+        <f>C128&amp;" "&amp;E128&amp;IF(E128="varchar2","("&amp;F128&amp;")","")&amp;IF(J128="",""," default "&amp;J128)&amp;IF(G128="",""," "&amp;G128)&amp;IF(H128="",""," unique")&amp;IF(I128="",""," primary key")</f>
         <v>ANSWERDATE date</v>
       </c>
-      <c r="N127" s="78" t="s">
+      <c r="N128" s="78" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L128" s="78" t="s">
+    <row r="129" spans="1:15">
+      <c r="L129" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N128" s="78" t="s">
+      <c r="N129" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A129" s="78">
+    <row r="130" spans="1:15">
+      <c r="A130" s="78">
         <v>15</v>
       </c>
-      <c r="B129" s="157" t="s">
+      <c r="B130" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C129" s="158"/>
-      <c r="D129" s="159" t="s">
+      <c r="C130" s="168"/>
+      <c r="D130" s="169" t="s">
         <v>297</v>
       </c>
-      <c r="E129" s="160"/>
-      <c r="F129" s="70" t="s">
+      <c r="E130" s="170"/>
+      <c r="F130" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G129" s="159" t="s">
+      <c r="G130" s="169" t="s">
         <v>389</v>
       </c>
-      <c r="H129" s="161"/>
-      <c r="I129" s="161"/>
-      <c r="J129" s="161"/>
-      <c r="K129" s="160"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B130" s="70" t="s">
+      <c r="H130" s="171"/>
+      <c r="I130" s="171"/>
+      <c r="J130" s="171"/>
+      <c r="K130" s="170"/>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="B131" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C130" s="70" t="s">
+      <c r="C131" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D130" s="70" t="s">
+      <c r="D131" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E130" s="70" t="s">
+      <c r="E131" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F130" s="70" t="s">
+      <c r="F131" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G130" s="70" t="s">
+      <c r="G131" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H130" s="70" t="s">
+      <c r="H131" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I130" s="70" t="s">
+      <c r="I131" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J130" s="70" t="s">
+      <c r="J131" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K130" s="70" t="s">
+      <c r="K131" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L130" s="78" t="str">
-        <f>"create table "&amp;D129&amp;"("</f>
+      <c r="L131" s="78" t="str">
+        <f>"create table "&amp;D130&amp;"("</f>
         <v>create table WARNING(</v>
       </c>
-      <c r="N130" s="78" t="s">
+      <c r="N131" s="78" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B131" s="54">
+    <row r="132" spans="1:15">
+      <c r="B132" s="54">
         <v>1</v>
       </c>
-      <c r="C131" s="53" t="s">
+      <c r="C132" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D131" s="53" t="str">
-        <f>"번호 ("&amp;D129&amp;"_SEQ.nextval)"</f>
+      <c r="D132" s="53" t="str">
+        <f>"번호 ("&amp;D130&amp;"_SEQ.nextval)"</f>
         <v>번호 (WARNING_SEQ.nextval)</v>
       </c>
-      <c r="E131" s="53" t="s">
+      <c r="E132" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F131" s="54"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="54"/>
-      <c r="I131" s="54" t="s">
+      <c r="F132" s="54"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="54"/>
+      <c r="I132" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J131" s="54"/>
-      <c r="K131" s="55"/>
-      <c r="L131" s="78" t="str">
-        <f t="shared" ref="L131:L135" si="16">C131&amp;" "&amp;E131&amp;IF(E131="varchar2","("&amp;F131&amp;")","")&amp;IF(J131="",""," default "&amp;J131)&amp;IF(G131="",""," "&amp;G131)&amp;IF(H131="",""," unique")&amp;IF(I131="",""," primary key")&amp;","</f>
+      <c r="J132" s="54"/>
+      <c r="K132" s="55"/>
+      <c r="L132" s="78" t="str">
+        <f t="shared" ref="L132:L136" si="16">C132&amp;" "&amp;E132&amp;IF(E132="varchar2","("&amp;F132&amp;")","")&amp;IF(J132="",""," default "&amp;J132)&amp;IF(G132="",""," "&amp;G132)&amp;IF(H132="",""," unique")&amp;IF(I132="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N131" s="78" t="s">
+      <c r="N132" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B132" s="54">
+    <row r="133" spans="1:15">
+      <c r="B133" s="54">
         <v>2</v>
       </c>
-      <c r="C132" s="82" t="s">
+      <c r="C133" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D132" s="82" t="s">
+      <c r="D133" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="E132" s="82" t="s">
+      <c r="E133" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F132" s="83">
+      <c r="F133" s="83">
         <v>20</v>
       </c>
-      <c r="G132" s="83" t="s">
+      <c r="G133" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H132" s="83"/>
-      <c r="I132" s="83"/>
-      <c r="J132" s="83"/>
-      <c r="K132" s="85" t="s">
+      <c r="H133" s="83"/>
+      <c r="I133" s="83"/>
+      <c r="J133" s="83"/>
+      <c r="K133" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="L132" s="78" t="str">
+      <c r="L133" s="78" t="str">
         <f t="shared" si="16"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N132" s="78" t="s">
+      <c r="N133" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="O132" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C132&amp;") references "&amp;K132</f>
+      <c r="O133" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C133&amp;") references "&amp;K133</f>
         <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B133" s="110">
+    <row r="134" spans="1:15">
+      <c r="B134" s="110">
         <v>3</v>
       </c>
-      <c r="C133" s="85" t="s">
+      <c r="C134" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="D133" s="85" t="s">
+      <c r="D134" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="E133" s="85" t="s">
+      <c r="E134" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="F133" s="84"/>
-      <c r="G133" s="84" t="s">
+      <c r="F134" s="84"/>
+      <c r="G134" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="H133" s="84"/>
-      <c r="I133" s="84"/>
-      <c r="J133" s="84"/>
-      <c r="K133" s="85" t="s">
+      <c r="H134" s="84"/>
+      <c r="I134" s="84"/>
+      <c r="J134" s="84"/>
+      <c r="K134" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="L133" s="78" t="str">
+      <c r="L134" s="78" t="str">
         <f t="shared" si="16"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N133" s="78" t="s">
+      <c r="N134" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O133" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C133&amp;") references "&amp;K133</f>
+      <c r="O134" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C134&amp;") references "&amp;K134</f>
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B134" s="54">
+    <row r="135" spans="1:15">
+      <c r="B135" s="54">
         <v>4</v>
       </c>
-      <c r="C134" s="55" t="s">
+      <c r="C135" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D134" s="55" t="s">
+      <c r="D135" s="55" t="s">
         <v>183</v>
-      </c>
-      <c r="E134" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F134" s="54">
-        <v>30</v>
-      </c>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="55"/>
-      <c r="L134" s="78" t="str">
-        <f t="shared" si="16"/>
-        <v>WARNTYPE varchar2(30),</v>
-      </c>
-      <c r="N134" s="78" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B135" s="54">
-        <v>5</v>
-      </c>
-      <c r="C135" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D135" s="55" t="s">
-        <v>185</v>
       </c>
       <c r="E135" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F135" s="54">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G135" s="54"/>
       <c r="H135" s="54"/>
@@ -12160,51 +12168,125 @@
       <c r="K135" s="55"/>
       <c r="L135" s="78" t="str">
         <f t="shared" si="16"/>
-        <v>WARNWHY varchar2(300),</v>
+        <v>WARNTYPE varchar2(30),</v>
       </c>
       <c r="N135" s="78" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="B136" s="54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D136" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E136" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F136" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F136" s="54">
+        <v>300</v>
+      </c>
       <c r="G136" s="54"/>
       <c r="H136" s="54"/>
       <c r="I136" s="54"/>
-      <c r="J136" s="54" t="s">
-        <v>157</v>
-      </c>
+      <c r="J136" s="54"/>
       <c r="K136" s="55"/>
       <c r="L136" s="78" t="str">
-        <f>C136&amp;" "&amp;E136&amp;IF(E136="varchar2","("&amp;F136&amp;")","")&amp;IF(J136="",""," default "&amp;J136)&amp;IF(G136="",""," "&amp;G136)&amp;IF(H136="",""," unique")&amp;IF(I136="",""," primary key")</f>
+        <f t="shared" si="16"/>
+        <v>WARNWHY varchar2(300),</v>
+      </c>
+      <c r="N136" s="78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="B137" s="54">
+        <v>6</v>
+      </c>
+      <c r="C137" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D137" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E137" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F137" s="54"/>
+      <c r="G137" s="54"/>
+      <c r="H137" s="54"/>
+      <c r="I137" s="54"/>
+      <c r="J137" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K137" s="55"/>
+      <c r="L137" s="78" t="str">
+        <f>C137&amp;" "&amp;E137&amp;IF(E137="varchar2","("&amp;F137&amp;")","")&amp;IF(J137="",""," default "&amp;J137)&amp;IF(G137="",""," "&amp;G137)&amp;IF(H137="",""," unique")&amp;IF(I137="",""," primary key")</f>
         <v>WARNTIME date default sysdate</v>
       </c>
-      <c r="N136" s="78" t="s">
+      <c r="N137" s="78" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L137" s="78" t="s">
+    <row r="138" spans="1:15">
+      <c r="L138" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N137" s="78" t="s">
+      <c r="N138" s="78" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G130:K130"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:K15"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -12213,51 +12295,6 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="G129:K129"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="B89:C89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12273,7 +12310,7 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="34.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
@@ -12283,7 +12320,7 @@
     <col min="6" max="6" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" hidden="1">
       <c r="A1" t="s">
         <v>415</v>
       </c>
@@ -12291,11 +12328,11 @@
         <v>1</v>
       </c>
       <c r="C1" t="str">
-        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>MEMBER</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -12304,11 +12341,11 @@
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>MEMBER_PLUS</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" hidden="1">
       <c r="A3" t="s">
         <v>377</v>
       </c>
@@ -12317,11 +12354,11 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>MEMBER_ADDR</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" hidden="1">
       <c r="A4" t="s">
         <v>416</v>
       </c>
@@ -12330,123 +12367,123 @@
         <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>POINT</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" hidden="1">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>BOARD</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" hidden="1">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>BOARD_REF</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" hidden="1">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>BOARD_IMAGE</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" hidden="1">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>BOARD_TERM</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" hidden="1">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>GOODS</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" hidden="1">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>GOODS_IMAGE</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" hidden="1">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>GOODS_SALES</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" hidden="1">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>ASSATALK</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" hidden="1">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>ASSATALK_KEYWORD</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" hidden="1">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>QUESTION</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" hidden="1">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$136,4,FALSE)</f>
+        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
         <v>WARNING</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" hidden="1"/>
+    <row r="17" spans="2:3" hidden="1"/>
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -12455,25 +12492,25 @@
         <v>create sequence MEMBER_SEQ</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3">
       <c r="C19" t="str">
         <f>$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="C20" t="str">
         <f>$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3">
       <c r="C21" t="str">
         <f>$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="B22">
         <f>B18+1</f>
         <v>2</v>
@@ -12483,25 +12520,25 @@
         <v>create sequence MEMBER_PLUS_SEQ</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3">
       <c r="C23" t="str">
         <f t="shared" ref="C23" si="2">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3">
       <c r="C24" t="str">
         <f t="shared" ref="C24" si="3">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3">
       <c r="C25" t="str">
         <f t="shared" ref="C25" si="4">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3">
       <c r="B26">
         <f t="shared" ref="B26" si="5">B22+1</f>
         <v>3</v>
@@ -12511,25 +12548,25 @@
         <v>create sequence MEMBER_ADDR_SEQ</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3">
       <c r="C27" t="str">
         <f t="shared" ref="C27" si="7">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3">
       <c r="C28" t="str">
         <f t="shared" ref="C28" si="8">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3">
       <c r="C29" t="str">
         <f t="shared" ref="C29" si="9">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3">
       <c r="B30">
         <f t="shared" ref="B30" si="10">B26+1</f>
         <v>4</v>
@@ -12539,25 +12576,25 @@
         <v>create sequence POINT_SEQ</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3">
       <c r="C31" t="str">
         <f t="shared" ref="C31" si="12">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3">
       <c r="C32" t="str">
         <f t="shared" ref="C32" si="13">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3">
       <c r="C33" t="str">
         <f t="shared" ref="C33" si="14">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3">
       <c r="B34">
         <f t="shared" ref="B34" si="15">B30+1</f>
         <v>5</v>
@@ -12567,25 +12604,25 @@
         <v>create sequence BOARD_SEQ</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3">
       <c r="C35" t="str">
         <f t="shared" ref="C35" si="17">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3">
       <c r="C36" t="str">
         <f t="shared" ref="C36" si="18">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3">
       <c r="C37" t="str">
         <f t="shared" ref="C37" si="19">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3">
       <c r="B38">
         <f t="shared" ref="B38" si="20">B34+1</f>
         <v>6</v>
@@ -12595,25 +12632,25 @@
         <v>create sequence BOARD_REF_SEQ</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3">
       <c r="C39" t="str">
         <f t="shared" ref="C39" si="22">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3">
       <c r="C40" t="str">
         <f t="shared" ref="C40" si="23">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:3">
       <c r="C41" t="str">
         <f t="shared" ref="C41" si="24">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3">
       <c r="B42">
         <f t="shared" ref="B42" si="25">B38+1</f>
         <v>7</v>
@@ -12623,25 +12660,25 @@
         <v>create sequence BOARD_IMAGE_SEQ</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:3">
       <c r="C43" t="str">
         <f t="shared" ref="C43" si="27">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:3">
       <c r="C44" t="str">
         <f t="shared" ref="C44" si="28">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:3">
       <c r="C45" t="str">
         <f t="shared" ref="C45" si="29">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:3">
       <c r="B46">
         <f t="shared" ref="B46" si="30">B42+1</f>
         <v>8</v>
@@ -12651,25 +12688,25 @@
         <v>create sequence BOARD_TERM_SEQ</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:3">
       <c r="C47" t="str">
         <f t="shared" ref="C47" si="32">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:3">
       <c r="C48" t="str">
         <f t="shared" ref="C48" si="33">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3">
       <c r="C49" t="str">
         <f t="shared" ref="C49" si="34">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3">
       <c r="B50">
         <f t="shared" ref="B50" si="35">B46+1</f>
         <v>9</v>
@@ -12679,25 +12716,25 @@
         <v>create sequence GOODS_SEQ</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:3">
       <c r="C51" t="str">
         <f t="shared" ref="C51" si="37">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:3">
       <c r="C52" t="str">
         <f t="shared" ref="C52" si="38">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:3">
       <c r="C53" t="str">
         <f t="shared" ref="C53" si="39">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:3">
       <c r="B54">
         <f t="shared" ref="B54" si="40">B50+1</f>
         <v>10</v>
@@ -12707,25 +12744,25 @@
         <v>create sequence GOODS_IMAGE_SEQ</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:3">
       <c r="C55" t="str">
         <f t="shared" ref="C55" si="42">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:3">
       <c r="C56" t="str">
         <f t="shared" ref="C56" si="43">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:3">
       <c r="C57" t="str">
         <f t="shared" ref="C57" si="44">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:3">
       <c r="B58">
         <f t="shared" ref="B58:B74" si="45">B54+1</f>
         <v>11</v>
@@ -12735,25 +12772,25 @@
         <v>create sequence GOODS_SALES_SEQ</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:3">
       <c r="C59" t="str">
         <f t="shared" ref="C59" si="47">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:3">
       <c r="C60" t="str">
         <f t="shared" ref="C60" si="48">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:3">
       <c r="C61" t="str">
         <f t="shared" ref="C61" si="49">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:3">
       <c r="B62">
         <f t="shared" si="45"/>
         <v>12</v>
@@ -12763,25 +12800,25 @@
         <v>create sequence ASSATALK_SEQ</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:3">
       <c r="C63" t="str">
         <f t="shared" ref="C63" si="51">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:3">
       <c r="C64" t="str">
         <f t="shared" ref="C64" si="52">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:3">
       <c r="C65" t="str">
         <f t="shared" ref="C65" si="53">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:3">
       <c r="B66">
         <f t="shared" si="45"/>
         <v>13</v>
@@ -12791,25 +12828,25 @@
         <v>create sequence ASSATALK_KEYWORD_SEQ</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:3">
       <c r="C67" t="str">
         <f t="shared" ref="C67" si="55">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:3">
       <c r="C68" t="str">
         <f t="shared" ref="C68" si="56">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:3">
       <c r="C69" t="str">
         <f t="shared" ref="C69" si="57">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3">
       <c r="B70">
         <f t="shared" si="45"/>
         <v>14</v>
@@ -12819,25 +12856,25 @@
         <v>create sequence QUESTION_SEQ</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:3">
       <c r="C71" t="str">
         <f t="shared" ref="C71" si="59">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:3">
       <c r="C72" t="str">
         <f t="shared" ref="C72" si="60">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:3">
       <c r="C73" t="str">
         <f t="shared" ref="C73" si="61">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:3">
       <c r="B74">
         <f t="shared" si="45"/>
         <v>15</v>
@@ -12847,19 +12884,19 @@
         <v>create sequence WARNING_SEQ</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3">
       <c r="C75" t="str">
         <f t="shared" ref="C75" si="63">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:3">
       <c r="C76" t="str">
         <f t="shared" ref="C76" si="64">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:3">
       <c r="C77" t="str">
         <f t="shared" ref="C77" si="65">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>

--- a/설계/테이블설계/1. 테이블정의서.xlsx
+++ b/설계/테이블설계/1. 테이블정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\테이블설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE66CF78-5BC9-4A77-B2A3-837AF31D3173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544D95E4-8FD9-4B7F-9B21-DBA2658F58D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="438">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1388,18 +1388,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>탈퇴시 sysdate로 업데이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_PLUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MEMBER(NICKNAME)</t>
   </si>
   <si>
@@ -1499,11 +1487,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>STORAGE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>남은 수량(재고)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동사유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동포인트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자입력x, 변경시마다 sysdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT 시에만 SYSDATE 해준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGINTIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 로그인 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 성공시에만 업데이트 해준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_AUTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상품금액</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1511,7 +1551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,17 +1747,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="10"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1761,7 +1801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2222,7 +2262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2581,22 +2621,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="7" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2764,9 +2795,18 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3088,7 +3128,7 @@
       <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -3100,7 +3140,7 @@
     <col min="8" max="8" width="59.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="27"/>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -3116,7 +3156,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="17.5" thickBot="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
@@ -3142,11 +3182,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1">
-      <c r="A3" s="137" t="s">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="131" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3166,9 +3206,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="19" customFormat="1">
-      <c r="A4" s="138"/>
-      <c r="B4" s="135"/>
+    <row r="4" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="135"/>
+      <c r="B4" s="132"/>
       <c r="C4" s="17" t="s">
         <v>32</v>
       </c>
@@ -3184,9 +3224,9 @@
       <c r="G4" s="18"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="138"/>
-      <c r="B5" s="135"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="135"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
@@ -3204,9 +3244,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="138"/>
-      <c r="B6" s="135"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="135"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
@@ -3222,9 +3262,9 @@
       <c r="G6" s="11"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="138"/>
-      <c r="B7" s="135"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="135"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
@@ -3240,9 +3280,9 @@
       <c r="G7" s="11"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="138"/>
-      <c r="B8" s="135"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="135"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
@@ -3258,9 +3298,9 @@
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="138"/>
-      <c r="B9" s="135"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="135"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3276,9 +3316,9 @@
       <c r="G9" s="11"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="138"/>
-      <c r="B10" s="135"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="135"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3294,9 +3334,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="38"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="138"/>
-      <c r="B11" s="135"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="135"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
@@ -3312,9 +3352,9 @@
       <c r="G11" s="11"/>
       <c r="H11" s="38"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1">
-      <c r="A12" s="138"/>
-      <c r="B12" s="135"/>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="135"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
@@ -3330,9 +3370,9 @@
       </c>
       <c r="H12" s="38"/>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="136"/>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="136"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="58" t="s">
         <v>163</v>
       </c>
@@ -3348,11 +3388,11 @@
       </c>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1">
-      <c r="A14" s="140" t="s">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="139" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3375,9 +3415,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
-      <c r="A15" s="140"/>
-      <c r="B15" s="142"/>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="137"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
@@ -3395,9 +3435,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="151"/>
-      <c r="B16" s="142"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="148"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
@@ -3411,9 +3451,9 @@
       <c r="G16" s="9"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="151"/>
-      <c r="B17" s="142"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="148"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="8" t="s">
         <v>41</v>
       </c>
@@ -3427,9 +3467,9 @@
       <c r="G17" s="9"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="151"/>
-      <c r="B18" s="142"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="148"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
@@ -3443,9 +3483,9 @@
       <c r="G18" s="9"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="151"/>
-      <c r="B19" s="142"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="148"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
@@ -3459,9 +3499,9 @@
       <c r="G19" s="9"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1">
-      <c r="A20" s="151"/>
-      <c r="B20" s="142"/>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="148"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="8" t="s">
         <v>44</v>
       </c>
@@ -3481,9 +3521,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="34">
-      <c r="A21" s="151"/>
-      <c r="B21" s="142"/>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+      <c r="A21" s="148"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
@@ -3501,9 +3541,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="17.5" thickBot="1">
-      <c r="A22" s="152"/>
-      <c r="B22" s="150"/>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="149"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
@@ -3523,11 +3563,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1">
-      <c r="A23" s="155" t="s">
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="150" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -3547,9 +3587,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1">
-      <c r="A24" s="156"/>
-      <c r="B24" s="154"/>
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="153"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="10" t="s">
         <v>65</v>
       </c>
@@ -3567,9 +3607,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="21" customFormat="1">
-      <c r="A25" s="156"/>
-      <c r="B25" s="154"/>
+    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="153"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="22" t="s">
         <v>81</v>
       </c>
@@ -3589,9 +3629,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="156"/>
-      <c r="B26" s="154"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="153"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="10" t="s">
         <v>67</v>
       </c>
@@ -3607,9 +3647,9 @@
       <c r="G26" s="11"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="156"/>
-      <c r="B27" s="154"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="153"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
@@ -3625,9 +3665,9 @@
       <c r="G27" s="11"/>
       <c r="H27" s="38"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="156"/>
-      <c r="B28" s="154"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="153"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -3643,9 +3683,9 @@
       </c>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="156"/>
-      <c r="B29" s="154"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="153"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
@@ -3661,9 +3701,9 @@
       </c>
       <c r="H29" s="38"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="156"/>
-      <c r="B30" s="154"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="153"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="10" t="s">
         <v>68</v>
       </c>
@@ -3679,9 +3719,9 @@
       </c>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1">
-      <c r="A31" s="156"/>
-      <c r="B31" s="154"/>
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="153"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
@@ -3697,11 +3737,11 @@
       </c>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1">
-      <c r="A32" s="151" t="s">
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="139" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3723,9 +3763,9 @@
         <v>nextval</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="21" customFormat="1">
-      <c r="A33" s="151"/>
-      <c r="B33" s="142"/>
+    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="148"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="20" t="s">
         <v>73</v>
       </c>
@@ -3744,9 +3784,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="21" customFormat="1">
-      <c r="A34" s="151"/>
-      <c r="B34" s="142"/>
+    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="148"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="20" t="s">
         <v>81</v>
       </c>
@@ -3766,9 +3806,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="151"/>
-      <c r="B35" s="142"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="148"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="8" t="s">
         <v>5</v>
       </c>
@@ -3784,9 +3824,9 @@
       <c r="G35" s="9"/>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="151"/>
-      <c r="B36" s="142"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="148"/>
+      <c r="B36" s="139"/>
       <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
@@ -3802,9 +3842,9 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="151"/>
-      <c r="B37" s="142"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="148"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="8" t="s">
         <v>44</v>
       </c>
@@ -3820,9 +3860,9 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="151"/>
-      <c r="B38" s="142"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="148"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
@@ -3838,9 +3878,9 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="151"/>
-      <c r="B39" s="142"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="148"/>
+      <c r="B39" s="139"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -3856,11 +3896,11 @@
       <c r="G39" s="9"/>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1">
-      <c r="A40" s="157" t="s">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="151" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -3878,9 +3918,9 @@
       <c r="G40" s="14"/>
       <c r="H40" s="46"/>
     </row>
-    <row r="41" spans="1:8" s="21" customFormat="1">
-      <c r="A41" s="157"/>
-      <c r="B41" s="154"/>
+    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="154"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="24" t="s">
         <v>73</v>
       </c>
@@ -3899,9 +3939,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="157"/>
-      <c r="B42" s="154"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="154"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="10" t="s">
         <v>77</v>
       </c>
@@ -3917,9 +3957,9 @@
       <c r="G42" s="11"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="157"/>
-      <c r="B43" s="154"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="154"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="10" t="s">
         <v>78</v>
       </c>
@@ -3935,9 +3975,9 @@
       <c r="G43" s="11"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="157"/>
-      <c r="B44" s="154"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="154"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="10" t="s">
         <v>79</v>
       </c>
@@ -3953,11 +3993,11 @@
       <c r="G44" s="11"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="140" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="142" t="s">
+      <c r="B45" s="139" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -3977,9 +4017,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="140"/>
-      <c r="B46" s="142"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="137"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="20" t="s">
         <v>73</v>
       </c>
@@ -3998,9 +4038,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="140"/>
-      <c r="B47" s="142"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="137"/>
+      <c r="B47" s="139"/>
       <c r="C47" s="8" t="s">
         <v>103</v>
       </c>
@@ -4018,9 +4058,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A48" s="141"/>
-      <c r="B48" s="143"/>
+    <row r="48" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="138"/>
+      <c r="B48" s="140"/>
       <c r="C48" s="48" t="s">
         <v>104</v>
       </c>
@@ -4038,11 +4078,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="147" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="144" t="s">
+      <c r="B49" s="141" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="52" t="s">
@@ -4060,9 +4100,9 @@
       <c r="G49" s="35"/>
       <c r="H49" s="36"/>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="148"/>
-      <c r="B50" s="145"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="145"/>
+      <c r="B50" s="142"/>
       <c r="C50" s="10" t="s">
         <v>109</v>
       </c>
@@ -4078,9 +4118,9 @@
       <c r="G50" s="11"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="148"/>
-      <c r="B51" s="145"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="145"/>
+      <c r="B51" s="142"/>
       <c r="C51" s="22" t="s">
         <v>110</v>
       </c>
@@ -4100,9 +4140,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="148"/>
-      <c r="B52" s="145"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="145"/>
+      <c r="B52" s="142"/>
       <c r="C52" s="10" t="s">
         <v>67</v>
       </c>
@@ -4118,9 +4158,9 @@
       <c r="G52" s="11"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="148"/>
-      <c r="B53" s="145"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="145"/>
+      <c r="B53" s="142"/>
       <c r="C53" s="10" t="s">
         <v>5</v>
       </c>
@@ -4136,9 +4176,9 @@
       <c r="G53" s="11"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="148"/>
-      <c r="B54" s="145"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="145"/>
+      <c r="B54" s="142"/>
       <c r="C54" s="10" t="s">
         <v>121</v>
       </c>
@@ -4156,9 +4196,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="148"/>
-      <c r="B55" s="145"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="145"/>
+      <c r="B55" s="142"/>
       <c r="C55" s="10" t="s">
         <v>111</v>
       </c>
@@ -4174,9 +4214,9 @@
       </c>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A56" s="149"/>
-      <c r="B56" s="146"/>
+    <row r="56" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="146"/>
+      <c r="B56" s="143"/>
       <c r="C56" s="25" t="s">
         <v>124</v>
       </c>
@@ -4194,9 +4234,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="133"/>
-      <c r="B57" s="133" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="130"/>
+      <c r="B57" s="130" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="53" t="s">
@@ -4214,9 +4254,9 @@
       <c r="G57" s="54"/>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="131"/>
-      <c r="B58" s="131"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="128"/>
+      <c r="B58" s="128"/>
       <c r="C58" s="55" t="s">
         <v>133</v>
       </c>
@@ -4232,9 +4272,9 @@
       <c r="G58" s="54"/>
       <c r="H58" s="55"/>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="131"/>
-      <c r="B59" s="131"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="128"/>
+      <c r="B59" s="128"/>
       <c r="C59" s="55" t="s">
         <v>137</v>
       </c>
@@ -4250,9 +4290,9 @@
       <c r="G59" s="54"/>
       <c r="H59" s="55"/>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="131"/>
-      <c r="B60" s="131"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="128"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="55" t="s">
         <v>140</v>
       </c>
@@ -4268,9 +4308,9 @@
       <c r="G60" s="54"/>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="132"/>
-      <c r="B61" s="132"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="129"/>
+      <c r="B61" s="129"/>
       <c r="C61" s="55" t="s">
         <v>142</v>
       </c>
@@ -4286,9 +4326,9 @@
       </c>
       <c r="H61" s="55"/>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="127"/>
-      <c r="B62" s="127" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="124"/>
+      <c r="B62" s="124" t="s">
         <v>144</v>
       </c>
       <c r="C62" s="56" t="s">
@@ -4306,9 +4346,9 @@
       <c r="G62" s="57"/>
       <c r="H62" s="58"/>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="128"/>
-      <c r="B63" s="128"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="125"/>
+      <c r="B63" s="125"/>
       <c r="C63" s="59" t="s">
         <v>145</v>
       </c>
@@ -4326,9 +4366,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="129"/>
-      <c r="B64" s="129"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="126"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="58" t="s">
         <v>148</v>
       </c>
@@ -4344,11 +4384,11 @@
       <c r="G64" s="57"/>
       <c r="H64" s="58"/>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="130" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="130" t="s">
+      <c r="B65" s="127" t="s">
         <v>151</v>
       </c>
       <c r="C65" s="53" t="s">
@@ -4366,9 +4406,9 @@
       <c r="G65" s="54"/>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="131"/>
-      <c r="B66" s="131"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="128"/>
+      <c r="B66" s="128"/>
       <c r="C66" s="61" t="s">
         <v>152</v>
       </c>
@@ -4386,9 +4426,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="131"/>
-      <c r="B67" s="131"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="128"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="55" t="s">
         <v>154</v>
       </c>
@@ -4404,9 +4444,9 @@
       </c>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="131"/>
-      <c r="B68" s="131"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="128"/>
+      <c r="B68" s="128"/>
       <c r="C68" s="55" t="s">
         <v>158</v>
       </c>
@@ -4424,9 +4464,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="132"/>
-      <c r="B69" s="132"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="129"/>
+      <c r="B69" s="129"/>
       <c r="C69" s="55" t="s">
         <v>161</v>
       </c>
@@ -4442,11 +4482,11 @@
       <c r="G69" s="54"/>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="127" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="127" t="s">
+      <c r="B70" s="124" t="s">
         <v>166</v>
       </c>
       <c r="C70" s="56" t="s">
@@ -4464,9 +4504,9 @@
       <c r="G70" s="66"/>
       <c r="H70" s="56"/>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="128"/>
-      <c r="B71" s="128"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="125"/>
+      <c r="B71" s="125"/>
       <c r="C71" s="58" t="s">
         <v>167</v>
       </c>
@@ -4482,9 +4522,9 @@
       <c r="G71" s="57"/>
       <c r="H71" s="56"/>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="128"/>
-      <c r="B72" s="128"/>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="125"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="58" t="s">
         <v>169</v>
       </c>
@@ -4500,9 +4540,9 @@
       <c r="G72" s="57"/>
       <c r="H72" s="56"/>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="128"/>
-      <c r="B73" s="128"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="125"/>
+      <c r="B73" s="125"/>
       <c r="C73" s="58" t="s">
         <v>140</v>
       </c>
@@ -4518,9 +4558,9 @@
       <c r="G73" s="57"/>
       <c r="H73" s="56"/>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="129"/>
-      <c r="B74" s="129"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="126"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="58" t="s">
         <v>171</v>
       </c>
@@ -4536,11 +4576,11 @@
       </c>
       <c r="H74" s="58"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="130" t="s">
+      <c r="B75" s="127" t="s">
         <v>180</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -4558,11 +4598,11 @@
       <c r="G75" s="54"/>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="131"/>
+      <c r="B76" s="128"/>
       <c r="C76" s="61" t="s">
         <v>152</v>
       </c>
@@ -4580,11 +4620,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="131"/>
+      <c r="B77" s="128"/>
       <c r="C77" s="62" t="s">
         <v>181</v>
       </c>
@@ -4602,11 +4642,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="131"/>
+      <c r="B78" s="128"/>
       <c r="C78" s="55" t="s">
         <v>183</v>
       </c>
@@ -4620,9 +4660,9 @@
       <c r="G78" s="54"/>
       <c r="H78" s="55"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="68"/>
-      <c r="B79" s="131"/>
+      <c r="B79" s="128"/>
       <c r="C79" s="55" t="s">
         <v>185</v>
       </c>
@@ -4636,11 +4676,11 @@
       <c r="G79" s="54"/>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="132"/>
+      <c r="B80" s="129"/>
       <c r="C80" s="55" t="s">
         <v>187</v>
       </c>
@@ -4700,7 +4740,7 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.9140625" style="78" bestFit="1" customWidth="1"/>
@@ -4718,69 +4758,69 @@
     <col min="17" max="16384" width="8.6640625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="164" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="165"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="158" t="s">
+      <c r="D1" s="162"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="155" t="s">
         <v>393</v>
       </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="162" t="s">
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="159" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="163"/>
+      <c r="J1" s="160"/>
       <c r="K1" s="80"/>
     </row>
-    <row r="2" spans="1:13" ht="18">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="158" t="s">
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="160">
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="157">
         <v>44474</v>
       </c>
-      <c r="J2" s="161"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="81"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="167" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="169" t="s">
+      <c r="B4" s="165"/>
+      <c r="C4" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="170"/>
+      <c r="D4" s="167"/>
       <c r="E4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="169" t="s">
+      <c r="F4" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="170"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="167"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="70" t="s">
         <v>190</v>
       </c>
@@ -4819,7 +4859,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="54">
         <v>1</v>
       </c>
@@ -4848,7 +4888,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="54">
         <v>2</v>
       </c>
@@ -4881,7 +4921,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="54">
         <v>3</v>
       </c>
@@ -4914,7 +4954,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="54">
         <v>4</v>
       </c>
@@ -4945,7 +4985,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="54">
         <v>5</v>
       </c>
@@ -4978,7 +5018,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="54">
         <v>6</v>
       </c>
@@ -5009,7 +5049,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="54">
         <v>7</v>
       </c>
@@ -5040,7 +5080,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="54">
         <v>8</v>
       </c>
@@ -5071,7 +5111,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="54">
         <v>9</v>
       </c>
@@ -5102,7 +5142,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="54">
         <v>10</v>
       </c>
@@ -5133,7 +5173,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="54">
         <v>11</v>
       </c>
@@ -5164,7 +5204,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K17" s="78" t="s">
         <v>360</v>
       </c>
@@ -5172,27 +5212,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="167" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="168"/>
-      <c r="C18" s="169" t="s">
+      <c r="B18" s="165"/>
+      <c r="C18" s="166" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="170"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F18" s="169" t="s">
+      <c r="F18" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="170"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="167"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="70" t="s">
         <v>190</v>
       </c>
@@ -5231,7 +5271,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="54">
         <v>1</v>
       </c>
@@ -5260,7 +5300,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="71">
         <v>2</v>
       </c>
@@ -5299,7 +5339,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="54">
         <v>3</v>
       </c>
@@ -5328,7 +5368,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="54">
         <v>4</v>
       </c>
@@ -5357,7 +5397,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="54">
         <v>5</v>
       </c>
@@ -5386,7 +5426,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="54">
         <v>6</v>
       </c>
@@ -5417,7 +5457,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="54">
         <v>7</v>
       </c>
@@ -5448,7 +5488,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="48">
+    <row r="27" spans="1:14" ht="48" x14ac:dyDescent="0.45">
       <c r="A27" s="54">
         <v>8</v>
       </c>
@@ -5477,7 +5517,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="54">
         <v>9</v>
       </c>
@@ -5510,7 +5550,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K29" s="78" t="s">
         <v>360</v>
       </c>
@@ -5518,27 +5558,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="167" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A30" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="169" t="s">
+      <c r="B30" s="165"/>
+      <c r="C30" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="170"/>
+      <c r="D30" s="167"/>
       <c r="E30" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F30" s="169" t="s">
+      <c r="F30" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="170"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="167"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="70" t="s">
         <v>190</v>
       </c>
@@ -5577,7 +5617,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="54">
         <v>1</v>
       </c>
@@ -5606,7 +5646,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="54">
         <v>2</v>
       </c>
@@ -5639,7 +5679,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="73">
         <v>3</v>
       </c>
@@ -5676,7 +5716,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="54">
         <v>4</v>
       </c>
@@ -5707,7 +5747,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="54">
         <v>5</v>
       </c>
@@ -5738,7 +5778,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="54">
         <v>6</v>
       </c>
@@ -5769,7 +5809,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="54">
         <v>7</v>
       </c>
@@ -5800,7 +5840,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="54">
         <v>8</v>
       </c>
@@ -5829,7 +5869,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="54">
         <v>9</v>
       </c>
@@ -5858,7 +5898,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K41" s="78" t="s">
         <v>360</v>
       </c>
@@ -5866,27 +5906,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="167" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A42" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="173" t="s">
+      <c r="B42" s="169"/>
+      <c r="C42" s="170" t="s">
         <v>241</v>
       </c>
-      <c r="D42" s="174"/>
+      <c r="D42" s="171"/>
       <c r="E42" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="173" t="s">
+      <c r="F42" s="170" t="s">
         <v>389</v>
       </c>
-      <c r="G42" s="175"/>
-      <c r="H42" s="175"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="174"/>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="171"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="100" t="s">
         <v>190</v>
       </c>
@@ -5925,7 +5965,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="102">
         <v>1</v>
       </c>
@@ -5954,7 +5994,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="32">
+    <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A45" s="87">
         <v>2</v>
       </c>
@@ -5989,7 +6029,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="88">
         <v>3</v>
       </c>
@@ -6026,7 +6066,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="101">
         <v>4</v>
       </c>
@@ -6057,7 +6097,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="101">
         <v>5</v>
       </c>
@@ -6088,7 +6128,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="101">
         <v>6</v>
       </c>
@@ -6119,7 +6159,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="101">
         <v>7</v>
       </c>
@@ -6148,7 +6188,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="32">
+    <row r="51" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A51" s="102">
         <v>8</v>
       </c>
@@ -6179,7 +6219,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K52" s="78" t="s">
         <v>360</v>
       </c>
@@ -6187,27 +6227,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="167" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A53" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="168"/>
-      <c r="C53" s="169" t="s">
+      <c r="B53" s="165"/>
+      <c r="C53" s="166" t="s">
         <v>247</v>
       </c>
-      <c r="D53" s="170"/>
+      <c r="D53" s="167"/>
       <c r="E53" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F53" s="169" t="s">
+      <c r="F53" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="170"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="G53" s="168"/>
+      <c r="H53" s="168"/>
+      <c r="I53" s="168"/>
+      <c r="J53" s="167"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="70" t="s">
         <v>190</v>
       </c>
@@ -6246,7 +6286,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="32">
+    <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A55" s="97">
         <v>1</v>
       </c>
@@ -6275,7 +6315,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="32">
+    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A56" s="97">
         <v>2</v>
       </c>
@@ -6310,7 +6350,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="54">
         <v>3</v>
       </c>
@@ -6341,7 +6381,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" s="54">
         <v>4</v>
       </c>
@@ -6374,7 +6414,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" s="54">
         <v>5</v>
       </c>
@@ -6405,7 +6445,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K60" s="78" t="s">
         <v>360</v>
       </c>
@@ -6413,27 +6453,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="167" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A61" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="168"/>
-      <c r="C61" s="169" t="s">
+      <c r="B61" s="165"/>
+      <c r="C61" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="170"/>
+      <c r="D61" s="167"/>
       <c r="E61" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F61" s="169" t="s">
+      <c r="F61" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="170"/>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="G61" s="168"/>
+      <c r="H61" s="168"/>
+      <c r="I61" s="168"/>
+      <c r="J61" s="167"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="70" t="s">
         <v>190</v>
       </c>
@@ -6472,7 +6512,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="54">
         <v>1</v>
       </c>
@@ -6501,7 +6541,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="32">
+    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A64" s="97">
         <v>2</v>
       </c>
@@ -6536,7 +6576,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="54">
         <v>3</v>
       </c>
@@ -6567,7 +6607,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="54">
         <v>4</v>
       </c>
@@ -6598,7 +6638,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J67" s="108"/>
       <c r="K67" s="78" t="s">
         <v>360</v>
@@ -6607,27 +6647,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="176" t="s">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A68" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="176"/>
-      <c r="C68" s="177" t="s">
+      <c r="B68" s="173"/>
+      <c r="C68" s="174" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="177"/>
+      <c r="D68" s="174"/>
       <c r="E68" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F68" s="177" t="s">
+      <c r="F68" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="G68" s="177"/>
-      <c r="H68" s="177"/>
-      <c r="I68" s="177"/>
-      <c r="J68" s="177"/>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="G68" s="174"/>
+      <c r="H68" s="174"/>
+      <c r="I68" s="174"/>
+      <c r="J68" s="174"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="105" t="s">
         <v>190</v>
       </c>
@@ -6666,7 +6706,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" s="99">
         <v>1</v>
       </c>
@@ -6695,7 +6735,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" s="99">
         <v>2</v>
       </c>
@@ -6726,7 +6766,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" s="99">
         <v>3</v>
       </c>
@@ -6763,7 +6803,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="99">
         <v>4</v>
       </c>
@@ -6794,7 +6834,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="99">
         <v>5</v>
       </c>
@@ -6825,7 +6865,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="32">
+    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A75" s="99">
         <v>6</v>
       </c>
@@ -6856,7 +6896,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="99">
         <v>7</v>
       </c>
@@ -6887,7 +6927,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="99">
         <v>8</v>
       </c>
@@ -6916,7 +6956,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K78" s="78" t="s">
         <v>360</v>
       </c>
@@ -6924,27 +6964,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="176" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A79" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="176"/>
-      <c r="C79" s="177" t="s">
+      <c r="B79" s="173"/>
+      <c r="C79" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="177"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="177" t="s">
+      <c r="F79" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="G79" s="177"/>
-      <c r="H79" s="177"/>
-      <c r="I79" s="177"/>
-      <c r="J79" s="177"/>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="G79" s="174"/>
+      <c r="H79" s="174"/>
+      <c r="I79" s="174"/>
+      <c r="J79" s="174"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="105" t="s">
         <v>190</v>
       </c>
@@ -6983,7 +7023,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="96">
         <v>1</v>
       </c>
@@ -7014,7 +7054,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="99">
         <v>2</v>
       </c>
@@ -7045,7 +7085,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="99">
         <v>3</v>
       </c>
@@ -7076,7 +7116,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="99">
         <v>4</v>
       </c>
@@ -7105,7 +7145,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K85" s="78" t="s">
         <v>360</v>
       </c>
@@ -7113,27 +7153,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="167" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A86" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="168"/>
-      <c r="C86" s="169" t="s">
+      <c r="B86" s="165"/>
+      <c r="C86" s="166" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="170"/>
+      <c r="D86" s="167"/>
       <c r="E86" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F86" s="169" t="s">
+      <c r="F86" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G86" s="171"/>
-      <c r="H86" s="171"/>
-      <c r="I86" s="171"/>
-      <c r="J86" s="170"/>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="G86" s="168"/>
+      <c r="H86" s="168"/>
+      <c r="I86" s="168"/>
+      <c r="J86" s="167"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="70" t="s">
         <v>190</v>
       </c>
@@ -7172,7 +7212,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="97">
         <v>1</v>
       </c>
@@ -7201,7 +7241,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="73">
         <v>2</v>
       </c>
@@ -7238,7 +7278,7 @@
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="54">
         <v>3</v>
       </c>
@@ -7269,7 +7309,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J91" s="108"/>
       <c r="K91" s="78" t="s">
         <v>360</v>
@@ -7278,27 +7318,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="178" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A92" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="178"/>
-      <c r="C92" s="177" t="s">
+      <c r="B92" s="175"/>
+      <c r="C92" s="174" t="s">
         <v>391</v>
       </c>
-      <c r="D92" s="177"/>
+      <c r="D92" s="174"/>
       <c r="E92" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="F92" s="177" t="s">
+      <c r="F92" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="G92" s="177"/>
-      <c r="H92" s="177"/>
-      <c r="I92" s="177"/>
-      <c r="J92" s="177"/>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="G92" s="174"/>
+      <c r="H92" s="174"/>
+      <c r="I92" s="174"/>
+      <c r="J92" s="174"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="98" t="s">
         <v>190</v>
       </c>
@@ -7337,7 +7377,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="99">
         <v>1</v>
       </c>
@@ -7366,7 +7406,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" s="93">
         <v>2</v>
       </c>
@@ -7403,7 +7443,7 @@
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" s="93">
         <v>3</v>
       </c>
@@ -7440,7 +7480,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97" s="99">
         <f>A96+1</f>
         <v>4</v>
@@ -7467,7 +7507,7 @@
         <v>SALES number not null,</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" s="99">
         <f t="shared" ref="A98:A99" si="10">A97+1</f>
         <v>5</v>
@@ -7494,7 +7534,7 @@
         <v>ORDERDATE date default sysdate,</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="99">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -7525,7 +7565,7 @@
         <v>PHONENUM varchar2(30) not null</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K100" s="78" t="s">
         <v>360</v>
       </c>
@@ -7533,27 +7573,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="167" t="s">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A101" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="168"/>
-      <c r="C101" s="169" t="s">
+      <c r="B101" s="165"/>
+      <c r="C101" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="170"/>
+      <c r="D101" s="167"/>
       <c r="E101" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F101" s="169" t="s">
+      <c r="F101" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G101" s="171"/>
-      <c r="H101" s="171"/>
-      <c r="I101" s="171"/>
-      <c r="J101" s="170"/>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="G101" s="168"/>
+      <c r="H101" s="168"/>
+      <c r="I101" s="168"/>
+      <c r="J101" s="167"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="70" t="s">
         <v>190</v>
       </c>
@@ -7592,7 +7632,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="54">
         <v>1</v>
       </c>
@@ -7621,7 +7661,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="54">
         <v>2</v>
       </c>
@@ -7658,7 +7698,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="54">
         <v>3</v>
       </c>
@@ -7687,7 +7727,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="54">
         <v>4</v>
       </c>
@@ -7718,7 +7758,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107" s="54">
         <v>5</v>
       </c>
@@ -7749,7 +7789,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K108" s="78" t="s">
         <v>360</v>
       </c>
@@ -7757,27 +7797,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
-      <c r="A109" s="167" t="s">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A109" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="168"/>
-      <c r="C109" s="169" t="s">
+      <c r="B109" s="165"/>
+      <c r="C109" s="166" t="s">
         <v>276</v>
       </c>
-      <c r="D109" s="170"/>
+      <c r="D109" s="167"/>
       <c r="E109" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F109" s="169" t="s">
+      <c r="F109" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G109" s="171"/>
-      <c r="H109" s="171"/>
-      <c r="I109" s="171"/>
-      <c r="J109" s="170"/>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="G109" s="168"/>
+      <c r="H109" s="168"/>
+      <c r="I109" s="168"/>
+      <c r="J109" s="167"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" s="70" t="s">
         <v>190</v>
       </c>
@@ -7816,7 +7856,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A111" s="54">
         <v>1</v>
       </c>
@@ -7845,7 +7885,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112" s="54">
         <v>2</v>
       </c>
@@ -7878,7 +7918,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113" s="54">
         <v>3</v>
       </c>
@@ -7911,7 +7951,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A114" s="54">
         <v>4</v>
       </c>
@@ -7942,7 +7982,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115" s="54">
         <v>5</v>
       </c>
@@ -7971,7 +8011,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K116" s="78" t="s">
         <v>360</v>
       </c>
@@ -7979,27 +8019,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
-      <c r="A117" s="167" t="s">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A117" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="168"/>
-      <c r="C117" s="169" t="s">
+      <c r="B117" s="165"/>
+      <c r="C117" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="D117" s="170"/>
+      <c r="D117" s="167"/>
       <c r="E117" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F117" s="169" t="s">
+      <c r="F117" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G117" s="171"/>
-      <c r="H117" s="171"/>
-      <c r="I117" s="171"/>
-      <c r="J117" s="170"/>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="G117" s="168"/>
+      <c r="H117" s="168"/>
+      <c r="I117" s="168"/>
+      <c r="J117" s="167"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" s="70" t="s">
         <v>190</v>
       </c>
@@ -8038,7 +8078,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A119" s="54">
         <v>1</v>
       </c>
@@ -8067,7 +8107,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120" s="54">
         <v>2</v>
       </c>
@@ -8104,7 +8144,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A121" s="97">
         <v>3</v>
       </c>
@@ -8139,7 +8179,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122" s="54">
         <v>4</v>
       </c>
@@ -8168,7 +8208,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123" s="54">
         <v>5</v>
       </c>
@@ -8197,7 +8237,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A124" s="54">
         <v>6</v>
       </c>
@@ -8226,7 +8266,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K125" s="78" t="s">
         <v>360</v>
       </c>
@@ -8295,14 +8335,14 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O138"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L99" sqref="L99:L105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
@@ -8321,76 +8361,76 @@
     <col min="18" max="16384" width="8.6640625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="158" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B1" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="164" t="s">
+      <c r="C1" s="155"/>
+      <c r="D1" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="165"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="158" t="s">
+      <c r="E1" s="162"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="155" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="162" t="s">
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="159" t="s">
         <v>394</v>
       </c>
-      <c r="K1" s="163"/>
+      <c r="K1" s="160"/>
       <c r="L1" s="78" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M1" s="78" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2" s="158" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B2" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="158" t="s">
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="160">
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="157">
         <v>44474</v>
       </c>
-      <c r="K2" s="161"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="K2" s="158"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="78">
         <v>1</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="168"/>
-      <c r="D4" s="169" t="s">
+      <c r="C4" s="165"/>
+      <c r="D4" s="166" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="170"/>
+      <c r="E4" s="167"/>
       <c r="F4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="170"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="167"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="70" t="s">
         <v>190</v>
       </c>
@@ -8429,7 +8469,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="54">
         <v>1</v>
       </c>
@@ -8459,12 +8499,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="54">
         <v>2</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>206</v>
@@ -8492,54 +8532,54 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="54">
         <v>3</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="E8" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="54">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="54"/>
+      <c r="H8" s="54" t="s">
+        <v>396</v>
+      </c>
       <c r="I8" s="54"/>
       <c r="J8" s="54"/>
-      <c r="K8" s="107" t="s">
-        <v>280</v>
-      </c>
+      <c r="K8" s="107"/>
       <c r="L8" s="78" t="str">
         <f t="shared" si="0"/>
-        <v>PASSWORD varchar2(50) not null,</v>
+        <v>NICKNAME varchar2(20) not null unique,</v>
       </c>
       <c r="N8" s="78" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="54">
         <v>4</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E9" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="54">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>139</v>
@@ -8547,24 +8587,26 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
-      <c r="K9" s="107"/>
+      <c r="K9" s="107" t="s">
+        <v>280</v>
+      </c>
       <c r="L9" s="78" t="str">
         <f t="shared" si="0"/>
-        <v>NAME varchar2(20) not null,</v>
+        <v>PASSWORD varchar2(50) not null,</v>
       </c>
       <c r="N9" s="78" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="54">
         <v>5</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="E10" s="55" t="s">
         <v>135</v>
@@ -8575,140 +8617,107 @@
       <c r="G10" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="54" t="s">
-        <v>396</v>
-      </c>
+      <c r="H10" s="54"/>
       <c r="I10" s="54"/>
       <c r="J10" s="54"/>
       <c r="K10" s="107"/>
       <c r="L10" s="78" t="str">
         <f t="shared" si="0"/>
-        <v>NICKNAME varchar2(20) not null unique,</v>
+        <v>NAME varchar2(20) not null,</v>
       </c>
       <c r="N10" s="78" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="54">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F11" s="54">
+        <v>10</v>
+      </c>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="54">
-        <v>0</v>
-      </c>
-      <c r="K11" s="107" t="s">
-        <v>285</v>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55" t="s">
+        <v>219</v>
       </c>
       <c r="L11" s="78" t="str">
         <f t="shared" si="0"/>
-        <v>WARNCOUNT number default 0,</v>
+        <v>GENDER varchar2(10),</v>
       </c>
       <c r="N11" s="78" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.45">
       <c r="B12" s="54">
         <v>7</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>423</v>
+        <v>222</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>425</v>
+        <v>223</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="54">
-        <v>100</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
       <c r="K12" s="55" t="s">
-        <v>424</v>
+        <v>290</v>
       </c>
       <c r="L12" s="78" t="str">
-        <f t="shared" si="0"/>
-        <v>SESSIONID varchar2(100),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17">
-      <c r="B13" s="54">
-        <v>8</v>
-      </c>
-      <c r="C13" s="118" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="118" t="s">
-        <v>399</v>
-      </c>
-      <c r="E13" s="118" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="118" t="s">
-        <v>398</v>
-      </c>
-      <c r="L13" s="78" t="str">
-        <f>C13&amp;" "&amp;E13&amp;IF(E13="varchar2","("&amp;F13&amp;")","")&amp;IF(J13="",""," default "&amp;J13)&amp;IF(G13="",""," "&amp;G13)&amp;IF(H13="",""," unique")&amp;IF(I13="",""," primary key")</f>
-        <v>OUTDATE date</v>
-      </c>
-      <c r="N13" s="78" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="L14" s="78" t="s">
+        <f>C12&amp;" "&amp;E12&amp;IF(E12="varchar2","("&amp;F12&amp;")","")&amp;IF(J12="",""," default "&amp;J12)&amp;IF(G12="",""," "&amp;G12)&amp;IF(H12="",""," unique")&amp;IF(I12="",""," primary key")</f>
+        <v>STOREDATE date</v>
+      </c>
+      <c r="N12" s="78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="L13" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N14" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="78">
         <v>2</v>
       </c>
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169" t="s">
-        <v>400</v>
-      </c>
-      <c r="E15" s="170"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166" t="s">
+        <v>435</v>
+      </c>
+      <c r="E15" s="167"/>
       <c r="F15" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G15" s="169" t="s">
+      <c r="G15" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="170"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="167"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="70" t="s">
         <v>190</v>
       </c>
@@ -8741,13 +8750,13 @@
       </c>
       <c r="L16" s="78" t="str">
         <f>"create table "&amp;D15&amp;"("</f>
-        <v>create table MEMBER_PLUS(</v>
+        <v>create table MEMBER_AUTO(</v>
       </c>
       <c r="N16" s="78" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B17" s="54">
         <v>1</v>
       </c>
@@ -8756,7 +8765,7 @@
       </c>
       <c r="D17" s="53" t="str">
         <f>"번호 ("&amp;D15&amp;"_SEQ.nextval)"</f>
-        <v>번호 (MEMBER_PLUS_SEQ.nextval)</v>
+        <v>번호 (MEMBER_AUTO_SEQ.nextval)</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>128</v>
@@ -8770,14 +8779,14 @@
       <c r="J17" s="54"/>
       <c r="K17" s="55"/>
       <c r="L17" s="78" t="str">
-        <f t="shared" ref="L17:L19" si="1">C17&amp;" "&amp;E17&amp;IF(E17="varchar2","("&amp;F17&amp;")","")&amp;IF(J17="",""," default "&amp;J17)&amp;IF(G17="",""," "&amp;G17)&amp;IF(H17="",""," unique")&amp;IF(I17="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L17:L24" si="1">C17&amp;" "&amp;E17&amp;IF(E17="varchar2","("&amp;F17&amp;")","")&amp;IF(J17="",""," default "&amp;J17)&amp;IF(G17="",""," "&amp;G17)&amp;IF(H17="",""," unique")&amp;IF(I17="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N17" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B18" s="54">
         <v>2</v>
       </c>
@@ -8802,7 +8811,7 @@
       <c r="I18" s="73"/>
       <c r="J18" s="73"/>
       <c r="K18" s="74" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L18" s="78" t="str">
         <f t="shared" si="1"/>
@@ -8816,829 +8825,813 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B19" s="54">
         <v>3</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="54">
-        <v>10</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F19" s="54"/>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55" t="s">
-        <v>219</v>
+      <c r="J19" s="54">
+        <v>0</v>
+      </c>
+      <c r="K19" s="107" t="s">
+        <v>285</v>
       </c>
       <c r="L19" s="78" t="str">
         <f t="shared" si="1"/>
-        <v>GENDER varchar2(10),</v>
+        <v>WARNCOUNT number default 0,</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B20" s="54">
         <v>4</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="55" t="s">
-        <v>289</v>
+      <c r="J20" s="54">
+        <v>0</v>
+      </c>
+      <c r="K20" s="107" t="s">
+        <v>284</v>
       </c>
       <c r="L20" s="78" t="str">
-        <f t="shared" ref="L20" si="2">C20&amp;" "&amp;E20&amp;IF(E20="varchar2","("&amp;F20&amp;")","")&amp;IF(J20="",""," default "&amp;J20)&amp;IF(G20="",""," "&amp;G20)&amp;IF(H20="",""," unique")&amp;IF(I20="",""," primary key")&amp;","</f>
-        <v>INDATE date default sysdate,</v>
+        <f t="shared" si="1"/>
+        <v>POINT number default 0,</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="48">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.45">
       <c r="B21" s="54">
         <v>5</v>
       </c>
-      <c r="C21" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" s="55" t="s">
+      <c r="C21" s="177" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="177" t="s">
+        <v>429</v>
+      </c>
+      <c r="E21" s="177" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="55" t="s">
-        <v>290</v>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="177" t="s">
+        <v>430</v>
       </c>
       <c r="L21" s="78" t="str">
-        <f>C21&amp;" "&amp;E21&amp;IF(E21="varchar2","("&amp;F21&amp;")","")&amp;IF(J21="",""," default "&amp;J21)&amp;IF(G21="",""," "&amp;G21)&amp;IF(H21="",""," unique")&amp;IF(I21="",""," primary key")</f>
-        <v>STOREDATE date</v>
+        <f t="shared" si="1"/>
+        <v>REGDATE date,</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="L22" s="78" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.45">
+      <c r="B22" s="54">
+        <v>6</v>
+      </c>
+      <c r="C22" s="177" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="177" t="s">
+        <v>431</v>
+      </c>
+      <c r="E22" s="177" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="176"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="176" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="L22" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>MODDATE date default sysdate,</v>
+      </c>
+      <c r="N22" s="78" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="54">
+        <v>7</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="54">
+        <v>100</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="L23" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>SESSIONID varchar2(100),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.45">
+      <c r="B24" s="54">
+        <v>8</v>
+      </c>
+      <c r="C24" s="177" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24" s="177" t="s">
+        <v>433</v>
+      </c>
+      <c r="E24" s="177" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="177" t="s">
+        <v>434</v>
+      </c>
+      <c r="L24" s="78" t="str">
+        <f>C24&amp;" "&amp;E24&amp;IF(E24="varchar2","("&amp;F24&amp;")","")&amp;IF(J24="",""," default "&amp;J24)&amp;IF(G24="",""," "&amp;G24)&amp;IF(H24="",""," unique")&amp;IF(I24="",""," primary key")</f>
+        <v>LOGINTIME date</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L25" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N22" s="78" t="s">
+      <c r="N25" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="78">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="78">
         <v>3</v>
       </c>
-      <c r="B23" s="167" t="s">
+      <c r="B26" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="169" t="s">
-        <v>403</v>
-      </c>
-      <c r="E23" s="170"/>
-      <c r="F23" s="70" t="s">
+      <c r="C26" s="165"/>
+      <c r="D26" s="166" t="s">
+        <v>400</v>
+      </c>
+      <c r="E26" s="167"/>
+      <c r="F26" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G23" s="169" t="s">
+      <c r="G26" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="170"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="B24" s="70" t="s">
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="167"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C27" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D27" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E27" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F27" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G24" s="70" t="s">
+      <c r="G27" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H27" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I24" s="70" t="s">
+      <c r="I27" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J27" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K24" s="70" t="s">
+      <c r="K27" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L24" s="78" t="str">
-        <f>"create table "&amp;D23&amp;"("</f>
+      <c r="L27" s="78" t="str">
+        <f>"create table "&amp;D26&amp;"("</f>
         <v>create table MEMBER_ADDR(</v>
       </c>
-      <c r="N24" s="78" t="s">
+      <c r="N27" s="78" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="B25" s="54">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="54">
         <v>1</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C28" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="53" t="str">
-        <f>"번호 ("&amp;D23&amp;"_SEQ.nextval)"</f>
+      <c r="D28" s="53" t="str">
+        <f>"번호 ("&amp;D26&amp;"_SEQ.nextval)"</f>
         <v>번호 (MEMBER_ADDR_SEQ.nextval)</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E28" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="78" t="str">
-        <f t="shared" ref="L25:L30" si="3">C25&amp;" "&amp;E25&amp;IF(E25="varchar2","("&amp;F25&amp;")","")&amp;IF(J25="",""," default "&amp;J25)&amp;IF(G25="",""," "&amp;G25)&amp;IF(H25="",""," unique")&amp;IF(I25="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N25" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="B26" s="54">
-        <v>2</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="73">
-        <v>20</v>
-      </c>
-      <c r="G26" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74" t="s">
-        <v>401</v>
-      </c>
-      <c r="L26" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>NICKNAME varchar2(20) not null unique,</v>
-      </c>
-      <c r="N26" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="O26" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C26&amp;") references "&amp;K26</f>
-        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="B27" s="54">
-        <v>3</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="54">
-        <v>10</v>
-      </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="L27" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>PHONE1 varchar2(10),</v>
-      </c>
-      <c r="N27" s="78" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="B28" s="54">
-        <v>4</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="54">
-        <v>20</v>
-      </c>
+      <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
+      <c r="I28" s="54" t="s">
+        <v>205</v>
+      </c>
       <c r="J28" s="54"/>
-      <c r="K28" s="107" t="s">
-        <v>405</v>
-      </c>
+      <c r="K28" s="55"/>
       <c r="L28" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>PHONE2 varchar2(20),</v>
+        <f t="shared" ref="L28:L33" si="2">C28&amp;" "&amp;E28&amp;IF(E28="varchar2","("&amp;F28&amp;")","")&amp;IF(J28="",""," default "&amp;J28)&amp;IF(G28="",""," "&amp;G28)&amp;IF(H28="",""," unique")&amp;IF(I28="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N28" s="78" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="54">
-        <v>5</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="54">
-        <v>10</v>
-      </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
+      <c r="F29" s="73">
+        <v>20</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74" t="s">
+        <v>398</v>
+      </c>
       <c r="L29" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>ADDRNUM varchar2(10),</v>
+        <f t="shared" si="2"/>
+        <v>NICKNAME varchar2(20) not null unique,</v>
       </c>
       <c r="N29" s="78" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>310</v>
+      </c>
+      <c r="O29" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C29&amp;") references "&amp;K29</f>
+        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B30" s="54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="E30" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F30" s="54">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G30" s="54"/>
       <c r="H30" s="54"/>
       <c r="I30" s="54"/>
       <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
+      <c r="K30" s="107" t="s">
+        <v>401</v>
+      </c>
       <c r="L30" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>ADDR varchar2(100),</v>
+        <f t="shared" si="2"/>
+        <v>PHONE1 varchar2(10),</v>
       </c>
       <c r="N30" s="78" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B31" s="54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="E31" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F31" s="54">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G31" s="54"/>
       <c r="H31" s="54"/>
       <c r="I31" s="54"/>
       <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
+      <c r="K31" s="107" t="s">
+        <v>402</v>
+      </c>
       <c r="L31" s="78" t="str">
-        <f t="shared" ref="L31" si="4">C31&amp;" "&amp;E31&amp;IF(E31="varchar2","("&amp;F31&amp;")","")&amp;IF(J31="",""," default "&amp;J31)&amp;IF(G31="",""," "&amp;G31)&amp;IF(H31="",""," unique")&amp;IF(I31="",""," primary key")&amp;","</f>
-        <v>ADDRSUB varchar2(100),</v>
+        <f t="shared" si="2"/>
+        <v>PHONE2 varchar2(20),</v>
       </c>
       <c r="N31" s="78" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B32" s="54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F32" s="54">
+        <v>10</v>
+      </c>
       <c r="G32" s="54"/>
       <c r="H32" s="54"/>
       <c r="I32" s="54"/>
-      <c r="J32" s="54">
-        <v>0</v>
-      </c>
-      <c r="K32" s="107" t="s">
-        <v>284</v>
-      </c>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="78" t="str">
-        <f>C32&amp;" "&amp;E32&amp;IF(E32="varchar2","("&amp;F32&amp;")","")&amp;IF(J32="",""," default "&amp;J32)&amp;IF(G32="",""," "&amp;G32)&amp;IF(H32="",""," unique")&amp;IF(I32="",""," primary key")</f>
-        <v>POINT number default 0</v>
+        <f t="shared" si="2"/>
+        <v>ADDRNUM varchar2(10),</v>
       </c>
       <c r="N32" s="78" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="L33" s="78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B33" s="54">
+        <v>6</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="54">
+        <v>100</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>ADDR varchar2(100),</v>
+      </c>
+      <c r="N33" s="78" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B34" s="54">
+        <v>7</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="54">
+        <v>100</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="78" t="str">
+        <f>C34&amp;" "&amp;E34&amp;IF(E34="varchar2","("&amp;F34&amp;")","")&amp;IF(J34="",""," default "&amp;J34)&amp;IF(G34="",""," "&amp;G34)&amp;IF(H34="",""," unique")&amp;IF(I34="",""," primary key")</f>
+        <v>ADDRSUB varchar2(100)</v>
+      </c>
+      <c r="N34" s="78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L35" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N33" s="78" t="s">
+      <c r="N35" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="78">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A36" s="78">
         <v>4</v>
       </c>
-      <c r="B34" s="167" t="s">
+      <c r="B36" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C34" s="168"/>
-      <c r="D34" s="169" t="s">
+      <c r="C36" s="165"/>
+      <c r="D36" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="170"/>
-      <c r="F34" s="70" t="s">
+      <c r="E36" s="167"/>
+      <c r="F36" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G34" s="169" t="s">
+      <c r="G36" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="170"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="B35" s="70" t="s">
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="167"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B37" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C37" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D37" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E37" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F37" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G37" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H37" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I35" s="70" t="s">
+      <c r="I37" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J35" s="70" t="s">
+      <c r="J37" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K35" s="70" t="s">
+      <c r="K37" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L35" s="78" t="str">
-        <f>"create table "&amp;D34&amp;"("</f>
+      <c r="L37" s="78" t="str">
+        <f>"create table "&amp;D36&amp;"("</f>
         <v>create table POINT(</v>
       </c>
-      <c r="N35" s="78" t="s">
+      <c r="N37" s="78" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="B36" s="54">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B38" s="54">
         <v>1</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C38" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="53" t="str">
-        <f>"번호 ("&amp;D34&amp;"_SEQ.nextval)"</f>
+      <c r="D38" s="53" t="str">
+        <f>"번호 ("&amp;D36&amp;"_SEQ.nextval)"</f>
         <v>번호 (POINT_SEQ.nextval)</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E38" s="53" t="s">
         <v>128</v>
-      </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J36" s="54"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="78" t="str">
-        <f t="shared" ref="L36:L39" si="5">C36&amp;" "&amp;E36&amp;IF(E36="varchar2","("&amp;F36&amp;")","")&amp;IF(J36="",""," default "&amp;J36)&amp;IF(G36="",""," "&amp;G36)&amp;IF(H36="",""," unique")&amp;IF(I36="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N36" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="B37" s="54">
-        <v>2</v>
-      </c>
-      <c r="C37" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="82" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="83">
-        <v>20</v>
-      </c>
-      <c r="G37" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="82" t="s">
-        <v>388</v>
-      </c>
-      <c r="L37" s="78" t="str">
-        <f t="shared" si="5"/>
-        <v>NICKNAME varchar2(20) not null,</v>
-      </c>
-      <c r="N37" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="O37" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C37&amp;") references "&amp;K37</f>
-        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="B38" s="54">
-        <v>3</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>156</v>
       </c>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
       <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54" t="s">
-        <v>157</v>
-      </c>
+      <c r="I38" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" s="54"/>
       <c r="K38" s="55"/>
       <c r="L38" s="78" t="str">
-        <f t="shared" si="5"/>
-        <v>CHANGEDATE date default sysdate,</v>
+        <f t="shared" ref="L38:L41" si="3">C38&amp;" "&amp;E38&amp;IF(E38="varchar2","("&amp;F38&amp;")","")&amp;IF(J38="",""," default "&amp;J38)&amp;IF(G38="",""," "&amp;G38)&amp;IF(H38="",""," unique")&amp;IF(I38="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N38" s="78" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B39" s="54">
-        <v>4</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="83">
+        <v>20</v>
+      </c>
+      <c r="G39" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55" t="s">
-        <v>160</v>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="82" t="s">
+        <v>388</v>
       </c>
       <c r="L39" s="78" t="str">
-        <f t="shared" si="5"/>
-        <v>CHANGEPOINT number not null,</v>
+        <f t="shared" si="3"/>
+        <v>NICKNAME varchar2(20) not null,</v>
       </c>
       <c r="N39" s="78" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>303</v>
+      </c>
+      <c r="O39" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C39&amp;") references "&amp;K39</f>
+        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B40" s="54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="54">
-        <v>20</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>139</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
       <c r="H40" s="54"/>
       <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="J40" s="54" t="s">
+        <v>157</v>
+      </c>
       <c r="K40" s="55"/>
       <c r="L40" s="78" t="str">
-        <f>C40&amp;" "&amp;E40&amp;IF(E40="varchar2","("&amp;F40&amp;")","")&amp;IF(J40="",""," default "&amp;J40)&amp;IF(G40="",""," "&amp;G40)&amp;IF(H40="",""," unique")&amp;IF(I40="",""," primary key")</f>
+        <f t="shared" si="3"/>
+        <v>CHANGEDATE date default sysdate,</v>
+      </c>
+      <c r="N40" s="78" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B41" s="54">
+        <v>4</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41" s="78" t="str">
+        <f t="shared" si="3"/>
+        <v>CHANGEPOINT number not null,</v>
+      </c>
+      <c r="N41" s="78" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B42" s="54">
+        <v>5</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="54">
+        <v>20</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="78" t="str">
+        <f>C42&amp;" "&amp;E42&amp;IF(E42="varchar2","("&amp;F42&amp;")","")&amp;IF(J42="",""," default "&amp;J42)&amp;IF(G42="",""," "&amp;G42)&amp;IF(H42="",""," unique")&amp;IF(I42="",""," primary key")</f>
         <v>CHANGEWHY varchar2(20) not null</v>
       </c>
-      <c r="N40" s="78" t="s">
+      <c r="N42" s="78" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="L41" s="78" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L43" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N41" s="78" t="s">
+      <c r="N43" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="78">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A44" s="78">
         <v>5</v>
       </c>
-      <c r="B42" s="167" t="s">
+      <c r="B44" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169" t="s">
+      <c r="C44" s="165"/>
+      <c r="D44" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="E42" s="170"/>
-      <c r="F42" s="70" t="s">
+      <c r="E44" s="167"/>
+      <c r="F44" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G42" s="169" t="s">
+      <c r="G44" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="170"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="B43" s="70" t="s">
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="167"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B45" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C45" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D45" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E45" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F45" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G43" s="70" t="s">
+      <c r="G45" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H43" s="70" t="s">
+      <c r="H45" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I43" s="70" t="s">
+      <c r="I45" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J43" s="70" t="s">
+      <c r="J45" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K43" s="70" t="s">
+      <c r="K45" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L43" s="78" t="str">
-        <f>"create table "&amp;D42&amp;"("</f>
+      <c r="L45" s="78" t="str">
+        <f>"create table "&amp;D44&amp;"("</f>
         <v>create table BOARD(</v>
       </c>
-      <c r="N43" s="78" t="s">
+      <c r="N45" s="78" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="B44" s="54">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B46" s="54">
         <v>1</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C46" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="53" t="str">
-        <f>"번호 ("&amp;D42&amp;"_SEQ.nextval)"</f>
+      <c r="D46" s="53" t="str">
+        <f>"번호 ("&amp;D44&amp;"_SEQ.nextval)"</f>
         <v>번호 (BOARD_SEQ.nextval)</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E46" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54" t="s">
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="78" t="str">
-        <f t="shared" ref="L44:L51" si="6">C44&amp;" "&amp;E44&amp;IF(E44="varchar2","("&amp;F44&amp;")","")&amp;IF(J44="",""," default "&amp;J44)&amp;IF(G44="",""," "&amp;G44)&amp;IF(H44="",""," unique")&amp;IF(I44="",""," primary key")&amp;","</f>
+      <c r="J46" s="54"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="78" t="str">
+        <f t="shared" ref="L46:L53" si="4">C46&amp;" "&amp;E46&amp;IF(E46="varchar2","("&amp;F46&amp;")","")&amp;IF(J46="",""," default "&amp;J46)&amp;IF(G46="",""," "&amp;G46)&amp;IF(H46="",""," unique")&amp;IF(I46="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N44" s="78" t="s">
+      <c r="N46" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="B45" s="54">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B47" s="54">
         <v>2</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C47" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D47" s="55" t="s">
         <v>229</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="54">
-        <v>20</v>
-      </c>
-      <c r="G45" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="L45" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>BOARDCODE varchar2(20) not null,</v>
-      </c>
-      <c r="N45" s="78" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="B46" s="73">
-        <v>3</v>
-      </c>
-      <c r="C46" s="74" t="s">
-        <v>367</v>
-      </c>
-      <c r="D46" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" s="73">
-        <v>20</v>
-      </c>
-      <c r="G46" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="54"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="74" t="s">
-        <v>401</v>
-      </c>
-      <c r="L46" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>WRITER varchar2(20) not null,</v>
-      </c>
-      <c r="N46" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="O46" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C46&amp;") references "&amp;K46</f>
-        <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="B47" s="54">
-        <v>4</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="D47" s="55" t="s">
-        <v>233</v>
       </c>
       <c r="E47" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F47" s="54">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G47" s="54" t="s">
         <v>139</v>
@@ -9646,705 +9639,711 @@
       <c r="H47" s="54"/>
       <c r="I47" s="54"/>
       <c r="J47" s="54"/>
-      <c r="K47" s="55"/>
+      <c r="K47" s="55" t="s">
+        <v>230</v>
+      </c>
       <c r="L47" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE varchar2(50) not null,</v>
+        <f t="shared" si="4"/>
+        <v>BOARDCODE varchar2(20) not null,</v>
       </c>
       <c r="N47" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="B48" s="54">
-        <v>5</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B48" s="73">
+        <v>3</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="54">
-        <v>4000</v>
-      </c>
-      <c r="G48" s="54" t="s">
+      <c r="F48" s="73">
+        <v>20</v>
+      </c>
+      <c r="G48" s="73" t="s">
         <v>139</v>
       </c>
       <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="55"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="74" t="s">
+        <v>398</v>
+      </c>
       <c r="L48" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>CONTENT varchar2(4000) not null,</v>
+        <f t="shared" si="4"/>
+        <v>WRITER varchar2(20) not null,</v>
       </c>
       <c r="N48" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>369</v>
+      </c>
+      <c r="O48" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C48&amp;") references "&amp;K48</f>
+        <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B49" s="54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F49" s="54">
+        <v>50</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H49" s="54"/>
       <c r="I49" s="54"/>
-      <c r="J49" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K49" s="55" t="s">
-        <v>292</v>
-      </c>
+      <c r="J49" s="54"/>
+      <c r="K49" s="55"/>
       <c r="L49" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>REGDATE date default sysdate,</v>
+        <f t="shared" si="4"/>
+        <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N49" s="78" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B50" s="54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F50" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
-      <c r="J50" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K50" s="55" t="s">
-        <v>293</v>
-      </c>
+      <c r="J50" s="54"/>
+      <c r="K50" s="55"/>
       <c r="L50" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>MODDATE date default sysdate,</v>
+        <f t="shared" si="4"/>
+        <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N50" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B51" s="54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
       <c r="H51" s="54"/>
       <c r="I51" s="54"/>
-      <c r="J51" s="54">
-        <v>0</v>
-      </c>
-      <c r="K51" s="55"/>
+      <c r="J51" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>292</v>
+      </c>
       <c r="L51" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>HIT number default 0,</v>
+        <f t="shared" si="4"/>
+        <v>REGDATE date default sysdate,</v>
       </c>
       <c r="N51" s="78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B52" s="54">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
-      <c r="J52" s="54">
+      <c r="J52" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K52" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="L52" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>MODDATE date default sysdate,</v>
+      </c>
+      <c r="N52" s="78" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B53" s="54">
+        <v>8</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54">
         <v>0</v>
       </c>
-      <c r="K52" s="55"/>
-      <c r="L52" s="78" t="str">
-        <f>C52&amp;" "&amp;E52&amp;IF(E52="varchar2","("&amp;F52&amp;")","")&amp;IF(J52="",""," default "&amp;J52)&amp;IF(G52="",""," "&amp;G52)&amp;IF(H52="",""," unique")&amp;IF(I52="",""," primary key")</f>
+      <c r="K53" s="55"/>
+      <c r="L53" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>HIT number default 0,</v>
+      </c>
+      <c r="N53" s="78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B54" s="54">
+        <v>9</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="55"/>
+      <c r="L54" s="78" t="str">
+        <f>C54&amp;" "&amp;E54&amp;IF(E54="varchar2","("&amp;F54&amp;")","")&amp;IF(J54="",""," default "&amp;J54)&amp;IF(G54="",""," "&amp;G54)&amp;IF(H54="",""," unique")&amp;IF(I54="",""," primary key")</f>
         <v>HEART number default 0</v>
       </c>
-      <c r="N52" s="78" t="s">
+      <c r="N54" s="78" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="L53" s="78" t="s">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L55" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N53" s="78" t="s">
+      <c r="N55" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="78">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A56" s="78">
         <v>6</v>
       </c>
-      <c r="B54" s="167" t="s">
+      <c r="B56" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173" t="s">
+      <c r="C56" s="169"/>
+      <c r="D56" s="170" t="s">
         <v>241</v>
       </c>
-      <c r="E54" s="174"/>
-      <c r="F54" s="89" t="s">
+      <c r="E56" s="171"/>
+      <c r="F56" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="G54" s="173" t="s">
+      <c r="G56" s="170" t="s">
         <v>389</v>
       </c>
-      <c r="H54" s="175"/>
-      <c r="I54" s="175"/>
-      <c r="J54" s="175"/>
-      <c r="K54" s="174"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="B55" s="111" t="s">
+      <c r="H56" s="172"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="172"/>
+      <c r="K56" s="171"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B57" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="115" t="s">
+      <c r="C57" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D55" s="115" t="s">
+      <c r="D57" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E55" s="115" t="s">
+      <c r="E57" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F55" s="115" t="s">
+      <c r="F57" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G55" s="115" t="s">
+      <c r="G57" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H55" s="70" t="s">
+      <c r="H57" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I55" s="115" t="s">
+      <c r="I57" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J55" s="115" t="s">
+      <c r="J57" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K55" s="115" t="s">
+      <c r="K57" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L55" s="78" t="str">
-        <f>"create table "&amp;D54&amp;"("</f>
+      <c r="L57" s="78" t="str">
+        <f>"create table "&amp;D56&amp;"("</f>
         <v>create table BOARD_REF(</v>
       </c>
-      <c r="N55" s="78" t="s">
+      <c r="N57" s="78" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="B56" s="116">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B58" s="116">
         <v>1</v>
       </c>
-      <c r="C56" s="90" t="s">
+      <c r="C58" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="53" t="str">
-        <f>"번호 ("&amp;D54&amp;"_SEQ.nextval)"</f>
+      <c r="D58" s="53" t="str">
+        <f>"번호 ("&amp;D56&amp;"_SEQ.nextval)"</f>
         <v>번호 (BOARD_REF_SEQ.nextval)</v>
       </c>
-      <c r="E56" s="90" t="s">
+      <c r="E58" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114" t="s">
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J56" s="114"/>
-      <c r="K56" s="91"/>
-      <c r="L56" s="78" t="str">
-        <f t="shared" ref="L56:L62" si="7">C56&amp;" "&amp;E56&amp;IF(E56="varchar2","("&amp;F56&amp;")","")&amp;IF(J56="",""," default "&amp;J56)&amp;IF(G56="",""," "&amp;G56)&amp;IF(H56="",""," unique")&amp;IF(I56="",""," primary key")&amp;","</f>
+      <c r="J58" s="114"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="78" t="str">
+        <f t="shared" ref="L58:L64" si="5">C58&amp;" "&amp;E58&amp;IF(E58="varchar2","("&amp;F58&amp;")","")&amp;IF(J58="",""," default "&amp;J58)&amp;IF(G58="",""," "&amp;G58)&amp;IF(H58="",""," unique")&amp;IF(I58="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N56" s="78" t="s">
+      <c r="N58" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="32">
-      <c r="B57" s="87">
+    <row r="59" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B59" s="87">
         <v>2</v>
       </c>
-      <c r="C57" s="92" t="s">
+      <c r="C59" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="92" t="s">
+      <c r="D59" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="E57" s="92" t="s">
+      <c r="E59" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="93"/>
-      <c r="G57" s="93" t="s">
+      <c r="F59" s="93"/>
+      <c r="G59" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="H57" s="93"/>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="92" t="s">
+      <c r="H59" s="93"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="92" t="s">
         <v>362</v>
       </c>
-      <c r="L57" s="78" t="str">
-        <f t="shared" si="7"/>
+      <c r="L59" s="78" t="str">
+        <f t="shared" si="5"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N57" s="78" t="s">
+      <c r="N59" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O57" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C57&amp;") references "&amp;K57</f>
+      <c r="O59" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C59&amp;") references "&amp;K59</f>
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
-      <c r="B58" s="88">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B60" s="88">
         <v>3</v>
       </c>
-      <c r="C58" s="92" t="s">
+      <c r="C60" s="92" t="s">
         <v>367</v>
       </c>
-      <c r="D58" s="92" t="s">
+      <c r="D60" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="E58" s="92" t="s">
+      <c r="E60" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="93">
+      <c r="F60" s="93">
         <v>20</v>
       </c>
-      <c r="G58" s="93" t="s">
+      <c r="G60" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="L58" s="78" t="str">
-        <f t="shared" si="7"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="93"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="92" t="s">
+        <v>398</v>
+      </c>
+      <c r="L60" s="78" t="str">
+        <f t="shared" si="5"/>
         <v>WRITER varchar2(20) not null,</v>
       </c>
-      <c r="N58" s="78" t="s">
+      <c r="N60" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="O58" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C58&amp;") references "&amp;K58</f>
+      <c r="O60" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C60&amp;") references "&amp;K60</f>
         <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
-      <c r="B59" s="112">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B61" s="112">
         <v>4</v>
       </c>
-      <c r="C59" s="91" t="s">
+      <c r="C61" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="91" t="s">
+      <c r="D61" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="E59" s="91" t="s">
+      <c r="E61" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="114">
+      <c r="F61" s="114">
         <v>1000</v>
       </c>
-      <c r="G59" s="114" t="s">
+      <c r="G61" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="91"/>
-      <c r="L59" s="78" t="str">
-        <f t="shared" si="7"/>
-        <v>CONTENT varchar2(1000) not null,</v>
-      </c>
-      <c r="N59" s="78" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="B60" s="112">
-        <v>5</v>
-      </c>
-      <c r="C60" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="E60" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="K60" s="91" t="s">
-        <v>292</v>
-      </c>
-      <c r="L60" s="78" t="str">
-        <f t="shared" si="7"/>
-        <v>REGDATE date default sysdate,</v>
-      </c>
-      <c r="N60" s="78" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="B61" s="112">
-        <v>6</v>
-      </c>
-      <c r="C61" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="D61" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F61" s="114"/>
-      <c r="G61" s="114"/>
       <c r="H61" s="114"/>
       <c r="I61" s="114"/>
-      <c r="J61" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="K61" s="91" t="s">
-        <v>293</v>
-      </c>
+      <c r="J61" s="114"/>
+      <c r="K61" s="91"/>
       <c r="L61" s="78" t="str">
-        <f t="shared" si="7"/>
-        <v>MODDATE date default sysdate,</v>
+        <f t="shared" si="5"/>
+        <v>CONTENT varchar2(1000) not null,</v>
       </c>
       <c r="N61" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B62" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" s="91" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D62" s="91" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E62" s="91" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F62" s="114"/>
       <c r="G62" s="114"/>
       <c r="H62" s="114"/>
       <c r="I62" s="114"/>
-      <c r="J62" s="114">
-        <v>0</v>
-      </c>
-      <c r="K62" s="91"/>
+      <c r="J62" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="K62" s="91" t="s">
+        <v>292</v>
+      </c>
       <c r="L62" s="78" t="str">
-        <f t="shared" si="7"/>
-        <v>DEPTH number default 0,</v>
+        <f t="shared" si="5"/>
+        <v>REGDATE date default sysdate,</v>
       </c>
       <c r="N62" s="78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="32">
-      <c r="B63" s="116">
-        <v>8</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B63" s="112">
+        <v>6</v>
       </c>
       <c r="C63" s="91" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D63" s="91" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="E63" s="91" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F63" s="114"/>
       <c r="G63" s="114"/>
       <c r="H63" s="114"/>
       <c r="I63" s="114"/>
-      <c r="J63" s="114">
+      <c r="J63" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="K63" s="91" t="s">
+        <v>293</v>
+      </c>
+      <c r="L63" s="78" t="str">
+        <f t="shared" si="5"/>
+        <v>MODDATE date default sysdate,</v>
+      </c>
+      <c r="N63" s="78" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B64" s="112">
+        <v>7</v>
+      </c>
+      <c r="C64" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="114"/>
+      <c r="J64" s="114">
         <v>0</v>
       </c>
-      <c r="K63" s="91" t="s">
+      <c r="K64" s="91"/>
+      <c r="L64" s="78" t="str">
+        <f t="shared" si="5"/>
+        <v>DEPTH number default 0,</v>
+      </c>
+      <c r="N64" s="78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B65" s="116">
+        <v>8</v>
+      </c>
+      <c r="C65" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="E65" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="114">
+        <v>0</v>
+      </c>
+      <c r="K65" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="L63" s="78" t="str">
-        <f>C63&amp;" "&amp;E63&amp;IF(E63="varchar2","("&amp;F63&amp;")","")&amp;IF(J63="",""," default "&amp;J63)&amp;IF(G63="",""," "&amp;G63)&amp;IF(H63="",""," unique")&amp;IF(I63="",""," primary key")</f>
+      <c r="L65" s="78" t="str">
+        <f>C65&amp;" "&amp;E65&amp;IF(E65="varchar2","("&amp;F65&amp;")","")&amp;IF(J65="",""," default "&amp;J65)&amp;IF(G65="",""," "&amp;G65)&amp;IF(H65="",""," unique")&amp;IF(I65="",""," primary key")</f>
         <v>REFNUM number default 0</v>
       </c>
-      <c r="N63" s="78" t="s">
+      <c r="N65" s="78" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
-      <c r="L64" s="78" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L66" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N64" s="78" t="s">
+      <c r="N66" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="78">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A67" s="78">
         <v>7</v>
       </c>
-      <c r="B65" s="167" t="s">
+      <c r="B67" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="168"/>
-      <c r="D65" s="169" t="s">
+      <c r="C67" s="165"/>
+      <c r="D67" s="166" t="s">
         <v>247</v>
       </c>
-      <c r="E65" s="170"/>
-      <c r="F65" s="70" t="s">
+      <c r="E67" s="167"/>
+      <c r="F67" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G65" s="169" t="s">
+      <c r="G67" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H65" s="171"/>
-      <c r="I65" s="171"/>
-      <c r="J65" s="171"/>
-      <c r="K65" s="170"/>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="B66" s="70" t="s">
+      <c r="H67" s="168"/>
+      <c r="I67" s="168"/>
+      <c r="J67" s="168"/>
+      <c r="K67" s="167"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B68" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C68" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D66" s="70" t="s">
+      <c r="D68" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="E68" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F66" s="70" t="s">
+      <c r="F68" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G66" s="70" t="s">
+      <c r="G68" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H66" s="70" t="s">
+      <c r="H68" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I66" s="70" t="s">
+      <c r="I68" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J66" s="70" t="s">
+      <c r="J68" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K66" s="70" t="s">
+      <c r="K68" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L66" s="78" t="str">
-        <f>"create table "&amp;D65&amp;"("</f>
+      <c r="L68" s="78" t="str">
+        <f>"create table "&amp;D67&amp;"("</f>
         <v>create table BOARD_IMAGE(</v>
       </c>
-      <c r="N66" s="78" t="s">
+      <c r="N68" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
-      <c r="B67" s="110">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B69" s="110">
         <v>1</v>
       </c>
-      <c r="C67" s="75" t="s">
+      <c r="C69" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="53" t="str">
-        <f>"번호 ("&amp;D65&amp;"_SEQ.nextval)"</f>
+      <c r="D69" s="53" t="str">
+        <f>"번호 ("&amp;D67&amp;"_SEQ.nextval)"</f>
         <v>번호 (BOARD_IMAGE_SEQ.nextval)</v>
       </c>
-      <c r="E67" s="75" t="s">
+      <c r="E69" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110"/>
-      <c r="H67" s="110"/>
-      <c r="I67" s="110" t="s">
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J67" s="110"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="78" t="str">
-        <f t="shared" ref="L67:L70" si="8">C67&amp;" "&amp;E67&amp;IF(E67="varchar2","("&amp;F67&amp;")","")&amp;IF(J67="",""," default "&amp;J67)&amp;IF(G67="",""," "&amp;G67)&amp;IF(H67="",""," unique")&amp;IF(I67="",""," primary key")&amp;","</f>
+      <c r="J69" s="110"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="78" t="str">
+        <f t="shared" ref="L69:L72" si="6">C69&amp;" "&amp;E69&amp;IF(E69="varchar2","("&amp;F69&amp;")","")&amp;IF(J69="",""," default "&amp;J69)&amp;IF(G69="",""," "&amp;G69)&amp;IF(H69="",""," unique")&amp;IF(I69="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N67" s="78" t="s">
+      <c r="N69" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="32">
-      <c r="B68" s="110">
+    <row r="70" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B70" s="110">
         <v>2</v>
       </c>
-      <c r="C68" s="77" t="s">
+      <c r="C70" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="77" t="s">
+      <c r="D70" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="E68" s="77" t="s">
+      <c r="E70" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76" t="s">
+      <c r="F70" s="76"/>
+      <c r="G70" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="76"/>
-      <c r="K68" s="77" t="s">
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="L68" s="78" t="str">
-        <f t="shared" si="8"/>
+      <c r="L70" s="78" t="str">
+        <f t="shared" si="6"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N68" s="78" t="s">
+      <c r="N70" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O68" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C68&amp;") references "&amp;K68</f>
+      <c r="O70" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C70&amp;") references "&amp;K70</f>
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
-      <c r="B69" s="54">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B71" s="54">
         <v>3</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C71" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D71" s="55" t="s">
         <v>249</v>
-      </c>
-      <c r="E69" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F69" s="54">
-        <v>50</v>
-      </c>
-      <c r="G69" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="78" t="str">
-        <f t="shared" si="8"/>
-        <v>ORIGINNAME varchar2(50) not null,</v>
-      </c>
-      <c r="N69" s="78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="B70" s="54">
-        <v>4</v>
-      </c>
-      <c r="C70" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E70" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F70" s="54">
-        <v>100</v>
-      </c>
-      <c r="G70" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="L70" s="78" t="str">
-        <f t="shared" si="8"/>
-        <v>SAVENAME varchar2(100) not null,</v>
-      </c>
-      <c r="N70" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="B71" s="54">
-        <v>5</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="D71" s="55" t="s">
-        <v>251</v>
       </c>
       <c r="E71" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F71" s="54">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G71" s="54" t="s">
         <v>139</v>
@@ -10354,1062 +10353,1060 @@
       <c r="J71" s="54"/>
       <c r="K71" s="55"/>
       <c r="L71" s="78" t="str">
-        <f>C71&amp;" "&amp;E71&amp;IF(E71="varchar2","("&amp;F71&amp;")","")&amp;IF(J71="",""," default "&amp;J71)&amp;IF(G71="",""," "&amp;G71)&amp;IF(H71="",""," unique")&amp;IF(I71="",""," primary key")</f>
+        <f t="shared" si="6"/>
+        <v>ORIGINNAME varchar2(50) not null,</v>
+      </c>
+      <c r="N71" s="78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B72" s="54">
+        <v>4</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" s="54">
+        <v>100</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="L72" s="78" t="str">
+        <f t="shared" si="6"/>
+        <v>SAVENAME varchar2(100) not null,</v>
+      </c>
+      <c r="N72" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B73" s="54">
+        <v>5</v>
+      </c>
+      <c r="C73" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="54">
+        <v>10</v>
+      </c>
+      <c r="G73" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="78" t="str">
+        <f>C73&amp;" "&amp;E73&amp;IF(E73="varchar2","("&amp;F73&amp;")","")&amp;IF(J73="",""," default "&amp;J73)&amp;IF(G73="",""," "&amp;G73)&amp;IF(H73="",""," unique")&amp;IF(I73="",""," primary key")</f>
         <v>FILETYPE varchar2(10) not null</v>
       </c>
-      <c r="N71" s="78" t="s">
+      <c r="N73" s="78" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="L72" s="78" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L74" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N72" s="78" t="s">
+      <c r="N74" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="78">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A75" s="78">
         <v>8</v>
       </c>
-      <c r="B73" s="167" t="s">
+      <c r="B75" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="168"/>
-      <c r="D73" s="169" t="s">
+      <c r="C75" s="165"/>
+      <c r="D75" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="E73" s="170"/>
-      <c r="F73" s="70" t="s">
+      <c r="E75" s="167"/>
+      <c r="F75" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G73" s="169" t="s">
+      <c r="G75" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H73" s="171"/>
-      <c r="I73" s="171"/>
-      <c r="J73" s="171"/>
-      <c r="K73" s="170"/>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="B74" s="70" t="s">
+      <c r="H75" s="168"/>
+      <c r="I75" s="168"/>
+      <c r="J75" s="168"/>
+      <c r="K75" s="167"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B76" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="70" t="s">
+      <c r="C76" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D74" s="70" t="s">
+      <c r="D76" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E74" s="70" t="s">
+      <c r="E76" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F74" s="70" t="s">
+      <c r="F76" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G74" s="70" t="s">
+      <c r="G76" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H74" s="70" t="s">
+      <c r="H76" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I74" s="70" t="s">
+      <c r="I76" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J74" s="70" t="s">
+      <c r="J76" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K74" s="70" t="s">
+      <c r="K76" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L74" s="78" t="str">
-        <f>"create table "&amp;D73&amp;"("</f>
+      <c r="L76" s="78" t="str">
+        <f>"create table "&amp;D75&amp;"("</f>
         <v>create table BOARD_TERM(</v>
       </c>
-      <c r="N74" s="78" t="s">
+      <c r="N76" s="78" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="B75" s="54">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B77" s="54">
         <v>1</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C77" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D75" s="53" t="str">
-        <f>"번호 ("&amp;D73&amp;"_SEQ.nextval)"</f>
+      <c r="D77" s="53" t="str">
+        <f>"번호 ("&amp;D75&amp;"_SEQ.nextval)"</f>
         <v>번호 (BOARD_TERM_SEQ.nextval)</v>
       </c>
-      <c r="E75" s="53" t="s">
+      <c r="E77" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54" t="s">
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J75" s="54"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="78" t="str">
-        <f t="shared" ref="L75:L77" si="9">C75&amp;" "&amp;E75&amp;IF(E75="varchar2","("&amp;F75&amp;")","")&amp;IF(J75="",""," default "&amp;J75)&amp;IF(G75="",""," "&amp;G75)&amp;IF(H75="",""," unique")&amp;IF(I75="",""," primary key")&amp;","</f>
+      <c r="J77" s="54"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="78" t="str">
+        <f t="shared" ref="L77:L79" si="7">C77&amp;" "&amp;E77&amp;IF(E77="varchar2","("&amp;F77&amp;")","")&amp;IF(J77="",""," default "&amp;J77)&amp;IF(G77="",""," "&amp;G77)&amp;IF(H77="",""," unique")&amp;IF(I77="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N75" s="78" t="s">
+      <c r="N77" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="32">
-      <c r="B76" s="110">
+    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B78" s="110">
         <v>2</v>
       </c>
-      <c r="C76" s="77" t="s">
+      <c r="C78" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="D76" s="77" t="s">
+      <c r="D78" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="E76" s="77" t="s">
+      <c r="E78" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76" t="s">
+      <c r="F78" s="76"/>
+      <c r="G78" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="77" t="s">
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="76"/>
+      <c r="K78" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="L76" s="78" t="str">
-        <f t="shared" si="9"/>
+      <c r="L78" s="78" t="str">
+        <f t="shared" si="7"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N76" s="78" t="s">
+      <c r="N78" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O76" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C76&amp;") references "&amp;K76</f>
+      <c r="O78" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C78&amp;") references "&amp;K78</f>
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
-      <c r="B77" s="54">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B79" s="54">
         <v>3</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C79" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D79" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="E77" s="55" t="s">
+      <c r="E79" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54" t="s">
+      <c r="F79" s="54"/>
+      <c r="G79" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="55" t="s">
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="L77" s="78" t="str">
-        <f t="shared" si="9"/>
+      <c r="L79" s="78" t="str">
+        <f t="shared" si="7"/>
         <v>STARTDATE date not null,</v>
       </c>
-      <c r="N77" s="78" t="s">
+      <c r="N79" s="78" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
-      <c r="B78" s="54">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B80" s="54">
         <v>4</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C80" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D80" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E78" s="55" t="s">
+      <c r="E80" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54" t="s">
+      <c r="F80" s="54"/>
+      <c r="G80" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="55" t="s">
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="L78" s="78" t="str">
-        <f>C78&amp;" "&amp;E78&amp;IF(E78="varchar2","("&amp;F78&amp;")","")&amp;IF(J78="",""," default "&amp;J78)&amp;IF(G78="",""," "&amp;G78)&amp;IF(H78="",""," unique")&amp;IF(I78="",""," primary key")</f>
+      <c r="L80" s="78" t="str">
+        <f>C80&amp;" "&amp;E80&amp;IF(E80="varchar2","("&amp;F80&amp;")","")&amp;IF(J80="",""," default "&amp;J80)&amp;IF(G80="",""," "&amp;G80)&amp;IF(H80="",""," unique")&amp;IF(I80="",""," primary key")</f>
         <v>ENDDATE date not null</v>
       </c>
-      <c r="N78" s="78" t="s">
+      <c r="N80" s="78" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
-      <c r="K79" s="108"/>
-      <c r="L79" s="78" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K81" s="108"/>
+      <c r="L81" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N79" s="78" t="s">
+      <c r="N81" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="78">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A82" s="78">
         <v>9</v>
       </c>
-      <c r="B80" s="176" t="s">
+      <c r="B82" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="176"/>
-      <c r="D80" s="177" t="s">
+      <c r="C82" s="173"/>
+      <c r="D82" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="E80" s="177"/>
-      <c r="F80" s="115" t="s">
+      <c r="E82" s="174"/>
+      <c r="F82" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G80" s="177" t="s">
+      <c r="G82" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="H80" s="177"/>
-      <c r="I80" s="177"/>
-      <c r="J80" s="177"/>
-      <c r="K80" s="177"/>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="B81" s="115" t="s">
+      <c r="H82" s="174"/>
+      <c r="I82" s="174"/>
+      <c r="J82" s="174"/>
+      <c r="K82" s="174"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B83" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C81" s="115" t="s">
+      <c r="C83" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="115" t="s">
+      <c r="D83" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E81" s="115" t="s">
+      <c r="E83" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F81" s="115" t="s">
+      <c r="F83" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G81" s="115" t="s">
+      <c r="G83" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H81" s="70" t="s">
+      <c r="H83" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I81" s="115" t="s">
+      <c r="I83" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J81" s="115" t="s">
+      <c r="J83" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K81" s="115" t="s">
+      <c r="K83" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L81" s="78" t="str">
-        <f>"create table "&amp;D80&amp;"("</f>
+      <c r="L83" s="78" t="str">
+        <f>"create table "&amp;D82&amp;"("</f>
         <v>create table GOODS(</v>
       </c>
-      <c r="N81" s="78" t="s">
+      <c r="N83" s="78" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
-      <c r="B82" s="96">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B84" s="96">
         <v>1</v>
       </c>
-      <c r="C82" s="90" t="s">
+      <c r="C84" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D82" s="53" t="str">
-        <f>"번호 ("&amp;D80&amp;"_SEQ.nextval)"</f>
+      <c r="D84" s="53" t="str">
+        <f>"번호 ("&amp;D82&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_SEQ.nextval)</v>
       </c>
-      <c r="E82" s="90" t="s">
+      <c r="E84" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F82" s="96"/>
-      <c r="G82" s="96"/>
-      <c r="H82" s="96"/>
-      <c r="I82" s="96" t="s">
+      <c r="F84" s="96"/>
+      <c r="G84" s="96"/>
+      <c r="H84" s="96"/>
+      <c r="I84" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="J82" s="96"/>
-      <c r="K82" s="96"/>
-      <c r="L82" s="78" t="str">
-        <f t="shared" ref="L82:L87" si="10">C82&amp;" "&amp;E82&amp;IF(E82="varchar2","("&amp;F82&amp;")","")&amp;IF(J82="",""," default "&amp;J82)&amp;IF(G82="",""," "&amp;G82)&amp;IF(H82="",""," unique")&amp;IF(I82="",""," primary key")&amp;","</f>
+      <c r="J84" s="96"/>
+      <c r="K84" s="96"/>
+      <c r="L84" s="78" t="str">
+        <f t="shared" ref="L84:L89" si="8">C84&amp;" "&amp;E84&amp;IF(E84="varchar2","("&amp;F84&amp;")","")&amp;IF(J84="",""," default "&amp;J84)&amp;IF(G84="",""," "&amp;G84)&amp;IF(H84="",""," unique")&amp;IF(I84="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N82" s="78" t="s">
+      <c r="N84" s="78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="121" customFormat="1">
-      <c r="B83" s="122">
+    <row r="85" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="119">
         <v>2</v>
       </c>
-      <c r="C83" s="123" t="s">
+      <c r="C85" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="D83" s="123" t="s">
+      <c r="D85" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="E83" s="123" t="s">
+      <c r="E85" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="F83" s="122">
+      <c r="F85" s="119">
         <v>100</v>
       </c>
-      <c r="G83" s="122"/>
-      <c r="H83" s="122"/>
-      <c r="I83" s="122"/>
-      <c r="J83" s="122"/>
-      <c r="K83" s="122"/>
-      <c r="L83" s="78" t="str">
-        <f t="shared" si="10"/>
+      <c r="G85" s="119"/>
+      <c r="H85" s="119"/>
+      <c r="I85" s="119"/>
+      <c r="J85" s="119"/>
+      <c r="K85" s="119"/>
+      <c r="L85" s="78" t="str">
+        <f t="shared" si="8"/>
         <v>GOODSCODE varchar2(100),</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
-      <c r="B84" s="122">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B86" s="119">
         <v>3</v>
       </c>
-      <c r="C84" s="91" t="s">
-        <v>420</v>
-      </c>
-      <c r="D84" s="91" t="s">
+      <c r="C86" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="D86" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="E84" s="91" t="s">
+      <c r="E86" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F84" s="114">
+      <c r="F86" s="114">
         <v>100</v>
       </c>
-      <c r="G84" s="114" t="s">
+      <c r="G86" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="H84" s="114"/>
-      <c r="I84" s="114"/>
-      <c r="J84" s="114"/>
-      <c r="K84" s="114"/>
-      <c r="L84" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>GOODSNAME varchar2(100) not null,</v>
-      </c>
-      <c r="N84" s="78" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="B85" s="122">
-        <v>4</v>
-      </c>
-      <c r="C85" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="D85" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F85" s="114">
-        <v>100</v>
-      </c>
-      <c r="G85" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="114"/>
-      <c r="I85" s="114"/>
-      <c r="J85" s="114"/>
-      <c r="K85" s="114"/>
-      <c r="L85" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>CONTENT varchar2(100) not null,</v>
-      </c>
-      <c r="N85" s="78" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="B86" s="122">
-        <v>5</v>
-      </c>
-      <c r="C86" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="E86" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="F86" s="114"/>
-      <c r="G86" s="114"/>
       <c r="H86" s="114"/>
       <c r="I86" s="114"/>
-      <c r="J86" s="114">
-        <v>0</v>
-      </c>
+      <c r="J86" s="114"/>
       <c r="K86" s="114"/>
       <c r="L86" s="78" t="str">
+        <f t="shared" si="8"/>
+        <v>GOODSNAME varchar2(100) not null,</v>
+      </c>
+      <c r="N86" s="78" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B87" s="119">
+        <v>4</v>
+      </c>
+      <c r="C87" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F87" s="114">
+        <v>100</v>
+      </c>
+      <c r="G87" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114"/>
+      <c r="K87" s="114"/>
+      <c r="L87" s="78" t="str">
+        <f t="shared" si="8"/>
+        <v>CONTENT varchar2(100) not null,</v>
+      </c>
+      <c r="N87" s="78" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B88" s="119">
+        <v>5</v>
+      </c>
+      <c r="C88" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F88" s="114"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114">
+        <v>0</v>
+      </c>
+      <c r="K88" s="114"/>
+      <c r="L88" s="78" t="str">
+        <f t="shared" si="8"/>
+        <v>PRICE number default 0,</v>
+      </c>
+      <c r="N88" s="78" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B89" s="119">
+        <v>6</v>
+      </c>
+      <c r="C89" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="E89" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="121">
+        <v>10</v>
+      </c>
+      <c r="G89" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="121"/>
+      <c r="I89" s="121"/>
+      <c r="J89" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="K89" s="121" t="s">
+        <v>419</v>
+      </c>
+      <c r="L89" s="78" t="str">
+        <f t="shared" si="8"/>
+        <v>HEART varchar2(10) default 'NO' not null,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B90" s="119">
+        <v>7</v>
+      </c>
+      <c r="C90" s="91" t="s">
+        <v>424</v>
+      </c>
+      <c r="D90" s="91" t="s">
+        <v>423</v>
+      </c>
+      <c r="E90" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="123"/>
+      <c r="G90" s="123"/>
+      <c r="H90" s="123"/>
+      <c r="I90" s="123"/>
+      <c r="J90" s="122">
+        <v>20</v>
+      </c>
+      <c r="K90" s="123"/>
+      <c r="L90" s="78" t="str">
+        <f>C90&amp;" "&amp;E90&amp;IF(E90="varchar2","("&amp;F90&amp;")","")&amp;IF(J90="",""," default "&amp;J90)&amp;IF(G90="",""," "&amp;G90)&amp;IF(H90="",""," unique")&amp;IF(I90="",""," primary key")</f>
+        <v>STOCK number default 20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L91" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N91" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A92" s="78">
+        <v>10</v>
+      </c>
+      <c r="B92" s="164" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="165"/>
+      <c r="D92" s="166" t="s">
+        <v>270</v>
+      </c>
+      <c r="E92" s="167"/>
+      <c r="F92" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="G92" s="166" t="s">
+        <v>389</v>
+      </c>
+      <c r="H92" s="168"/>
+      <c r="I92" s="168"/>
+      <c r="J92" s="168"/>
+      <c r="K92" s="167"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B93" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D93" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E93" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F93" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G93" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H93" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I93" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J93" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="K93" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L93" s="78" t="str">
+        <f>"create table "&amp;D92&amp;"("</f>
+        <v>create table GOODS_IMAGE(</v>
+      </c>
+      <c r="N93" s="78" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B94" s="110">
+        <v>1</v>
+      </c>
+      <c r="C94" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="53" t="str">
+        <f>"번호 ("&amp;D92&amp;"_SEQ.nextval)"</f>
+        <v>번호 (GOODS_IMAGE_SEQ.nextval)</v>
+      </c>
+      <c r="E94" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="F94" s="110"/>
+      <c r="G94" s="110"/>
+      <c r="H94" s="110"/>
+      <c r="I94" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="J94" s="110"/>
+      <c r="K94" s="67"/>
+      <c r="L94" s="78" t="str">
+        <f t="shared" ref="L94:L95" si="9">C94&amp;" "&amp;E94&amp;IF(E94="varchar2","("&amp;F94&amp;")","")&amp;IF(J94="",""," default "&amp;J94)&amp;IF(G94="",""," "&amp;G94)&amp;IF(H94="",""," unique")&amp;IF(I94="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N94" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B95" s="73">
+        <v>2</v>
+      </c>
+      <c r="C95" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="73">
+        <v>100</v>
+      </c>
+      <c r="G95" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="H95" s="73"/>
+      <c r="I95" s="73"/>
+      <c r="J95" s="73"/>
+      <c r="K95" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="L95" s="78" t="str">
+        <f t="shared" si="9"/>
+        <v>GOODSCODE varchar2(100) not null,</v>
+      </c>
+      <c r="N95" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="O95" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C95&amp;") references "&amp;K95</f>
+        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B96" s="54">
+        <v>3</v>
+      </c>
+      <c r="C96" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E96" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F96" s="54">
+        <v>100</v>
+      </c>
+      <c r="G96" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="78" t="str">
+        <f>C96&amp;" "&amp;E96&amp;IF(E96="varchar2","("&amp;F96&amp;")","")&amp;IF(J96="",""," default "&amp;J96)&amp;IF(G96="",""," "&amp;G96)&amp;IF(H96="",""," unique")&amp;IF(I96="",""," primary key")</f>
+        <v>SAVENAME varchar2(100) not null</v>
+      </c>
+      <c r="N96" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K97" s="108"/>
+      <c r="L97" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N97" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A98" s="78">
+        <v>11</v>
+      </c>
+      <c r="B98" s="175" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="175"/>
+      <c r="D98" s="174" t="s">
+        <v>411</v>
+      </c>
+      <c r="E98" s="174"/>
+      <c r="F98" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="G98" s="174" t="s">
+        <v>389</v>
+      </c>
+      <c r="H98" s="174"/>
+      <c r="I98" s="174"/>
+      <c r="J98" s="174"/>
+      <c r="K98" s="174"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B99" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="D99" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="F99" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="G99" s="113" t="s">
+        <v>288</v>
+      </c>
+      <c r="H99" s="113" t="s">
+        <v>395</v>
+      </c>
+      <c r="I99" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="J99" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="K99" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="L99" s="78" t="str">
+        <f>"create table "&amp;D98&amp;"("</f>
+        <v>create table GOODS_SALES(</v>
+      </c>
+      <c r="N99" s="78" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B100" s="114">
+        <v>1</v>
+      </c>
+      <c r="C100" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="D100" s="53" t="str">
+        <f>"번호 ("&amp;D98&amp;"_SEQ.nextval)"</f>
+        <v>번호 (GOODS_SALES_SEQ.nextval)</v>
+      </c>
+      <c r="E100" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="F100" s="114"/>
+      <c r="G100" s="114"/>
+      <c r="H100" s="114"/>
+      <c r="I100" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="J100" s="114"/>
+      <c r="K100" s="91"/>
+      <c r="L100" s="78" t="str">
+        <f t="shared" ref="L100:L103" si="10">C100&amp;" "&amp;E100&amp;IF(E100="varchar2","("&amp;F100&amp;")","")&amp;IF(J100="",""," default "&amp;J100)&amp;IF(G100="",""," "&amp;G100)&amp;IF(H100="",""," unique")&amp;IF(I100="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N100" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B101" s="93">
+        <v>2</v>
+      </c>
+      <c r="C101" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="92" t="s">
+        <v>425</v>
+      </c>
+      <c r="E101" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F101" s="93">
+        <v>100</v>
+      </c>
+      <c r="G101" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H101" s="93"/>
+      <c r="I101" s="93"/>
+      <c r="J101" s="93"/>
+      <c r="K101" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="L101" s="78" t="str">
         <f t="shared" si="10"/>
-        <v>PRICE number default 0,</v>
-      </c>
-      <c r="N86" s="78" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="B87" s="122">
-        <v>6</v>
-      </c>
-      <c r="C87" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="91" t="s">
-        <v>419</v>
-      </c>
-      <c r="E87" s="91" t="s">
+        <v>GOODSCODE varchar2(100) not null,</v>
+      </c>
+      <c r="N101" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="O101" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C101&amp;") references "&amp;K101</f>
+        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B102" s="93">
+        <v>3</v>
+      </c>
+      <c r="C102" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D102" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="E102" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F102" s="93">
+        <v>20</v>
+      </c>
+      <c r="G102" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H102" s="93"/>
+      <c r="I102" s="93"/>
+      <c r="J102" s="93"/>
+      <c r="K102" s="92" t="s">
+        <v>398</v>
+      </c>
+      <c r="L102" s="78" t="str">
+        <f t="shared" si="10"/>
+        <v>NICKNAME varchar2(20) not null,</v>
+      </c>
+      <c r="N102" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="O102" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C102&amp;") references "&amp;K102</f>
+        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B103" s="114">
         <v>4</v>
       </c>
-      <c r="F87" s="124">
-        <v>10</v>
-      </c>
-      <c r="G87" s="124" t="s">
+      <c r="C103" s="91" t="s">
+        <v>436</v>
+      </c>
+      <c r="D103" s="117" t="s">
+        <v>437</v>
+      </c>
+      <c r="E103" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="117"/>
+      <c r="G103" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="H87" s="124"/>
-      <c r="I87" s="124"/>
-      <c r="J87" s="125" t="s">
-        <v>421</v>
-      </c>
-      <c r="K87" s="124" t="s">
-        <v>422</v>
-      </c>
-      <c r="L87" s="78" t="str">
+      <c r="H103" s="104"/>
+      <c r="I103" s="117"/>
+      <c r="J103" s="117"/>
+      <c r="K103" s="109"/>
+      <c r="L103" s="78" t="str">
         <f t="shared" si="10"/>
-        <v>HEART varchar2(10) default 'NO' not null,</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="B88" s="122">
-        <v>7</v>
-      </c>
-      <c r="C88" s="91" t="s">
-        <v>426</v>
-      </c>
-      <c r="D88" s="91" t="s">
-        <v>427</v>
-      </c>
-      <c r="E88" s="91" t="s">
+        <v>PRICE number not null,</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B104" s="114">
+        <v>5</v>
+      </c>
+      <c r="C104" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="D104" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="E104" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" s="114"/>
+      <c r="G104" s="104"/>
+      <c r="H104" s="104"/>
+      <c r="I104" s="114"/>
+      <c r="J104" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104" s="91"/>
+      <c r="L104" s="78" t="str">
+        <f>C104&amp;" "&amp;E104&amp;IF(E104="varchar2","("&amp;F104&amp;")","")&amp;IF(J104="",""," default "&amp;J104)&amp;IF(G104="",""," "&amp;G104)&amp;IF(H104="",""," unique")&amp;IF(I104="",""," primary key")</f>
+        <v>ORDERDATE date default sysdate</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L105" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N105" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A106" s="78">
+        <v>12</v>
+      </c>
+      <c r="B106" s="164" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" s="165"/>
+      <c r="D106" s="166" t="s">
+        <v>276</v>
+      </c>
+      <c r="E106" s="167"/>
+      <c r="F106" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="G106" s="166" t="s">
+        <v>389</v>
+      </c>
+      <c r="H106" s="168"/>
+      <c r="I106" s="168"/>
+      <c r="J106" s="168"/>
+      <c r="K106" s="167"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B107" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D107" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E107" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F107" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G107" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H107" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I107" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J107" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="K107" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L107" s="78" t="str">
+        <f>"create table "&amp;D106&amp;"("</f>
+        <v>create table ASSATALK(</v>
+      </c>
+      <c r="N107" s="78" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B108" s="54">
+        <v>1</v>
+      </c>
+      <c r="C108" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="53" t="str">
+        <f>"번호 ("&amp;D106&amp;"_SEQ.nextval)"</f>
+        <v>번호 (ASSATALK_SEQ.nextval)</v>
+      </c>
+      <c r="E108" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J108" s="54"/>
+      <c r="K108" s="55"/>
+      <c r="L108" s="78" t="str">
+        <f t="shared" ref="L108:L111" si="11">C108&amp;" "&amp;E108&amp;IF(E108="varchar2","("&amp;F108&amp;")","")&amp;IF(J108="",""," default "&amp;J108)&amp;IF(G108="",""," "&amp;G108)&amp;IF(H108="",""," unique")&amp;IF(I108="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N108" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B109" s="54">
         <v>2</v>
       </c>
-      <c r="F88" s="126"/>
-      <c r="G88" s="126"/>
-      <c r="H88" s="126"/>
-      <c r="I88" s="126"/>
-      <c r="J88" s="125">
-        <v>20</v>
-      </c>
-      <c r="K88" s="126"/>
-      <c r="L88" s="78" t="str">
-        <f>C88&amp;" "&amp;E88&amp;IF(E88="varchar2","("&amp;F88&amp;")","")&amp;IF(J88="",""," default "&amp;J88)&amp;IF(G88="",""," "&amp;G88)&amp;IF(H88="",""," unique")&amp;IF(I88="",""," primary key")</f>
-        <v>STORAGE number default 20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="L89" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N89" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="78">
-        <v>10</v>
-      </c>
-      <c r="B90" s="167" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="168"/>
-      <c r="D90" s="169" t="s">
-        <v>270</v>
-      </c>
-      <c r="E90" s="170"/>
-      <c r="F90" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G90" s="169" t="s">
-        <v>389</v>
-      </c>
-      <c r="H90" s="171"/>
-      <c r="I90" s="171"/>
-      <c r="J90" s="171"/>
-      <c r="K90" s="170"/>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="B91" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E91" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F91" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="G91" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H91" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I91" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="J91" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="K91" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="L91" s="78" t="str">
-        <f>"create table "&amp;D90&amp;"("</f>
-        <v>create table GOODS_IMAGE(</v>
-      </c>
-      <c r="N91" s="78" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="B92" s="110">
-        <v>1</v>
-      </c>
-      <c r="C92" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" s="53" t="str">
-        <f>"번호 ("&amp;D90&amp;"_SEQ.nextval)"</f>
-        <v>번호 (GOODS_IMAGE_SEQ.nextval)</v>
-      </c>
-      <c r="E92" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="F92" s="110"/>
-      <c r="G92" s="110"/>
-      <c r="H92" s="110"/>
-      <c r="I92" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="J92" s="110"/>
-      <c r="K92" s="67"/>
-      <c r="L92" s="78" t="str">
-        <f t="shared" ref="L92:L93" si="11">C92&amp;" "&amp;E92&amp;IF(E92="varchar2","("&amp;F92&amp;")","")&amp;IF(J92="",""," default "&amp;J92)&amp;IF(G92="",""," "&amp;G92)&amp;IF(H92="",""," unique")&amp;IF(I92="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N92" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="B93" s="73">
-        <v>2</v>
-      </c>
-      <c r="C93" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="D93" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" s="73">
-        <v>100</v>
-      </c>
-      <c r="G93" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="H93" s="73"/>
-      <c r="I93" s="73"/>
-      <c r="J93" s="73"/>
-      <c r="K93" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="L93" s="78" t="str">
-        <f t="shared" si="11"/>
-        <v>GOODSCODE varchar2(100) not null,</v>
-      </c>
-      <c r="N93" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="O93" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C93&amp;") references "&amp;K93</f>
-        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="B94" s="54">
-        <v>3</v>
-      </c>
-      <c r="C94" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D94" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E94" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F94" s="54">
-        <v>100</v>
-      </c>
-      <c r="G94" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H94" s="54"/>
-      <c r="I94" s="54"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="78" t="str">
-        <f>C94&amp;" "&amp;E94&amp;IF(E94="varchar2","("&amp;F94&amp;")","")&amp;IF(J94="",""," default "&amp;J94)&amp;IF(G94="",""," "&amp;G94)&amp;IF(H94="",""," unique")&amp;IF(I94="",""," primary key")</f>
-        <v>SAVENAME varchar2(100) not null</v>
-      </c>
-      <c r="N94" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="K95" s="108"/>
-      <c r="L95" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N95" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="78">
-        <v>11</v>
-      </c>
-      <c r="B96" s="178" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="178"/>
-      <c r="D96" s="177" t="s">
-        <v>414</v>
-      </c>
-      <c r="E96" s="177"/>
-      <c r="F96" s="113" t="s">
-        <v>286</v>
-      </c>
-      <c r="G96" s="177" t="s">
-        <v>389</v>
-      </c>
-      <c r="H96" s="177"/>
-      <c r="I96" s="177"/>
-      <c r="J96" s="177"/>
-      <c r="K96" s="177"/>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="B97" s="113" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="113" t="s">
-        <v>287</v>
-      </c>
-      <c r="D97" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="E97" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="F97" s="113" t="s">
-        <v>200</v>
-      </c>
-      <c r="G97" s="113" t="s">
-        <v>288</v>
-      </c>
-      <c r="H97" s="113" t="s">
-        <v>395</v>
-      </c>
-      <c r="I97" s="113" t="s">
-        <v>201</v>
-      </c>
-      <c r="J97" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="K97" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="L97" s="78" t="str">
-        <f>"create table "&amp;D96&amp;"("</f>
-        <v>create table GOODS_SALES(</v>
-      </c>
-      <c r="N97" s="78" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="B98" s="114">
-        <v>1</v>
-      </c>
-      <c r="C98" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="D98" s="53" t="str">
-        <f>"번호 ("&amp;D96&amp;"_SEQ.nextval)"</f>
-        <v>번호 (GOODS_SALES_SEQ.nextval)</v>
-      </c>
-      <c r="E98" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="F98" s="114"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="114"/>
-      <c r="I98" s="114" t="s">
-        <v>205</v>
-      </c>
-      <c r="J98" s="114"/>
-      <c r="K98" s="91"/>
-      <c r="L98" s="78" t="str">
-        <f t="shared" ref="L98:L101" si="12">C98&amp;" "&amp;E98&amp;IF(E98="varchar2","("&amp;F98&amp;")","")&amp;IF(J98="",""," default "&amp;J98)&amp;IF(G98="",""," "&amp;G98)&amp;IF(H98="",""," unique")&amp;IF(I98="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N98" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="B99" s="93">
-        <v>2</v>
-      </c>
-      <c r="C99" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="D99" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E99" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F99" s="93">
-        <v>100</v>
-      </c>
-      <c r="G99" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H99" s="93"/>
-      <c r="I99" s="93"/>
-      <c r="J99" s="93"/>
-      <c r="K99" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="L99" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>GOODSCODE varchar2(100) not null,</v>
-      </c>
-      <c r="N99" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="O99" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C99&amp;") references "&amp;K99</f>
-        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="B100" s="93">
-        <v>3</v>
-      </c>
-      <c r="C100" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" s="92" t="s">
-        <v>379</v>
-      </c>
-      <c r="E100" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F100" s="93">
-        <v>20</v>
-      </c>
-      <c r="G100" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H100" s="93"/>
-      <c r="I100" s="93"/>
-      <c r="J100" s="93"/>
-      <c r="K100" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="L100" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>NICKNAME varchar2(20) not null,</v>
-      </c>
-      <c r="N100" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="O100" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C100&amp;") references "&amp;K100</f>
-        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="B101" s="114">
-        <v>4</v>
-      </c>
-      <c r="C101" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="D101" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="E101" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="F101" s="117"/>
-      <c r="G101" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="104"/>
-      <c r="I101" s="117"/>
-      <c r="J101" s="117"/>
-      <c r="K101" s="109"/>
-      <c r="L101" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>SALES number not null,</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="B102" s="114">
-        <v>5</v>
-      </c>
-      <c r="C102" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="D102" s="91" t="s">
-        <v>381</v>
-      </c>
-      <c r="E102" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="F102" s="114"/>
-      <c r="G102" s="104"/>
-      <c r="H102" s="104"/>
-      <c r="I102" s="114"/>
-      <c r="J102" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="K102" s="91"/>
-      <c r="L102" s="78" t="str">
-        <f>C102&amp;" "&amp;E102&amp;IF(E102="varchar2","("&amp;F102&amp;")","")&amp;IF(J102="",""," default "&amp;J102)&amp;IF(G102="",""," "&amp;G102)&amp;IF(H102="",""," unique")&amp;IF(I102="",""," primary key")</f>
-        <v>ORDERDATE date default sysdate</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="L103" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N103" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="78">
-        <v>12</v>
-      </c>
-      <c r="B104" s="167" t="s">
-        <v>189</v>
-      </c>
-      <c r="C104" s="168"/>
-      <c r="D104" s="169" t="s">
-        <v>276</v>
-      </c>
-      <c r="E104" s="170"/>
-      <c r="F104" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G104" s="169" t="s">
-        <v>389</v>
-      </c>
-      <c r="H104" s="171"/>
-      <c r="I104" s="171"/>
-      <c r="J104" s="171"/>
-      <c r="K104" s="170"/>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="B105" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C105" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D105" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E105" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F105" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="G105" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H105" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I105" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="J105" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="K105" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="L105" s="78" t="str">
-        <f>"create table "&amp;D104&amp;"("</f>
-        <v>create table ASSATALK(</v>
-      </c>
-      <c r="N105" s="78" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="B106" s="54">
-        <v>1</v>
-      </c>
-      <c r="C106" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106" s="53" t="str">
-        <f>"번호 ("&amp;D104&amp;"_SEQ.nextval)"</f>
-        <v>번호 (ASSATALK_SEQ.nextval)</v>
-      </c>
-      <c r="E106" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J106" s="54"/>
-      <c r="K106" s="55"/>
-      <c r="L106" s="78" t="str">
-        <f t="shared" ref="L106:L109" si="13">C106&amp;" "&amp;E106&amp;IF(E106="varchar2","("&amp;F106&amp;")","")&amp;IF(J106="",""," default "&amp;J106)&amp;IF(G106="",""," "&amp;G106)&amp;IF(H106="",""," unique")&amp;IF(I106="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N106" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="B107" s="54">
-        <v>2</v>
-      </c>
-      <c r="C107" s="55" t="s">
+      <c r="C109" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D107" s="55" t="s">
+      <c r="D109" s="55" t="s">
         <v>167</v>
-      </c>
-      <c r="E107" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F107" s="54">
-        <v>20</v>
-      </c>
-      <c r="G107" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L107" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>SPEAKER varchar2(20) not null,</v>
-      </c>
-      <c r="N107" s="78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="B108" s="54">
-        <v>3</v>
-      </c>
-      <c r="C108" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D108" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="E108" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F108" s="54">
-        <v>20</v>
-      </c>
-      <c r="G108" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L108" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>LISTENER varchar2(20) not null,</v>
-      </c>
-      <c r="N108" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="B109" s="54">
-        <v>4</v>
-      </c>
-      <c r="C109" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D109" s="55" t="s">
-        <v>140</v>
       </c>
       <c r="E109" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F109" s="54">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G109" s="54" t="s">
         <v>139</v>
@@ -11417,424 +11414,422 @@
       <c r="H109" s="54"/>
       <c r="I109" s="54"/>
       <c r="J109" s="54"/>
-      <c r="K109" s="55"/>
+      <c r="K109" s="55" t="s">
+        <v>296</v>
+      </c>
       <c r="L109" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>CONTENT varchar2(200) not null,</v>
+        <f t="shared" si="11"/>
+        <v>SPEAKER varchar2(20) not null,</v>
       </c>
       <c r="N109" s="78" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B110" s="54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C110" s="55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F110" s="54"/>
-      <c r="G110" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F110" s="54">
+        <v>20</v>
+      </c>
+      <c r="G110" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H110" s="54"/>
       <c r="I110" s="54"/>
-      <c r="J110" s="54" t="s">
+      <c r="J110" s="54"/>
+      <c r="K110" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="L110" s="78" t="str">
+        <f t="shared" si="11"/>
+        <v>LISTENER varchar2(20) not null,</v>
+      </c>
+      <c r="N110" s="78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B111" s="54">
+        <v>4</v>
+      </c>
+      <c r="C111" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D111" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E111" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F111" s="54">
+        <v>200</v>
+      </c>
+      <c r="G111" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="55"/>
+      <c r="L111" s="78" t="str">
+        <f t="shared" si="11"/>
+        <v>CONTENT varchar2(200) not null,</v>
+      </c>
+      <c r="N111" s="78" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B112" s="54">
+        <v>5</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D112" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E112" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F112" s="54"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="K110" s="55"/>
-      <c r="L110" s="78" t="str">
-        <f>C110&amp;" "&amp;E110&amp;IF(E110="varchar2","("&amp;F110&amp;")","")&amp;IF(J110="",""," default "&amp;J110)&amp;IF(G110="",""," "&amp;G110)&amp;IF(H110="",""," unique")&amp;IF(I110="",""," primary key")</f>
+      <c r="K112" s="55"/>
+      <c r="L112" s="78" t="str">
+        <f>C112&amp;" "&amp;E112&amp;IF(E112="varchar2","("&amp;F112&amp;")","")&amp;IF(J112="",""," default "&amp;J112)&amp;IF(G112="",""," "&amp;G112)&amp;IF(H112="",""," unique")&amp;IF(I112="",""," primary key")</f>
         <v>SENDTIME timestamp default systimestamp</v>
       </c>
-      <c r="N110" s="78" t="s">
+      <c r="N112" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
-      <c r="L111" s="78" t="s">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L113" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N111" s="78" t="s">
+      <c r="N113" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="78">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A114" s="78">
         <v>13</v>
       </c>
-      <c r="B112" s="167" t="s">
+      <c r="B114" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C112" s="168"/>
-      <c r="D112" s="169" t="s">
-        <v>407</v>
-      </c>
-      <c r="E112" s="170"/>
-      <c r="F112" s="70" t="s">
+      <c r="C114" s="165"/>
+      <c r="D114" s="166" t="s">
+        <v>404</v>
+      </c>
+      <c r="E114" s="167"/>
+      <c r="F114" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G112" s="169" t="s">
+      <c r="G114" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H112" s="171"/>
-      <c r="I112" s="171"/>
-      <c r="J112" s="171"/>
-      <c r="K112" s="170"/>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="B113" s="70" t="s">
+      <c r="H114" s="168"/>
+      <c r="I114" s="168"/>
+      <c r="J114" s="168"/>
+      <c r="K114" s="167"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B115" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C113" s="70" t="s">
+      <c r="C115" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D113" s="70" t="s">
+      <c r="D115" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E113" s="70" t="s">
+      <c r="E115" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F113" s="70" t="s">
+      <c r="F115" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G113" s="70" t="s">
+      <c r="G115" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H113" s="70" t="s">
+      <c r="H115" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I113" s="70" t="s">
+      <c r="I115" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J113" s="70" t="s">
+      <c r="J115" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K113" s="70" t="s">
+      <c r="K115" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L113" s="78" t="str">
-        <f>"create table "&amp;D112&amp;"("</f>
+      <c r="L115" s="78" t="str">
+        <f>"create table "&amp;D114&amp;"("</f>
         <v>create table ASSATALK_KEYWORD(</v>
       </c>
-      <c r="N113" s="78" t="s">
+      <c r="N115" s="78" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
-      <c r="B114" s="54">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B116" s="54">
         <v>1</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C116" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D114" s="53" t="str">
-        <f>"번호 ("&amp;D112&amp;"_SEQ.nextval)"</f>
+      <c r="D116" s="53" t="str">
+        <f>"번호 ("&amp;D114&amp;"_SEQ.nextval)"</f>
         <v>번호 (ASSATALK_KEYWORD_SEQ.nextval)</v>
       </c>
-      <c r="E114" s="53" t="s">
+      <c r="E116" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F114" s="54"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54" t="s">
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J114" s="54"/>
-      <c r="K114" s="55"/>
-      <c r="L114" s="78" t="str">
-        <f t="shared" ref="L114:L116" si="14">C114&amp;" "&amp;E114&amp;IF(E114="varchar2","("&amp;F114&amp;")","")&amp;IF(J114="",""," default "&amp;J114)&amp;IF(G114="",""," "&amp;G114)&amp;IF(H114="",""," unique")&amp;IF(I114="",""," primary key")&amp;","</f>
+      <c r="J116" s="54"/>
+      <c r="K116" s="55"/>
+      <c r="L116" s="78" t="str">
+        <f t="shared" ref="L116:L118" si="12">C116&amp;" "&amp;E116&amp;IF(E116="varchar2","("&amp;F116&amp;")","")&amp;IF(J116="",""," default "&amp;J116)&amp;IF(G116="",""," "&amp;G116)&amp;IF(H116="",""," unique")&amp;IF(I116="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N114" s="78" t="s">
+      <c r="N116" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
-      <c r="B115" s="54">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B117" s="54">
         <v>2</v>
       </c>
-      <c r="C115" s="55" t="s">
-        <v>411</v>
-      </c>
-      <c r="D115" s="55" t="s">
+      <c r="C117" s="55" t="s">
         <v>408</v>
       </c>
-      <c r="E115" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="54">
-        <v>20</v>
-      </c>
-      <c r="G115" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H115" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="55"/>
-      <c r="L115" s="78" t="str">
-        <f t="shared" si="14"/>
-        <v>KEYWORD varchar2(20) not null unique,</v>
-      </c>
-      <c r="N115" s="78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="32">
-      <c r="B116" s="54">
-        <v>3</v>
-      </c>
-      <c r="C116" s="55" t="s">
-        <v>412</v>
-      </c>
-      <c r="D116" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="E116" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F116" s="54">
-        <v>20</v>
-      </c>
-      <c r="G116" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="L116" s="78" t="str">
-        <f t="shared" si="14"/>
-        <v>ANSWERTYPE varchar2(20) not null,</v>
-      </c>
-      <c r="N116" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="B117" s="54">
-        <v>5</v>
-      </c>
-      <c r="C117" s="55" t="s">
-        <v>122</v>
-      </c>
       <c r="D117" s="55" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E117" s="55" t="s">
         <v>4</v>
       </c>
       <c r="F117" s="54">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="G117" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H117" s="54"/>
+      <c r="H117" s="54" t="s">
+        <v>396</v>
+      </c>
       <c r="I117" s="54"/>
       <c r="J117" s="54"/>
       <c r="K117" s="55"/>
       <c r="L117" s="78" t="str">
-        <f>C117&amp;" "&amp;E117&amp;IF(E117="varchar2","("&amp;F117&amp;")","")&amp;IF(J117="",""," default "&amp;J117)&amp;IF(G117="",""," "&amp;G117)&amp;IF(H117="",""," unique")&amp;IF(I117="",""," primary key")</f>
+        <f t="shared" si="12"/>
+        <v>KEYWORD varchar2(20) not null unique,</v>
+      </c>
+      <c r="N117" s="78" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B118" s="54">
+        <v>3</v>
+      </c>
+      <c r="C118" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="D118" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="E118" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="54">
+        <v>20</v>
+      </c>
+      <c r="G118" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="L118" s="78" t="str">
+        <f t="shared" si="12"/>
+        <v>ANSWERTYPE varchar2(20) not null,</v>
+      </c>
+      <c r="N118" s="78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B119" s="54">
+        <v>5</v>
+      </c>
+      <c r="C119" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="E119" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G119" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="55"/>
+      <c r="L119" s="78" t="str">
+        <f>C119&amp;" "&amp;E119&amp;IF(E119="varchar2","("&amp;F119&amp;")","")&amp;IF(J119="",""," default "&amp;J119)&amp;IF(G119="",""," "&amp;G119)&amp;IF(H119="",""," unique")&amp;IF(I119="",""," primary key")</f>
         <v>ANSWER varchar2(4000) not null</v>
       </c>
-      <c r="N117" s="78" t="s">
+      <c r="N119" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
-      <c r="L118" s="78" t="s">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L120" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N118" s="78" t="s">
+      <c r="N120" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
-      <c r="A119" s="78">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A121" s="78">
         <v>14</v>
       </c>
-      <c r="B119" s="176" t="s">
+      <c r="B121" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="C119" s="176"/>
-      <c r="D119" s="177" t="s">
+      <c r="C121" s="173"/>
+      <c r="D121" s="174" t="s">
         <v>257</v>
       </c>
-      <c r="E119" s="177"/>
-      <c r="F119" s="115" t="s">
+      <c r="E121" s="174"/>
+      <c r="F121" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G119" s="177" t="s">
+      <c r="G121" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="H119" s="177"/>
-      <c r="I119" s="177"/>
-      <c r="J119" s="177"/>
-      <c r="K119" s="177"/>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="B120" s="115" t="s">
+      <c r="H121" s="174"/>
+      <c r="I121" s="174"/>
+      <c r="J121" s="174"/>
+      <c r="K121" s="174"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B122" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C120" s="115" t="s">
+      <c r="C122" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D120" s="115" t="s">
+      <c r="D122" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E120" s="115" t="s">
+      <c r="E122" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F120" s="115" t="s">
+      <c r="F122" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G120" s="115" t="s">
+      <c r="G122" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H120" s="70" t="s">
+      <c r="H122" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I120" s="115" t="s">
+      <c r="I122" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J120" s="115" t="s">
+      <c r="J122" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K120" s="115" t="s">
+      <c r="K122" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L120" s="78" t="str">
-        <f>"create table "&amp;D119&amp;"("</f>
+      <c r="L122" s="78" t="str">
+        <f>"create table "&amp;D121&amp;"("</f>
         <v>create table QUESTION(</v>
       </c>
-      <c r="N120" s="78" t="s">
+      <c r="N122" s="78" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
-      <c r="B121" s="114">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B123" s="114">
         <v>1</v>
       </c>
-      <c r="C121" s="90" t="s">
+      <c r="C123" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D121" s="53" t="str">
-        <f>"번호 ("&amp;D119&amp;"_SEQ.nextval)"</f>
+      <c r="D123" s="53" t="str">
+        <f>"번호 ("&amp;D121&amp;"_SEQ.nextval)"</f>
         <v>번호 (QUESTION_SEQ.nextval)</v>
       </c>
-      <c r="E121" s="90" t="s">
+      <c r="E123" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F121" s="114"/>
-      <c r="G121" s="114"/>
-      <c r="H121" s="114"/>
-      <c r="I121" s="114" t="s">
+      <c r="F123" s="114"/>
+      <c r="G123" s="114"/>
+      <c r="H123" s="114"/>
+      <c r="I123" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J121" s="114"/>
-      <c r="K121" s="91"/>
-      <c r="L121" s="78" t="str">
-        <f t="shared" ref="L121:L127" si="15">C121&amp;" "&amp;E121&amp;IF(E121="varchar2","("&amp;F121&amp;")","")&amp;IF(J121="",""," default "&amp;J121)&amp;IF(G121="",""," "&amp;G121)&amp;IF(H121="",""," unique")&amp;IF(I121="",""," primary key")&amp;","</f>
+      <c r="J123" s="114"/>
+      <c r="K123" s="91"/>
+      <c r="L123" s="78" t="str">
+        <f t="shared" ref="L123:L129" si="13">C123&amp;" "&amp;E123&amp;IF(E123="varchar2","("&amp;F123&amp;")","")&amp;IF(J123="",""," default "&amp;J123)&amp;IF(G123="",""," "&amp;G123)&amp;IF(H123="",""," unique")&amp;IF(I123="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N121" s="78" t="s">
+      <c r="N123" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
-      <c r="B122" s="114">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B124" s="114">
         <v>2</v>
       </c>
-      <c r="C122" s="91" t="s">
+      <c r="C124" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="D122" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="E122" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F122" s="114">
-        <v>20</v>
-      </c>
-      <c r="G122" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H122" s="114"/>
-      <c r="I122" s="114"/>
-      <c r="J122" s="114"/>
-      <c r="K122" s="91"/>
-      <c r="L122" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>ASKTYPE varchar2(20) not null,</v>
-      </c>
-      <c r="N122" s="78" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="B123" s="114">
-        <v>3</v>
-      </c>
-      <c r="C123" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="D123" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="E123" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="F123" s="95">
-        <v>20</v>
-      </c>
-      <c r="G123" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="H123" s="95"/>
-      <c r="I123" s="95"/>
-      <c r="J123" s="95"/>
-      <c r="K123" s="94" t="s">
-        <v>388</v>
-      </c>
-      <c r="L123" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>NICKNAME varchar2(20) not null,</v>
-      </c>
-      <c r="N123" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="O123" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C123&amp;") references "&amp;K123</f>
-        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="B124" s="114">
-        <v>4</v>
-      </c>
-      <c r="C124" s="91" t="s">
-        <v>232</v>
-      </c>
       <c r="D124" s="91" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="E124" s="91" t="s">
         <v>135</v>
       </c>
       <c r="F124" s="114">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G124" s="114" t="s">
         <v>139</v>
@@ -11844,443 +11839,511 @@
       <c r="J124" s="114"/>
       <c r="K124" s="91"/>
       <c r="L124" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>TITLE varchar2(50) not null,</v>
+        <f t="shared" si="13"/>
+        <v>ASKTYPE varchar2(20) not null,</v>
       </c>
       <c r="N124" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B125" s="114">
-        <v>5</v>
-      </c>
-      <c r="C125" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="D125" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="E125" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="D125" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="E125" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F125" s="114">
-        <v>4000</v>
-      </c>
-      <c r="G125" s="114" t="s">
+      <c r="F125" s="95">
+        <v>20</v>
+      </c>
+      <c r="G125" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="H125" s="114"/>
-      <c r="I125" s="114"/>
-      <c r="J125" s="114"/>
-      <c r="K125" s="91"/>
+      <c r="H125" s="95"/>
+      <c r="I125" s="95"/>
+      <c r="J125" s="95"/>
+      <c r="K125" s="94" t="s">
+        <v>388</v>
+      </c>
       <c r="L125" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>CONTENT varchar2(4000) not null,</v>
+        <f t="shared" si="13"/>
+        <v>NICKNAME varchar2(20) not null,</v>
       </c>
       <c r="N125" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="32">
+        <v>303</v>
+      </c>
+      <c r="O125" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C125&amp;") references "&amp;K125</f>
+        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B126" s="114">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C126" s="91" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D126" s="91" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="E126" s="91" t="s">
         <v>135</v>
       </c>
       <c r="F126" s="114">
-        <v>4000</v>
-      </c>
-      <c r="G126" s="114"/>
+        <v>50</v>
+      </c>
+      <c r="G126" s="114" t="s">
+        <v>139</v>
+      </c>
       <c r="H126" s="114"/>
       <c r="I126" s="114"/>
       <c r="J126" s="114"/>
-      <c r="K126" s="91" t="s">
-        <v>365</v>
-      </c>
+      <c r="K126" s="91"/>
       <c r="L126" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>ANSWER varchar2(4000),</v>
+        <f t="shared" si="13"/>
+        <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N126" s="78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B127" s="114">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" s="91" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="D127" s="91" t="s">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="E127" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F127" s="114"/>
-      <c r="G127" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="F127" s="114">
+        <v>4000</v>
+      </c>
+      <c r="G127" s="114" t="s">
+        <v>139</v>
+      </c>
       <c r="H127" s="114"/>
       <c r="I127" s="114"/>
-      <c r="J127" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="K127" s="91" t="s">
-        <v>266</v>
-      </c>
+      <c r="J127" s="114"/>
+      <c r="K127" s="91"/>
       <c r="L127" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>ASKDATE date default sysdate,</v>
+        <f t="shared" si="13"/>
+        <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N127" s="78" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="32" x14ac:dyDescent="0.45">
       <c r="B128" s="114">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" s="91" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D128" s="91" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E128" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F128" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="F128" s="114">
+        <v>4000</v>
+      </c>
       <c r="G128" s="114"/>
       <c r="H128" s="114"/>
       <c r="I128" s="114"/>
       <c r="J128" s="114"/>
       <c r="K128" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="L128" s="78" t="str">
+        <f t="shared" si="13"/>
+        <v>ANSWER varchar2(4000),</v>
+      </c>
+      <c r="N128" s="78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B129" s="114">
+        <v>7</v>
+      </c>
+      <c r="C129" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="D129" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="E129" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F129" s="114"/>
+      <c r="G129" s="114"/>
+      <c r="H129" s="114"/>
+      <c r="I129" s="114"/>
+      <c r="J129" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="K129" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="L129" s="78" t="str">
+        <f t="shared" si="13"/>
+        <v>ASKDATE date default sysdate,</v>
+      </c>
+      <c r="N129" s="78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B130" s="114">
+        <v>8</v>
+      </c>
+      <c r="C130" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D130" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E130" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F130" s="114"/>
+      <c r="G130" s="114"/>
+      <c r="H130" s="114"/>
+      <c r="I130" s="114"/>
+      <c r="J130" s="114"/>
+      <c r="K130" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="L128" s="78" t="str">
-        <f>C128&amp;" "&amp;E128&amp;IF(E128="varchar2","("&amp;F128&amp;")","")&amp;IF(J128="",""," default "&amp;J128)&amp;IF(G128="",""," "&amp;G128)&amp;IF(H128="",""," unique")&amp;IF(I128="",""," primary key")</f>
+      <c r="L130" s="78" t="str">
+        <f>C130&amp;" "&amp;E130&amp;IF(E130="varchar2","("&amp;F130&amp;")","")&amp;IF(J130="",""," default "&amp;J130)&amp;IF(G130="",""," "&amp;G130)&amp;IF(H130="",""," unique")&amp;IF(I130="",""," primary key")</f>
         <v>ANSWERDATE date</v>
       </c>
-      <c r="N128" s="78" t="s">
+      <c r="N130" s="78" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
-      <c r="L129" s="78" t="s">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L131" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N129" s="78" t="s">
+      <c r="N131" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
-      <c r="A130" s="78">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A132" s="78">
         <v>15</v>
       </c>
-      <c r="B130" s="167" t="s">
+      <c r="B132" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C130" s="168"/>
-      <c r="D130" s="169" t="s">
+      <c r="C132" s="165"/>
+      <c r="D132" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="E130" s="170"/>
-      <c r="F130" s="70" t="s">
+      <c r="E132" s="167"/>
+      <c r="F132" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G130" s="169" t="s">
+      <c r="G132" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H130" s="171"/>
-      <c r="I130" s="171"/>
-      <c r="J130" s="171"/>
-      <c r="K130" s="170"/>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="B131" s="70" t="s">
+      <c r="H132" s="168"/>
+      <c r="I132" s="168"/>
+      <c r="J132" s="168"/>
+      <c r="K132" s="167"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B133" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C131" s="70" t="s">
+      <c r="C133" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D131" s="70" t="s">
+      <c r="D133" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E131" s="70" t="s">
+      <c r="E133" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F131" s="70" t="s">
+      <c r="F133" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G131" s="70" t="s">
+      <c r="G133" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H131" s="70" t="s">
+      <c r="H133" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I131" s="70" t="s">
+      <c r="I133" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J131" s="70" t="s">
+      <c r="J133" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K131" s="70" t="s">
+      <c r="K133" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L131" s="78" t="str">
-        <f>"create table "&amp;D130&amp;"("</f>
+      <c r="L133" s="78" t="str">
+        <f>"create table "&amp;D132&amp;"("</f>
         <v>create table WARNING(</v>
       </c>
-      <c r="N131" s="78" t="s">
+      <c r="N133" s="78" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
-      <c r="B132" s="54">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B134" s="54">
         <v>1</v>
       </c>
-      <c r="C132" s="53" t="s">
+      <c r="C134" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D132" s="53" t="str">
-        <f>"번호 ("&amp;D130&amp;"_SEQ.nextval)"</f>
+      <c r="D134" s="53" t="str">
+        <f>"번호 ("&amp;D132&amp;"_SEQ.nextval)"</f>
         <v>번호 (WARNING_SEQ.nextval)</v>
       </c>
-      <c r="E132" s="53" t="s">
+      <c r="E134" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54" t="s">
+      <c r="F134" s="54"/>
+      <c r="G134" s="54"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J132" s="54"/>
-      <c r="K132" s="55"/>
-      <c r="L132" s="78" t="str">
-        <f t="shared" ref="L132:L136" si="16">C132&amp;" "&amp;E132&amp;IF(E132="varchar2","("&amp;F132&amp;")","")&amp;IF(J132="",""," default "&amp;J132)&amp;IF(G132="",""," "&amp;G132)&amp;IF(H132="",""," unique")&amp;IF(I132="",""," primary key")&amp;","</f>
+      <c r="J134" s="54"/>
+      <c r="K134" s="55"/>
+      <c r="L134" s="78" t="str">
+        <f t="shared" ref="L134:L138" si="14">C134&amp;" "&amp;E134&amp;IF(E134="varchar2","("&amp;F134&amp;")","")&amp;IF(J134="",""," default "&amp;J134)&amp;IF(G134="",""," "&amp;G134)&amp;IF(H134="",""," unique")&amp;IF(I134="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N132" s="78" t="s">
+      <c r="N134" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
-      <c r="B133" s="54">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B135" s="54">
         <v>2</v>
       </c>
-      <c r="C133" s="82" t="s">
+      <c r="C135" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D133" s="82" t="s">
+      <c r="D135" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="E133" s="82" t="s">
+      <c r="E135" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F133" s="83">
+      <c r="F135" s="83">
         <v>20</v>
       </c>
-      <c r="G133" s="83" t="s">
+      <c r="G135" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H133" s="83"/>
-      <c r="I133" s="83"/>
-      <c r="J133" s="83"/>
-      <c r="K133" s="85" t="s">
+      <c r="H135" s="83"/>
+      <c r="I135" s="83"/>
+      <c r="J135" s="83"/>
+      <c r="K135" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="L133" s="78" t="str">
-        <f t="shared" si="16"/>
+      <c r="L135" s="78" t="str">
+        <f t="shared" si="14"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N133" s="78" t="s">
+      <c r="N135" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="O133" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C133&amp;") references "&amp;K133</f>
+      <c r="O135" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C135&amp;") references "&amp;K135</f>
         <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
-      <c r="B134" s="110">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B136" s="110">
         <v>3</v>
       </c>
-      <c r="C134" s="85" t="s">
+      <c r="C136" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="D134" s="85" t="s">
+      <c r="D136" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="E134" s="85" t="s">
+      <c r="E136" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="F134" s="84"/>
-      <c r="G134" s="84" t="s">
+      <c r="F136" s="84"/>
+      <c r="G136" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="H134" s="84"/>
-      <c r="I134" s="84"/>
-      <c r="J134" s="84"/>
-      <c r="K134" s="85" t="s">
+      <c r="H136" s="84"/>
+      <c r="I136" s="84"/>
+      <c r="J136" s="84"/>
+      <c r="K136" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="L134" s="78" t="str">
-        <f t="shared" si="16"/>
+      <c r="L136" s="78" t="str">
+        <f t="shared" si="14"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N134" s="78" t="s">
+      <c r="N136" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O134" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C134&amp;") references "&amp;K134</f>
+      <c r="O136" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C136&amp;") references "&amp;K136</f>
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
-      <c r="B135" s="54">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B137" s="54">
         <v>4</v>
       </c>
-      <c r="C135" s="55" t="s">
+      <c r="C137" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D135" s="55" t="s">
+      <c r="D137" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="E135" s="55" t="s">
+      <c r="E137" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F135" s="54">
+      <c r="F137" s="54">
         <v>30</v>
       </c>
-      <c r="G135" s="54"/>
-      <c r="H135" s="54"/>
-      <c r="I135" s="54"/>
-      <c r="J135" s="54"/>
-      <c r="K135" s="55"/>
-      <c r="L135" s="78" t="str">
-        <f t="shared" si="16"/>
-        <v>WARNTYPE varchar2(30),</v>
-      </c>
-      <c r="N135" s="78" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="B136" s="54">
-        <v>5</v>
-      </c>
-      <c r="C136" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D136" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="E136" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F136" s="54">
-        <v>300</v>
-      </c>
-      <c r="G136" s="54"/>
-      <c r="H136" s="54"/>
-      <c r="I136" s="54"/>
-      <c r="J136" s="54"/>
-      <c r="K136" s="55"/>
-      <c r="L136" s="78" t="str">
-        <f t="shared" si="16"/>
-        <v>WARNWHY varchar2(300),</v>
-      </c>
-      <c r="N136" s="78" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="B137" s="54">
-        <v>6</v>
-      </c>
-      <c r="C137" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D137" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="E137" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F137" s="54"/>
       <c r="G137" s="54"/>
       <c r="H137" s="54"/>
       <c r="I137" s="54"/>
-      <c r="J137" s="54" t="s">
-        <v>157</v>
-      </c>
+      <c r="J137" s="54"/>
       <c r="K137" s="55"/>
       <c r="L137" s="78" t="str">
-        <f>C137&amp;" "&amp;E137&amp;IF(E137="varchar2","("&amp;F137&amp;")","")&amp;IF(J137="",""," default "&amp;J137)&amp;IF(G137="",""," "&amp;G137)&amp;IF(H137="",""," unique")&amp;IF(I137="",""," primary key")</f>
+        <f t="shared" si="14"/>
+        <v>WARNTYPE varchar2(30),</v>
+      </c>
+      <c r="N137" s="78" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B138" s="54">
+        <v>5</v>
+      </c>
+      <c r="C138" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D138" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="E138" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F138" s="54">
+        <v>300</v>
+      </c>
+      <c r="G138" s="54"/>
+      <c r="H138" s="54"/>
+      <c r="I138" s="54"/>
+      <c r="J138" s="54"/>
+      <c r="K138" s="55"/>
+      <c r="L138" s="78" t="str">
+        <f t="shared" si="14"/>
+        <v>WARNWHY varchar2(300),</v>
+      </c>
+      <c r="N138" s="78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B139" s="54">
+        <v>6</v>
+      </c>
+      <c r="C139" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D139" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F139" s="54"/>
+      <c r="G139" s="54"/>
+      <c r="H139" s="54"/>
+      <c r="I139" s="54"/>
+      <c r="J139" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K139" s="55"/>
+      <c r="L139" s="78" t="str">
+        <f>C139&amp;" "&amp;E139&amp;IF(E139="varchar2","("&amp;F139&amp;")","")&amp;IF(J139="",""," default "&amp;J139)&amp;IF(G139="",""," "&amp;G139)&amp;IF(H139="",""," unique")&amp;IF(I139="",""," primary key")</f>
         <v>WARNTIME date default sysdate</v>
       </c>
-      <c r="N137" s="78" t="s">
+      <c r="N139" s="78" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
-      <c r="L138" s="78" t="s">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L140" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N138" s="78" t="s">
+      <c r="N140" s="78" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="G130:K130"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="G132:K132"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:K56"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:K4"/>
@@ -12310,7 +12373,7 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
@@ -12320,19 +12383,19 @@
     <col min="6" max="6" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" hidden="1">
+    <row r="1" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="str">
-        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>MEMBER</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -12341,11 +12404,11 @@
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
-        <v>MEMBER_PLUS</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1">
+        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <v>MEMBER_AUTO</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>377</v>
       </c>
@@ -12354,136 +12417,136 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>MEMBER_ADDR</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>POINT</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>BOARD</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>BOARD_REF</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>BOARD_IMAGE</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>BOARD_TERM</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>GOODS</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>GOODS_IMAGE</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>GOODS_SALES</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>ASSATALK</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>ASSATALK_KEYWORD</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>QUESTION</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>WARNING</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1"/>
-    <row r="17" spans="2:3" hidden="1"/>
-    <row r="18" spans="2:3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>1</v>
       </c>
@@ -12492,53 +12555,53 @@
         <v>create sequence MEMBER_SEQ</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="str">
         <f>$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="str">
         <f>$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="str">
         <f>$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22">
         <f>B18+1</f>
         <v>2</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ref="C22" si="1">$A$1&amp;VLOOKUP(B22,$B$1:$C$15,2,FALSE)&amp;"_SEQ"</f>
-        <v>create sequence MEMBER_PLUS_SEQ</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
+        <v>create sequence MEMBER_AUTO_SEQ</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C23" t="str">
         <f t="shared" ref="C23" si="2">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C24" t="str">
         <f t="shared" ref="C24" si="3">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="str">
         <f t="shared" ref="C25" si="4">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26">
         <f t="shared" ref="B26" si="5">B22+1</f>
         <v>3</v>
@@ -12548,25 +12611,25 @@
         <v>create sequence MEMBER_ADDR_SEQ</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="str">
         <f t="shared" ref="C27" si="7">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C28" t="str">
         <f t="shared" ref="C28" si="8">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C29" t="str">
         <f t="shared" ref="C29" si="9">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30">
         <f t="shared" ref="B30" si="10">B26+1</f>
         <v>4</v>
@@ -12576,25 +12639,25 @@
         <v>create sequence POINT_SEQ</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C31" t="str">
         <f t="shared" ref="C31" si="12">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C32" t="str">
         <f t="shared" ref="C32" si="13">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C33" t="str">
         <f t="shared" ref="C33" si="14">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34">
         <f t="shared" ref="B34" si="15">B30+1</f>
         <v>5</v>
@@ -12604,25 +12667,25 @@
         <v>create sequence BOARD_SEQ</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C35" t="str">
         <f t="shared" ref="C35" si="17">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C36" t="str">
         <f t="shared" ref="C36" si="18">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C37" t="str">
         <f t="shared" ref="C37" si="19">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38">
         <f t="shared" ref="B38" si="20">B34+1</f>
         <v>6</v>
@@ -12632,25 +12695,25 @@
         <v>create sequence BOARD_REF_SEQ</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C39" t="str">
         <f t="shared" ref="C39" si="22">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C40" t="str">
         <f t="shared" ref="C40" si="23">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C41" t="str">
         <f t="shared" ref="C41" si="24">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42">
         <f t="shared" ref="B42" si="25">B38+1</f>
         <v>7</v>
@@ -12660,25 +12723,25 @@
         <v>create sequence BOARD_IMAGE_SEQ</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C43" t="str">
         <f t="shared" ref="C43" si="27">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C44" t="str">
         <f t="shared" ref="C44" si="28">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C45" t="str">
         <f t="shared" ref="C45" si="29">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B46">
         <f t="shared" ref="B46" si="30">B42+1</f>
         <v>8</v>
@@ -12688,25 +12751,25 @@
         <v>create sequence BOARD_TERM_SEQ</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C47" t="str">
         <f t="shared" ref="C47" si="32">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C48" t="str">
         <f t="shared" ref="C48" si="33">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C49" t="str">
         <f t="shared" ref="C49" si="34">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B50">
         <f t="shared" ref="B50" si="35">B46+1</f>
         <v>9</v>
@@ -12716,25 +12779,25 @@
         <v>create sequence GOODS_SEQ</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C51" t="str">
         <f t="shared" ref="C51" si="37">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C52" t="str">
         <f t="shared" ref="C52" si="38">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C53" t="str">
         <f t="shared" ref="C53" si="39">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54">
         <f t="shared" ref="B54" si="40">B50+1</f>
         <v>10</v>
@@ -12744,25 +12807,25 @@
         <v>create sequence GOODS_IMAGE_SEQ</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C55" t="str">
         <f t="shared" ref="C55" si="42">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C56" t="str">
         <f t="shared" ref="C56" si="43">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C57" t="str">
         <f t="shared" ref="C57" si="44">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B58">
         <f t="shared" ref="B58:B74" si="45">B54+1</f>
         <v>11</v>
@@ -12772,25 +12835,25 @@
         <v>create sequence GOODS_SALES_SEQ</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C59" t="str">
         <f t="shared" ref="C59" si="47">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C60" t="str">
         <f t="shared" ref="C60" si="48">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C61" t="str">
         <f t="shared" ref="C61" si="49">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B62">
         <f t="shared" si="45"/>
         <v>12</v>
@@ -12800,25 +12863,25 @@
         <v>create sequence ASSATALK_SEQ</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C63" t="str">
         <f t="shared" ref="C63" si="51">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C64" t="str">
         <f t="shared" ref="C64" si="52">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C65" t="str">
         <f t="shared" ref="C65" si="53">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B66">
         <f t="shared" si="45"/>
         <v>13</v>
@@ -12828,25 +12891,25 @@
         <v>create sequence ASSATALK_KEYWORD_SEQ</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C67" t="str">
         <f t="shared" ref="C67" si="55">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C68" t="str">
         <f t="shared" ref="C68" si="56">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C69" t="str">
         <f t="shared" ref="C69" si="57">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B70">
         <f t="shared" si="45"/>
         <v>14</v>
@@ -12856,25 +12919,25 @@
         <v>create sequence QUESTION_SEQ</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C71" t="str">
         <f t="shared" ref="C71" si="59">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C72" t="str">
         <f t="shared" ref="C72" si="60">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C73" t="str">
         <f t="shared" ref="C73" si="61">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B74">
         <f t="shared" si="45"/>
         <v>15</v>
@@ -12884,19 +12947,19 @@
         <v>create sequence WARNING_SEQ</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C75" t="str">
         <f t="shared" ref="C75" si="63">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C76" t="str">
         <f t="shared" ref="C76" si="64">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C77" t="str">
         <f t="shared" ref="C77" si="65">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>

--- a/설계/테이블설계/1. 테이블정의서.xlsx
+++ b/설계/테이블설계/1. 테이블정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\테이블설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544D95E4-8FD9-4B7F-9B21-DBA2658F58D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E90889C-CB0E-4331-89CC-8F755129EFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="211005" sheetId="6" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="441">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1539,11 +1537,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PRICE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상품금액</t>
+    <t>REGDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1551,7 +1561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2266,7 +2276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2639,6 +2649,90 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2660,77 +2754,41 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2758,51 +2816,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="7" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3128,19 +3141,19 @@
       <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="59.75" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="59.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -3156,7 +3169,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1">
       <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
@@ -3182,11 +3195,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="134" t="s">
+    <row r="3" spans="1:8" s="4" customFormat="1">
+      <c r="A3" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="128" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3206,9 +3219,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="135"/>
-      <c r="B4" s="132"/>
+    <row r="4" spans="1:8" s="19" customFormat="1">
+      <c r="A4" s="132"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="17" t="s">
         <v>32</v>
       </c>
@@ -3224,9 +3237,9 @@
       <c r="G4" s="18"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="135"/>
-      <c r="B5" s="132"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="132"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
@@ -3244,9 +3257,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="135"/>
-      <c r="B6" s="132"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="132"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
@@ -3262,9 +3275,9 @@
       <c r="G6" s="11"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="135"/>
-      <c r="B7" s="132"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="132"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
@@ -3280,9 +3293,9 @@
       <c r="G7" s="11"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="135"/>
-      <c r="B8" s="132"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="132"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
@@ -3298,9 +3311,9 @@
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="135"/>
-      <c r="B9" s="132"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="132"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3316,9 +3329,9 @@
       <c r="G9" s="11"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="135"/>
-      <c r="B10" s="132"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="132"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3334,9 +3347,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="38"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="135"/>
-      <c r="B11" s="132"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="132"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
@@ -3352,9 +3365,9 @@
       <c r="G11" s="11"/>
       <c r="H11" s="38"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="135"/>
-      <c r="B12" s="132"/>
+    <row r="12" spans="1:8" s="3" customFormat="1">
+      <c r="A12" s="132"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
@@ -3370,9 +3383,9 @@
       </c>
       <c r="H12" s="38"/>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="136"/>
-      <c r="B13" s="133"/>
+    <row r="13" spans="1:8" s="3" customFormat="1">
+      <c r="A13" s="133"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="58" t="s">
         <v>163</v>
       </c>
@@ -3388,11 +3401,11 @@
       </c>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="137" t="s">
+    <row r="14" spans="1:8" s="4" customFormat="1">
+      <c r="A14" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="136" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3415,9 +3428,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="137"/>
-      <c r="B15" s="139"/>
+    <row r="15" spans="1:8" s="3" customFormat="1">
+      <c r="A15" s="134"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
@@ -3435,9 +3448,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="148"/>
-      <c r="B16" s="139"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="145"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
@@ -3451,9 +3464,9 @@
       <c r="G16" s="9"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="148"/>
-      <c r="B17" s="139"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="145"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="8" t="s">
         <v>41</v>
       </c>
@@ -3467,9 +3480,9 @@
       <c r="G17" s="9"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="148"/>
-      <c r="B18" s="139"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="145"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
@@ -3483,9 +3496,9 @@
       <c r="G18" s="9"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="148"/>
-      <c r="B19" s="139"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="145"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
@@ -3499,9 +3512,9 @@
       <c r="G19" s="9"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="148"/>
-      <c r="B20" s="139"/>
+    <row r="20" spans="1:8" s="3" customFormat="1">
+      <c r="A20" s="145"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="8" t="s">
         <v>44</v>
       </c>
@@ -3521,9 +3534,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="A21" s="148"/>
-      <c r="B21" s="139"/>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="34.799999999999997">
+      <c r="A21" s="145"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
@@ -3541,9 +3554,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="149"/>
-      <c r="B22" s="147"/>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="18" thickBot="1">
+      <c r="A22" s="146"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
@@ -3563,11 +3576,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="152" t="s">
+    <row r="23" spans="1:8" s="4" customFormat="1">
+      <c r="A23" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="147" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -3587,9 +3600,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="153"/>
-      <c r="B24" s="151"/>
+    <row r="24" spans="1:8" s="3" customFormat="1">
+      <c r="A24" s="150"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="10" t="s">
         <v>65</v>
       </c>
@@ -3607,9 +3620,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="153"/>
-      <c r="B25" s="151"/>
+    <row r="25" spans="1:8" s="21" customFormat="1">
+      <c r="A25" s="150"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="22" t="s">
         <v>81</v>
       </c>
@@ -3629,9 +3642,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="153"/>
-      <c r="B26" s="151"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="150"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="10" t="s">
         <v>67</v>
       </c>
@@ -3647,9 +3660,9 @@
       <c r="G26" s="11"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="153"/>
-      <c r="B27" s="151"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="150"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
@@ -3665,9 +3678,9 @@
       <c r="G27" s="11"/>
       <c r="H27" s="38"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="153"/>
-      <c r="B28" s="151"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="150"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -3683,9 +3696,9 @@
       </c>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="153"/>
-      <c r="B29" s="151"/>
+    <row r="29" spans="1:8">
+      <c r="A29" s="150"/>
+      <c r="B29" s="148"/>
       <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
@@ -3701,9 +3714,9 @@
       </c>
       <c r="H29" s="38"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="153"/>
-      <c r="B30" s="151"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="150"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="10" t="s">
         <v>68</v>
       </c>
@@ -3719,9 +3732,9 @@
       </c>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="153"/>
-      <c r="B31" s="151"/>
+    <row r="31" spans="1:8" s="4" customFormat="1">
+      <c r="A31" s="150"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
@@ -3737,11 +3750,11 @@
       </c>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="148" t="s">
+    <row r="32" spans="1:8" s="4" customFormat="1">
+      <c r="A32" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="139" t="s">
+      <c r="B32" s="136" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3763,9 +3776,9 @@
         <v>nextval</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="148"/>
-      <c r="B33" s="139"/>
+    <row r="33" spans="1:8" s="21" customFormat="1">
+      <c r="A33" s="145"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="20" t="s">
         <v>73</v>
       </c>
@@ -3784,9 +3797,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="148"/>
-      <c r="B34" s="139"/>
+    <row r="34" spans="1:8" s="21" customFormat="1">
+      <c r="A34" s="145"/>
+      <c r="B34" s="136"/>
       <c r="C34" s="20" t="s">
         <v>81</v>
       </c>
@@ -3806,9 +3819,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="148"/>
-      <c r="B35" s="139"/>
+    <row r="35" spans="1:8">
+      <c r="A35" s="145"/>
+      <c r="B35" s="136"/>
       <c r="C35" s="8" t="s">
         <v>5</v>
       </c>
@@ -3824,9 +3837,9 @@
       <c r="G35" s="9"/>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="148"/>
-      <c r="B36" s="139"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="145"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
@@ -3842,9 +3855,9 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="148"/>
-      <c r="B37" s="139"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="145"/>
+      <c r="B37" s="136"/>
       <c r="C37" s="8" t="s">
         <v>44</v>
       </c>
@@ -3860,9 +3873,9 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="148"/>
-      <c r="B38" s="139"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="145"/>
+      <c r="B38" s="136"/>
       <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
@@ -3878,9 +3891,9 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="148"/>
-      <c r="B39" s="139"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="145"/>
+      <c r="B39" s="136"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -3896,11 +3909,11 @@
       <c r="G39" s="9"/>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="154" t="s">
+    <row r="40" spans="1:8" s="4" customFormat="1">
+      <c r="A40" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="151" t="s">
+      <c r="B40" s="148" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -3918,9 +3931,9 @@
       <c r="G40" s="14"/>
       <c r="H40" s="46"/>
     </row>
-    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="154"/>
-      <c r="B41" s="151"/>
+    <row r="41" spans="1:8" s="21" customFormat="1">
+      <c r="A41" s="151"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="24" t="s">
         <v>73</v>
       </c>
@@ -3939,9 +3952,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="154"/>
-      <c r="B42" s="151"/>
+    <row r="42" spans="1:8">
+      <c r="A42" s="151"/>
+      <c r="B42" s="148"/>
       <c r="C42" s="10" t="s">
         <v>77</v>
       </c>
@@ -3957,9 +3970,9 @@
       <c r="G42" s="11"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="154"/>
-      <c r="B43" s="151"/>
+    <row r="43" spans="1:8">
+      <c r="A43" s="151"/>
+      <c r="B43" s="148"/>
       <c r="C43" s="10" t="s">
         <v>78</v>
       </c>
@@ -3975,9 +3988,9 @@
       <c r="G43" s="11"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="154"/>
-      <c r="B44" s="151"/>
+    <row r="44" spans="1:8">
+      <c r="A44" s="151"/>
+      <c r="B44" s="148"/>
       <c r="C44" s="10" t="s">
         <v>79</v>
       </c>
@@ -3993,11 +4006,11 @@
       <c r="G44" s="11"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="137" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="139" t="s">
+      <c r="B45" s="136" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -4017,9 +4030,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="137"/>
-      <c r="B46" s="139"/>
+    <row r="46" spans="1:8">
+      <c r="A46" s="134"/>
+      <c r="B46" s="136"/>
       <c r="C46" s="20" t="s">
         <v>73</v>
       </c>
@@ -4038,9 +4051,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="137"/>
-      <c r="B47" s="139"/>
+    <row r="47" spans="1:8">
+      <c r="A47" s="134"/>
+      <c r="B47" s="136"/>
       <c r="C47" s="8" t="s">
         <v>103</v>
       </c>
@@ -4058,9 +4071,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="138"/>
-      <c r="B48" s="140"/>
+    <row r="48" spans="1:8" ht="18" thickBot="1">
+      <c r="A48" s="135"/>
+      <c r="B48" s="137"/>
       <c r="C48" s="48" t="s">
         <v>104</v>
       </c>
@@ -4078,11 +4091,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="144" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="141" t="s">
+      <c r="B49" s="138" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="52" t="s">
@@ -4100,9 +4113,9 @@
       <c r="G49" s="35"/>
       <c r="H49" s="36"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="145"/>
-      <c r="B50" s="142"/>
+    <row r="50" spans="1:8">
+      <c r="A50" s="142"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="10" t="s">
         <v>109</v>
       </c>
@@ -4118,9 +4131,9 @@
       <c r="G50" s="11"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="145"/>
-      <c r="B51" s="142"/>
+    <row r="51" spans="1:8">
+      <c r="A51" s="142"/>
+      <c r="B51" s="139"/>
       <c r="C51" s="22" t="s">
         <v>110</v>
       </c>
@@ -4140,9 +4153,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="145"/>
-      <c r="B52" s="142"/>
+    <row r="52" spans="1:8">
+      <c r="A52" s="142"/>
+      <c r="B52" s="139"/>
       <c r="C52" s="10" t="s">
         <v>67</v>
       </c>
@@ -4158,9 +4171,9 @@
       <c r="G52" s="11"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="145"/>
-      <c r="B53" s="142"/>
+    <row r="53" spans="1:8">
+      <c r="A53" s="142"/>
+      <c r="B53" s="139"/>
       <c r="C53" s="10" t="s">
         <v>5</v>
       </c>
@@ -4176,9 +4189,9 @@
       <c r="G53" s="11"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="145"/>
-      <c r="B54" s="142"/>
+    <row r="54" spans="1:8">
+      <c r="A54" s="142"/>
+      <c r="B54" s="139"/>
       <c r="C54" s="10" t="s">
         <v>121</v>
       </c>
@@ -4196,9 +4209,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="145"/>
-      <c r="B55" s="142"/>
+    <row r="55" spans="1:8">
+      <c r="A55" s="142"/>
+      <c r="B55" s="139"/>
       <c r="C55" s="10" t="s">
         <v>111</v>
       </c>
@@ -4214,9 +4227,9 @@
       </c>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="146"/>
-      <c r="B56" s="143"/>
+    <row r="56" spans="1:8" ht="18" thickBot="1">
+      <c r="A56" s="143"/>
+      <c r="B56" s="140"/>
       <c r="C56" s="25" t="s">
         <v>124</v>
       </c>
@@ -4234,9 +4247,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="130"/>
-      <c r="B57" s="130" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="158"/>
+      <c r="B57" s="158" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="53" t="s">
@@ -4254,9 +4267,9 @@
       <c r="G57" s="54"/>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="128"/>
-      <c r="B58" s="128"/>
+    <row r="58" spans="1:8">
+      <c r="A58" s="156"/>
+      <c r="B58" s="156"/>
       <c r="C58" s="55" t="s">
         <v>133</v>
       </c>
@@ -4272,9 +4285,9 @@
       <c r="G58" s="54"/>
       <c r="H58" s="55"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="128"/>
-      <c r="B59" s="128"/>
+    <row r="59" spans="1:8">
+      <c r="A59" s="156"/>
+      <c r="B59" s="156"/>
       <c r="C59" s="55" t="s">
         <v>137</v>
       </c>
@@ -4290,9 +4303,9 @@
       <c r="G59" s="54"/>
       <c r="H59" s="55"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="128"/>
-      <c r="B60" s="128"/>
+    <row r="60" spans="1:8">
+      <c r="A60" s="156"/>
+      <c r="B60" s="156"/>
       <c r="C60" s="55" t="s">
         <v>140</v>
       </c>
@@ -4308,9 +4321,9 @@
       <c r="G60" s="54"/>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="129"/>
-      <c r="B61" s="129"/>
+    <row r="61" spans="1:8">
+      <c r="A61" s="157"/>
+      <c r="B61" s="157"/>
       <c r="C61" s="55" t="s">
         <v>142</v>
       </c>
@@ -4326,9 +4339,9 @@
       </c>
       <c r="H61" s="55"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="124"/>
-      <c r="B62" s="124" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="152"/>
+      <c r="B62" s="152" t="s">
         <v>144</v>
       </c>
       <c r="C62" s="56" t="s">
@@ -4346,9 +4359,9 @@
       <c r="G62" s="57"/>
       <c r="H62" s="58"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="125"/>
-      <c r="B63" s="125"/>
+    <row r="63" spans="1:8">
+      <c r="A63" s="153"/>
+      <c r="B63" s="153"/>
       <c r="C63" s="59" t="s">
         <v>145</v>
       </c>
@@ -4366,9 +4379,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="126"/>
-      <c r="B64" s="126"/>
+    <row r="64" spans="1:8">
+      <c r="A64" s="154"/>
+      <c r="B64" s="154"/>
       <c r="C64" s="58" t="s">
         <v>148</v>
       </c>
@@ -4384,11 +4397,11 @@
       <c r="G64" s="57"/>
       <c r="H64" s="58"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="127" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="127" t="s">
+      <c r="B65" s="155" t="s">
         <v>151</v>
       </c>
       <c r="C65" s="53" t="s">
@@ -4406,9 +4419,9 @@
       <c r="G65" s="54"/>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="128"/>
-      <c r="B66" s="128"/>
+    <row r="66" spans="1:8">
+      <c r="A66" s="156"/>
+      <c r="B66" s="156"/>
       <c r="C66" s="61" t="s">
         <v>152</v>
       </c>
@@ -4426,9 +4439,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="128"/>
-      <c r="B67" s="128"/>
+    <row r="67" spans="1:8">
+      <c r="A67" s="156"/>
+      <c r="B67" s="156"/>
       <c r="C67" s="55" t="s">
         <v>154</v>
       </c>
@@ -4444,9 +4457,9 @@
       </c>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="128"/>
-      <c r="B68" s="128"/>
+    <row r="68" spans="1:8">
+      <c r="A68" s="156"/>
+      <c r="B68" s="156"/>
       <c r="C68" s="55" t="s">
         <v>158</v>
       </c>
@@ -4464,9 +4477,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="129"/>
-      <c r="B69" s="129"/>
+    <row r="69" spans="1:8">
+      <c r="A69" s="157"/>
+      <c r="B69" s="157"/>
       <c r="C69" s="55" t="s">
         <v>161</v>
       </c>
@@ -4482,11 +4495,11 @@
       <c r="G69" s="54"/>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="124" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="124" t="s">
+      <c r="B70" s="152" t="s">
         <v>166</v>
       </c>
       <c r="C70" s="56" t="s">
@@ -4504,9 +4517,9 @@
       <c r="G70" s="66"/>
       <c r="H70" s="56"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="125"/>
-      <c r="B71" s="125"/>
+    <row r="71" spans="1:8">
+      <c r="A71" s="153"/>
+      <c r="B71" s="153"/>
       <c r="C71" s="58" t="s">
         <v>167</v>
       </c>
@@ -4522,9 +4535,9 @@
       <c r="G71" s="57"/>
       <c r="H71" s="56"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="125"/>
-      <c r="B72" s="125"/>
+    <row r="72" spans="1:8">
+      <c r="A72" s="153"/>
+      <c r="B72" s="153"/>
       <c r="C72" s="58" t="s">
         <v>169</v>
       </c>
@@ -4540,9 +4553,9 @@
       <c r="G72" s="57"/>
       <c r="H72" s="56"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="125"/>
-      <c r="B73" s="125"/>
+    <row r="73" spans="1:8">
+      <c r="A73" s="153"/>
+      <c r="B73" s="153"/>
       <c r="C73" s="58" t="s">
         <v>140</v>
       </c>
@@ -4558,9 +4571,9 @@
       <c r="G73" s="57"/>
       <c r="H73" s="56"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="126"/>
-      <c r="B74" s="126"/>
+    <row r="74" spans="1:8">
+      <c r="A74" s="154"/>
+      <c r="B74" s="154"/>
       <c r="C74" s="58" t="s">
         <v>171</v>
       </c>
@@ -4576,11 +4589,11 @@
       </c>
       <c r="H74" s="58"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="127" t="s">
+      <c r="B75" s="155" t="s">
         <v>180</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -4598,11 +4611,11 @@
       <c r="G75" s="54"/>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="128"/>
+      <c r="B76" s="156"/>
       <c r="C76" s="61" t="s">
         <v>152</v>
       </c>
@@ -4620,11 +4633,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="128"/>
+      <c r="B77" s="156"/>
       <c r="C77" s="62" t="s">
         <v>181</v>
       </c>
@@ -4642,11 +4655,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="128"/>
+      <c r="B78" s="156"/>
       <c r="C78" s="55" t="s">
         <v>183</v>
       </c>
@@ -4660,9 +4673,9 @@
       <c r="G78" s="54"/>
       <c r="H78" s="55"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="68"/>
-      <c r="B79" s="128"/>
+      <c r="B79" s="156"/>
       <c r="C79" s="55" t="s">
         <v>185</v>
       </c>
@@ -4676,11 +4689,11 @@
       <c r="G79" s="54"/>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="129"/>
+      <c r="B80" s="157"/>
       <c r="C80" s="55" t="s">
         <v>187</v>
       </c>
@@ -4698,6 +4711,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="A45:A48"/>
@@ -4712,15 +4734,6 @@
     <mergeCell ref="B32:B39"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4740,87 +4753,87 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.9140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="78" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="78" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" style="78" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="78" customWidth="1"/>
     <col min="5" max="5" width="6" style="79" customWidth="1"/>
-    <col min="6" max="7" width="8.4140625" style="79" customWidth="1"/>
-    <col min="8" max="8" width="3.08203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.08203125" style="79" customWidth="1"/>
-    <col min="11" max="11" width="36.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="78" customWidth="1"/>
+    <col min="6" max="7" width="8.3984375" style="79" customWidth="1"/>
+    <col min="8" max="8" width="3.09765625" style="79" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.09765625" style="79" customWidth="1"/>
+    <col min="11" max="11" width="36.296875" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.69921875" style="78" customWidth="1"/>
     <col min="13" max="13" width="28.5" style="78" hidden="1" customWidth="1"/>
     <col min="14" max="16" width="0" style="78" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="78"/>
+    <col min="17" max="16384" width="8.69921875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:13" ht="18">
+      <c r="A1" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="161" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="162"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="155" t="s">
+      <c r="D1" s="178"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="171" t="s">
         <v>393</v>
       </c>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="159" t="s">
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="175" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="160"/>
+      <c r="J1" s="176"/>
       <c r="K1" s="80"/>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="155" t="s">
+    <row r="2" spans="1:13" ht="18">
+      <c r="A2" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="155" t="s">
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="157">
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="173">
         <v>44474</v>
       </c>
-      <c r="J2" s="158"/>
+      <c r="J2" s="174"/>
       <c r="K2" s="81"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="164" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="166" t="s">
+      <c r="B4" s="160"/>
+      <c r="C4" s="161" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="167"/>
+      <c r="D4" s="162"/>
       <c r="E4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="167"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="162"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="70" t="s">
         <v>190</v>
       </c>
@@ -4859,7 +4872,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="A6" s="54">
         <v>1</v>
       </c>
@@ -4888,7 +4901,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13">
       <c r="A7" s="54">
         <v>2</v>
       </c>
@@ -4921,7 +4934,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13">
       <c r="A8" s="54">
         <v>3</v>
       </c>
@@ -4954,7 +4967,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13">
       <c r="A9" s="54">
         <v>4</v>
       </c>
@@ -4985,7 +4998,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13">
       <c r="A10" s="54">
         <v>5</v>
       </c>
@@ -5018,7 +5031,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13">
       <c r="A11" s="54">
         <v>6</v>
       </c>
@@ -5049,7 +5062,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13">
       <c r="A12" s="54">
         <v>7</v>
       </c>
@@ -5080,7 +5093,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13">
       <c r="A13" s="54">
         <v>8</v>
       </c>
@@ -5111,7 +5124,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13">
       <c r="A14" s="54">
         <v>9</v>
       </c>
@@ -5142,7 +5155,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13">
       <c r="A15" s="54">
         <v>10</v>
       </c>
@@ -5173,7 +5186,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13">
       <c r="A16" s="54">
         <v>11</v>
       </c>
@@ -5204,7 +5217,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14">
       <c r="K17" s="78" t="s">
         <v>360</v>
       </c>
@@ -5212,27 +5225,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="164" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166" t="s">
+      <c r="B18" s="160"/>
+      <c r="C18" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="167"/>
+      <c r="D18" s="162"/>
       <c r="E18" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F18" s="166" t="s">
+      <c r="F18" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="167"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="162"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="70" t="s">
         <v>190</v>
       </c>
@@ -5271,7 +5284,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14">
       <c r="A20" s="54">
         <v>1</v>
       </c>
@@ -5300,7 +5313,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14">
       <c r="A21" s="71">
         <v>2</v>
       </c>
@@ -5339,7 +5352,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14">
       <c r="A22" s="54">
         <v>3</v>
       </c>
@@ -5368,7 +5381,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14">
       <c r="A23" s="54">
         <v>4</v>
       </c>
@@ -5397,7 +5410,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14">
       <c r="A24" s="54">
         <v>5</v>
       </c>
@@ -5426,7 +5439,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14">
       <c r="A25" s="54">
         <v>6</v>
       </c>
@@ -5457,7 +5470,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14">
       <c r="A26" s="54">
         <v>7</v>
       </c>
@@ -5488,7 +5501,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="48" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="46.8">
       <c r="A27" s="54">
         <v>8</v>
       </c>
@@ -5517,7 +5530,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14">
       <c r="A28" s="54">
         <v>9</v>
       </c>
@@ -5550,7 +5563,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14">
       <c r="K29" s="78" t="s">
         <v>360</v>
       </c>
@@ -5558,27 +5571,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="164" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="165"/>
-      <c r="C30" s="166" t="s">
+      <c r="B30" s="160"/>
+      <c r="C30" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="167"/>
+      <c r="D30" s="162"/>
       <c r="E30" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F30" s="166" t="s">
+      <c r="F30" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="167"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="162"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="70" t="s">
         <v>190</v>
       </c>
@@ -5617,7 +5630,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14">
       <c r="A32" s="54">
         <v>1</v>
       </c>
@@ -5646,7 +5659,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14">
       <c r="A33" s="54">
         <v>2</v>
       </c>
@@ -5679,7 +5692,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14">
       <c r="A34" s="73">
         <v>3</v>
       </c>
@@ -5716,7 +5729,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14">
       <c r="A35" s="54">
         <v>4</v>
       </c>
@@ -5747,7 +5760,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14">
       <c r="A36" s="54">
         <v>5</v>
       </c>
@@ -5778,7 +5791,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14">
       <c r="A37" s="54">
         <v>6</v>
       </c>
@@ -5809,7 +5822,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14">
       <c r="A38" s="54">
         <v>7</v>
       </c>
@@ -5840,7 +5853,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14">
       <c r="A39" s="54">
         <v>8</v>
       </c>
@@ -5869,7 +5882,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14">
       <c r="A40" s="54">
         <v>9</v>
       </c>
@@ -5898,7 +5911,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14">
       <c r="K41" s="78" t="s">
         <v>360</v>
       </c>
@@ -5906,27 +5919,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="164" t="s">
+    <row r="42" spans="1:14">
+      <c r="A42" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="169"/>
-      <c r="C42" s="170" t="s">
+      <c r="B42" s="167"/>
+      <c r="C42" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="D42" s="171"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="170" t="s">
+      <c r="F42" s="168" t="s">
         <v>389</v>
       </c>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="171"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="169"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="100" t="s">
         <v>190</v>
       </c>
@@ -5965,7 +5978,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14">
       <c r="A44" s="102">
         <v>1</v>
       </c>
@@ -5994,7 +6007,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="31.2">
       <c r="A45" s="87">
         <v>2</v>
       </c>
@@ -6029,7 +6042,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14">
       <c r="A46" s="88">
         <v>3</v>
       </c>
@@ -6066,7 +6079,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14">
       <c r="A47" s="101">
         <v>4</v>
       </c>
@@ -6097,7 +6110,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14">
       <c r="A48" s="101">
         <v>5</v>
       </c>
@@ -6128,7 +6141,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14">
       <c r="A49" s="101">
         <v>6</v>
       </c>
@@ -6159,7 +6172,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14">
       <c r="A50" s="101">
         <v>7</v>
       </c>
@@ -6188,7 +6201,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="31.2">
       <c r="A51" s="102">
         <v>8</v>
       </c>
@@ -6219,7 +6232,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14">
       <c r="K52" s="78" t="s">
         <v>360</v>
       </c>
@@ -6227,27 +6240,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A53" s="164" t="s">
+    <row r="53" spans="1:14">
+      <c r="A53" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="165"/>
-      <c r="C53" s="166" t="s">
+      <c r="B53" s="160"/>
+      <c r="C53" s="161" t="s">
         <v>247</v>
       </c>
-      <c r="D53" s="167"/>
+      <c r="D53" s="162"/>
       <c r="E53" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F53" s="166" t="s">
+      <c r="F53" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G53" s="168"/>
-      <c r="H53" s="168"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="167"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G53" s="163"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="162"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="70" t="s">
         <v>190</v>
       </c>
@@ -6286,7 +6299,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="31.2">
       <c r="A55" s="97">
         <v>1</v>
       </c>
@@ -6315,7 +6328,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="31.2">
       <c r="A56" s="97">
         <v>2</v>
       </c>
@@ -6350,7 +6363,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14">
       <c r="A57" s="54">
         <v>3</v>
       </c>
@@ -6381,7 +6394,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14">
       <c r="A58" s="54">
         <v>4</v>
       </c>
@@ -6414,7 +6427,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14">
       <c r="A59" s="54">
         <v>5</v>
       </c>
@@ -6445,7 +6458,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14">
       <c r="K60" s="78" t="s">
         <v>360</v>
       </c>
@@ -6453,27 +6466,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A61" s="164" t="s">
+    <row r="61" spans="1:14">
+      <c r="A61" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="165"/>
-      <c r="C61" s="166" t="s">
+      <c r="B61" s="160"/>
+      <c r="C61" s="161" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="167"/>
+      <c r="D61" s="162"/>
       <c r="E61" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F61" s="166" t="s">
+      <c r="F61" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G61" s="168"/>
-      <c r="H61" s="168"/>
-      <c r="I61" s="168"/>
-      <c r="J61" s="167"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G61" s="163"/>
+      <c r="H61" s="163"/>
+      <c r="I61" s="163"/>
+      <c r="J61" s="162"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="70" t="s">
         <v>190</v>
       </c>
@@ -6512,7 +6525,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14">
       <c r="A63" s="54">
         <v>1</v>
       </c>
@@ -6541,7 +6554,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="31.2">
       <c r="A64" s="97">
         <v>2</v>
       </c>
@@ -6576,7 +6589,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14">
       <c r="A65" s="54">
         <v>3</v>
       </c>
@@ -6607,7 +6620,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14">
       <c r="A66" s="54">
         <v>4</v>
       </c>
@@ -6638,7 +6651,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14">
       <c r="J67" s="108"/>
       <c r="K67" s="78" t="s">
         <v>360</v>
@@ -6647,27 +6660,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A68" s="173" t="s">
+    <row r="68" spans="1:14">
+      <c r="A68" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="173"/>
-      <c r="C68" s="174" t="s">
+      <c r="B68" s="166"/>
+      <c r="C68" s="165" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="174"/>
+      <c r="D68" s="165"/>
       <c r="E68" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F68" s="174" t="s">
+      <c r="F68" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="G68" s="174"/>
-      <c r="H68" s="174"/>
-      <c r="I68" s="174"/>
-      <c r="J68" s="174"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G68" s="165"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="105" t="s">
         <v>190</v>
       </c>
@@ -6706,7 +6719,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14">
       <c r="A70" s="99">
         <v>1</v>
       </c>
@@ -6735,7 +6748,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14">
       <c r="A71" s="99">
         <v>2</v>
       </c>
@@ -6766,7 +6779,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14">
       <c r="A72" s="99">
         <v>3</v>
       </c>
@@ -6803,7 +6816,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14">
       <c r="A73" s="99">
         <v>4</v>
       </c>
@@ -6834,7 +6847,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14">
       <c r="A74" s="99">
         <v>5</v>
       </c>
@@ -6865,7 +6878,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" ht="31.2">
       <c r="A75" s="99">
         <v>6</v>
       </c>
@@ -6896,7 +6909,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14">
       <c r="A76" s="99">
         <v>7</v>
       </c>
@@ -6927,7 +6940,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14">
       <c r="A77" s="99">
         <v>8</v>
       </c>
@@ -6956,7 +6969,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14">
       <c r="K78" s="78" t="s">
         <v>360</v>
       </c>
@@ -6964,27 +6977,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A79" s="173" t="s">
+    <row r="79" spans="1:14">
+      <c r="A79" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="173"/>
-      <c r="C79" s="174" t="s">
+      <c r="B79" s="166"/>
+      <c r="C79" s="165" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="174"/>
+      <c r="D79" s="165"/>
       <c r="E79" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="174" t="s">
+      <c r="F79" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="G79" s="174"/>
-      <c r="H79" s="174"/>
-      <c r="I79" s="174"/>
-      <c r="J79" s="174"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G79" s="165"/>
+      <c r="H79" s="165"/>
+      <c r="I79" s="165"/>
+      <c r="J79" s="165"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="105" t="s">
         <v>190</v>
       </c>
@@ -7023,7 +7036,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14">
       <c r="A81" s="96">
         <v>1</v>
       </c>
@@ -7054,7 +7067,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14">
       <c r="A82" s="99">
         <v>2</v>
       </c>
@@ -7085,7 +7098,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14">
       <c r="A83" s="99">
         <v>3</v>
       </c>
@@ -7116,7 +7129,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14">
       <c r="A84" s="99">
         <v>4</v>
       </c>
@@ -7145,7 +7158,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14">
       <c r="K85" s="78" t="s">
         <v>360</v>
       </c>
@@ -7153,27 +7166,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A86" s="164" t="s">
+    <row r="86" spans="1:14">
+      <c r="A86" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="165"/>
-      <c r="C86" s="166" t="s">
+      <c r="B86" s="160"/>
+      <c r="C86" s="161" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="167"/>
+      <c r="D86" s="162"/>
       <c r="E86" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F86" s="166" t="s">
+      <c r="F86" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G86" s="168"/>
-      <c r="H86" s="168"/>
-      <c r="I86" s="168"/>
-      <c r="J86" s="167"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G86" s="163"/>
+      <c r="H86" s="163"/>
+      <c r="I86" s="163"/>
+      <c r="J86" s="162"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="70" t="s">
         <v>190</v>
       </c>
@@ -7212,7 +7225,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14">
       <c r="A88" s="97">
         <v>1</v>
       </c>
@@ -7241,7 +7254,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14">
       <c r="A89" s="73">
         <v>2</v>
       </c>
@@ -7278,7 +7291,7 @@
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14">
       <c r="A90" s="54">
         <v>3</v>
       </c>
@@ -7309,7 +7322,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14">
       <c r="J91" s="108"/>
       <c r="K91" s="78" t="s">
         <v>360</v>
@@ -7318,27 +7331,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A92" s="175" t="s">
+    <row r="92" spans="1:14">
+      <c r="A92" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="175"/>
-      <c r="C92" s="174" t="s">
+      <c r="B92" s="164"/>
+      <c r="C92" s="165" t="s">
         <v>391</v>
       </c>
-      <c r="D92" s="174"/>
+      <c r="D92" s="165"/>
       <c r="E92" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="F92" s="174" t="s">
+      <c r="F92" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="G92" s="174"/>
-      <c r="H92" s="174"/>
-      <c r="I92" s="174"/>
-      <c r="J92" s="174"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G92" s="165"/>
+      <c r="H92" s="165"/>
+      <c r="I92" s="165"/>
+      <c r="J92" s="165"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="98" t="s">
         <v>190</v>
       </c>
@@ -7377,7 +7390,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14">
       <c r="A94" s="99">
         <v>1</v>
       </c>
@@ -7406,7 +7419,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14">
       <c r="A95" s="93">
         <v>2</v>
       </c>
@@ -7443,7 +7456,7 @@
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14">
       <c r="A96" s="93">
         <v>3</v>
       </c>
@@ -7480,7 +7493,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14">
       <c r="A97" s="99">
         <f>A96+1</f>
         <v>4</v>
@@ -7507,7 +7520,7 @@
         <v>SALES number not null,</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14">
       <c r="A98" s="99">
         <f t="shared" ref="A98:A99" si="10">A97+1</f>
         <v>5</v>
@@ -7534,7 +7547,7 @@
         <v>ORDERDATE date default sysdate,</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14">
       <c r="A99" s="99">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -7565,7 +7578,7 @@
         <v>PHONENUM varchar2(30) not null</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14">
       <c r="K100" s="78" t="s">
         <v>360</v>
       </c>
@@ -7573,27 +7586,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A101" s="164" t="s">
+    <row r="101" spans="1:14">
+      <c r="A101" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="165"/>
-      <c r="C101" s="166" t="s">
+      <c r="B101" s="160"/>
+      <c r="C101" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="167"/>
+      <c r="D101" s="162"/>
       <c r="E101" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F101" s="166" t="s">
+      <c r="F101" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G101" s="168"/>
-      <c r="H101" s="168"/>
-      <c r="I101" s="168"/>
-      <c r="J101" s="167"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G101" s="163"/>
+      <c r="H101" s="163"/>
+      <c r="I101" s="163"/>
+      <c r="J101" s="162"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="70" t="s">
         <v>190</v>
       </c>
@@ -7632,7 +7645,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14">
       <c r="A103" s="54">
         <v>1</v>
       </c>
@@ -7661,7 +7674,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14">
       <c r="A104" s="54">
         <v>2</v>
       </c>
@@ -7698,7 +7711,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14">
       <c r="A105" s="54">
         <v>3</v>
       </c>
@@ -7727,7 +7740,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14">
       <c r="A106" s="54">
         <v>4</v>
       </c>
@@ -7758,7 +7771,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14">
       <c r="A107" s="54">
         <v>5</v>
       </c>
@@ -7789,7 +7802,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14">
       <c r="K108" s="78" t="s">
         <v>360</v>
       </c>
@@ -7797,27 +7810,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A109" s="164" t="s">
+    <row r="109" spans="1:14">
+      <c r="A109" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="165"/>
-      <c r="C109" s="166" t="s">
+      <c r="B109" s="160"/>
+      <c r="C109" s="161" t="s">
         <v>276</v>
       </c>
-      <c r="D109" s="167"/>
+      <c r="D109" s="162"/>
       <c r="E109" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F109" s="166" t="s">
+      <c r="F109" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G109" s="168"/>
-      <c r="H109" s="168"/>
-      <c r="I109" s="168"/>
-      <c r="J109" s="167"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G109" s="163"/>
+      <c r="H109" s="163"/>
+      <c r="I109" s="163"/>
+      <c r="J109" s="162"/>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="70" t="s">
         <v>190</v>
       </c>
@@ -7856,7 +7869,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14">
       <c r="A111" s="54">
         <v>1</v>
       </c>
@@ -7885,7 +7898,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14">
       <c r="A112" s="54">
         <v>2</v>
       </c>
@@ -7918,7 +7931,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14">
       <c r="A113" s="54">
         <v>3</v>
       </c>
@@ -7951,7 +7964,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14">
       <c r="A114" s="54">
         <v>4</v>
       </c>
@@ -7982,7 +7995,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14">
       <c r="A115" s="54">
         <v>5</v>
       </c>
@@ -8011,7 +8024,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14">
       <c r="K116" s="78" t="s">
         <v>360</v>
       </c>
@@ -8019,27 +8032,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A117" s="164" t="s">
+    <row r="117" spans="1:14">
+      <c r="A117" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="165"/>
-      <c r="C117" s="166" t="s">
+      <c r="B117" s="160"/>
+      <c r="C117" s="161" t="s">
         <v>297</v>
       </c>
-      <c r="D117" s="167"/>
+      <c r="D117" s="162"/>
       <c r="E117" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F117" s="166" t="s">
+      <c r="F117" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G117" s="168"/>
-      <c r="H117" s="168"/>
-      <c r="I117" s="168"/>
-      <c r="J117" s="167"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G117" s="163"/>
+      <c r="H117" s="163"/>
+      <c r="I117" s="163"/>
+      <c r="J117" s="162"/>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="70" t="s">
         <v>190</v>
       </c>
@@ -8078,7 +8091,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14">
       <c r="A119" s="54">
         <v>1</v>
       </c>
@@ -8107,7 +8120,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14">
       <c r="A120" s="54">
         <v>2</v>
       </c>
@@ -8144,7 +8157,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14">
       <c r="A121" s="97">
         <v>3</v>
       </c>
@@ -8179,7 +8192,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14">
       <c r="A122" s="54">
         <v>4</v>
       </c>
@@ -8208,7 +8221,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:14">
       <c r="A123" s="54">
         <v>5</v>
       </c>
@@ -8237,7 +8250,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:14">
       <c r="A124" s="54">
         <v>6</v>
       </c>
@@ -8266,7 +8279,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:14">
       <c r="K125" s="78" t="s">
         <v>360</v>
       </c>
@@ -8276,6 +8289,44 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:J92"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="C117:D117"/>
     <mergeCell ref="F117:J117"/>
@@ -8285,44 +8336,6 @@
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="F109:J109"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:J92"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8335,51 +8348,51 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L99" sqref="L99:L105"/>
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="3" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.9140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="78" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="78" customWidth="1"/>
+    <col min="2" max="2" width="3.796875" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.69921875" style="78" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" style="78" customWidth="1"/>
     <col min="6" max="6" width="6" style="79" customWidth="1"/>
-    <col min="7" max="8" width="8.4140625" style="79" customWidth="1"/>
-    <col min="9" max="9" width="3.08203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="79" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.08203125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="36.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="78" customWidth="1"/>
+    <col min="7" max="8" width="8.3984375" style="79" customWidth="1"/>
+    <col min="9" max="9" width="3.09765625" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" style="79" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.09765625" style="79" customWidth="1"/>
+    <col min="12" max="12" width="36.296875" style="78" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.69921875" style="78" customWidth="1"/>
     <col min="14" max="14" width="28.5" style="78" hidden="1" customWidth="1"/>
     <col min="15" max="17" width="0" style="78" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="78"/>
+    <col min="18" max="16384" width="8.69921875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B1" s="155" t="s">
+    <row r="1" spans="1:14">
+      <c r="B1" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="161" t="s">
+      <c r="C1" s="171"/>
+      <c r="D1" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="155" t="s">
+      <c r="E1" s="178"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="171" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="159" t="s">
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="175" t="s">
         <v>394</v>
       </c>
-      <c r="K1" s="160"/>
+      <c r="K1" s="176"/>
       <c r="L1" s="78" t="s">
         <v>414</v>
       </c>
@@ -8387,50 +8400,50 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="155" t="s">
+    <row r="2" spans="1:14">
+      <c r="B2" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156" t="s">
+      <c r="C2" s="171"/>
+      <c r="D2" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="155" t="s">
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="157">
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="173">
         <v>44474</v>
       </c>
-      <c r="K2" s="158"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K2" s="174"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="78">
         <v>1</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="166" t="s">
+      <c r="C4" s="160"/>
+      <c r="D4" s="161" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="167"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="166" t="s">
+      <c r="G4" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="167"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="162"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" s="70" t="s">
         <v>190</v>
       </c>
@@ -8469,7 +8482,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14">
       <c r="B6" s="54">
         <v>1</v>
       </c>
@@ -8499,7 +8512,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14">
       <c r="B7" s="54">
         <v>2</v>
       </c>
@@ -8525,14 +8538,14 @@
       <c r="J7" s="54"/>
       <c r="K7" s="107"/>
       <c r="L7" s="78" t="str">
-        <f t="shared" ref="L7:L12" si="0">C7&amp;" "&amp;E7&amp;IF(E7="varchar2","("&amp;F7&amp;")","")&amp;IF(J7="",""," default "&amp;J7)&amp;IF(G7="",""," "&amp;G7)&amp;IF(H7="",""," unique")&amp;IF(I7="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L7:L11" si="0">C7&amp;" "&amp;E7&amp;IF(E7="varchar2","("&amp;F7&amp;")","")&amp;IF(J7="",""," default "&amp;J7)&amp;IF(G7="",""," "&amp;G7)&amp;IF(H7="",""," unique")&amp;IF(I7="",""," primary key")&amp;","</f>
         <v>EMAIL varchar2(50) not null unique,</v>
       </c>
       <c r="N7" s="78" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14">
       <c r="B8" s="54">
         <v>3</v>
       </c>
@@ -8565,7 +8578,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14">
       <c r="B9" s="54">
         <v>4</v>
       </c>
@@ -8598,7 +8611,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14">
       <c r="B10" s="54">
         <v>5</v>
       </c>
@@ -8629,7 +8642,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14">
       <c r="B11" s="54">
         <v>6</v>
       </c>
@@ -8660,7 +8673,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="46.8">
       <c r="B12" s="54">
         <v>7</v>
       </c>
@@ -8689,35 +8702,35 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14">
       <c r="L13" s="78" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14">
       <c r="A15" s="78">
         <v>2</v>
       </c>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="166" t="s">
+      <c r="C15" s="160"/>
+      <c r="D15" s="161" t="s">
         <v>435</v>
       </c>
-      <c r="E15" s="167"/>
+      <c r="E15" s="162"/>
       <c r="F15" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G15" s="166" t="s">
+      <c r="G15" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="167"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="162"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" s="70" t="s">
         <v>190</v>
       </c>
@@ -8756,7 +8769,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15">
       <c r="B17" s="54">
         <v>1</v>
       </c>
@@ -8779,14 +8792,14 @@
       <c r="J17" s="54"/>
       <c r="K17" s="55"/>
       <c r="L17" s="78" t="str">
-        <f t="shared" ref="L17:L24" si="1">C17&amp;" "&amp;E17&amp;IF(E17="varchar2","("&amp;F17&amp;")","")&amp;IF(J17="",""," default "&amp;J17)&amp;IF(G17="",""," "&amp;G17)&amp;IF(H17="",""," unique")&amp;IF(I17="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L17:L23" si="1">C17&amp;" "&amp;E17&amp;IF(E17="varchar2","("&amp;F17&amp;")","")&amp;IF(J17="",""," default "&amp;J17)&amp;IF(G17="",""," "&amp;G17)&amp;IF(H17="",""," unique")&amp;IF(I17="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N17" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15">
       <c r="B18" s="54">
         <v>2</v>
       </c>
@@ -8825,7 +8838,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15">
       <c r="B19" s="54">
         <v>3</v>
       </c>
@@ -8856,7 +8869,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15">
       <c r="B20" s="54">
         <v>4</v>
       </c>
@@ -8887,25 +8900,25 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="17.399999999999999">
       <c r="B21" s="54">
         <v>5</v>
       </c>
-      <c r="C21" s="177" t="s">
+      <c r="C21" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="177" t="s">
+      <c r="D21" s="126" t="s">
         <v>429</v>
       </c>
-      <c r="E21" s="177" t="s">
+      <c r="E21" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="177" t="s">
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="126" t="s">
         <v>430</v>
       </c>
       <c r="L21" s="78" t="str">
@@ -8916,27 +8929,27 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="17.399999999999999">
       <c r="B22" s="54">
         <v>6</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C22" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="177" t="s">
+      <c r="D22" s="126" t="s">
         <v>431</v>
       </c>
-      <c r="E22" s="177" t="s">
+      <c r="E22" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176" t="s">
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="177" t="s">
+      <c r="K22" s="126" t="s">
         <v>428</v>
       </c>
       <c r="L22" s="78" t="str">
@@ -8947,7 +8960,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15">
       <c r="B23" s="54">
         <v>7</v>
       </c>
@@ -8975,25 +8988,25 @@
         <v>SESSIONID varchar2(100),</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="17.399999999999999">
       <c r="B24" s="54">
         <v>8</v>
       </c>
-      <c r="C24" s="177" t="s">
+      <c r="C24" s="126" t="s">
         <v>432</v>
       </c>
-      <c r="D24" s="177" t="s">
+      <c r="D24" s="126" t="s">
         <v>433</v>
       </c>
-      <c r="E24" s="177" t="s">
+      <c r="E24" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="177" t="s">
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="126" t="s">
         <v>434</v>
       </c>
       <c r="L24" s="78" t="str">
@@ -9001,7 +9014,7 @@
         <v>LOGINTIME date</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15">
       <c r="L25" s="78" t="s">
         <v>360</v>
       </c>
@@ -9009,30 +9022,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15">
       <c r="A26" s="78">
         <v>3</v>
       </c>
-      <c r="B26" s="164" t="s">
+      <c r="B26" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="165"/>
-      <c r="D26" s="166" t="s">
+      <c r="C26" s="160"/>
+      <c r="D26" s="161" t="s">
         <v>400</v>
       </c>
-      <c r="E26" s="167"/>
+      <c r="E26" s="162"/>
       <c r="F26" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G26" s="166" t="s">
+      <c r="G26" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="167"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="162"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="B27" s="70" t="s">
         <v>190</v>
       </c>
@@ -9071,7 +9084,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15">
       <c r="B28" s="54">
         <v>1</v>
       </c>
@@ -9101,7 +9114,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15">
       <c r="B29" s="54">
         <v>2</v>
       </c>
@@ -9140,7 +9153,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15">
       <c r="B30" s="54">
         <v>3</v>
       </c>
@@ -9171,7 +9184,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15">
       <c r="B31" s="54">
         <v>4</v>
       </c>
@@ -9202,7 +9215,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15">
       <c r="B32" s="54">
         <v>5</v>
       </c>
@@ -9231,7 +9244,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15">
       <c r="B33" s="54">
         <v>6</v>
       </c>
@@ -9260,7 +9273,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15">
       <c r="B34" s="54">
         <v>7</v>
       </c>
@@ -9289,7 +9302,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15">
       <c r="L35" s="78" t="s">
         <v>360</v>
       </c>
@@ -9297,30 +9310,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15">
       <c r="A36" s="78">
         <v>4</v>
       </c>
-      <c r="B36" s="164" t="s">
+      <c r="B36" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="166" t="s">
+      <c r="C36" s="160"/>
+      <c r="D36" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="167"/>
+      <c r="E36" s="162"/>
       <c r="F36" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G36" s="166" t="s">
+      <c r="G36" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="167"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="162"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="B37" s="70" t="s">
         <v>190</v>
       </c>
@@ -9359,7 +9372,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15">
       <c r="B38" s="54">
         <v>1</v>
       </c>
@@ -9389,7 +9402,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15">
       <c r="B39" s="54">
         <v>2</v>
       </c>
@@ -9426,7 +9439,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15">
       <c r="B40" s="54">
         <v>3</v>
       </c>
@@ -9455,7 +9468,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15">
       <c r="B41" s="54">
         <v>4</v>
       </c>
@@ -9486,7 +9499,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15">
       <c r="B42" s="54">
         <v>5</v>
       </c>
@@ -9517,7 +9530,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15">
       <c r="L43" s="78" t="s">
         <v>360</v>
       </c>
@@ -9525,30 +9538,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15">
       <c r="A44" s="78">
         <v>5</v>
       </c>
-      <c r="B44" s="164" t="s">
+      <c r="B44" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="166" t="s">
+      <c r="C44" s="160"/>
+      <c r="D44" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="E44" s="167"/>
+      <c r="E44" s="162"/>
       <c r="F44" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G44" s="166" t="s">
+      <c r="G44" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="167"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="163"/>
+      <c r="K44" s="162"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="B45" s="70" t="s">
         <v>190</v>
       </c>
@@ -9587,7 +9600,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15">
       <c r="B46" s="54">
         <v>1</v>
       </c>
@@ -9617,7 +9630,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15">
       <c r="B47" s="54">
         <v>2</v>
       </c>
@@ -9650,7 +9663,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15">
       <c r="B48" s="73">
         <v>3</v>
       </c>
@@ -9687,7 +9700,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15">
       <c r="B49" s="54">
         <v>4</v>
       </c>
@@ -9718,7 +9731,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15">
       <c r="B50" s="54">
         <v>5</v>
       </c>
@@ -9749,7 +9762,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15">
       <c r="B51" s="54">
         <v>6</v>
       </c>
@@ -9780,7 +9793,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15">
       <c r="B52" s="54">
         <v>7</v>
       </c>
@@ -9811,7 +9824,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15">
       <c r="B53" s="54">
         <v>8</v>
       </c>
@@ -9840,7 +9853,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15">
       <c r="B54" s="54">
         <v>9</v>
       </c>
@@ -9869,7 +9882,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15">
       <c r="L55" s="78" t="s">
         <v>360</v>
       </c>
@@ -9877,30 +9890,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15">
       <c r="A56" s="78">
         <v>6</v>
       </c>
-      <c r="B56" s="164" t="s">
+      <c r="B56" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="169"/>
-      <c r="D56" s="170" t="s">
+      <c r="C56" s="167"/>
+      <c r="D56" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="E56" s="171"/>
+      <c r="E56" s="169"/>
       <c r="F56" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="G56" s="170" t="s">
+      <c r="G56" s="168" t="s">
         <v>389</v>
       </c>
-      <c r="H56" s="172"/>
-      <c r="I56" s="172"/>
-      <c r="J56" s="172"/>
-      <c r="K56" s="171"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
+      <c r="J56" s="170"/>
+      <c r="K56" s="169"/>
+    </row>
+    <row r="57" spans="1:15">
       <c r="B57" s="111" t="s">
         <v>190</v>
       </c>
@@ -9939,7 +9952,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15">
       <c r="B58" s="116">
         <v>1</v>
       </c>
@@ -9969,7 +9982,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="31.2">
       <c r="B59" s="87">
         <v>2</v>
       </c>
@@ -10004,7 +10017,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15">
       <c r="B60" s="88">
         <v>3</v>
       </c>
@@ -10041,7 +10054,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15">
       <c r="B61" s="112">
         <v>4</v>
       </c>
@@ -10072,7 +10085,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15">
       <c r="B62" s="112">
         <v>5</v>
       </c>
@@ -10103,7 +10116,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15">
       <c r="B63" s="112">
         <v>6</v>
       </c>
@@ -10134,7 +10147,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15">
       <c r="B64" s="112">
         <v>7</v>
       </c>
@@ -10163,7 +10176,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" ht="31.2">
       <c r="B65" s="116">
         <v>8</v>
       </c>
@@ -10194,7 +10207,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15">
       <c r="L66" s="78" t="s">
         <v>360</v>
       </c>
@@ -10202,30 +10215,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15">
       <c r="A67" s="78">
         <v>7</v>
       </c>
-      <c r="B67" s="164" t="s">
+      <c r="B67" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="165"/>
-      <c r="D67" s="166" t="s">
+      <c r="C67" s="160"/>
+      <c r="D67" s="161" t="s">
         <v>247</v>
       </c>
-      <c r="E67" s="167"/>
+      <c r="E67" s="162"/>
       <c r="F67" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G67" s="166" t="s">
+      <c r="G67" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H67" s="168"/>
-      <c r="I67" s="168"/>
-      <c r="J67" s="168"/>
-      <c r="K67" s="167"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H67" s="163"/>
+      <c r="I67" s="163"/>
+      <c r="J67" s="163"/>
+      <c r="K67" s="162"/>
+    </row>
+    <row r="68" spans="1:15">
       <c r="B68" s="70" t="s">
         <v>190</v>
       </c>
@@ -10264,7 +10277,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15">
       <c r="B69" s="110">
         <v>1</v>
       </c>
@@ -10294,7 +10307,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" ht="31.2">
       <c r="B70" s="110">
         <v>2</v>
       </c>
@@ -10329,7 +10342,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15">
       <c r="B71" s="54">
         <v>3</v>
       </c>
@@ -10360,7 +10373,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15">
       <c r="B72" s="54">
         <v>4</v>
       </c>
@@ -10393,7 +10406,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15">
       <c r="B73" s="54">
         <v>5</v>
       </c>
@@ -10424,7 +10437,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15">
       <c r="L74" s="78" t="s">
         <v>360</v>
       </c>
@@ -10432,30 +10445,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15">
       <c r="A75" s="78">
         <v>8</v>
       </c>
-      <c r="B75" s="164" t="s">
+      <c r="B75" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C75" s="165"/>
-      <c r="D75" s="166" t="s">
+      <c r="C75" s="160"/>
+      <c r="D75" s="161" t="s">
         <v>252</v>
       </c>
-      <c r="E75" s="167"/>
+      <c r="E75" s="162"/>
       <c r="F75" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G75" s="166" t="s">
+      <c r="G75" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H75" s="168"/>
-      <c r="I75" s="168"/>
-      <c r="J75" s="168"/>
-      <c r="K75" s="167"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H75" s="163"/>
+      <c r="I75" s="163"/>
+      <c r="J75" s="163"/>
+      <c r="K75" s="162"/>
+    </row>
+    <row r="76" spans="1:15">
       <c r="B76" s="70" t="s">
         <v>190</v>
       </c>
@@ -10494,7 +10507,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15">
       <c r="B77" s="54">
         <v>1</v>
       </c>
@@ -10524,7 +10537,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" ht="31.2">
       <c r="B78" s="110">
         <v>2</v>
       </c>
@@ -10559,7 +10572,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15">
       <c r="B79" s="54">
         <v>3</v>
       </c>
@@ -10590,7 +10603,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15">
       <c r="B80" s="54">
         <v>4</v>
       </c>
@@ -10621,7 +10634,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15">
       <c r="K81" s="108"/>
       <c r="L81" s="78" t="s">
         <v>360</v>
@@ -10630,30 +10643,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15">
       <c r="A82" s="78">
         <v>9</v>
       </c>
-      <c r="B82" s="173" t="s">
+      <c r="B82" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="C82" s="173"/>
-      <c r="D82" s="174" t="s">
+      <c r="C82" s="166"/>
+      <c r="D82" s="165" t="s">
         <v>138</v>
       </c>
-      <c r="E82" s="174"/>
+      <c r="E82" s="165"/>
       <c r="F82" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G82" s="174" t="s">
+      <c r="G82" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H82" s="174"/>
-      <c r="I82" s="174"/>
-      <c r="J82" s="174"/>
-      <c r="K82" s="174"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H82" s="165"/>
+      <c r="I82" s="165"/>
+      <c r="J82" s="165"/>
+      <c r="K82" s="165"/>
+    </row>
+    <row r="83" spans="1:15">
       <c r="B83" s="115" t="s">
         <v>190</v>
       </c>
@@ -10692,7 +10705,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15">
       <c r="B84" s="96">
         <v>1</v>
       </c>
@@ -10715,14 +10728,14 @@
       <c r="J84" s="96"/>
       <c r="K84" s="96"/>
       <c r="L84" s="78" t="str">
-        <f t="shared" ref="L84:L89" si="8">C84&amp;" "&amp;E84&amp;IF(E84="varchar2","("&amp;F84&amp;")","")&amp;IF(J84="",""," default "&amp;J84)&amp;IF(G84="",""," "&amp;G84)&amp;IF(H84="",""," unique")&amp;IF(I84="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L84:L90" si="8">C84&amp;" "&amp;E84&amp;IF(E84="varchar2","("&amp;F84&amp;")","")&amp;IF(J84="",""," default "&amp;J84)&amp;IF(G84="",""," "&amp;G84)&amp;IF(H84="",""," unique")&amp;IF(I84="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N84" s="78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" s="118" customFormat="1">
       <c r="B85" s="119">
         <v>2</v>
       </c>
@@ -10748,7 +10761,7 @@
         <v>GOODSCODE varchar2(100),</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15">
       <c r="B86" s="119">
         <v>3</v>
       </c>
@@ -10779,7 +10792,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15">
       <c r="B87" s="119">
         <v>4</v>
       </c>
@@ -10810,7 +10823,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15">
       <c r="B88" s="119">
         <v>5</v>
       </c>
@@ -10839,385 +10852,376 @@
         <v>372</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15">
       <c r="B89" s="119">
         <v>6</v>
       </c>
       <c r="C89" s="91" t="s">
-        <v>85</v>
+        <v>436</v>
       </c>
       <c r="D89" s="91" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="E89" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="121">
-        <v>10</v>
-      </c>
-      <c r="G89" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="121"/>
-      <c r="I89" s="121"/>
-      <c r="J89" s="122" t="s">
-        <v>418</v>
-      </c>
-      <c r="K89" s="121" t="s">
-        <v>419</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="F89" s="124"/>
+      <c r="G89" s="124" t="s">
+        <v>439</v>
+      </c>
+      <c r="H89" s="124"/>
+      <c r="I89" s="124"/>
+      <c r="J89" s="124" t="s">
+        <v>440</v>
+      </c>
+      <c r="K89" s="124"/>
       <c r="L89" s="78" t="str">
         <f t="shared" si="8"/>
-        <v>HEART varchar2(10) default 'NO' not null,</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+        <v>REGDATE date default sysdate not null,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="B90" s="119">
         <v>7</v>
       </c>
       <c r="C90" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="E90" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="121">
+        <v>10</v>
+      </c>
+      <c r="G90" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="121"/>
+      <c r="I90" s="121"/>
+      <c r="J90" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="K90" s="121" t="s">
+        <v>419</v>
+      </c>
+      <c r="L90" s="78" t="str">
+        <f t="shared" si="8"/>
+        <v>HEART varchar2(10) default 'NO' not null,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="B91" s="119">
+        <v>8</v>
+      </c>
+      <c r="C91" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="D90" s="91" t="s">
+      <c r="D91" s="91" t="s">
         <v>423</v>
       </c>
-      <c r="E90" s="91" t="s">
+      <c r="E91" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F90" s="123"/>
-      <c r="G90" s="123"/>
-      <c r="H90" s="123"/>
-      <c r="I90" s="123"/>
-      <c r="J90" s="122">
+      <c r="F91" s="123"/>
+      <c r="G91" s="123"/>
+      <c r="H91" s="123"/>
+      <c r="I91" s="123"/>
+      <c r="J91" s="122">
         <v>20</v>
       </c>
-      <c r="K90" s="123"/>
-      <c r="L90" s="78" t="str">
-        <f>C90&amp;" "&amp;E90&amp;IF(E90="varchar2","("&amp;F90&amp;")","")&amp;IF(J90="",""," default "&amp;J90)&amp;IF(G90="",""," "&amp;G90)&amp;IF(H90="",""," unique")&amp;IF(I90="",""," primary key")</f>
+      <c r="K91" s="123"/>
+      <c r="L91" s="78" t="str">
+        <f>C91&amp;" "&amp;E91&amp;IF(E91="varchar2","("&amp;F91&amp;")","")&amp;IF(J91="",""," default "&amp;J91)&amp;IF(G91="",""," "&amp;G91)&amp;IF(H91="",""," unique")&amp;IF(I91="",""," primary key")</f>
         <v>STOCK number default 20</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L91" s="78" t="s">
+    <row r="92" spans="1:15">
+      <c r="L92" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N91" s="78" t="s">
+      <c r="N92" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A92" s="78">
+    <row r="93" spans="1:15">
+      <c r="A93" s="78">
         <v>10</v>
       </c>
-      <c r="B92" s="164" t="s">
+      <c r="B93" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="165"/>
-      <c r="D92" s="166" t="s">
+      <c r="C93" s="160"/>
+      <c r="D93" s="161" t="s">
         <v>270</v>
       </c>
-      <c r="E92" s="167"/>
-      <c r="F92" s="70" t="s">
+      <c r="E93" s="162"/>
+      <c r="F93" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G92" s="166" t="s">
+      <c r="G93" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H92" s="168"/>
-      <c r="I92" s="168"/>
-      <c r="J92" s="168"/>
-      <c r="K92" s="167"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B93" s="70" t="s">
+      <c r="H93" s="163"/>
+      <c r="I93" s="163"/>
+      <c r="J93" s="163"/>
+      <c r="K93" s="162"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="B94" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C93" s="70" t="s">
+      <c r="C94" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D93" s="70" t="s">
+      <c r="D94" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E93" s="70" t="s">
+      <c r="E94" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F93" s="70" t="s">
+      <c r="F94" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G93" s="70" t="s">
+      <c r="G94" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H93" s="70" t="s">
+      <c r="H94" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I93" s="70" t="s">
+      <c r="I94" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J93" s="70" t="s">
+      <c r="J94" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K93" s="70" t="s">
+      <c r="K94" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L93" s="78" t="str">
-        <f>"create table "&amp;D92&amp;"("</f>
+      <c r="L94" s="78" t="str">
+        <f>"create table "&amp;D93&amp;"("</f>
         <v>create table GOODS_IMAGE(</v>
       </c>
-      <c r="N93" s="78" t="s">
+      <c r="N94" s="78" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B94" s="110">
+    <row r="95" spans="1:15">
+      <c r="B95" s="110">
         <v>1</v>
       </c>
-      <c r="C94" s="75" t="s">
+      <c r="C95" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="53" t="str">
-        <f>"번호 ("&amp;D92&amp;"_SEQ.nextval)"</f>
+      <c r="D95" s="53" t="str">
+        <f>"번호 ("&amp;D93&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_IMAGE_SEQ.nextval)</v>
       </c>
-      <c r="E94" s="75" t="s">
+      <c r="E95" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F94" s="110"/>
-      <c r="G94" s="110"/>
-      <c r="H94" s="110"/>
-      <c r="I94" s="110" t="s">
+      <c r="F95" s="110"/>
+      <c r="G95" s="110"/>
+      <c r="H95" s="110"/>
+      <c r="I95" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J94" s="110"/>
-      <c r="K94" s="67"/>
-      <c r="L94" s="78" t="str">
-        <f t="shared" ref="L94:L95" si="9">C94&amp;" "&amp;E94&amp;IF(E94="varchar2","("&amp;F94&amp;")","")&amp;IF(J94="",""," default "&amp;J94)&amp;IF(G94="",""," "&amp;G94)&amp;IF(H94="",""," unique")&amp;IF(I94="",""," primary key")&amp;","</f>
+      <c r="J95" s="110"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="78" t="str">
+        <f t="shared" ref="L95:L96" si="9">C95&amp;" "&amp;E95&amp;IF(E95="varchar2","("&amp;F95&amp;")","")&amp;IF(J95="",""," default "&amp;J95)&amp;IF(G95="",""," "&amp;G95)&amp;IF(H95="",""," unique")&amp;IF(I95="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N94" s="78" t="s">
+      <c r="N95" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B95" s="73">
+    <row r="96" spans="1:15">
+      <c r="B96" s="73">
         <v>2</v>
       </c>
-      <c r="C95" s="74" t="s">
+      <c r="C96" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="D95" s="74" t="s">
+      <c r="D96" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="E95" s="74" t="s">
+      <c r="E96" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F95" s="73">
+      <c r="F96" s="73">
         <v>100</v>
       </c>
-      <c r="G95" s="73" t="s">
+      <c r="G96" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="H95" s="73"/>
-      <c r="I95" s="73"/>
-      <c r="J95" s="73"/>
-      <c r="K95" s="74" t="s">
+      <c r="H96" s="73"/>
+      <c r="I96" s="73"/>
+      <c r="J96" s="73"/>
+      <c r="K96" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="L95" s="78" t="str">
+      <c r="L96" s="78" t="str">
         <f t="shared" si="9"/>
         <v>GOODSCODE varchar2(100) not null,</v>
       </c>
-      <c r="N95" s="78" t="s">
+      <c r="N96" s="78" t="s">
         <v>345</v>
       </c>
-      <c r="O95" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C95&amp;") references "&amp;K95</f>
+      <c r="O96" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C96&amp;") references "&amp;K96</f>
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B96" s="54">
+    <row r="97" spans="1:15">
+      <c r="B97" s="54">
         <v>3</v>
       </c>
-      <c r="C96" s="55" t="s">
+      <c r="C97" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D96" s="55" t="s">
+      <c r="D97" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E96" s="55" t="s">
+      <c r="E97" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F96" s="54">
+      <c r="F97" s="54">
         <v>100</v>
       </c>
-      <c r="G96" s="54" t="s">
+      <c r="G97" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H96" s="54"/>
-      <c r="I96" s="54"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="78" t="str">
-        <f>C96&amp;" "&amp;E96&amp;IF(E96="varchar2","("&amp;F96&amp;")","")&amp;IF(J96="",""," default "&amp;J96)&amp;IF(G96="",""," "&amp;G96)&amp;IF(H96="",""," unique")&amp;IF(I96="",""," primary key")</f>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="78" t="str">
+        <f>C97&amp;" "&amp;E97&amp;IF(E97="varchar2","("&amp;F97&amp;")","")&amp;IF(J97="",""," default "&amp;J97)&amp;IF(G97="",""," "&amp;G97)&amp;IF(H97="",""," unique")&amp;IF(I97="",""," primary key")</f>
         <v>SAVENAME varchar2(100) not null</v>
       </c>
-      <c r="N96" s="78" t="s">
+      <c r="N97" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="K97" s="108"/>
-      <c r="L97" s="78" t="s">
+    <row r="98" spans="1:15">
+      <c r="K98" s="108"/>
+      <c r="L98" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N97" s="78" t="s">
+      <c r="N98" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A98" s="78">
+    <row r="99" spans="1:15">
+      <c r="A99" s="78">
         <v>11</v>
       </c>
-      <c r="B98" s="175" t="s">
+      <c r="B99" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="175"/>
-      <c r="D98" s="174" t="s">
+      <c r="C99" s="164"/>
+      <c r="D99" s="165" t="s">
         <v>411</v>
       </c>
-      <c r="E98" s="174"/>
-      <c r="F98" s="113" t="s">
+      <c r="E99" s="165"/>
+      <c r="F99" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="G98" s="174" t="s">
+      <c r="G99" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H98" s="174"/>
-      <c r="I98" s="174"/>
-      <c r="J98" s="174"/>
-      <c r="K98" s="174"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B99" s="113" t="s">
+      <c r="H99" s="165"/>
+      <c r="I99" s="165"/>
+      <c r="J99" s="165"/>
+      <c r="K99" s="165"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="B100" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="C99" s="113" t="s">
+      <c r="C100" s="113" t="s">
         <v>287</v>
       </c>
-      <c r="D99" s="113" t="s">
+      <c r="D100" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="E99" s="113" t="s">
+      <c r="E100" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="F99" s="113" t="s">
+      <c r="F100" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="G99" s="113" t="s">
+      <c r="G100" s="113" t="s">
         <v>288</v>
       </c>
-      <c r="H99" s="113" t="s">
+      <c r="H100" s="113" t="s">
         <v>395</v>
       </c>
-      <c r="I99" s="113" t="s">
+      <c r="I100" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="J99" s="113" t="s">
+      <c r="J100" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="K99" s="113" t="s">
+      <c r="K100" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="L99" s="78" t="str">
-        <f>"create table "&amp;D98&amp;"("</f>
+      <c r="L100" s="78" t="str">
+        <f>"create table "&amp;D99&amp;"("</f>
         <v>create table GOODS_SALES(</v>
       </c>
-      <c r="N99" s="78" t="s">
+      <c r="N100" s="78" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B100" s="114">
+    <row r="101" spans="1:15">
+      <c r="B101" s="114">
         <v>1</v>
       </c>
-      <c r="C100" s="90" t="s">
+      <c r="C101" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D100" s="53" t="str">
-        <f>"번호 ("&amp;D98&amp;"_SEQ.nextval)"</f>
+      <c r="D101" s="53" t="str">
+        <f>"번호 ("&amp;D99&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_SALES_SEQ.nextval)</v>
       </c>
-      <c r="E100" s="90" t="s">
+      <c r="E101" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F100" s="114"/>
-      <c r="G100" s="114"/>
-      <c r="H100" s="114"/>
-      <c r="I100" s="114" t="s">
+      <c r="F101" s="114"/>
+      <c r="G101" s="114"/>
+      <c r="H101" s="114"/>
+      <c r="I101" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J100" s="114"/>
-      <c r="K100" s="91"/>
-      <c r="L100" s="78" t="str">
-        <f t="shared" ref="L100:L103" si="10">C100&amp;" "&amp;E100&amp;IF(E100="varchar2","("&amp;F100&amp;")","")&amp;IF(J100="",""," default "&amp;J100)&amp;IF(G100="",""," "&amp;G100)&amp;IF(H100="",""," unique")&amp;IF(I100="",""," primary key")&amp;","</f>
+      <c r="J101" s="114"/>
+      <c r="K101" s="91"/>
+      <c r="L101" s="78" t="str">
+        <f t="shared" ref="L101:L104" si="10">C101&amp;" "&amp;E101&amp;IF(E101="varchar2","("&amp;F101&amp;")","")&amp;IF(J101="",""," default "&amp;J101)&amp;IF(G101="",""," "&amp;G101)&amp;IF(H101="",""," unique")&amp;IF(I101="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N100" s="78" t="s">
+      <c r="N101" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B101" s="93">
+    <row r="102" spans="1:15">
+      <c r="B102" s="93">
         <v>2</v>
       </c>
-      <c r="C101" s="92" t="s">
+      <c r="C102" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="D101" s="92" t="s">
+      <c r="D102" s="92" t="s">
         <v>425</v>
-      </c>
-      <c r="E101" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F101" s="93">
-        <v>100</v>
-      </c>
-      <c r="G101" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H101" s="93"/>
-      <c r="I101" s="93"/>
-      <c r="J101" s="93"/>
-      <c r="K101" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="L101" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>GOODSCODE varchar2(100) not null,</v>
-      </c>
-      <c r="N101" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="O101" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C101&amp;") references "&amp;K101</f>
-        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B102" s="93">
-        <v>3</v>
-      </c>
-      <c r="C102" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="D102" s="92" t="s">
-        <v>379</v>
       </c>
       <c r="E102" s="92" t="s">
         <v>135</v>
       </c>
       <c r="F102" s="93">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G102" s="93" t="s">
         <v>139</v>
@@ -11226,214 +11230,218 @@
       <c r="I102" s="93"/>
       <c r="J102" s="93"/>
       <c r="K102" s="92" t="s">
-        <v>398</v>
+        <v>271</v>
       </c>
       <c r="L102" s="78" t="str">
         <f t="shared" si="10"/>
-        <v>NICKNAME varchar2(20) not null,</v>
+        <v>GOODSCODE varchar2(100) not null,</v>
       </c>
       <c r="N102" s="78" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="O102" s="78" t="str">
         <f>"constraint FK1 foreign key("&amp;C102&amp;") references "&amp;K102</f>
-        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B103" s="114">
-        <v>4</v>
-      </c>
-      <c r="C103" s="91" t="s">
-        <v>436</v>
-      </c>
-      <c r="D103" s="117" t="s">
-        <v>437</v>
-      </c>
-      <c r="E103" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="F103" s="117"/>
-      <c r="G103" s="104" t="s">
+        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="B103" s="93">
         <v>3</v>
       </c>
-      <c r="H103" s="104"/>
-      <c r="I103" s="117"/>
-      <c r="J103" s="117"/>
-      <c r="K103" s="109"/>
+      <c r="C103" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="E103" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F103" s="93">
+        <v>20</v>
+      </c>
+      <c r="G103" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H103" s="93"/>
+      <c r="I103" s="93"/>
+      <c r="J103" s="93"/>
+      <c r="K103" s="92" t="s">
+        <v>398</v>
+      </c>
       <c r="L103" s="78" t="str">
         <f t="shared" si="10"/>
-        <v>PRICE number not null,</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+        <v>NICKNAME varchar2(20) not null,</v>
+      </c>
+      <c r="N103" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="O103" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C103&amp;") references "&amp;K103</f>
+        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="B104" s="114">
+        <v>4</v>
+      </c>
+      <c r="C104" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="D104" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="E104" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="117"/>
+      <c r="G104" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" s="104"/>
+      <c r="I104" s="117"/>
+      <c r="J104" s="117"/>
+      <c r="K104" s="109"/>
+      <c r="L104" s="78" t="str">
+        <f t="shared" si="10"/>
+        <v>SALES number not null,</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="B105" s="114">
         <v>5</v>
       </c>
-      <c r="C104" s="91" t="s">
+      <c r="C105" s="91" t="s">
         <v>383</v>
       </c>
-      <c r="D104" s="91" t="s">
+      <c r="D105" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E104" s="91" t="s">
+      <c r="E105" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F104" s="114"/>
-      <c r="G104" s="104"/>
-      <c r="H104" s="104"/>
-      <c r="I104" s="114"/>
-      <c r="J104" s="114" t="s">
+      <c r="F105" s="114"/>
+      <c r="G105" s="104"/>
+      <c r="H105" s="104"/>
+      <c r="I105" s="114"/>
+      <c r="J105" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="K104" s="91"/>
-      <c r="L104" s="78" t="str">
-        <f>C104&amp;" "&amp;E104&amp;IF(E104="varchar2","("&amp;F104&amp;")","")&amp;IF(J104="",""," default "&amp;J104)&amp;IF(G104="",""," "&amp;G104)&amp;IF(H104="",""," unique")&amp;IF(I104="",""," primary key")</f>
+      <c r="K105" s="91"/>
+      <c r="L105" s="78" t="str">
+        <f>C105&amp;" "&amp;E105&amp;IF(E105="varchar2","("&amp;F105&amp;")","")&amp;IF(J105="",""," default "&amp;J105)&amp;IF(G105="",""," "&amp;G105)&amp;IF(H105="",""," unique")&amp;IF(I105="",""," primary key")</f>
         <v>ORDERDATE date default sysdate</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L105" s="78" t="s">
+    <row r="106" spans="1:15">
+      <c r="L106" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N105" s="78" t="s">
+      <c r="N106" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A106" s="78">
+    <row r="107" spans="1:15">
+      <c r="A107" s="78">
         <v>12</v>
       </c>
-      <c r="B106" s="164" t="s">
+      <c r="B107" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C106" s="165"/>
-      <c r="D106" s="166" t="s">
+      <c r="C107" s="160"/>
+      <c r="D107" s="161" t="s">
         <v>276</v>
       </c>
-      <c r="E106" s="167"/>
-      <c r="F106" s="70" t="s">
+      <c r="E107" s="162"/>
+      <c r="F107" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G106" s="166" t="s">
+      <c r="G107" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H106" s="168"/>
-      <c r="I106" s="168"/>
-      <c r="J106" s="168"/>
-      <c r="K106" s="167"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B107" s="70" t="s">
+      <c r="H107" s="163"/>
+      <c r="I107" s="163"/>
+      <c r="J107" s="163"/>
+      <c r="K107" s="162"/>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="B108" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C107" s="70" t="s">
+      <c r="C108" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D107" s="70" t="s">
+      <c r="D108" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E107" s="70" t="s">
+      <c r="E108" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F107" s="70" t="s">
+      <c r="F108" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G107" s="70" t="s">
+      <c r="G108" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H107" s="70" t="s">
+      <c r="H108" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I107" s="70" t="s">
+      <c r="I108" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J107" s="70" t="s">
+      <c r="J108" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K107" s="70" t="s">
+      <c r="K108" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L107" s="78" t="str">
-        <f>"create table "&amp;D106&amp;"("</f>
+      <c r="L108" s="78" t="str">
+        <f>"create table "&amp;D107&amp;"("</f>
         <v>create table ASSATALK(</v>
       </c>
-      <c r="N107" s="78" t="s">
+      <c r="N108" s="78" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B108" s="54">
+    <row r="109" spans="1:15">
+      <c r="B109" s="54">
         <v>1</v>
       </c>
-      <c r="C108" s="53" t="s">
+      <c r="C109" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D108" s="53" t="str">
-        <f>"번호 ("&amp;D106&amp;"_SEQ.nextval)"</f>
+      <c r="D109" s="53" t="str">
+        <f>"번호 ("&amp;D107&amp;"_SEQ.nextval)"</f>
         <v>번호 (ASSATALK_SEQ.nextval)</v>
       </c>
-      <c r="E108" s="53" t="s">
+      <c r="E109" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54" t="s">
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J108" s="54"/>
-      <c r="K108" s="55"/>
-      <c r="L108" s="78" t="str">
-        <f t="shared" ref="L108:L111" si="11">C108&amp;" "&amp;E108&amp;IF(E108="varchar2","("&amp;F108&amp;")","")&amp;IF(J108="",""," default "&amp;J108)&amp;IF(G108="",""," "&amp;G108)&amp;IF(H108="",""," unique")&amp;IF(I108="",""," primary key")&amp;","</f>
+      <c r="J109" s="54"/>
+      <c r="K109" s="55"/>
+      <c r="L109" s="78" t="str">
+        <f t="shared" ref="L109:L112" si="11">C109&amp;" "&amp;E109&amp;IF(E109="varchar2","("&amp;F109&amp;")","")&amp;IF(J109="",""," default "&amp;J109)&amp;IF(G109="",""," "&amp;G109)&amp;IF(H109="",""," unique")&amp;IF(I109="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N108" s="78" t="s">
+      <c r="N109" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B109" s="54">
+    <row r="110" spans="1:15">
+      <c r="B110" s="54">
         <v>2</v>
       </c>
-      <c r="C109" s="55" t="s">
+      <c r="C110" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D109" s="55" t="s">
+      <c r="D110" s="55" t="s">
         <v>167</v>
-      </c>
-      <c r="E109" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F109" s="54">
-        <v>20</v>
-      </c>
-      <c r="G109" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L109" s="78" t="str">
-        <f t="shared" si="11"/>
-        <v>SPEAKER varchar2(20) not null,</v>
-      </c>
-      <c r="N109" s="78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B110" s="54">
-        <v>3</v>
-      </c>
-      <c r="C110" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D110" s="55" t="s">
-        <v>169</v>
       </c>
       <c r="E110" s="55" t="s">
         <v>135</v>
@@ -11452,27 +11460,27 @@
       </c>
       <c r="L110" s="78" t="str">
         <f t="shared" si="11"/>
-        <v>LISTENER varchar2(20) not null,</v>
+        <v>SPEAKER varchar2(20) not null,</v>
       </c>
       <c r="N110" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="B111" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111" s="55" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="E111" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F111" s="54">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G111" s="54" t="s">
         <v>139</v>
@@ -11480,225 +11488,225 @@
       <c r="H111" s="54"/>
       <c r="I111" s="54"/>
       <c r="J111" s="54"/>
-      <c r="K111" s="55"/>
+      <c r="K111" s="55" t="s">
+        <v>296</v>
+      </c>
       <c r="L111" s="78" t="str">
         <f t="shared" si="11"/>
-        <v>CONTENT varchar2(200) not null,</v>
+        <v>LISTENER varchar2(20) not null,</v>
       </c>
       <c r="N111" s="78" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="B112" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D112" s="55" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F112" s="54"/>
-      <c r="G112" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F112" s="54">
+        <v>200</v>
+      </c>
+      <c r="G112" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H112" s="54"/>
       <c r="I112" s="54"/>
-      <c r="J112" s="54" t="s">
-        <v>174</v>
-      </c>
+      <c r="J112" s="54"/>
       <c r="K112" s="55"/>
       <c r="L112" s="78" t="str">
-        <f>C112&amp;" "&amp;E112&amp;IF(E112="varchar2","("&amp;F112&amp;")","")&amp;IF(J112="",""," default "&amp;J112)&amp;IF(G112="",""," "&amp;G112)&amp;IF(H112="",""," unique")&amp;IF(I112="",""," primary key")</f>
+        <f t="shared" si="11"/>
+        <v>CONTENT varchar2(200) not null,</v>
+      </c>
+      <c r="N112" s="78" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="B113" s="54">
+        <v>5</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D113" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E113" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="K113" s="55"/>
+      <c r="L113" s="78" t="str">
+        <f>C113&amp;" "&amp;E113&amp;IF(E113="varchar2","("&amp;F113&amp;")","")&amp;IF(J113="",""," default "&amp;J113)&amp;IF(G113="",""," "&amp;G113)&amp;IF(H113="",""," unique")&amp;IF(I113="",""," primary key")</f>
         <v>SENDTIME timestamp default systimestamp</v>
       </c>
-      <c r="N112" s="78" t="s">
+      <c r="N113" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L113" s="78" t="s">
+    <row r="114" spans="1:15">
+      <c r="L114" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N113" s="78" t="s">
+      <c r="N114" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A114" s="78">
+    <row r="115" spans="1:15">
+      <c r="A115" s="78">
         <v>13</v>
       </c>
-      <c r="B114" s="164" t="s">
+      <c r="B115" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C114" s="165"/>
-      <c r="D114" s="166" t="s">
+      <c r="C115" s="160"/>
+      <c r="D115" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="E114" s="167"/>
-      <c r="F114" s="70" t="s">
+      <c r="E115" s="162"/>
+      <c r="F115" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G114" s="166" t="s">
+      <c r="G115" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H114" s="168"/>
-      <c r="I114" s="168"/>
-      <c r="J114" s="168"/>
-      <c r="K114" s="167"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B115" s="70" t="s">
+      <c r="H115" s="163"/>
+      <c r="I115" s="163"/>
+      <c r="J115" s="163"/>
+      <c r="K115" s="162"/>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="B116" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C115" s="70" t="s">
+      <c r="C116" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D115" s="70" t="s">
+      <c r="D116" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E115" s="70" t="s">
+      <c r="E116" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F115" s="70" t="s">
+      <c r="F116" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G115" s="70" t="s">
+      <c r="G116" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H115" s="70" t="s">
+      <c r="H116" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I115" s="70" t="s">
+      <c r="I116" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J115" s="70" t="s">
+      <c r="J116" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K115" s="70" t="s">
+      <c r="K116" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L115" s="78" t="str">
-        <f>"create table "&amp;D114&amp;"("</f>
+      <c r="L116" s="78" t="str">
+        <f>"create table "&amp;D115&amp;"("</f>
         <v>create table ASSATALK_KEYWORD(</v>
       </c>
-      <c r="N115" s="78" t="s">
+      <c r="N116" s="78" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B116" s="54">
+    <row r="117" spans="1:15">
+      <c r="B117" s="54">
         <v>1</v>
       </c>
-      <c r="C116" s="53" t="s">
+      <c r="C117" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="53" t="str">
-        <f>"번호 ("&amp;D114&amp;"_SEQ.nextval)"</f>
+      <c r="D117" s="53" t="str">
+        <f>"번호 ("&amp;D115&amp;"_SEQ.nextval)"</f>
         <v>번호 (ASSATALK_KEYWORD_SEQ.nextval)</v>
       </c>
-      <c r="E116" s="53" t="s">
+      <c r="E117" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54" t="s">
+      <c r="F117" s="54"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J116" s="54"/>
-      <c r="K116" s="55"/>
-      <c r="L116" s="78" t="str">
-        <f t="shared" ref="L116:L118" si="12">C116&amp;" "&amp;E116&amp;IF(E116="varchar2","("&amp;F116&amp;")","")&amp;IF(J116="",""," default "&amp;J116)&amp;IF(G116="",""," "&amp;G116)&amp;IF(H116="",""," unique")&amp;IF(I116="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N116" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B117" s="54">
-        <v>2</v>
-      </c>
-      <c r="C117" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="D117" s="55" t="s">
-        <v>405</v>
-      </c>
-      <c r="E117" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" s="54">
-        <v>20</v>
-      </c>
-      <c r="G117" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H117" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="I117" s="54"/>
       <c r="J117" s="54"/>
       <c r="K117" s="55"/>
       <c r="L117" s="78" t="str">
+        <f t="shared" ref="L117:L119" si="12">C117&amp;" "&amp;E117&amp;IF(E117="varchar2","("&amp;F117&amp;")","")&amp;IF(J117="",""," default "&amp;J117)&amp;IF(G117="",""," "&amp;G117)&amp;IF(H117="",""," unique")&amp;IF(I117="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N117" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="B118" s="54">
+        <v>2</v>
+      </c>
+      <c r="C118" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D118" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="E118" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="54">
+        <v>20</v>
+      </c>
+      <c r="G118" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="55"/>
+      <c r="L118" s="78" t="str">
         <f t="shared" si="12"/>
         <v>KEYWORD varchar2(20) not null unique,</v>
       </c>
-      <c r="N117" s="78" t="s">
+      <c r="N118" s="78" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.45">
-      <c r="B118" s="54">
+    <row r="119" spans="1:15" ht="31.2">
+      <c r="B119" s="54">
         <v>3</v>
       </c>
-      <c r="C118" s="55" t="s">
+      <c r="C119" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="D118" s="55" t="s">
+      <c r="D119" s="55" t="s">
         <v>406</v>
-      </c>
-      <c r="E118" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="54">
-        <v>20</v>
-      </c>
-      <c r="G118" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="L118" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>ANSWERTYPE varchar2(20) not null,</v>
-      </c>
-      <c r="N118" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B119" s="54">
-        <v>5</v>
-      </c>
-      <c r="C119" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" s="55" t="s">
-        <v>407</v>
       </c>
       <c r="E119" s="55" t="s">
         <v>4</v>
       </c>
       <c r="F119" s="54">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="G119" s="54" t="s">
         <v>3</v>
@@ -11706,229 +11714,231 @@
       <c r="H119" s="54"/>
       <c r="I119" s="54"/>
       <c r="J119" s="54"/>
-      <c r="K119" s="55"/>
+      <c r="K119" s="55" t="s">
+        <v>410</v>
+      </c>
       <c r="L119" s="78" t="str">
-        <f>C119&amp;" "&amp;E119&amp;IF(E119="varchar2","("&amp;F119&amp;")","")&amp;IF(J119="",""," default "&amp;J119)&amp;IF(G119="",""," "&amp;G119)&amp;IF(H119="",""," unique")&amp;IF(I119="",""," primary key")</f>
+        <f t="shared" si="12"/>
+        <v>ANSWERTYPE varchar2(20) not null,</v>
+      </c>
+      <c r="N119" s="78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="B120" s="54">
+        <v>5</v>
+      </c>
+      <c r="C120" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="E120" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G120" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="55"/>
+      <c r="L120" s="78" t="str">
+        <f>C120&amp;" "&amp;E120&amp;IF(E120="varchar2","("&amp;F120&amp;")","")&amp;IF(J120="",""," default "&amp;J120)&amp;IF(G120="",""," "&amp;G120)&amp;IF(H120="",""," unique")&amp;IF(I120="",""," primary key")</f>
         <v>ANSWER varchar2(4000) not null</v>
       </c>
-      <c r="N119" s="78" t="s">
+      <c r="N120" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L120" s="78" t="s">
+    <row r="121" spans="1:15">
+      <c r="L121" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N120" s="78" t="s">
+      <c r="N121" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A121" s="78">
+    <row r="122" spans="1:15">
+      <c r="A122" s="78">
         <v>14</v>
       </c>
-      <c r="B121" s="173" t="s">
+      <c r="B122" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="C121" s="173"/>
-      <c r="D121" s="174" t="s">
+      <c r="C122" s="166"/>
+      <c r="D122" s="165" t="s">
         <v>257</v>
       </c>
-      <c r="E121" s="174"/>
-      <c r="F121" s="115" t="s">
+      <c r="E122" s="165"/>
+      <c r="F122" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G121" s="174" t="s">
+      <c r="G122" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H121" s="174"/>
-      <c r="I121" s="174"/>
-      <c r="J121" s="174"/>
-      <c r="K121" s="174"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B122" s="115" t="s">
+      <c r="H122" s="165"/>
+      <c r="I122" s="165"/>
+      <c r="J122" s="165"/>
+      <c r="K122" s="165"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="B123" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C122" s="115" t="s">
+      <c r="C123" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D122" s="115" t="s">
+      <c r="D123" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E122" s="115" t="s">
+      <c r="E123" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F122" s="115" t="s">
+      <c r="F123" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G122" s="115" t="s">
+      <c r="G123" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H122" s="70" t="s">
+      <c r="H123" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I122" s="115" t="s">
+      <c r="I123" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J122" s="115" t="s">
+      <c r="J123" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K122" s="115" t="s">
+      <c r="K123" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L122" s="78" t="str">
-        <f>"create table "&amp;D121&amp;"("</f>
+      <c r="L123" s="78" t="str">
+        <f>"create table "&amp;D122&amp;"("</f>
         <v>create table QUESTION(</v>
       </c>
-      <c r="N122" s="78" t="s">
+      <c r="N123" s="78" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B123" s="114">
+    <row r="124" spans="1:15">
+      <c r="B124" s="114">
         <v>1</v>
       </c>
-      <c r="C123" s="90" t="s">
+      <c r="C124" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D123" s="53" t="str">
-        <f>"번호 ("&amp;D121&amp;"_SEQ.nextval)"</f>
+      <c r="D124" s="53" t="str">
+        <f>"번호 ("&amp;D122&amp;"_SEQ.nextval)"</f>
         <v>번호 (QUESTION_SEQ.nextval)</v>
       </c>
-      <c r="E123" s="90" t="s">
+      <c r="E124" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F123" s="114"/>
-      <c r="G123" s="114"/>
-      <c r="H123" s="114"/>
-      <c r="I123" s="114" t="s">
+      <c r="F124" s="114"/>
+      <c r="G124" s="114"/>
+      <c r="H124" s="114"/>
+      <c r="I124" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J123" s="114"/>
-      <c r="K123" s="91"/>
-      <c r="L123" s="78" t="str">
-        <f t="shared" ref="L123:L129" si="13">C123&amp;" "&amp;E123&amp;IF(E123="varchar2","("&amp;F123&amp;")","")&amp;IF(J123="",""," default "&amp;J123)&amp;IF(G123="",""," "&amp;G123)&amp;IF(H123="",""," unique")&amp;IF(I123="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N123" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B124" s="114">
-        <v>2</v>
-      </c>
-      <c r="C124" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="D124" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="E124" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F124" s="114">
-        <v>20</v>
-      </c>
-      <c r="G124" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H124" s="114"/>
-      <c r="I124" s="114"/>
       <c r="J124" s="114"/>
       <c r="K124" s="91"/>
       <c r="L124" s="78" t="str">
+        <f t="shared" ref="L124:L130" si="13">C124&amp;" "&amp;E124&amp;IF(E124="varchar2","("&amp;F124&amp;")","")&amp;IF(J124="",""," default "&amp;J124)&amp;IF(G124="",""," "&amp;G124)&amp;IF(H124="",""," unique")&amp;IF(I124="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N124" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="B125" s="114">
+        <v>2</v>
+      </c>
+      <c r="C125" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D125" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F125" s="114">
+        <v>20</v>
+      </c>
+      <c r="G125" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H125" s="114"/>
+      <c r="I125" s="114"/>
+      <c r="J125" s="114"/>
+      <c r="K125" s="91"/>
+      <c r="L125" s="78" t="str">
         <f t="shared" si="13"/>
         <v>ASKTYPE varchar2(20) not null,</v>
       </c>
-      <c r="N124" s="78" t="s">
+      <c r="N125" s="78" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B125" s="114">
+    <row r="126" spans="1:15">
+      <c r="B126" s="114">
         <v>3</v>
       </c>
-      <c r="C125" s="94" t="s">
+      <c r="C126" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="D125" s="94" t="s">
+      <c r="D126" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="E125" s="94" t="s">
+      <c r="E126" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F125" s="95">
+      <c r="F126" s="95">
         <v>20</v>
       </c>
-      <c r="G125" s="95" t="s">
+      <c r="G126" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="H125" s="95"/>
-      <c r="I125" s="95"/>
-      <c r="J125" s="95"/>
-      <c r="K125" s="94" t="s">
+      <c r="H126" s="95"/>
+      <c r="I126" s="95"/>
+      <c r="J126" s="95"/>
+      <c r="K126" s="94" t="s">
         <v>388</v>
       </c>
-      <c r="L125" s="78" t="str">
+      <c r="L126" s="78" t="str">
         <f t="shared" si="13"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N125" s="78" t="s">
+      <c r="N126" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="O125" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C125&amp;") references "&amp;K125</f>
+      <c r="O126" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C126&amp;") references "&amp;K126</f>
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B126" s="114">
+    <row r="127" spans="1:15">
+      <c r="B127" s="114">
         <v>4</v>
       </c>
-      <c r="C126" s="91" t="s">
+      <c r="C127" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="D126" s="91" t="s">
+      <c r="D127" s="91" t="s">
         <v>233</v>
-      </c>
-      <c r="E126" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F126" s="114">
-        <v>50</v>
-      </c>
-      <c r="G126" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H126" s="114"/>
-      <c r="I126" s="114"/>
-      <c r="J126" s="114"/>
-      <c r="K126" s="91"/>
-      <c r="L126" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>TITLE varchar2(50) not null,</v>
-      </c>
-      <c r="N126" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B127" s="114">
-        <v>5</v>
-      </c>
-      <c r="C127" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="D127" s="91" t="s">
-        <v>140</v>
       </c>
       <c r="E127" s="91" t="s">
         <v>135</v>
       </c>
       <c r="F127" s="114">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G127" s="114" t="s">
         <v>139</v>
@@ -11939,21 +11949,21 @@
       <c r="K127" s="91"/>
       <c r="L127" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>CONTENT varchar2(4000) not null,</v>
+        <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N127" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="B128" s="114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" s="91" t="s">
-        <v>262</v>
+        <v>141</v>
       </c>
       <c r="D128" s="91" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="E128" s="91" t="s">
         <v>135</v>
@@ -11961,61 +11971,61 @@
       <c r="F128" s="114">
         <v>4000</v>
       </c>
-      <c r="G128" s="114"/>
+      <c r="G128" s="114" t="s">
+        <v>139</v>
+      </c>
       <c r="H128" s="114"/>
       <c r="I128" s="114"/>
       <c r="J128" s="114"/>
-      <c r="K128" s="91" t="s">
-        <v>365</v>
-      </c>
+      <c r="K128" s="91"/>
       <c r="L128" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>ANSWER varchar2(4000),</v>
+        <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N128" s="78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="31.2">
       <c r="B129" s="114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" s="91" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D129" s="91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E129" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F129" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="F129" s="114">
+        <v>4000</v>
+      </c>
       <c r="G129" s="114"/>
       <c r="H129" s="114"/>
       <c r="I129" s="114"/>
-      <c r="J129" s="114" t="s">
-        <v>157</v>
-      </c>
+      <c r="J129" s="114"/>
       <c r="K129" s="91" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="L129" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>ASKDATE date default sysdate,</v>
+        <v>ANSWER varchar2(4000),</v>
       </c>
       <c r="N129" s="78" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="B130" s="114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" s="91" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D130" s="91" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E130" s="91" t="s">
         <v>156</v>
@@ -12024,234 +12034,236 @@
       <c r="G130" s="114"/>
       <c r="H130" s="114"/>
       <c r="I130" s="114"/>
-      <c r="J130" s="114"/>
+      <c r="J130" s="114" t="s">
+        <v>157</v>
+      </c>
       <c r="K130" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="L130" s="78" t="str">
+        <f t="shared" si="13"/>
+        <v>ASKDATE date default sysdate,</v>
+      </c>
+      <c r="N130" s="78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="B131" s="114">
+        <v>8</v>
+      </c>
+      <c r="C131" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D131" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E131" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" s="114"/>
+      <c r="G131" s="114"/>
+      <c r="H131" s="114"/>
+      <c r="I131" s="114"/>
+      <c r="J131" s="114"/>
+      <c r="K131" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="L130" s="78" t="str">
-        <f>C130&amp;" "&amp;E130&amp;IF(E130="varchar2","("&amp;F130&amp;")","")&amp;IF(J130="",""," default "&amp;J130)&amp;IF(G130="",""," "&amp;G130)&amp;IF(H130="",""," unique")&amp;IF(I130="",""," primary key")</f>
+      <c r="L131" s="78" t="str">
+        <f>C131&amp;" "&amp;E131&amp;IF(E131="varchar2","("&amp;F131&amp;")","")&amp;IF(J131="",""," default "&amp;J131)&amp;IF(G131="",""," "&amp;G131)&amp;IF(H131="",""," unique")&amp;IF(I131="",""," primary key")</f>
         <v>ANSWERDATE date</v>
       </c>
-      <c r="N130" s="78" t="s">
+      <c r="N131" s="78" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L131" s="78" t="s">
+    <row r="132" spans="1:15">
+      <c r="L132" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N131" s="78" t="s">
+      <c r="N132" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A132" s="78">
+    <row r="133" spans="1:15">
+      <c r="A133" s="78">
         <v>15</v>
       </c>
-      <c r="B132" s="164" t="s">
+      <c r="B133" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C132" s="165"/>
-      <c r="D132" s="166" t="s">
+      <c r="C133" s="160"/>
+      <c r="D133" s="161" t="s">
         <v>297</v>
       </c>
-      <c r="E132" s="167"/>
-      <c r="F132" s="70" t="s">
+      <c r="E133" s="162"/>
+      <c r="F133" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G132" s="166" t="s">
+      <c r="G133" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H132" s="168"/>
-      <c r="I132" s="168"/>
-      <c r="J132" s="168"/>
-      <c r="K132" s="167"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B133" s="70" t="s">
+      <c r="H133" s="163"/>
+      <c r="I133" s="163"/>
+      <c r="J133" s="163"/>
+      <c r="K133" s="162"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="B134" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C133" s="70" t="s">
+      <c r="C134" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D133" s="70" t="s">
+      <c r="D134" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E133" s="70" t="s">
+      <c r="E134" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F133" s="70" t="s">
+      <c r="F134" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G133" s="70" t="s">
+      <c r="G134" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H133" s="70" t="s">
+      <c r="H134" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I133" s="70" t="s">
+      <c r="I134" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J133" s="70" t="s">
+      <c r="J134" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K133" s="70" t="s">
+      <c r="K134" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L133" s="78" t="str">
-        <f>"create table "&amp;D132&amp;"("</f>
+      <c r="L134" s="78" t="str">
+        <f>"create table "&amp;D133&amp;"("</f>
         <v>create table WARNING(</v>
       </c>
-      <c r="N133" s="78" t="s">
+      <c r="N134" s="78" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B134" s="54">
+    <row r="135" spans="1:15">
+      <c r="B135" s="54">
         <v>1</v>
       </c>
-      <c r="C134" s="53" t="s">
+      <c r="C135" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D134" s="53" t="str">
-        <f>"번호 ("&amp;D132&amp;"_SEQ.nextval)"</f>
+      <c r="D135" s="53" t="str">
+        <f>"번호 ("&amp;D133&amp;"_SEQ.nextval)"</f>
         <v>번호 (WARNING_SEQ.nextval)</v>
       </c>
-      <c r="E134" s="53" t="s">
+      <c r="E135" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F134" s="54"/>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54" t="s">
+      <c r="F135" s="54"/>
+      <c r="G135" s="54"/>
+      <c r="H135" s="54"/>
+      <c r="I135" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J134" s="54"/>
-      <c r="K134" s="55"/>
-      <c r="L134" s="78" t="str">
-        <f t="shared" ref="L134:L138" si="14">C134&amp;" "&amp;E134&amp;IF(E134="varchar2","("&amp;F134&amp;")","")&amp;IF(J134="",""," default "&amp;J134)&amp;IF(G134="",""," "&amp;G134)&amp;IF(H134="",""," unique")&amp;IF(I134="",""," primary key")&amp;","</f>
+      <c r="J135" s="54"/>
+      <c r="K135" s="55"/>
+      <c r="L135" s="78" t="str">
+        <f t="shared" ref="L135:L139" si="14">C135&amp;" "&amp;E135&amp;IF(E135="varchar2","("&amp;F135&amp;")","")&amp;IF(J135="",""," default "&amp;J135)&amp;IF(G135="",""," "&amp;G135)&amp;IF(H135="",""," unique")&amp;IF(I135="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N134" s="78" t="s">
+      <c r="N135" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B135" s="54">
+    <row r="136" spans="1:15">
+      <c r="B136" s="54">
         <v>2</v>
       </c>
-      <c r="C135" s="82" t="s">
+      <c r="C136" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D135" s="82" t="s">
+      <c r="D136" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="E135" s="82" t="s">
+      <c r="E136" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F135" s="83">
+      <c r="F136" s="83">
         <v>20</v>
       </c>
-      <c r="G135" s="83" t="s">
+      <c r="G136" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H135" s="83"/>
-      <c r="I135" s="83"/>
-      <c r="J135" s="83"/>
-      <c r="K135" s="85" t="s">
+      <c r="H136" s="83"/>
+      <c r="I136" s="83"/>
+      <c r="J136" s="83"/>
+      <c r="K136" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="L135" s="78" t="str">
+      <c r="L136" s="78" t="str">
         <f t="shared" si="14"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N135" s="78" t="s">
+      <c r="N136" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="O135" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C135&amp;") references "&amp;K135</f>
+      <c r="O136" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C136&amp;") references "&amp;K136</f>
         <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B136" s="110">
+    <row r="137" spans="1:15">
+      <c r="B137" s="110">
         <v>3</v>
       </c>
-      <c r="C136" s="85" t="s">
+      <c r="C137" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="D136" s="85" t="s">
+      <c r="D137" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="E136" s="85" t="s">
+      <c r="E137" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="F136" s="84"/>
-      <c r="G136" s="84" t="s">
+      <c r="F137" s="84"/>
+      <c r="G137" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="H136" s="84"/>
-      <c r="I136" s="84"/>
-      <c r="J136" s="84"/>
-      <c r="K136" s="85" t="s">
+      <c r="H137" s="84"/>
+      <c r="I137" s="84"/>
+      <c r="J137" s="84"/>
+      <c r="K137" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="L136" s="78" t="str">
+      <c r="L137" s="78" t="str">
         <f t="shared" si="14"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N136" s="78" t="s">
+      <c r="N137" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O136" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C136&amp;") references "&amp;K136</f>
+      <c r="O137" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C137&amp;") references "&amp;K137</f>
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B137" s="54">
+    <row r="138" spans="1:15">
+      <c r="B138" s="54">
         <v>4</v>
       </c>
-      <c r="C137" s="55" t="s">
+      <c r="C138" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D137" s="55" t="s">
+      <c r="D138" s="55" t="s">
         <v>183</v>
-      </c>
-      <c r="E137" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F137" s="54">
-        <v>30</v>
-      </c>
-      <c r="G137" s="54"/>
-      <c r="H137" s="54"/>
-      <c r="I137" s="54"/>
-      <c r="J137" s="54"/>
-      <c r="K137" s="55"/>
-      <c r="L137" s="78" t="str">
-        <f t="shared" si="14"/>
-        <v>WARNTYPE varchar2(30),</v>
-      </c>
-      <c r="N137" s="78" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B138" s="54">
-        <v>5</v>
-      </c>
-      <c r="C138" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D138" s="55" t="s">
-        <v>185</v>
       </c>
       <c r="E138" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F138" s="54">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G138" s="54"/>
       <c r="H138" s="54"/>
@@ -12260,96 +12272,80 @@
       <c r="K138" s="55"/>
       <c r="L138" s="78" t="str">
         <f t="shared" si="14"/>
-        <v>WARNWHY varchar2(300),</v>
+        <v>WARNTYPE varchar2(30),</v>
       </c>
       <c r="N138" s="78" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="B139" s="54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D139" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E139" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F139" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F139" s="54">
+        <v>300</v>
+      </c>
       <c r="G139" s="54"/>
       <c r="H139" s="54"/>
       <c r="I139" s="54"/>
-      <c r="J139" s="54" t="s">
-        <v>157</v>
-      </c>
+      <c r="J139" s="54"/>
       <c r="K139" s="55"/>
       <c r="L139" s="78" t="str">
-        <f>C139&amp;" "&amp;E139&amp;IF(E139="varchar2","("&amp;F139&amp;")","")&amp;IF(J139="",""," default "&amp;J139)&amp;IF(G139="",""," "&amp;G139)&amp;IF(H139="",""," unique")&amp;IF(I139="",""," primary key")</f>
+        <f t="shared" si="14"/>
+        <v>WARNWHY varchar2(300),</v>
+      </c>
+      <c r="N139" s="78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="B140" s="54">
+        <v>6</v>
+      </c>
+      <c r="C140" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D140" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E140" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F140" s="54"/>
+      <c r="G140" s="54"/>
+      <c r="H140" s="54"/>
+      <c r="I140" s="54"/>
+      <c r="J140" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K140" s="55"/>
+      <c r="L140" s="78" t="str">
+        <f>C140&amp;" "&amp;E140&amp;IF(E140="varchar2","("&amp;F140&amp;")","")&amp;IF(J140="",""," default "&amp;J140)&amp;IF(G140="",""," "&amp;G140)&amp;IF(H140="",""," unique")&amp;IF(I140="",""," primary key")</f>
         <v>WARNTIME date default sysdate</v>
       </c>
-      <c r="N139" s="78" t="s">
+      <c r="N140" s="78" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L140" s="78" t="s">
+    <row r="141" spans="1:15">
+      <c r="L141" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N140" s="78" t="s">
+      <c r="N141" s="78" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="G132:K132"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:K15"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -12358,6 +12354,51 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="G133:K133"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12369,21 +12410,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673B5F2D-4078-4D93-9D61-EE3F07480652}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" hidden="1">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -12391,11 +12432,11 @@
         <v>1</v>
       </c>
       <c r="C1" t="str">
-        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>MEMBER</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -12404,11 +12445,11 @@
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>MEMBER_AUTO</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" hidden="1">
       <c r="A3" t="s">
         <v>377</v>
       </c>
@@ -12417,11 +12458,11 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>MEMBER_ADDR</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" hidden="1">
       <c r="A4" t="s">
         <v>413</v>
       </c>
@@ -12430,123 +12471,123 @@
         <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>POINT</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" hidden="1">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>BOARD</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" hidden="1">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>BOARD_REF</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" hidden="1">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>BOARD_IMAGE</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" hidden="1">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>BOARD_TERM</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" hidden="1">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>GOODS</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" hidden="1">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>GOODS_IMAGE</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" hidden="1">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>GOODS_SALES</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" hidden="1">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>ASSATALK</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" hidden="1">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>ASSATALK_KEYWORD</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" hidden="1">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>QUESTION</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" hidden="1">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>WARNING</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" hidden="1"/>
+    <row r="17" spans="2:3" hidden="1"/>
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -12555,25 +12596,25 @@
         <v>create sequence MEMBER_SEQ</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3">
       <c r="C19" t="str">
         <f>$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="C20" t="str">
         <f>$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3">
       <c r="C21" t="str">
         <f>$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="B22">
         <f>B18+1</f>
         <v>2</v>
@@ -12583,25 +12624,25 @@
         <v>create sequence MEMBER_AUTO_SEQ</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3">
       <c r="C23" t="str">
         <f t="shared" ref="C23" si="2">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3">
       <c r="C24" t="str">
         <f t="shared" ref="C24" si="3">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3">
       <c r="C25" t="str">
         <f t="shared" ref="C25" si="4">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3">
       <c r="B26">
         <f t="shared" ref="B26" si="5">B22+1</f>
         <v>3</v>
@@ -12611,25 +12652,25 @@
         <v>create sequence MEMBER_ADDR_SEQ</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3">
       <c r="C27" t="str">
         <f t="shared" ref="C27" si="7">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3">
       <c r="C28" t="str">
         <f t="shared" ref="C28" si="8">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3">
       <c r="C29" t="str">
         <f t="shared" ref="C29" si="9">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3">
       <c r="B30">
         <f t="shared" ref="B30" si="10">B26+1</f>
         <v>4</v>
@@ -12639,25 +12680,25 @@
         <v>create sequence POINT_SEQ</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3">
       <c r="C31" t="str">
         <f t="shared" ref="C31" si="12">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3">
       <c r="C32" t="str">
         <f t="shared" ref="C32" si="13">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3">
       <c r="C33" t="str">
         <f t="shared" ref="C33" si="14">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3">
       <c r="B34">
         <f t="shared" ref="B34" si="15">B30+1</f>
         <v>5</v>
@@ -12667,25 +12708,25 @@
         <v>create sequence BOARD_SEQ</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3">
       <c r="C35" t="str">
         <f t="shared" ref="C35" si="17">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3">
       <c r="C36" t="str">
         <f t="shared" ref="C36" si="18">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3">
       <c r="C37" t="str">
         <f t="shared" ref="C37" si="19">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3">
       <c r="B38">
         <f t="shared" ref="B38" si="20">B34+1</f>
         <v>6</v>
@@ -12695,25 +12736,25 @@
         <v>create sequence BOARD_REF_SEQ</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3">
       <c r="C39" t="str">
         <f t="shared" ref="C39" si="22">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3">
       <c r="C40" t="str">
         <f t="shared" ref="C40" si="23">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:3">
       <c r="C41" t="str">
         <f t="shared" ref="C41" si="24">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3">
       <c r="B42">
         <f t="shared" ref="B42" si="25">B38+1</f>
         <v>7</v>
@@ -12723,25 +12764,25 @@
         <v>create sequence BOARD_IMAGE_SEQ</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:3">
       <c r="C43" t="str">
         <f t="shared" ref="C43" si="27">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:3">
       <c r="C44" t="str">
         <f t="shared" ref="C44" si="28">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:3">
       <c r="C45" t="str">
         <f t="shared" ref="C45" si="29">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:3">
       <c r="B46">
         <f t="shared" ref="B46" si="30">B42+1</f>
         <v>8</v>
@@ -12751,25 +12792,25 @@
         <v>create sequence BOARD_TERM_SEQ</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:3">
       <c r="C47" t="str">
         <f t="shared" ref="C47" si="32">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:3">
       <c r="C48" t="str">
         <f t="shared" ref="C48" si="33">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3">
       <c r="C49" t="str">
         <f t="shared" ref="C49" si="34">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3">
       <c r="B50">
         <f t="shared" ref="B50" si="35">B46+1</f>
         <v>9</v>
@@ -12779,25 +12820,25 @@
         <v>create sequence GOODS_SEQ</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:3">
       <c r="C51" t="str">
         <f t="shared" ref="C51" si="37">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:3">
       <c r="C52" t="str">
         <f t="shared" ref="C52" si="38">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:3">
       <c r="C53" t="str">
         <f t="shared" ref="C53" si="39">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:3">
       <c r="B54">
         <f t="shared" ref="B54" si="40">B50+1</f>
         <v>10</v>
@@ -12807,25 +12848,25 @@
         <v>create sequence GOODS_IMAGE_SEQ</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:3">
       <c r="C55" t="str">
         <f t="shared" ref="C55" si="42">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:3">
       <c r="C56" t="str">
         <f t="shared" ref="C56" si="43">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:3">
       <c r="C57" t="str">
         <f t="shared" ref="C57" si="44">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:3">
       <c r="B58">
         <f t="shared" ref="B58:B74" si="45">B54+1</f>
         <v>11</v>
@@ -12835,25 +12876,25 @@
         <v>create sequence GOODS_SALES_SEQ</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:3">
       <c r="C59" t="str">
         <f t="shared" ref="C59" si="47">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:3">
       <c r="C60" t="str">
         <f t="shared" ref="C60" si="48">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:3">
       <c r="C61" t="str">
         <f t="shared" ref="C61" si="49">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:3">
       <c r="B62">
         <f t="shared" si="45"/>
         <v>12</v>
@@ -12863,25 +12904,25 @@
         <v>create sequence ASSATALK_SEQ</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:3">
       <c r="C63" t="str">
         <f t="shared" ref="C63" si="51">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:3">
       <c r="C64" t="str">
         <f t="shared" ref="C64" si="52">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:3">
       <c r="C65" t="str">
         <f t="shared" ref="C65" si="53">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:3">
       <c r="B66">
         <f t="shared" si="45"/>
         <v>13</v>
@@ -12891,25 +12932,25 @@
         <v>create sequence ASSATALK_KEYWORD_SEQ</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:3">
       <c r="C67" t="str">
         <f t="shared" ref="C67" si="55">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:3">
       <c r="C68" t="str">
         <f t="shared" ref="C68" si="56">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:3">
       <c r="C69" t="str">
         <f t="shared" ref="C69" si="57">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3">
       <c r="B70">
         <f t="shared" si="45"/>
         <v>14</v>
@@ -12919,25 +12960,25 @@
         <v>create sequence QUESTION_SEQ</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:3">
       <c r="C71" t="str">
         <f t="shared" ref="C71" si="59">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:3">
       <c r="C72" t="str">
         <f t="shared" ref="C72" si="60">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:3">
       <c r="C73" t="str">
         <f t="shared" ref="C73" si="61">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:3">
       <c r="B74">
         <f t="shared" si="45"/>
         <v>15</v>
@@ -12947,19 +12988,19 @@
         <v>create sequence WARNING_SEQ</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3">
       <c r="C75" t="str">
         <f t="shared" ref="C75" si="63">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:3">
       <c r="C76" t="str">
         <f t="shared" ref="C76" si="64">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:3">
       <c r="C77" t="str">
         <f t="shared" ref="C77" si="65">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>

--- a/설계/테이블설계/1. 테이블정의서.xlsx
+++ b/설계/테이블설계/1. 테이블정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\테이블설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E90889C-CB0E-4331-89CC-8F755129EFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1784A7D-207A-4BD3-91DB-C5F0C293F039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="211005" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="444">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1554,6 +1556,18 @@
   </si>
   <si>
     <t>sysdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_DROP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROPDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3141,16 +3155,16 @@
       <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="59.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -3169,7 +3183,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="17.5" thickBot="1">
       <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
@@ -3534,7 +3548,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="34.799999999999997">
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="34">
       <c r="A21" s="145"/>
       <c r="B21" s="136"/>
       <c r="C21" s="8" t="s">
@@ -3554,7 +3568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="18" thickBot="1">
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="17.5" thickBot="1">
       <c r="A22" s="146"/>
       <c r="B22" s="144"/>
       <c r="C22" s="12" t="s">
@@ -4071,7 +4085,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18" thickBot="1">
+    <row r="48" spans="1:8" ht="17.5" thickBot="1">
       <c r="A48" s="135"/>
       <c r="B48" s="137"/>
       <c r="C48" s="48" t="s">
@@ -4227,7 +4241,7 @@
       </c>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" ht="18" thickBot="1">
+    <row r="56" spans="1:8" ht="17.5" thickBot="1">
       <c r="A56" s="143"/>
       <c r="B56" s="140"/>
       <c r="C56" s="25" t="s">
@@ -4753,22 +4767,22 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.796875" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" style="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="78" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="78" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.9140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" style="78" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="78" customWidth="1"/>
     <col min="5" max="5" width="6" style="79" customWidth="1"/>
-    <col min="6" max="7" width="8.3984375" style="79" customWidth="1"/>
-    <col min="8" max="8" width="3.09765625" style="79" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.09765625" style="79" customWidth="1"/>
-    <col min="11" max="11" width="36.296875" style="78" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.69921875" style="78" customWidth="1"/>
+    <col min="6" max="7" width="8.4140625" style="79" customWidth="1"/>
+    <col min="8" max="8" width="3.08203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.08203125" style="79" customWidth="1"/>
+    <col min="11" max="11" width="36.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="78" customWidth="1"/>
     <col min="13" max="13" width="28.5" style="78" hidden="1" customWidth="1"/>
     <col min="14" max="16" width="0" style="78" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.69921875" style="78"/>
+    <col min="17" max="16384" width="8.6640625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -5501,7 +5515,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="46.8">
+    <row r="27" spans="1:14" ht="48">
       <c r="A27" s="54">
         <v>8</v>
       </c>
@@ -6007,7 +6021,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="31.2">
+    <row r="45" spans="1:14" ht="32">
       <c r="A45" s="87">
         <v>2</v>
       </c>
@@ -6201,7 +6215,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="31.2">
+    <row r="51" spans="1:14" ht="32">
       <c r="A51" s="102">
         <v>8</v>
       </c>
@@ -6299,7 +6313,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="31.2">
+    <row r="55" spans="1:14" ht="32">
       <c r="A55" s="97">
         <v>1</v>
       </c>
@@ -6328,7 +6342,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="31.2">
+    <row r="56" spans="1:14" ht="32">
       <c r="A56" s="97">
         <v>2</v>
       </c>
@@ -6554,7 +6568,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="31.2">
+    <row r="64" spans="1:14" ht="32">
       <c r="A64" s="97">
         <v>2</v>
       </c>
@@ -6878,7 +6892,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="31.2">
+    <row r="75" spans="1:14" ht="32">
       <c r="A75" s="99">
         <v>6</v>
       </c>
@@ -8348,30 +8362,30 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L90" sqref="L90"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L37" sqref="L37:L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.796875" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.69921875" style="78" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" style="78" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.9140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="78" customWidth="1"/>
     <col min="6" max="6" width="6" style="79" customWidth="1"/>
-    <col min="7" max="8" width="8.3984375" style="79" customWidth="1"/>
-    <col min="9" max="9" width="3.09765625" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" style="79" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.09765625" style="79" customWidth="1"/>
-    <col min="12" max="12" width="36.296875" style="78" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.69921875" style="78" customWidth="1"/>
+    <col min="7" max="8" width="8.4140625" style="79" customWidth="1"/>
+    <col min="9" max="9" width="3.08203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.08203125" style="79" customWidth="1"/>
+    <col min="12" max="12" width="36.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="78" customWidth="1"/>
     <col min="14" max="14" width="28.5" style="78" hidden="1" customWidth="1"/>
     <col min="15" max="17" width="0" style="78" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.69921875" style="78"/>
+    <col min="18" max="16384" width="8.6640625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -8673,7 +8687,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="46.8">
+    <row r="12" spans="1:14" ht="48">
       <c r="B12" s="54">
         <v>7</v>
       </c>
@@ -8900,7 +8914,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="17.399999999999999">
+    <row r="21" spans="1:15" ht="17">
       <c r="B21" s="54">
         <v>5</v>
       </c>
@@ -8929,7 +8943,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17.399999999999999">
+    <row r="22" spans="1:15" ht="17">
       <c r="B22" s="54">
         <v>6</v>
       </c>
@@ -8988,7 +9002,7 @@
         <v>SESSIONID varchar2(100),</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="17.399999999999999">
+    <row r="24" spans="1:15" ht="17">
       <c r="B24" s="54">
         <v>8</v>
       </c>
@@ -9312,14 +9326,14 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="159" t="s">
         <v>189</v>
       </c>
       <c r="C36" s="160"/>
       <c r="D36" s="161" t="s">
-        <v>196</v>
+        <v>441</v>
       </c>
       <c r="E36" s="162"/>
       <c r="F36" s="70" t="s">
@@ -9366,10 +9380,10 @@
       </c>
       <c r="L37" s="78" t="str">
         <f>"create table "&amp;D36&amp;"("</f>
-        <v>create table POINT(</v>
+        <v>create table MEMBER_DROP(</v>
       </c>
       <c r="N37" s="78" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -9381,7 +9395,7 @@
       </c>
       <c r="D38" s="53" t="str">
         <f>"번호 ("&amp;D36&amp;"_SEQ.nextval)"</f>
-        <v>번호 (POINT_SEQ.nextval)</v>
+        <v>번호 (MEMBER_DROP_SEQ.nextval)</v>
       </c>
       <c r="E38" s="53" t="s">
         <v>128</v>
@@ -9395,7 +9409,7 @@
       <c r="J38" s="54"/>
       <c r="K38" s="55"/>
       <c r="L38" s="78" t="str">
-        <f t="shared" ref="L38:L41" si="3">C38&amp;" "&amp;E38&amp;IF(E38="varchar2","("&amp;F38&amp;")","")&amp;IF(J38="",""," default "&amp;J38)&amp;IF(G38="",""," "&amp;G38)&amp;IF(H38="",""," unique")&amp;IF(I38="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L38:L40" si="3">C38&amp;" "&amp;E38&amp;IF(E38="varchar2","("&amp;F38&amp;")","")&amp;IF(J38="",""," default "&amp;J38)&amp;IF(G38="",""," "&amp;G38)&amp;IF(H38="",""," unique")&amp;IF(I38="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N38" s="78" t="s">
@@ -9406,37 +9420,31 @@
       <c r="B39" s="54">
         <v>2</v>
       </c>
-      <c r="C39" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="82" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" s="82" t="s">
+      <c r="C39" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="83">
-        <v>20</v>
-      </c>
-      <c r="G39" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="82" t="s">
-        <v>388</v>
-      </c>
+      <c r="F39" s="54">
+        <v>50</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="107"/>
       <c r="L39" s="78" t="str">
         <f t="shared" si="3"/>
-        <v>NICKNAME varchar2(20) not null,</v>
+        <v>EMAIL varchar2(50) not null,</v>
       </c>
       <c r="N39" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="O39" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C39&amp;") references "&amp;K39</f>
-        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -9444,277 +9452,273 @@
         <v>3</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>273</v>
+        <v>54</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F40" s="54">
+        <v>20</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>3</v>
+      </c>
       <c r="H40" s="54"/>
       <c r="I40" s="54"/>
-      <c r="J40" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K40" s="55"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="107"/>
       <c r="L40" s="78" t="str">
         <f t="shared" si="3"/>
-        <v>CHANGEDATE date default sysdate,</v>
+        <v>NICKNAME varchar2(20) not null,</v>
       </c>
       <c r="N40" s="78" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="B41" s="54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>274</v>
+        <v>442</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="F41" s="54"/>
-      <c r="G41" s="54" t="s">
-        <v>139</v>
-      </c>
+      <c r="G41" s="54"/>
       <c r="H41" s="54"/>
       <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="55" t="s">
-        <v>160</v>
-      </c>
+      <c r="J41" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="55"/>
       <c r="L41" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>CHANGEPOINT number not null,</v>
+        <f>C41&amp;" "&amp;E41&amp;IF(E41="varchar2","("&amp;F41&amp;")","")&amp;IF(J41="",""," default "&amp;J41)&amp;IF(G41="",""," "&amp;G41)&amp;IF(H41="",""," unique")&amp;IF(I41="",""," primary key")</f>
+        <v>DROPDATE date default sysdate</v>
       </c>
       <c r="N41" s="78" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="B42" s="54">
-        <v>5</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="D42" s="55" t="s">
-        <v>426</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" s="54">
-        <v>20</v>
-      </c>
-      <c r="G42" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="78" t="str">
-        <f>C42&amp;" "&amp;E42&amp;IF(E42="varchar2","("&amp;F42&amp;")","")&amp;IF(J42="",""," default "&amp;J42)&amp;IF(G42="",""," "&amp;G42)&amp;IF(H42="",""," unique")&amp;IF(I42="",""," primary key")</f>
-        <v>CHANGEWHY varchar2(20) not null</v>
+      <c r="L42" s="78" t="s">
+        <v>360</v>
       </c>
       <c r="N42" s="78" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="L43" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N43" s="78" t="s">
-        <v>359</v>
-      </c>
+      <c r="A43" s="78">
+        <v>4</v>
+      </c>
+      <c r="B43" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="160"/>
+      <c r="D43" s="161" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43" s="162"/>
+      <c r="F43" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="G43" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="162"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="78">
-        <v>5</v>
-      </c>
-      <c r="B44" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44" s="160"/>
-      <c r="D44" s="161" t="s">
-        <v>226</v>
-      </c>
-      <c r="E44" s="162"/>
+      <c r="B44" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E44" s="70" t="s">
+        <v>199</v>
+      </c>
       <c r="F44" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G44" s="161" t="s">
-        <v>389</v>
-      </c>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="162"/>
+        <v>200</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H44" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I44" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J44" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="K44" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L44" s="78" t="str">
+        <f>"create table "&amp;D43&amp;"("</f>
+        <v>create table POINT(</v>
+      </c>
+      <c r="N44" s="78" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="B45" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C45" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D45" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E45" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F45" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="G45" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H45" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I45" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="J45" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="K45" s="70" t="s">
-        <v>203</v>
-      </c>
+      <c r="B45" s="54">
+        <v>1</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="53" t="str">
+        <f>"번호 ("&amp;D43&amp;"_SEQ.nextval)"</f>
+        <v>번호 (POINT_SEQ.nextval)</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J45" s="54"/>
+      <c r="K45" s="55"/>
       <c r="L45" s="78" t="str">
-        <f>"create table "&amp;D44&amp;"("</f>
-        <v>create table BOARD(</v>
+        <f t="shared" ref="L45:L48" si="4">C45&amp;" "&amp;E45&amp;IF(E45="varchar2","("&amp;F45&amp;")","")&amp;IF(J45="",""," default "&amp;J45)&amp;IF(G45="",""," "&amp;G45)&amp;IF(H45="",""," unique")&amp;IF(I45="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N45" s="78" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="B46" s="54">
-        <v>1</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="53" t="str">
-        <f>"번호 ("&amp;D44&amp;"_SEQ.nextval)"</f>
-        <v>번호 (BOARD_SEQ.nextval)</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J46" s="54"/>
-      <c r="K46" s="55"/>
+        <v>2</v>
+      </c>
+      <c r="C46" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="83">
+        <v>20</v>
+      </c>
+      <c r="G46" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="82" t="s">
+        <v>388</v>
+      </c>
       <c r="L46" s="78" t="str">
-        <f t="shared" ref="L46:L53" si="4">C46&amp;" "&amp;E46&amp;IF(E46="varchar2","("&amp;F46&amp;")","")&amp;IF(J46="",""," default "&amp;J46)&amp;IF(G46="",""," "&amp;G46)&amp;IF(H46="",""," unique")&amp;IF(I46="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
+        <f t="shared" si="4"/>
+        <v>NICKNAME varchar2(20) not null,</v>
       </c>
       <c r="N46" s="78" t="s">
-        <v>299</v>
+        <v>303</v>
+      </c>
+      <c r="O46" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C46&amp;") references "&amp;K46</f>
+        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="B47" s="54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" s="54">
-        <v>20</v>
-      </c>
-      <c r="G47" s="54" t="s">
-        <v>139</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="54"/>
       <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="55" t="s">
-        <v>230</v>
-      </c>
+      <c r="J47" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K47" s="55"/>
       <c r="L47" s="78" t="str">
         <f t="shared" si="4"/>
-        <v>BOARDCODE varchar2(20) not null,</v>
+        <v>CHANGEDATE date default sysdate,</v>
       </c>
       <c r="N47" s="78" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="B48" s="73">
-        <v>3</v>
-      </c>
-      <c r="C48" s="74" t="s">
-        <v>367</v>
-      </c>
-      <c r="D48" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="F48" s="73">
-        <v>20</v>
-      </c>
-      <c r="G48" s="73" t="s">
+      <c r="B48" s="54">
+        <v>4</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54" t="s">
         <v>139</v>
       </c>
       <c r="H48" s="54"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="74" t="s">
-        <v>398</v>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="55" t="s">
+        <v>160</v>
       </c>
       <c r="L48" s="78" t="str">
         <f t="shared" si="4"/>
-        <v>WRITER varchar2(20) not null,</v>
+        <v>CHANGEPOINT number not null,</v>
       </c>
       <c r="N48" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="O48" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C48&amp;") references "&amp;K48</f>
-        <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="B49" s="54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>233</v>
+        <v>426</v>
       </c>
       <c r="E49" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F49" s="54">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G49" s="54" t="s">
         <v>139</v>
@@ -9724,868 +9728,872 @@
       <c r="J49" s="54"/>
       <c r="K49" s="55"/>
       <c r="L49" s="78" t="str">
-        <f t="shared" si="4"/>
-        <v>TITLE varchar2(50) not null,</v>
+        <f>C49&amp;" "&amp;E49&amp;IF(E49="varchar2","("&amp;F49&amp;")","")&amp;IF(J49="",""," default "&amp;J49)&amp;IF(G49="",""," "&amp;G49)&amp;IF(H49="",""," unique")&amp;IF(I49="",""," primary key")</f>
+        <v>CHANGEWHY varchar2(20) not null</v>
       </c>
       <c r="N49" s="78" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="B50" s="54">
+      <c r="L50" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N50" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="78">
         <v>5</v>
       </c>
-      <c r="C50" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="54">
-        <v>4000</v>
-      </c>
-      <c r="G50" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="78" t="str">
-        <f t="shared" si="4"/>
-        <v>CONTENT varchar2(4000) not null,</v>
-      </c>
-      <c r="N50" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="B51" s="54">
-        <v>6</v>
-      </c>
-      <c r="C51" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="D51" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="E51" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K51" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="L51" s="78" t="str">
-        <f t="shared" si="4"/>
-        <v>REGDATE date default sysdate,</v>
-      </c>
-      <c r="N51" s="78" t="s">
-        <v>321</v>
-      </c>
+      <c r="B51" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="160"/>
+      <c r="D51" s="161" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="162"/>
+      <c r="F51" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="G51" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="H51" s="163"/>
+      <c r="I51" s="163"/>
+      <c r="J51" s="163"/>
+      <c r="K51" s="162"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="B52" s="54">
-        <v>7</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="E52" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K52" s="55" t="s">
-        <v>293</v>
+      <c r="B52" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H52" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I52" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J52" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="K52" s="70" t="s">
+        <v>203</v>
       </c>
       <c r="L52" s="78" t="str">
-        <f t="shared" si="4"/>
-        <v>MODDATE date default sysdate,</v>
+        <f>"create table "&amp;D51&amp;"("</f>
+        <v>create table BOARD(</v>
       </c>
       <c r="N52" s="78" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="B53" s="54">
-        <v>8</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="D53" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="53" t="str">
+        <f>"번호 ("&amp;D51&amp;"_SEQ.nextval)"</f>
+        <v>번호 (BOARD_SEQ.nextval)</v>
+      </c>
+      <c r="E53" s="53" t="s">
         <v>128</v>
       </c>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54">
-        <v>0</v>
-      </c>
+      <c r="I53" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" s="54"/>
       <c r="K53" s="55"/>
       <c r="L53" s="78" t="str">
-        <f t="shared" si="4"/>
-        <v>HIT number default 0,</v>
+        <f t="shared" ref="L53:L60" si="5">C53&amp;" "&amp;E53&amp;IF(E53="varchar2","("&amp;F53&amp;")","")&amp;IF(J53="",""," default "&amp;J53)&amp;IF(G53="",""," "&amp;G53)&amp;IF(H53="",""," unique")&amp;IF(I53="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N53" s="78" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="B54" s="54">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F54" s="54">
+        <v>20</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H54" s="54"/>
       <c r="I54" s="54"/>
-      <c r="J54" s="54">
-        <v>0</v>
-      </c>
-      <c r="K54" s="55"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="55" t="s">
+        <v>230</v>
+      </c>
       <c r="L54" s="78" t="str">
-        <f>C54&amp;" "&amp;E54&amp;IF(E54="varchar2","("&amp;F54&amp;")","")&amp;IF(J54="",""," default "&amp;J54)&amp;IF(G54="",""," "&amp;G54)&amp;IF(H54="",""," unique")&amp;IF(I54="",""," primary key")</f>
-        <v>HEART number default 0</v>
+        <f t="shared" si="5"/>
+        <v>BOARDCODE varchar2(20) not null,</v>
       </c>
       <c r="N54" s="78" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="L55" s="78" t="s">
-        <v>360</v>
+      <c r="B55" s="73">
+        <v>3</v>
+      </c>
+      <c r="C55" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="D55" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="73">
+        <v>20</v>
+      </c>
+      <c r="G55" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" s="54"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="L55" s="78" t="str">
+        <f t="shared" si="5"/>
+        <v>WRITER varchar2(20) not null,</v>
       </c>
       <c r="N55" s="78" t="s">
-        <v>359</v>
+        <v>369</v>
+      </c>
+      <c r="O55" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C55&amp;") references "&amp;K55</f>
+        <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="78">
+      <c r="B56" s="54">
+        <v>4</v>
+      </c>
+      <c r="C56" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="54">
+        <v>50</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="78" t="str">
+        <f t="shared" si="5"/>
+        <v>TITLE varchar2(50) not null,</v>
+      </c>
+      <c r="N56" s="78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="B57" s="54">
+        <v>5</v>
+      </c>
+      <c r="C57" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="78" t="str">
+        <f t="shared" si="5"/>
+        <v>CONTENT varchar2(4000) not null,</v>
+      </c>
+      <c r="N57" s="78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="B58" s="54">
         <v>6</v>
       </c>
-      <c r="B56" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="167"/>
-      <c r="D56" s="168" t="s">
-        <v>241</v>
-      </c>
-      <c r="E56" s="169"/>
-      <c r="F56" s="89" t="s">
-        <v>286</v>
-      </c>
-      <c r="G56" s="168" t="s">
-        <v>389</v>
-      </c>
-      <c r="H56" s="170"/>
-      <c r="I56" s="170"/>
-      <c r="J56" s="170"/>
-      <c r="K56" s="169"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="B57" s="111" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" s="115" t="s">
-        <v>287</v>
-      </c>
-      <c r="D57" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="E57" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" s="115" t="s">
-        <v>200</v>
-      </c>
-      <c r="G57" s="115" t="s">
-        <v>288</v>
-      </c>
-      <c r="H57" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I57" s="115" t="s">
-        <v>201</v>
-      </c>
-      <c r="J57" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="K57" s="115" t="s">
-        <v>203</v>
-      </c>
-      <c r="L57" s="78" t="str">
-        <f>"create table "&amp;D56&amp;"("</f>
-        <v>create table BOARD_REF(</v>
-      </c>
-      <c r="N57" s="78" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="B58" s="116">
-        <v>1</v>
-      </c>
-      <c r="C58" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="53" t="str">
-        <f>"번호 ("&amp;D56&amp;"_SEQ.nextval)"</f>
-        <v>번호 (BOARD_REF_SEQ.nextval)</v>
-      </c>
-      <c r="E58" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114" t="s">
-        <v>205</v>
-      </c>
-      <c r="J58" s="114"/>
-      <c r="K58" s="91"/>
+      <c r="C58" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K58" s="55" t="s">
+        <v>292</v>
+      </c>
       <c r="L58" s="78" t="str">
-        <f t="shared" ref="L58:L64" si="5">C58&amp;" "&amp;E58&amp;IF(E58="varchar2","("&amp;F58&amp;")","")&amp;IF(J58="",""," default "&amp;J58)&amp;IF(G58="",""," "&amp;G58)&amp;IF(H58="",""," unique")&amp;IF(I58="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
+        <f t="shared" si="5"/>
+        <v>REGDATE date default sysdate,</v>
       </c>
       <c r="N58" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="31.2">
-      <c r="B59" s="87">
-        <v>2</v>
-      </c>
-      <c r="C59" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="92" t="s">
-        <v>242</v>
-      </c>
-      <c r="E59" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="F59" s="93"/>
-      <c r="G59" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H59" s="93"/>
-      <c r="I59" s="93"/>
-      <c r="J59" s="93"/>
-      <c r="K59" s="92" t="s">
-        <v>362</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="B59" s="54">
+        <v>7</v>
+      </c>
+      <c r="C59" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K59" s="55" t="s">
+        <v>293</v>
       </c>
       <c r="L59" s="78" t="str">
         <f t="shared" si="5"/>
-        <v>BOARDNUM number not null,</v>
+        <v>MODDATE date default sysdate,</v>
       </c>
       <c r="N59" s="78" t="s">
-        <v>326</v>
-      </c>
-      <c r="O59" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C59&amp;") references "&amp;K59</f>
-        <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="B60" s="88">
-        <v>3</v>
-      </c>
-      <c r="C60" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="D60" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="E60" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F60" s="93">
-        <v>20</v>
-      </c>
-      <c r="G60" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H60" s="93"/>
-      <c r="I60" s="93"/>
-      <c r="J60" s="93"/>
-      <c r="K60" s="92" t="s">
-        <v>398</v>
-      </c>
+      <c r="B60" s="54">
+        <v>8</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54">
+        <v>0</v>
+      </c>
+      <c r="K60" s="55"/>
       <c r="L60" s="78" t="str">
         <f t="shared" si="5"/>
-        <v>WRITER varchar2(20) not null,</v>
+        <v>HIT number default 0,</v>
       </c>
       <c r="N60" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="O60" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C60&amp;") references "&amp;K60</f>
-        <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="B61" s="112">
-        <v>4</v>
-      </c>
-      <c r="C61" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F61" s="114">
-        <v>1000</v>
-      </c>
-      <c r="G61" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="91"/>
+      <c r="B61" s="54">
+        <v>9</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54">
+        <v>0</v>
+      </c>
+      <c r="K61" s="55"/>
       <c r="L61" s="78" t="str">
-        <f t="shared" si="5"/>
-        <v>CONTENT varchar2(1000) not null,</v>
+        <f>C61&amp;" "&amp;E61&amp;IF(E61="varchar2","("&amp;F61&amp;")","")&amp;IF(J61="",""," default "&amp;J61)&amp;IF(G61="",""," "&amp;G61)&amp;IF(H61="",""," unique")&amp;IF(I61="",""," primary key")</f>
+        <v>HEART number default 0</v>
       </c>
       <c r="N61" s="78" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="B62" s="112">
-        <v>5</v>
-      </c>
-      <c r="C62" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="D62" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="E62" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="K62" s="91" t="s">
-        <v>292</v>
-      </c>
-      <c r="L62" s="78" t="str">
-        <f t="shared" si="5"/>
-        <v>REGDATE date default sysdate,</v>
+      <c r="L62" s="78" t="s">
+        <v>360</v>
       </c>
       <c r="N62" s="78" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="B63" s="112">
+      <c r="A63" s="78">
         <v>6</v>
       </c>
-      <c r="C63" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="D63" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="E63" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F63" s="114"/>
-      <c r="G63" s="114"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="K63" s="91" t="s">
-        <v>293</v>
-      </c>
-      <c r="L63" s="78" t="str">
-        <f t="shared" si="5"/>
-        <v>MODDATE date default sysdate,</v>
-      </c>
-      <c r="N63" s="78" t="s">
-        <v>322</v>
-      </c>
+      <c r="B63" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="167"/>
+      <c r="D63" s="168" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" s="169"/>
+      <c r="F63" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="G63" s="168" t="s">
+        <v>389</v>
+      </c>
+      <c r="H63" s="170"/>
+      <c r="I63" s="170"/>
+      <c r="J63" s="170"/>
+      <c r="K63" s="169"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="B64" s="112">
-        <v>7</v>
-      </c>
-      <c r="C64" s="91" t="s">
-        <v>243</v>
-      </c>
-      <c r="D64" s="91" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="114"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="114"/>
-      <c r="J64" s="114">
-        <v>0</v>
-      </c>
-      <c r="K64" s="91"/>
+      <c r="B64" s="111" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="115" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" s="115" t="s">
+        <v>288</v>
+      </c>
+      <c r="H64" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I64" s="115" t="s">
+        <v>201</v>
+      </c>
+      <c r="J64" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="K64" s="115" t="s">
+        <v>203</v>
+      </c>
       <c r="L64" s="78" t="str">
-        <f t="shared" si="5"/>
-        <v>DEPTH number default 0,</v>
+        <f>"create table "&amp;D63&amp;"("</f>
+        <v>create table BOARD_REF(</v>
       </c>
       <c r="N64" s="78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="31.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="B65" s="116">
-        <v>8</v>
-      </c>
-      <c r="C65" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="D65" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="E65" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="53" t="str">
+        <f>"번호 ("&amp;D63&amp;"_SEQ.nextval)"</f>
+        <v>번호 (BOARD_REF_SEQ.nextval)</v>
+      </c>
+      <c r="E65" s="90" t="s">
         <v>128</v>
       </c>
       <c r="F65" s="114"/>
       <c r="G65" s="114"/>
       <c r="H65" s="114"/>
-      <c r="I65" s="114"/>
-      <c r="J65" s="114">
-        <v>0</v>
-      </c>
-      <c r="K65" s="91" t="s">
-        <v>364</v>
-      </c>
+      <c r="I65" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="J65" s="114"/>
+      <c r="K65" s="91"/>
       <c r="L65" s="78" t="str">
-        <f>C65&amp;" "&amp;E65&amp;IF(E65="varchar2","("&amp;F65&amp;")","")&amp;IF(J65="",""," default "&amp;J65)&amp;IF(G65="",""," "&amp;G65)&amp;IF(H65="",""," unique")&amp;IF(I65="",""," primary key")</f>
-        <v>REFNUM number default 0</v>
+        <f t="shared" ref="L65:L71" si="6">C65&amp;" "&amp;E65&amp;IF(E65="varchar2","("&amp;F65&amp;")","")&amp;IF(J65="",""," default "&amp;J65)&amp;IF(G65="",""," "&amp;G65)&amp;IF(H65="",""," unique")&amp;IF(I65="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N65" s="78" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="L66" s="78" t="s">
-        <v>360</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="32">
+      <c r="B66" s="87">
+        <v>2</v>
+      </c>
+      <c r="C66" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H66" s="93"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="92" t="s">
+        <v>362</v>
+      </c>
+      <c r="L66" s="78" t="str">
+        <f t="shared" si="6"/>
+        <v>BOARDNUM number not null,</v>
       </c>
       <c r="N66" s="78" t="s">
-        <v>359</v>
+        <v>326</v>
+      </c>
+      <c r="O66" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C66&amp;") references "&amp;K66</f>
+        <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="78">
-        <v>7</v>
-      </c>
-      <c r="B67" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="160"/>
-      <c r="D67" s="161" t="s">
-        <v>247</v>
-      </c>
-      <c r="E67" s="162"/>
-      <c r="F67" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G67" s="161" t="s">
-        <v>389</v>
-      </c>
-      <c r="H67" s="163"/>
-      <c r="I67" s="163"/>
-      <c r="J67" s="163"/>
-      <c r="K67" s="162"/>
+      <c r="B67" s="88">
+        <v>3</v>
+      </c>
+      <c r="C67" s="92" t="s">
+        <v>367</v>
+      </c>
+      <c r="D67" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" s="93">
+        <v>20</v>
+      </c>
+      <c r="G67" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H67" s="93"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="92" t="s">
+        <v>398</v>
+      </c>
+      <c r="L67" s="78" t="str">
+        <f t="shared" si="6"/>
+        <v>WRITER varchar2(20) not null,</v>
+      </c>
+      <c r="N67" s="78" t="s">
+        <v>369</v>
+      </c>
+      <c r="O67" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C67&amp;") references "&amp;K67</f>
+        <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
+      </c>
     </row>
     <row r="68" spans="1:15">
-      <c r="B68" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D68" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E68" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F68" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="G68" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H68" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I68" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="J68" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="K68" s="70" t="s">
-        <v>203</v>
-      </c>
+      <c r="B68" s="112">
+        <v>4</v>
+      </c>
+      <c r="C68" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="114">
+        <v>1000</v>
+      </c>
+      <c r="G68" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="91"/>
       <c r="L68" s="78" t="str">
-        <f>"create table "&amp;D67&amp;"("</f>
-        <v>create table BOARD_IMAGE(</v>
+        <f t="shared" si="6"/>
+        <v>CONTENT varchar2(1000) not null,</v>
       </c>
       <c r="N68" s="78" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="B69" s="110">
-        <v>1</v>
-      </c>
-      <c r="C69" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="53" t="str">
-        <f>"번호 ("&amp;D67&amp;"_SEQ.nextval)"</f>
-        <v>번호 (BOARD_IMAGE_SEQ.nextval)</v>
-      </c>
-      <c r="E69" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" s="110"/>
-      <c r="G69" s="110"/>
-      <c r="H69" s="110"/>
-      <c r="I69" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="J69" s="110"/>
-      <c r="K69" s="67"/>
+      <c r="B69" s="112">
+        <v>5</v>
+      </c>
+      <c r="C69" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="E69" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="K69" s="91" t="s">
+        <v>292</v>
+      </c>
       <c r="L69" s="78" t="str">
-        <f t="shared" ref="L69:L72" si="6">C69&amp;" "&amp;E69&amp;IF(E69="varchar2","("&amp;F69&amp;")","")&amp;IF(J69="",""," default "&amp;J69)&amp;IF(G69="",""," "&amp;G69)&amp;IF(H69="",""," unique")&amp;IF(I69="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
+        <f t="shared" si="6"/>
+        <v>REGDATE date default sysdate,</v>
       </c>
       <c r="N69" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="31.2">
-      <c r="B70" s="110">
-        <v>2</v>
-      </c>
-      <c r="C70" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="E70" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="H70" s="76"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="76"/>
-      <c r="K70" s="77" t="s">
-        <v>362</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="B70" s="112">
+        <v>6</v>
+      </c>
+      <c r="C70" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="K70" s="91" t="s">
+        <v>293</v>
       </c>
       <c r="L70" s="78" t="str">
         <f t="shared" si="6"/>
-        <v>BOARDNUM number not null,</v>
+        <v>MODDATE date default sysdate,</v>
       </c>
       <c r="N70" s="78" t="s">
-        <v>326</v>
-      </c>
-      <c r="O70" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C70&amp;") references "&amp;K70</f>
-        <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="B71" s="54">
-        <v>3</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="D71" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="E71" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F71" s="54">
-        <v>50</v>
-      </c>
-      <c r="G71" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="55"/>
+      <c r="B71" s="112">
+        <v>7</v>
+      </c>
+      <c r="C71" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="E71" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="114"/>
+      <c r="J71" s="114">
+        <v>0</v>
+      </c>
+      <c r="K71" s="91"/>
       <c r="L71" s="78" t="str">
         <f t="shared" si="6"/>
-        <v>ORIGINNAME varchar2(50) not null,</v>
+        <v>DEPTH number default 0,</v>
       </c>
       <c r="N71" s="78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="B72" s="54">
-        <v>4</v>
-      </c>
-      <c r="C72" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E72" s="55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="32">
+      <c r="B72" s="116">
+        <v>8</v>
+      </c>
+      <c r="C72" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="D72" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="114"/>
+      <c r="G72" s="114"/>
+      <c r="H72" s="114"/>
+      <c r="I72" s="114"/>
+      <c r="J72" s="114">
+        <v>0</v>
+      </c>
+      <c r="K72" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="L72" s="78" t="str">
+        <f>C72&amp;" "&amp;E72&amp;IF(E72="varchar2","("&amp;F72&amp;")","")&amp;IF(J72="",""," default "&amp;J72)&amp;IF(G72="",""," "&amp;G72)&amp;IF(H72="",""," unique")&amp;IF(I72="",""," primary key")</f>
+        <v>REFNUM number default 0</v>
+      </c>
+      <c r="N72" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="L73" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N73" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="78">
+        <v>7</v>
+      </c>
+      <c r="B74" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="160"/>
+      <c r="D74" s="161" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="162"/>
+      <c r="F74" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="G74" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="H74" s="163"/>
+      <c r="I74" s="163"/>
+      <c r="J74" s="163"/>
+      <c r="K74" s="162"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="B75" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E75" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F75" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G75" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H75" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I75" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J75" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="K75" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L75" s="78" t="str">
+        <f>"create table "&amp;D74&amp;"("</f>
+        <v>create table BOARD_IMAGE(</v>
+      </c>
+      <c r="N75" s="78" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="B76" s="110">
+        <v>1</v>
+      </c>
+      <c r="C76" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="53" t="str">
+        <f>"번호 ("&amp;D74&amp;"_SEQ.nextval)"</f>
+        <v>번호 (BOARD_IMAGE_SEQ.nextval)</v>
+      </c>
+      <c r="E76" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="110"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="110"/>
+      <c r="I76" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="J76" s="110"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="78" t="str">
+        <f t="shared" ref="L76:L79" si="7">C76&amp;" "&amp;E76&amp;IF(E76="varchar2","("&amp;F76&amp;")","")&amp;IF(J76="",""," default "&amp;J76)&amp;IF(G76="",""," "&amp;G76)&amp;IF(H76="",""," unique")&amp;IF(I76="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N76" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="32">
+      <c r="B77" s="110">
+        <v>2</v>
+      </c>
+      <c r="C77" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="H77" s="76"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
+      <c r="K77" s="77" t="s">
+        <v>362</v>
+      </c>
+      <c r="L77" s="78" t="str">
+        <f t="shared" si="7"/>
+        <v>BOARDNUM number not null,</v>
+      </c>
+      <c r="N77" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="O77" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C77&amp;") references "&amp;K77</f>
+        <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="B78" s="54">
+        <v>3</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F72" s="54">
-        <v>100</v>
-      </c>
-      <c r="G72" s="54" t="s">
+      <c r="F78" s="54">
+        <v>50</v>
+      </c>
+      <c r="G78" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="L72" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>SAVENAME varchar2(100) not null,</v>
-      </c>
-      <c r="N72" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="B73" s="54">
-        <v>5</v>
-      </c>
-      <c r="C73" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="D73" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="E73" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F73" s="54">
-        <v>10</v>
-      </c>
-      <c r="G73" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="78" t="str">
-        <f>C73&amp;" "&amp;E73&amp;IF(E73="varchar2","("&amp;F73&amp;")","")&amp;IF(J73="",""," default "&amp;J73)&amp;IF(G73="",""," "&amp;G73)&amp;IF(H73="",""," unique")&amp;IF(I73="",""," primary key")</f>
-        <v>FILETYPE varchar2(10) not null</v>
-      </c>
-      <c r="N73" s="78" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="L74" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N74" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="78">
-        <v>8</v>
-      </c>
-      <c r="B75" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="C75" s="160"/>
-      <c r="D75" s="161" t="s">
-        <v>252</v>
-      </c>
-      <c r="E75" s="162"/>
-      <c r="F75" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G75" s="161" t="s">
-        <v>389</v>
-      </c>
-      <c r="H75" s="163"/>
-      <c r="I75" s="163"/>
-      <c r="J75" s="163"/>
-      <c r="K75" s="162"/>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="B76" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C76" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D76" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E76" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F76" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="G76" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H76" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I76" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="J76" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="K76" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="L76" s="78" t="str">
-        <f>"create table "&amp;D75&amp;"("</f>
-        <v>create table BOARD_TERM(</v>
-      </c>
-      <c r="N76" s="78" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="B77" s="54">
-        <v>1</v>
-      </c>
-      <c r="C77" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D77" s="53" t="str">
-        <f>"번호 ("&amp;D75&amp;"_SEQ.nextval)"</f>
-        <v>번호 (BOARD_TERM_SEQ.nextval)</v>
-      </c>
-      <c r="E77" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J77" s="54"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="78" t="str">
-        <f t="shared" ref="L77:L79" si="7">C77&amp;" "&amp;E77&amp;IF(E77="varchar2","("&amp;F77&amp;")","")&amp;IF(J77="",""," default "&amp;J77)&amp;IF(G77="",""," "&amp;G77)&amp;IF(H77="",""," unique")&amp;IF(I77="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N77" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="31.2">
-      <c r="B78" s="110">
-        <v>2</v>
-      </c>
-      <c r="C78" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="E78" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="76"/>
-      <c r="K78" s="77" t="s">
-        <v>362</v>
-      </c>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="55"/>
       <c r="L78" s="78" t="str">
         <f t="shared" si="7"/>
-        <v>BOARDNUM number not null,</v>
+        <v>ORIGINNAME varchar2(50) not null,</v>
       </c>
       <c r="N78" s="78" t="s">
-        <v>326</v>
-      </c>
-      <c r="O78" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C78&amp;") references "&amp;K78</f>
-        <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="B79" s="54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F79" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F79" s="54">
+        <v>100</v>
+      </c>
       <c r="G79" s="54" t="s">
         <v>139</v>
       </c>
@@ -10593,49 +10601,48 @@
       <c r="I79" s="54"/>
       <c r="J79" s="54"/>
       <c r="K79" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L79" s="78" t="str">
         <f t="shared" si="7"/>
-        <v>STARTDATE date not null,</v>
+        <v>SAVENAME varchar2(100) not null,</v>
       </c>
       <c r="N79" s="78" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="B80" s="54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F80" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F80" s="54">
+        <v>10</v>
+      </c>
       <c r="G80" s="54" t="s">
         <v>139</v>
       </c>
       <c r="H80" s="54"/>
       <c r="I80" s="54"/>
       <c r="J80" s="54"/>
-      <c r="K80" s="55" t="s">
-        <v>295</v>
-      </c>
+      <c r="K80" s="55"/>
       <c r="L80" s="78" t="str">
         <f>C80&amp;" "&amp;E80&amp;IF(E80="varchar2","("&amp;F80&amp;")","")&amp;IF(J80="",""," default "&amp;J80)&amp;IF(G80="",""," "&amp;G80)&amp;IF(H80="",""," unique")&amp;IF(I80="",""," primary key")</f>
-        <v>ENDDATE date not null</v>
+        <v>FILETYPE varchar2(10) not null</v>
       </c>
       <c r="N80" s="78" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:15">
-      <c r="K81" s="108"/>
       <c r="L81" s="78" t="s">
         <v>360</v>
       </c>
@@ -10645,1118 +10652,1119 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="78">
-        <v>9</v>
-      </c>
-      <c r="B82" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C82" s="166"/>
-      <c r="D82" s="165" t="s">
-        <v>138</v>
-      </c>
-      <c r="E82" s="165"/>
-      <c r="F82" s="115" t="s">
+      <c r="C82" s="160"/>
+      <c r="D82" s="161" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="162"/>
+      <c r="F82" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G82" s="165" t="s">
+      <c r="G82" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H82" s="165"/>
-      <c r="I82" s="165"/>
-      <c r="J82" s="165"/>
-      <c r="K82" s="165"/>
+      <c r="H82" s="163"/>
+      <c r="I82" s="163"/>
+      <c r="J82" s="163"/>
+      <c r="K82" s="162"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="B83" s="115" t="s">
+      <c r="B83" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C83" s="115" t="s">
+      <c r="C83" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D83" s="115" t="s">
+      <c r="D83" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E83" s="115" t="s">
+      <c r="E83" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F83" s="115" t="s">
+      <c r="F83" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G83" s="115" t="s">
+      <c r="G83" s="70" t="s">
         <v>288</v>
       </c>
       <c r="H83" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I83" s="115" t="s">
+      <c r="I83" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J83" s="115" t="s">
+      <c r="J83" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K83" s="115" t="s">
+      <c r="K83" s="70" t="s">
         <v>203</v>
       </c>
       <c r="L83" s="78" t="str">
         <f>"create table "&amp;D82&amp;"("</f>
-        <v>create table GOODS(</v>
+        <v>create table BOARD_TERM(</v>
       </c>
       <c r="N83" s="78" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="B84" s="96">
+      <c r="B84" s="54">
         <v>1</v>
       </c>
-      <c r="C84" s="90" t="s">
-        <v>88</v>
+      <c r="C84" s="53" t="s">
+        <v>131</v>
       </c>
       <c r="D84" s="53" t="str">
         <f>"번호 ("&amp;D82&amp;"_SEQ.nextval)"</f>
-        <v>번호 (GOODS_SEQ.nextval)</v>
-      </c>
-      <c r="E84" s="90" t="s">
+        <v>번호 (BOARD_TERM_SEQ.nextval)</v>
+      </c>
+      <c r="E84" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J84" s="54"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="78" t="str">
+        <f t="shared" ref="L84:L86" si="8">C84&amp;" "&amp;E84&amp;IF(E84="varchar2","("&amp;F84&amp;")","")&amp;IF(J84="",""," default "&amp;J84)&amp;IF(G84="",""," "&amp;G84)&amp;IF(H84="",""," unique")&amp;IF(I84="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N84" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="32">
+      <c r="B85" s="110">
         <v>2</v>
       </c>
-      <c r="F84" s="96"/>
-      <c r="G84" s="96"/>
-      <c r="H84" s="96"/>
-      <c r="I84" s="96" t="s">
-        <v>205</v>
-      </c>
-      <c r="J84" s="96"/>
-      <c r="K84" s="96"/>
-      <c r="L84" s="78" t="str">
-        <f t="shared" ref="L84:L90" si="8">C84&amp;" "&amp;E84&amp;IF(E84="varchar2","("&amp;F84&amp;")","")&amp;IF(J84="",""," default "&amp;J84)&amp;IF(G84="",""," "&amp;G84)&amp;IF(H84="",""," unique")&amp;IF(I84="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N84" s="78" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" s="118" customFormat="1">
-      <c r="B85" s="119">
-        <v>2</v>
-      </c>
-      <c r="C85" s="120" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" s="120" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" s="120" t="s">
-        <v>135</v>
-      </c>
-      <c r="F85" s="119">
-        <v>100</v>
-      </c>
-      <c r="G85" s="119"/>
-      <c r="H85" s="119"/>
-      <c r="I85" s="119"/>
-      <c r="J85" s="119"/>
-      <c r="K85" s="119"/>
+      <c r="C85" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="77" t="s">
+        <v>362</v>
+      </c>
       <c r="L85" s="78" t="str">
         <f t="shared" si="8"/>
-        <v>GOODSCODE varchar2(100),</v>
+        <v>BOARDNUM number not null,</v>
+      </c>
+      <c r="N85" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="O85" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C85&amp;") references "&amp;K85</f>
+        <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="B86" s="119">
+      <c r="B86" s="54">
         <v>3</v>
       </c>
-      <c r="C86" s="91" t="s">
-        <v>417</v>
-      </c>
-      <c r="D86" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F86" s="114">
-        <v>100</v>
-      </c>
-      <c r="G86" s="114" t="s">
+      <c r="C86" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="E86" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H86" s="114"/>
-      <c r="I86" s="114"/>
-      <c r="J86" s="114"/>
-      <c r="K86" s="114"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="54"/>
+      <c r="K86" s="55" t="s">
+        <v>295</v>
+      </c>
       <c r="L86" s="78" t="str">
         <f t="shared" si="8"/>
+        <v>STARTDATE date not null,</v>
+      </c>
+      <c r="N86" s="78" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="B87" s="54">
+        <v>4</v>
+      </c>
+      <c r="C87" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="L87" s="78" t="str">
+        <f>C87&amp;" "&amp;E87&amp;IF(E87="varchar2","("&amp;F87&amp;")","")&amp;IF(J87="",""," default "&amp;J87)&amp;IF(G87="",""," "&amp;G87)&amp;IF(H87="",""," unique")&amp;IF(I87="",""," primary key")</f>
+        <v>ENDDATE date not null</v>
+      </c>
+      <c r="N87" s="78" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="K88" s="108"/>
+      <c r="L88" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N88" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="78">
+        <v>9</v>
+      </c>
+      <c r="B89" s="166" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="166"/>
+      <c r="D89" s="165" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="165"/>
+      <c r="F89" s="115" t="s">
+        <v>286</v>
+      </c>
+      <c r="G89" s="165" t="s">
+        <v>389</v>
+      </c>
+      <c r="H89" s="165"/>
+      <c r="I89" s="165"/>
+      <c r="J89" s="165"/>
+      <c r="K89" s="165"/>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="B90" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="115" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G90" s="115" t="s">
+        <v>288</v>
+      </c>
+      <c r="H90" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I90" s="115" t="s">
+        <v>201</v>
+      </c>
+      <c r="J90" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="K90" s="115" t="s">
+        <v>203</v>
+      </c>
+      <c r="L90" s="78" t="str">
+        <f>"create table "&amp;D89&amp;"("</f>
+        <v>create table GOODS(</v>
+      </c>
+      <c r="N90" s="78" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="B91" s="96">
+        <v>1</v>
+      </c>
+      <c r="C91" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="53" t="str">
+        <f>"번호 ("&amp;D89&amp;"_SEQ.nextval)"</f>
+        <v>번호 (GOODS_SEQ.nextval)</v>
+      </c>
+      <c r="E91" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="96"/>
+      <c r="G91" s="96"/>
+      <c r="H91" s="96"/>
+      <c r="I91" s="96" t="s">
+        <v>205</v>
+      </c>
+      <c r="J91" s="96"/>
+      <c r="K91" s="96"/>
+      <c r="L91" s="78" t="str">
+        <f t="shared" ref="L91:L97" si="9">C91&amp;" "&amp;E91&amp;IF(E91="varchar2","("&amp;F91&amp;")","")&amp;IF(J91="",""," default "&amp;J91)&amp;IF(G91="",""," "&amp;G91)&amp;IF(H91="",""," unique")&amp;IF(I91="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N91" s="78" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="118" customFormat="1">
+      <c r="B92" s="119">
+        <v>2</v>
+      </c>
+      <c r="C92" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="119">
+        <v>100</v>
+      </c>
+      <c r="G92" s="119"/>
+      <c r="H92" s="119"/>
+      <c r="I92" s="119"/>
+      <c r="J92" s="119"/>
+      <c r="K92" s="119"/>
+      <c r="L92" s="78" t="str">
+        <f t="shared" si="9"/>
+        <v>GOODSCODE varchar2(100),</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="B93" s="119">
+        <v>3</v>
+      </c>
+      <c r="C93" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="D93" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="114">
+        <v>100</v>
+      </c>
+      <c r="G93" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" s="114"/>
+      <c r="I93" s="114"/>
+      <c r="J93" s="114"/>
+      <c r="K93" s="114"/>
+      <c r="L93" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>GOODSNAME varchar2(100) not null,</v>
       </c>
-      <c r="N86" s="78" t="s">
+      <c r="N93" s="78" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
-      <c r="B87" s="119">
+    <row r="94" spans="1:15">
+      <c r="B94" s="119">
         <v>4</v>
       </c>
-      <c r="C87" s="91" t="s">
+      <c r="C94" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="D87" s="91" t="s">
+      <c r="D94" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="E87" s="91" t="s">
+      <c r="E94" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F87" s="114">
+      <c r="F94" s="114">
         <v>100</v>
       </c>
-      <c r="G87" s="114" t="s">
+      <c r="G94" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="H87" s="114"/>
-      <c r="I87" s="114"/>
-      <c r="J87" s="114"/>
-      <c r="K87" s="114"/>
-      <c r="L87" s="78" t="str">
-        <f t="shared" si="8"/>
+      <c r="H94" s="114"/>
+      <c r="I94" s="114"/>
+      <c r="J94" s="114"/>
+      <c r="K94" s="114"/>
+      <c r="L94" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>CONTENT varchar2(100) not null,</v>
       </c>
-      <c r="N87" s="78" t="s">
+      <c r="N94" s="78" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
-      <c r="B88" s="119">
+    <row r="95" spans="1:15">
+      <c r="B95" s="119">
         <v>5</v>
       </c>
-      <c r="C88" s="91" t="s">
+      <c r="C95" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="D88" s="91" t="s">
+      <c r="D95" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="E88" s="91" t="s">
+      <c r="E95" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="F88" s="114"/>
-      <c r="G88" s="114"/>
-      <c r="H88" s="114"/>
-      <c r="I88" s="114"/>
-      <c r="J88" s="114">
+      <c r="F95" s="114"/>
+      <c r="G95" s="114"/>
+      <c r="H95" s="114"/>
+      <c r="I95" s="114"/>
+      <c r="J95" s="114">
         <v>0</v>
       </c>
-      <c r="K88" s="114"/>
-      <c r="L88" s="78" t="str">
-        <f t="shared" si="8"/>
+      <c r="K95" s="114"/>
+      <c r="L95" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>PRICE number default 0,</v>
       </c>
-      <c r="N88" s="78" t="s">
+      <c r="N95" s="78" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
-      <c r="B89" s="119">
+    <row r="96" spans="1:15">
+      <c r="B96" s="119">
         <v>6</v>
       </c>
-      <c r="C89" s="91" t="s">
+      <c r="C96" s="91" t="s">
         <v>436</v>
       </c>
-      <c r="D89" s="91" t="s">
+      <c r="D96" s="91" t="s">
         <v>437</v>
       </c>
-      <c r="E89" s="91" t="s">
+      <c r="E96" s="91" t="s">
         <v>438</v>
       </c>
-      <c r="F89" s="124"/>
-      <c r="G89" s="124" t="s">
+      <c r="F96" s="124"/>
+      <c r="G96" s="124" t="s">
         <v>439</v>
       </c>
-      <c r="H89" s="124"/>
-      <c r="I89" s="124"/>
-      <c r="J89" s="124" t="s">
+      <c r="H96" s="124"/>
+      <c r="I96" s="124"/>
+      <c r="J96" s="124" t="s">
         <v>440</v>
       </c>
-      <c r="K89" s="124"/>
-      <c r="L89" s="78" t="str">
-        <f t="shared" si="8"/>
-        <v>REGDATE date default sysdate not null,</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="B90" s="119">
-        <v>7</v>
-      </c>
-      <c r="C90" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="D90" s="91" t="s">
-        <v>416</v>
-      </c>
-      <c r="E90" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="121">
-        <v>10</v>
-      </c>
-      <c r="G90" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="H90" s="121"/>
-      <c r="I90" s="121"/>
-      <c r="J90" s="122" t="s">
-        <v>418</v>
-      </c>
-      <c r="K90" s="121" t="s">
-        <v>419</v>
-      </c>
-      <c r="L90" s="78" t="str">
-        <f t="shared" si="8"/>
-        <v>HEART varchar2(10) default 'NO' not null,</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="B91" s="119">
-        <v>8</v>
-      </c>
-      <c r="C91" s="91" t="s">
-        <v>424</v>
-      </c>
-      <c r="D91" s="91" t="s">
-        <v>423</v>
-      </c>
-      <c r="E91" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="F91" s="123"/>
-      <c r="G91" s="123"/>
-      <c r="H91" s="123"/>
-      <c r="I91" s="123"/>
-      <c r="J91" s="122">
-        <v>20</v>
-      </c>
-      <c r="K91" s="123"/>
-      <c r="L91" s="78" t="str">
-        <f>C91&amp;" "&amp;E91&amp;IF(E91="varchar2","("&amp;F91&amp;")","")&amp;IF(J91="",""," default "&amp;J91)&amp;IF(G91="",""," "&amp;G91)&amp;IF(H91="",""," unique")&amp;IF(I91="",""," primary key")</f>
-        <v>STOCK number default 20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="L92" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N92" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="78">
-        <v>10</v>
-      </c>
-      <c r="B93" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93" s="160"/>
-      <c r="D93" s="161" t="s">
-        <v>270</v>
-      </c>
-      <c r="E93" s="162"/>
-      <c r="F93" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G93" s="161" t="s">
-        <v>389</v>
-      </c>
-      <c r="H93" s="163"/>
-      <c r="I93" s="163"/>
-      <c r="J93" s="163"/>
-      <c r="K93" s="162"/>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="B94" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D94" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E94" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F94" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="G94" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H94" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I94" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="J94" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="K94" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="L94" s="78" t="str">
-        <f>"create table "&amp;D93&amp;"("</f>
-        <v>create table GOODS_IMAGE(</v>
-      </c>
-      <c r="N94" s="78" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="B95" s="110">
-        <v>1</v>
-      </c>
-      <c r="C95" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D95" s="53" t="str">
-        <f>"번호 ("&amp;D93&amp;"_SEQ.nextval)"</f>
-        <v>번호 (GOODS_IMAGE_SEQ.nextval)</v>
-      </c>
-      <c r="E95" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="F95" s="110"/>
-      <c r="G95" s="110"/>
-      <c r="H95" s="110"/>
-      <c r="I95" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="J95" s="110"/>
-      <c r="K95" s="67"/>
-      <c r="L95" s="78" t="str">
-        <f t="shared" ref="L95:L96" si="9">C95&amp;" "&amp;E95&amp;IF(E95="varchar2","("&amp;F95&amp;")","")&amp;IF(J95="",""," default "&amp;J95)&amp;IF(G95="",""," "&amp;G95)&amp;IF(H95="",""," unique")&amp;IF(I95="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N95" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="B96" s="73">
-        <v>2</v>
-      </c>
-      <c r="C96" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="D96" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="F96" s="73">
-        <v>100</v>
-      </c>
-      <c r="G96" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="H96" s="73"/>
-      <c r="I96" s="73"/>
-      <c r="J96" s="73"/>
-      <c r="K96" s="74" t="s">
-        <v>271</v>
-      </c>
+      <c r="K96" s="124"/>
       <c r="L96" s="78" t="str">
         <f t="shared" si="9"/>
-        <v>GOODSCODE varchar2(100) not null,</v>
-      </c>
-      <c r="N96" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="O96" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C96&amp;") references "&amp;K96</f>
-        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
+        <v>REGDATE date default sysdate not null,</v>
       </c>
     </row>
     <row r="97" spans="1:15">
-      <c r="B97" s="54">
+      <c r="B97" s="119">
+        <v>7</v>
+      </c>
+      <c r="C97" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="E97" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="121">
+        <v>10</v>
+      </c>
+      <c r="G97" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D97" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E97" s="55" t="s">
+      <c r="H97" s="121"/>
+      <c r="I97" s="121"/>
+      <c r="J97" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="K97" s="121" t="s">
+        <v>419</v>
+      </c>
+      <c r="L97" s="78" t="str">
+        <f t="shared" si="9"/>
+        <v>HEART varchar2(10) default 'NO' not null,</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="B98" s="119">
+        <v>8</v>
+      </c>
+      <c r="C98" s="91" t="s">
+        <v>424</v>
+      </c>
+      <c r="D98" s="91" t="s">
+        <v>423</v>
+      </c>
+      <c r="E98" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="123"/>
+      <c r="G98" s="123"/>
+      <c r="H98" s="123"/>
+      <c r="I98" s="123"/>
+      <c r="J98" s="122">
+        <v>20</v>
+      </c>
+      <c r="K98" s="123"/>
+      <c r="L98" s="78" t="str">
+        <f>C98&amp;" "&amp;E98&amp;IF(E98="varchar2","("&amp;F98&amp;")","")&amp;IF(J98="",""," default "&amp;J98)&amp;IF(G98="",""," "&amp;G98)&amp;IF(H98="",""," unique")&amp;IF(I98="",""," primary key")</f>
+        <v>STOCK number default 20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="L99" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N99" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="78">
+        <v>10</v>
+      </c>
+      <c r="B100" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" s="160"/>
+      <c r="D100" s="161" t="s">
+        <v>270</v>
+      </c>
+      <c r="E100" s="162"/>
+      <c r="F100" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="G100" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="H100" s="163"/>
+      <c r="I100" s="163"/>
+      <c r="J100" s="163"/>
+      <c r="K100" s="162"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="B101" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D101" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E101" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F101" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G101" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H101" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I101" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J101" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="K101" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L101" s="78" t="str">
+        <f>"create table "&amp;D100&amp;"("</f>
+        <v>create table GOODS_IMAGE(</v>
+      </c>
+      <c r="N101" s="78" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="B102" s="110">
+        <v>1</v>
+      </c>
+      <c r="C102" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="53" t="str">
+        <f>"번호 ("&amp;D100&amp;"_SEQ.nextval)"</f>
+        <v>번호 (GOODS_IMAGE_SEQ.nextval)</v>
+      </c>
+      <c r="E102" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="F102" s="110"/>
+      <c r="G102" s="110"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="J102" s="110"/>
+      <c r="K102" s="67"/>
+      <c r="L102" s="78" t="str">
+        <f t="shared" ref="L102:L103" si="10">C102&amp;" "&amp;E102&amp;IF(E102="varchar2","("&amp;F102&amp;")","")&amp;IF(J102="",""," default "&amp;J102)&amp;IF(G102="",""," "&amp;G102)&amp;IF(H102="",""," unique")&amp;IF(I102="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N102" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="B103" s="73">
+        <v>2</v>
+      </c>
+      <c r="C103" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F97" s="54">
+      <c r="F103" s="73">
         <v>100</v>
       </c>
-      <c r="G97" s="54" t="s">
+      <c r="G103" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="55"/>
-      <c r="L97" s="78" t="str">
-        <f>C97&amp;" "&amp;E97&amp;IF(E97="varchar2","("&amp;F97&amp;")","")&amp;IF(J97="",""," default "&amp;J97)&amp;IF(G97="",""," "&amp;G97)&amp;IF(H97="",""," unique")&amp;IF(I97="",""," primary key")</f>
-        <v>SAVENAME varchar2(100) not null</v>
-      </c>
-      <c r="N97" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="K98" s="108"/>
-      <c r="L98" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N98" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="78">
-        <v>11</v>
-      </c>
-      <c r="B99" s="164" t="s">
-        <v>189</v>
-      </c>
-      <c r="C99" s="164"/>
-      <c r="D99" s="165" t="s">
-        <v>411</v>
-      </c>
-      <c r="E99" s="165"/>
-      <c r="F99" s="113" t="s">
-        <v>286</v>
-      </c>
-      <c r="G99" s="165" t="s">
-        <v>389</v>
-      </c>
-      <c r="H99" s="165"/>
-      <c r="I99" s="165"/>
-      <c r="J99" s="165"/>
-      <c r="K99" s="165"/>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="B100" s="113" t="s">
-        <v>190</v>
-      </c>
-      <c r="C100" s="113" t="s">
-        <v>287</v>
-      </c>
-      <c r="D100" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="E100" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="F100" s="113" t="s">
-        <v>200</v>
-      </c>
-      <c r="G100" s="113" t="s">
-        <v>288</v>
-      </c>
-      <c r="H100" s="113" t="s">
-        <v>395</v>
-      </c>
-      <c r="I100" s="113" t="s">
-        <v>201</v>
-      </c>
-      <c r="J100" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="K100" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="L100" s="78" t="str">
-        <f>"create table "&amp;D99&amp;"("</f>
-        <v>create table GOODS_SALES(</v>
-      </c>
-      <c r="N100" s="78" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="B101" s="114">
-        <v>1</v>
-      </c>
-      <c r="C101" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="D101" s="53" t="str">
-        <f>"번호 ("&amp;D99&amp;"_SEQ.nextval)"</f>
-        <v>번호 (GOODS_SALES_SEQ.nextval)</v>
-      </c>
-      <c r="E101" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="F101" s="114"/>
-      <c r="G101" s="114"/>
-      <c r="H101" s="114"/>
-      <c r="I101" s="114" t="s">
-        <v>205</v>
-      </c>
-      <c r="J101" s="114"/>
-      <c r="K101" s="91"/>
-      <c r="L101" s="78" t="str">
-        <f t="shared" ref="L101:L104" si="10">C101&amp;" "&amp;E101&amp;IF(E101="varchar2","("&amp;F101&amp;")","")&amp;IF(J101="",""," default "&amp;J101)&amp;IF(G101="",""," "&amp;G101)&amp;IF(H101="",""," unique")&amp;IF(I101="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N101" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="B102" s="93">
-        <v>2</v>
-      </c>
-      <c r="C102" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="D102" s="92" t="s">
-        <v>425</v>
-      </c>
-      <c r="E102" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F102" s="93">
-        <v>100</v>
-      </c>
-      <c r="G102" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H102" s="93"/>
-      <c r="I102" s="93"/>
-      <c r="J102" s="93"/>
-      <c r="K102" s="92" t="s">
+      <c r="H103" s="73"/>
+      <c r="I103" s="73"/>
+      <c r="J103" s="73"/>
+      <c r="K103" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="L102" s="78" t="str">
+      <c r="L103" s="78" t="str">
         <f t="shared" si="10"/>
         <v>GOODSCODE varchar2(100) not null,</v>
       </c>
-      <c r="N102" s="78" t="s">
+      <c r="N103" s="78" t="s">
         <v>345</v>
-      </c>
-      <c r="O102" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C102&amp;") references "&amp;K102</f>
-        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="B103" s="93">
-        <v>3</v>
-      </c>
-      <c r="C103" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="D103" s="92" t="s">
-        <v>379</v>
-      </c>
-      <c r="E103" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F103" s="93">
-        <v>20</v>
-      </c>
-      <c r="G103" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H103" s="93"/>
-      <c r="I103" s="93"/>
-      <c r="J103" s="93"/>
-      <c r="K103" s="92" t="s">
-        <v>398</v>
-      </c>
-      <c r="L103" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>NICKNAME varchar2(20) not null,</v>
-      </c>
-      <c r="N103" s="78" t="s">
-        <v>332</v>
       </c>
       <c r="O103" s="78" t="str">
         <f>"constraint FK1 foreign key("&amp;C103&amp;") references "&amp;K103</f>
-        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
+        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
     <row r="104" spans="1:15">
-      <c r="B104" s="114">
-        <v>4</v>
-      </c>
-      <c r="C104" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="D104" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="E104" s="117" t="s">
+      <c r="B104" s="54">
+        <v>3</v>
+      </c>
+      <c r="C104" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D104" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F104" s="54">
+        <v>100</v>
+      </c>
+      <c r="G104" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="55"/>
+      <c r="L104" s="78" t="str">
+        <f>C104&amp;" "&amp;E104&amp;IF(E104="varchar2","("&amp;F104&amp;")","")&amp;IF(J104="",""," default "&amp;J104)&amp;IF(G104="",""," "&amp;G104)&amp;IF(H104="",""," unique")&amp;IF(I104="",""," primary key")</f>
+        <v>SAVENAME varchar2(100) not null</v>
+      </c>
+      <c r="N104" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="K105" s="108"/>
+      <c r="L105" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N105" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="78">
+        <v>11</v>
+      </c>
+      <c r="B106" s="164" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" s="164"/>
+      <c r="D106" s="165" t="s">
+        <v>411</v>
+      </c>
+      <c r="E106" s="165"/>
+      <c r="F106" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="G106" s="165" t="s">
+        <v>389</v>
+      </c>
+      <c r="H106" s="165"/>
+      <c r="I106" s="165"/>
+      <c r="J106" s="165"/>
+      <c r="K106" s="165"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="B107" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="D107" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="E107" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="F107" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="G107" s="113" t="s">
+        <v>288</v>
+      </c>
+      <c r="H107" s="113" t="s">
+        <v>395</v>
+      </c>
+      <c r="I107" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="J107" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="K107" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="L107" s="78" t="str">
+        <f>"create table "&amp;D106&amp;"("</f>
+        <v>create table GOODS_SALES(</v>
+      </c>
+      <c r="N107" s="78" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="B108" s="114">
+        <v>1</v>
+      </c>
+      <c r="C108" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="53" t="str">
+        <f>"번호 ("&amp;D106&amp;"_SEQ.nextval)"</f>
+        <v>번호 (GOODS_SALES_SEQ.nextval)</v>
+      </c>
+      <c r="E108" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="F108" s="114"/>
+      <c r="G108" s="114"/>
+      <c r="H108" s="114"/>
+      <c r="I108" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="J108" s="114"/>
+      <c r="K108" s="91"/>
+      <c r="L108" s="78" t="str">
+        <f t="shared" ref="L108:L111" si="11">C108&amp;" "&amp;E108&amp;IF(E108="varchar2","("&amp;F108&amp;")","")&amp;IF(J108="",""," default "&amp;J108)&amp;IF(G108="",""," "&amp;G108)&amp;IF(H108="",""," unique")&amp;IF(I108="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N108" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="B109" s="93">
         <v>2</v>
       </c>
-      <c r="F104" s="117"/>
-      <c r="G104" s="104" t="s">
+      <c r="C109" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="D109" s="92" t="s">
+        <v>425</v>
+      </c>
+      <c r="E109" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F109" s="93">
+        <v>100</v>
+      </c>
+      <c r="G109" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H109" s="93"/>
+      <c r="I109" s="93"/>
+      <c r="J109" s="93"/>
+      <c r="K109" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="L109" s="78" t="str">
+        <f t="shared" si="11"/>
+        <v>GOODSCODE varchar2(100) not null,</v>
+      </c>
+      <c r="N109" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="O109" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C109&amp;") references "&amp;K109</f>
+        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="B110" s="93">
         <v>3</v>
       </c>
-      <c r="H104" s="104"/>
-      <c r="I104" s="117"/>
-      <c r="J104" s="117"/>
-      <c r="K104" s="109"/>
-      <c r="L104" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>SALES number not null,</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="B105" s="114">
-        <v>5</v>
-      </c>
-      <c r="C105" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="D105" s="91" t="s">
-        <v>381</v>
-      </c>
-      <c r="E105" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="F105" s="114"/>
-      <c r="G105" s="104"/>
-      <c r="H105" s="104"/>
-      <c r="I105" s="114"/>
-      <c r="J105" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="K105" s="91"/>
-      <c r="L105" s="78" t="str">
-        <f>C105&amp;" "&amp;E105&amp;IF(E105="varchar2","("&amp;F105&amp;")","")&amp;IF(J105="",""," default "&amp;J105)&amp;IF(G105="",""," "&amp;G105)&amp;IF(H105="",""," unique")&amp;IF(I105="",""," primary key")</f>
-        <v>ORDERDATE date default sysdate</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="L106" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N106" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="78">
-        <v>12</v>
-      </c>
-      <c r="B107" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="C107" s="160"/>
-      <c r="D107" s="161" t="s">
-        <v>276</v>
-      </c>
-      <c r="E107" s="162"/>
-      <c r="F107" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G107" s="161" t="s">
-        <v>389</v>
-      </c>
-      <c r="H107" s="163"/>
-      <c r="I107" s="163"/>
-      <c r="J107" s="163"/>
-      <c r="K107" s="162"/>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="B108" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C108" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D108" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E108" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F108" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="G108" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H108" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I108" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="J108" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="K108" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="L108" s="78" t="str">
-        <f>"create table "&amp;D107&amp;"("</f>
-        <v>create table ASSATALK(</v>
-      </c>
-      <c r="N108" s="78" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="B109" s="54">
-        <v>1</v>
-      </c>
-      <c r="C109" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D109" s="53" t="str">
-        <f>"번호 ("&amp;D107&amp;"_SEQ.nextval)"</f>
-        <v>번호 (ASSATALK_SEQ.nextval)</v>
-      </c>
-      <c r="E109" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J109" s="54"/>
-      <c r="K109" s="55"/>
-      <c r="L109" s="78" t="str">
-        <f t="shared" ref="L109:L112" si="11">C109&amp;" "&amp;E109&amp;IF(E109="varchar2","("&amp;F109&amp;")","")&amp;IF(J109="",""," default "&amp;J109)&amp;IF(G109="",""," "&amp;G109)&amp;IF(H109="",""," unique")&amp;IF(I109="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N109" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="B110" s="54">
-        <v>2</v>
-      </c>
-      <c r="C110" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D110" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="E110" s="55" t="s">
+      <c r="C110" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="E110" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="F110" s="54">
+      <c r="F110" s="93">
         <v>20</v>
       </c>
-      <c r="G110" s="54" t="s">
+      <c r="G110" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="H110" s="54"/>
-      <c r="I110" s="54"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="55" t="s">
-        <v>296</v>
+      <c r="H110" s="93"/>
+      <c r="I110" s="93"/>
+      <c r="J110" s="93"/>
+      <c r="K110" s="92" t="s">
+        <v>398</v>
       </c>
       <c r="L110" s="78" t="str">
         <f t="shared" si="11"/>
-        <v>SPEAKER varchar2(20) not null,</v>
+        <v>NICKNAME varchar2(20) not null,</v>
       </c>
       <c r="N110" s="78" t="s">
-        <v>351</v>
+        <v>332</v>
+      </c>
+      <c r="O110" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C110&amp;") references "&amp;K110</f>
+        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
       </c>
     </row>
     <row r="111" spans="1:15">
-      <c r="B111" s="54">
+      <c r="B111" s="114">
+        <v>4</v>
+      </c>
+      <c r="C111" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="D111" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="E111" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="117"/>
+      <c r="G111" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D111" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="E111" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F111" s="54">
-        <v>20</v>
-      </c>
-      <c r="G111" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="55" t="s">
-        <v>296</v>
-      </c>
+      <c r="H111" s="104"/>
+      <c r="I111" s="117"/>
+      <c r="J111" s="117"/>
+      <c r="K111" s="109"/>
       <c r="L111" s="78" t="str">
         <f t="shared" si="11"/>
-        <v>LISTENER varchar2(20) not null,</v>
-      </c>
-      <c r="N111" s="78" t="s">
-        <v>352</v>
+        <v>SALES number not null,</v>
       </c>
     </row>
     <row r="112" spans="1:15">
-      <c r="B112" s="54">
-        <v>4</v>
-      </c>
-      <c r="C112" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D112" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E112" s="55" t="s">
+      <c r="B112" s="114">
+        <v>5</v>
+      </c>
+      <c r="C112" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="D112" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="E112" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" s="114"/>
+      <c r="G112" s="104"/>
+      <c r="H112" s="104"/>
+      <c r="I112" s="114"/>
+      <c r="J112" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112" s="91"/>
+      <c r="L112" s="78" t="str">
+        <f>C112&amp;" "&amp;E112&amp;IF(E112="varchar2","("&amp;F112&amp;")","")&amp;IF(J112="",""," default "&amp;J112)&amp;IF(G112="",""," "&amp;G112)&amp;IF(H112="",""," unique")&amp;IF(I112="",""," primary key")</f>
+        <v>ORDERDATE date default sysdate</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="L113" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N113" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="78">
+        <v>12</v>
+      </c>
+      <c r="B114" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="160"/>
+      <c r="D114" s="161" t="s">
+        <v>276</v>
+      </c>
+      <c r="E114" s="162"/>
+      <c r="F114" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="G114" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="H114" s="163"/>
+      <c r="I114" s="163"/>
+      <c r="J114" s="163"/>
+      <c r="K114" s="162"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="B115" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D115" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E115" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F115" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G115" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H115" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I115" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J115" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="K115" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L115" s="78" t="str">
+        <f>"create table "&amp;D114&amp;"("</f>
+        <v>create table ASSATALK(</v>
+      </c>
+      <c r="N115" s="78" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="B116" s="54">
+        <v>1</v>
+      </c>
+      <c r="C116" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D116" s="53" t="str">
+        <f>"번호 ("&amp;D114&amp;"_SEQ.nextval)"</f>
+        <v>번호 (ASSATALK_SEQ.nextval)</v>
+      </c>
+      <c r="E116" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J116" s="54"/>
+      <c r="K116" s="55"/>
+      <c r="L116" s="78" t="str">
+        <f t="shared" ref="L116:L119" si="12">C116&amp;" "&amp;E116&amp;IF(E116="varchar2","("&amp;F116&amp;")","")&amp;IF(J116="",""," default "&amp;J116)&amp;IF(G116="",""," "&amp;G116)&amp;IF(H116="",""," unique")&amp;IF(I116="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N116" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="B117" s="54">
+        <v>2</v>
+      </c>
+      <c r="C117" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D117" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="E117" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F112" s="54">
-        <v>200</v>
-      </c>
-      <c r="G112" s="54" t="s">
+      <c r="F117" s="54">
+        <v>20</v>
+      </c>
+      <c r="G117" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H112" s="54"/>
-      <c r="I112" s="54"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="55"/>
-      <c r="L112" s="78" t="str">
-        <f t="shared" si="11"/>
-        <v>CONTENT varchar2(200) not null,</v>
-      </c>
-      <c r="N112" s="78" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="B113" s="54">
-        <v>5</v>
-      </c>
-      <c r="C113" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="D113" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="E113" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="K113" s="55"/>
-      <c r="L113" s="78" t="str">
-        <f>C113&amp;" "&amp;E113&amp;IF(E113="varchar2","("&amp;F113&amp;")","")&amp;IF(J113="",""," default "&amp;J113)&amp;IF(G113="",""," "&amp;G113)&amp;IF(H113="",""," unique")&amp;IF(I113="",""," primary key")</f>
-        <v>SENDTIME timestamp default systimestamp</v>
-      </c>
-      <c r="N113" s="78" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="L114" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N114" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" s="78">
-        <v>13</v>
-      </c>
-      <c r="B115" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="C115" s="160"/>
-      <c r="D115" s="161" t="s">
-        <v>404</v>
-      </c>
-      <c r="E115" s="162"/>
-      <c r="F115" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G115" s="161" t="s">
-        <v>389</v>
-      </c>
-      <c r="H115" s="163"/>
-      <c r="I115" s="163"/>
-      <c r="J115" s="163"/>
-      <c r="K115" s="162"/>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="B116" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C116" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D116" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E116" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F116" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="G116" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H116" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I116" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="J116" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="K116" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="L116" s="78" t="str">
-        <f>"create table "&amp;D115&amp;"("</f>
-        <v>create table ASSATALK_KEYWORD(</v>
-      </c>
-      <c r="N116" s="78" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="B117" s="54">
-        <v>1</v>
-      </c>
-      <c r="C117" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D117" s="53" t="str">
-        <f>"번호 ("&amp;D115&amp;"_SEQ.nextval)"</f>
-        <v>번호 (ASSATALK_KEYWORD_SEQ.nextval)</v>
-      </c>
-      <c r="E117" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F117" s="54"/>
-      <c r="G117" s="54"/>
       <c r="H117" s="54"/>
-      <c r="I117" s="54" t="s">
-        <v>205</v>
-      </c>
+      <c r="I117" s="54"/>
       <c r="J117" s="54"/>
-      <c r="K117" s="55"/>
+      <c r="K117" s="55" t="s">
+        <v>296</v>
+      </c>
       <c r="L117" s="78" t="str">
-        <f t="shared" ref="L117:L119" si="12">C117&amp;" "&amp;E117&amp;IF(E117="varchar2","("&amp;F117&amp;")","")&amp;IF(J117="",""," default "&amp;J117)&amp;IF(G117="",""," "&amp;G117)&amp;IF(H117="",""," unique")&amp;IF(I117="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
+        <f t="shared" si="12"/>
+        <v>SPEAKER varchar2(20) not null,</v>
       </c>
       <c r="N117" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="B118" s="54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118" s="55" t="s">
-        <v>408</v>
+        <v>170</v>
       </c>
       <c r="D118" s="55" t="s">
-        <v>405</v>
+        <v>169</v>
       </c>
       <c r="E118" s="55" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="F118" s="54">
         <v>20</v>
       </c>
       <c r="G118" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118" s="54" t="s">
-        <v>396</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H118" s="54"/>
       <c r="I118" s="54"/>
       <c r="J118" s="54"/>
-      <c r="K118" s="55"/>
+      <c r="K118" s="55" t="s">
+        <v>296</v>
+      </c>
       <c r="L118" s="78" t="str">
         <f t="shared" si="12"/>
-        <v>KEYWORD varchar2(20) not null unique,</v>
+        <v>LISTENER varchar2(20) not null,</v>
       </c>
       <c r="N118" s="78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="31.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="B119" s="54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C119" s="55" t="s">
-        <v>409</v>
+        <v>141</v>
       </c>
       <c r="D119" s="55" t="s">
-        <v>406</v>
+        <v>140</v>
       </c>
       <c r="E119" s="55" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="F119" s="54">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G119" s="54" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="H119" s="54"/>
       <c r="I119" s="54"/>
       <c r="J119" s="54"/>
-      <c r="K119" s="55" t="s">
-        <v>410</v>
-      </c>
+      <c r="K119" s="55"/>
       <c r="L119" s="78" t="str">
         <f t="shared" si="12"/>
-        <v>ANSWERTYPE varchar2(20) not null,</v>
+        <v>CONTENT varchar2(200) not null,</v>
       </c>
       <c r="N119" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="B120" s="54">
         <v>5</v>
       </c>
       <c r="C120" s="55" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="D120" s="55" t="s">
-        <v>407</v>
+        <v>278</v>
       </c>
       <c r="E120" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F120" s="54">
-        <v>4000</v>
-      </c>
-      <c r="G120" s="54" t="s">
-        <v>3</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F120" s="54"/>
+      <c r="G120" s="54"/>
       <c r="H120" s="54"/>
       <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
+      <c r="J120" s="54" t="s">
+        <v>174</v>
+      </c>
       <c r="K120" s="55"/>
       <c r="L120" s="78" t="str">
         <f>C120&amp;" "&amp;E120&amp;IF(E120="varchar2","("&amp;F120&amp;")","")&amp;IF(J120="",""," default "&amp;J120)&amp;IF(G120="",""," "&amp;G120)&amp;IF(H120="",""," unique")&amp;IF(I120="",""," primary key")</f>
-        <v>ANSWER varchar2(4000) not null</v>
+        <v>SENDTIME timestamp default systimestamp</v>
       </c>
       <c r="N120" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:14">
       <c r="L121" s="78" t="s">
         <v>360</v>
       </c>
@@ -11764,588 +11772,788 @@
         <v>359</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:14">
       <c r="A122" s="78">
-        <v>14</v>
-      </c>
-      <c r="B122" s="166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C122" s="166"/>
-      <c r="D122" s="165" t="s">
-        <v>257</v>
-      </c>
-      <c r="E122" s="165"/>
-      <c r="F122" s="115" t="s">
+      <c r="C122" s="160"/>
+      <c r="D122" s="161" t="s">
+        <v>404</v>
+      </c>
+      <c r="E122" s="162"/>
+      <c r="F122" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G122" s="165" t="s">
+      <c r="G122" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H122" s="165"/>
-      <c r="I122" s="165"/>
-      <c r="J122" s="165"/>
-      <c r="K122" s="165"/>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="B123" s="115" t="s">
+      <c r="H122" s="163"/>
+      <c r="I122" s="163"/>
+      <c r="J122" s="163"/>
+      <c r="K122" s="162"/>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="B123" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C123" s="115" t="s">
+      <c r="C123" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D123" s="115" t="s">
+      <c r="D123" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E123" s="115" t="s">
+      <c r="E123" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F123" s="115" t="s">
+      <c r="F123" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G123" s="115" t="s">
+      <c r="G123" s="70" t="s">
         <v>288</v>
       </c>
       <c r="H123" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I123" s="115" t="s">
+      <c r="I123" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J123" s="115" t="s">
+      <c r="J123" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K123" s="115" t="s">
+      <c r="K123" s="70" t="s">
         <v>203</v>
       </c>
       <c r="L123" s="78" t="str">
         <f>"create table "&amp;D122&amp;"("</f>
-        <v>create table QUESTION(</v>
+        <v>create table ASSATALK_KEYWORD(</v>
       </c>
       <c r="N123" s="78" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="B124" s="114">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="B124" s="54">
         <v>1</v>
       </c>
-      <c r="C124" s="90" t="s">
+      <c r="C124" s="53" t="s">
         <v>131</v>
       </c>
       <c r="D124" s="53" t="str">
         <f>"번호 ("&amp;D122&amp;"_SEQ.nextval)"</f>
-        <v>번호 (QUESTION_SEQ.nextval)</v>
-      </c>
-      <c r="E124" s="90" t="s">
+        <v>번호 (ASSATALK_KEYWORD_SEQ.nextval)</v>
+      </c>
+      <c r="E124" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F124" s="114"/>
-      <c r="G124" s="114"/>
-      <c r="H124" s="114"/>
-      <c r="I124" s="114" t="s">
+      <c r="F124" s="54"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J124" s="114"/>
-      <c r="K124" s="91"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="55"/>
       <c r="L124" s="78" t="str">
-        <f t="shared" ref="L124:L130" si="13">C124&amp;" "&amp;E124&amp;IF(E124="varchar2","("&amp;F124&amp;")","")&amp;IF(J124="",""," default "&amp;J124)&amp;IF(G124="",""," "&amp;G124)&amp;IF(H124="",""," unique")&amp;IF(I124="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L124:L126" si="13">C124&amp;" "&amp;E124&amp;IF(E124="varchar2","("&amp;F124&amp;")","")&amp;IF(J124="",""," default "&amp;J124)&amp;IF(G124="",""," "&amp;G124)&amp;IF(H124="",""," unique")&amp;IF(I124="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N124" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
-      <c r="B125" s="114">
+    <row r="125" spans="1:14">
+      <c r="B125" s="54">
         <v>2</v>
       </c>
-      <c r="C125" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="D125" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="E125" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F125" s="114">
+      <c r="C125" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D125" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="E125" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" s="54">
         <v>20</v>
       </c>
-      <c r="G125" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H125" s="114"/>
-      <c r="I125" s="114"/>
-      <c r="J125" s="114"/>
-      <c r="K125" s="91"/>
+      <c r="G125" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="55"/>
       <c r="L125" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>ASKTYPE varchar2(20) not null,</v>
+        <v>KEYWORD varchar2(20) not null unique,</v>
       </c>
       <c r="N125" s="78" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="B126" s="114">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="32">
+      <c r="B126" s="54">
         <v>3</v>
       </c>
-      <c r="C126" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="D126" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="E126" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="F126" s="95">
+      <c r="C126" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="D126" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="E126" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="54">
         <v>20</v>
       </c>
-      <c r="G126" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="H126" s="95"/>
-      <c r="I126" s="95"/>
-      <c r="J126" s="95"/>
-      <c r="K126" s="94" t="s">
-        <v>388</v>
+      <c r="G126" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="55" t="s">
+        <v>410</v>
       </c>
       <c r="L126" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>NICKNAME varchar2(20) not null,</v>
+        <v>ANSWERTYPE varchar2(20) not null,</v>
       </c>
       <c r="N126" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="O126" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C126&amp;") references "&amp;K126</f>
-        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="B127" s="114">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="B127" s="54">
+        <v>5</v>
+      </c>
+      <c r="C127" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D127" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="E127" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="91" t="s">
-        <v>232</v>
-      </c>
-      <c r="D127" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="E127" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F127" s="114">
-        <v>50</v>
-      </c>
-      <c r="G127" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H127" s="114"/>
-      <c r="I127" s="114"/>
-      <c r="J127" s="114"/>
-      <c r="K127" s="91"/>
+      <c r="F127" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G127" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="55"/>
       <c r="L127" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>TITLE varchar2(50) not null,</v>
+        <f>C127&amp;" "&amp;E127&amp;IF(E127="varchar2","("&amp;F127&amp;")","")&amp;IF(J127="",""," default "&amp;J127)&amp;IF(G127="",""," "&amp;G127)&amp;IF(H127="",""," unique")&amp;IF(I127="",""," primary key")</f>
+        <v>ANSWER varchar2(4000) not null</v>
       </c>
       <c r="N127" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="B128" s="114">
-        <v>5</v>
-      </c>
-      <c r="C128" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="D128" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="E128" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F128" s="114">
-        <v>4000</v>
-      </c>
-      <c r="G128" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H128" s="114"/>
-      <c r="I128" s="114"/>
-      <c r="J128" s="114"/>
-      <c r="K128" s="91"/>
-      <c r="L128" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>CONTENT varchar2(4000) not null,</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="L128" s="78" t="s">
+        <v>360</v>
       </c>
       <c r="N128" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="31.2">
-      <c r="B129" s="114">
-        <v>6</v>
-      </c>
-      <c r="C129" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D129" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="E129" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F129" s="114">
-        <v>4000</v>
-      </c>
-      <c r="G129" s="114"/>
-      <c r="H129" s="114"/>
-      <c r="I129" s="114"/>
-      <c r="J129" s="114"/>
-      <c r="K129" s="91" t="s">
-        <v>365</v>
-      </c>
-      <c r="L129" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>ANSWER varchar2(4000),</v>
-      </c>
-      <c r="N129" s="78" t="s">
-        <v>370</v>
-      </c>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="78">
+        <v>14</v>
+      </c>
+      <c r="B129" s="166" t="s">
+        <v>189</v>
+      </c>
+      <c r="C129" s="166"/>
+      <c r="D129" s="165" t="s">
+        <v>257</v>
+      </c>
+      <c r="E129" s="165"/>
+      <c r="F129" s="115" t="s">
+        <v>286</v>
+      </c>
+      <c r="G129" s="165" t="s">
+        <v>389</v>
+      </c>
+      <c r="H129" s="165"/>
+      <c r="I129" s="165"/>
+      <c r="J129" s="165"/>
+      <c r="K129" s="165"/>
     </row>
     <row r="130" spans="1:15">
-      <c r="B130" s="114">
-        <v>7</v>
-      </c>
-      <c r="C130" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="D130" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="E130" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F130" s="114"/>
-      <c r="G130" s="114"/>
-      <c r="H130" s="114"/>
-      <c r="I130" s="114"/>
-      <c r="J130" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="K130" s="91" t="s">
-        <v>266</v>
+      <c r="B130" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130" s="115" t="s">
+        <v>287</v>
+      </c>
+      <c r="D130" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="E130" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="F130" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G130" s="115" t="s">
+        <v>288</v>
+      </c>
+      <c r="H130" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I130" s="115" t="s">
+        <v>201</v>
+      </c>
+      <c r="J130" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="K130" s="115" t="s">
+        <v>203</v>
       </c>
       <c r="L130" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>ASKDATE date default sysdate,</v>
+        <f>"create table "&amp;D129&amp;"("</f>
+        <v>create table QUESTION(</v>
       </c>
       <c r="N130" s="78" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="B131" s="114">
-        <v>8</v>
-      </c>
-      <c r="C131" s="91" t="s">
-        <v>267</v>
-      </c>
-      <c r="D131" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="E131" s="91" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="C131" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="D131" s="53" t="str">
+        <f>"번호 ("&amp;D129&amp;"_SEQ.nextval)"</f>
+        <v>번호 (QUESTION_SEQ.nextval)</v>
+      </c>
+      <c r="E131" s="90" t="s">
+        <v>128</v>
       </c>
       <c r="F131" s="114"/>
       <c r="G131" s="114"/>
       <c r="H131" s="114"/>
-      <c r="I131" s="114"/>
+      <c r="I131" s="114" t="s">
+        <v>205</v>
+      </c>
       <c r="J131" s="114"/>
-      <c r="K131" s="91" t="s">
-        <v>269</v>
-      </c>
+      <c r="K131" s="91"/>
       <c r="L131" s="78" t="str">
-        <f>C131&amp;" "&amp;E131&amp;IF(E131="varchar2","("&amp;F131&amp;")","")&amp;IF(J131="",""," default "&amp;J131)&amp;IF(G131="",""," "&amp;G131)&amp;IF(H131="",""," unique")&amp;IF(I131="",""," primary key")</f>
-        <v>ANSWERDATE date</v>
+        <f t="shared" ref="L131:L137" si="14">C131&amp;" "&amp;E131&amp;IF(E131="varchar2","("&amp;F131&amp;")","")&amp;IF(J131="",""," default "&amp;J131)&amp;IF(G131="",""," "&amp;G131)&amp;IF(H131="",""," unique")&amp;IF(I131="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N131" s="78" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="1:15">
-      <c r="L132" s="78" t="s">
-        <v>360</v>
+      <c r="B132" s="114">
+        <v>2</v>
+      </c>
+      <c r="C132" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D132" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E132" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F132" s="114">
+        <v>20</v>
+      </c>
+      <c r="G132" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H132" s="114"/>
+      <c r="I132" s="114"/>
+      <c r="J132" s="114"/>
+      <c r="K132" s="91"/>
+      <c r="L132" s="78" t="str">
+        <f t="shared" si="14"/>
+        <v>ASKTYPE varchar2(20) not null,</v>
       </c>
       <c r="N132" s="78" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="78">
-        <v>15</v>
-      </c>
-      <c r="B133" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="C133" s="160"/>
-      <c r="D133" s="161" t="s">
-        <v>297</v>
-      </c>
-      <c r="E133" s="162"/>
-      <c r="F133" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G133" s="161" t="s">
-        <v>389</v>
-      </c>
-      <c r="H133" s="163"/>
-      <c r="I133" s="163"/>
-      <c r="J133" s="163"/>
-      <c r="K133" s="162"/>
+      <c r="B133" s="114">
+        <v>3</v>
+      </c>
+      <c r="C133" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="D133" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="E133" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="F133" s="95">
+        <v>20</v>
+      </c>
+      <c r="G133" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="H133" s="95"/>
+      <c r="I133" s="95"/>
+      <c r="J133" s="95"/>
+      <c r="K133" s="94" t="s">
+        <v>388</v>
+      </c>
+      <c r="L133" s="78" t="str">
+        <f t="shared" si="14"/>
+        <v>NICKNAME varchar2(20) not null,</v>
+      </c>
+      <c r="N133" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="O133" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C133&amp;") references "&amp;K133</f>
+        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
+      </c>
     </row>
     <row r="134" spans="1:15">
-      <c r="B134" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C134" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D134" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E134" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F134" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="G134" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H134" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I134" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="J134" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="K134" s="70" t="s">
-        <v>203</v>
-      </c>
+      <c r="B134" s="114">
+        <v>4</v>
+      </c>
+      <c r="C134" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="D134" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="E134" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F134" s="114">
+        <v>50</v>
+      </c>
+      <c r="G134" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H134" s="114"/>
+      <c r="I134" s="114"/>
+      <c r="J134" s="114"/>
+      <c r="K134" s="91"/>
       <c r="L134" s="78" t="str">
-        <f>"create table "&amp;D133&amp;"("</f>
-        <v>create table WARNING(</v>
+        <f t="shared" si="14"/>
+        <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N134" s="78" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
     </row>
     <row r="135" spans="1:15">
-      <c r="B135" s="54">
-        <v>1</v>
-      </c>
-      <c r="C135" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D135" s="53" t="str">
-        <f>"번호 ("&amp;D133&amp;"_SEQ.nextval)"</f>
-        <v>번호 (WARNING_SEQ.nextval)</v>
-      </c>
-      <c r="E135" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F135" s="54"/>
-      <c r="G135" s="54"/>
-      <c r="H135" s="54"/>
-      <c r="I135" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J135" s="54"/>
-      <c r="K135" s="55"/>
+      <c r="B135" s="114">
+        <v>5</v>
+      </c>
+      <c r="C135" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E135" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F135" s="114">
+        <v>4000</v>
+      </c>
+      <c r="G135" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H135" s="114"/>
+      <c r="I135" s="114"/>
+      <c r="J135" s="114"/>
+      <c r="K135" s="91"/>
       <c r="L135" s="78" t="str">
-        <f t="shared" ref="L135:L139" si="14">C135&amp;" "&amp;E135&amp;IF(E135="varchar2","("&amp;F135&amp;")","")&amp;IF(J135="",""," default "&amp;J135)&amp;IF(G135="",""," "&amp;G135)&amp;IF(H135="",""," unique")&amp;IF(I135="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
+        <f t="shared" si="14"/>
+        <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N135" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="B136" s="54">
-        <v>2</v>
-      </c>
-      <c r="C136" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="D136" s="82" t="s">
-        <v>152</v>
-      </c>
-      <c r="E136" s="82" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="32">
+      <c r="B136" s="114">
+        <v>6</v>
+      </c>
+      <c r="C136" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D136" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F136" s="83">
-        <v>20</v>
-      </c>
-      <c r="G136" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="H136" s="83"/>
-      <c r="I136" s="83"/>
-      <c r="J136" s="83"/>
-      <c r="K136" s="85" t="s">
-        <v>387</v>
+      <c r="F136" s="114">
+        <v>4000</v>
+      </c>
+      <c r="G136" s="114"/>
+      <c r="H136" s="114"/>
+      <c r="I136" s="114"/>
+      <c r="J136" s="114"/>
+      <c r="K136" s="91" t="s">
+        <v>365</v>
       </c>
       <c r="L136" s="78" t="str">
         <f t="shared" si="14"/>
-        <v>NICKNAME varchar2(20) not null,</v>
+        <v>ANSWER varchar2(4000),</v>
       </c>
       <c r="N136" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="O136" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C136&amp;") references "&amp;K136</f>
-        <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
+        <v>370</v>
       </c>
     </row>
     <row r="137" spans="1:15">
-      <c r="B137" s="110">
-        <v>3</v>
-      </c>
-      <c r="C137" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="D137" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="E137" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="F137" s="84"/>
-      <c r="G137" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="H137" s="84"/>
-      <c r="I137" s="84"/>
-      <c r="J137" s="84"/>
-      <c r="K137" s="85" t="s">
-        <v>386</v>
+      <c r="B137" s="114">
+        <v>7</v>
+      </c>
+      <c r="C137" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="D137" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="E137" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F137" s="114"/>
+      <c r="G137" s="114"/>
+      <c r="H137" s="114"/>
+      <c r="I137" s="114"/>
+      <c r="J137" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="K137" s="91" t="s">
+        <v>266</v>
       </c>
       <c r="L137" s="78" t="str">
         <f t="shared" si="14"/>
+        <v>ASKDATE date default sysdate,</v>
+      </c>
+      <c r="N137" s="78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="B138" s="114">
+        <v>8</v>
+      </c>
+      <c r="C138" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D138" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E138" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F138" s="114"/>
+      <c r="G138" s="114"/>
+      <c r="H138" s="114"/>
+      <c r="I138" s="114"/>
+      <c r="J138" s="114"/>
+      <c r="K138" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="L138" s="78" t="str">
+        <f>C138&amp;" "&amp;E138&amp;IF(E138="varchar2","("&amp;F138&amp;")","")&amp;IF(J138="",""," default "&amp;J138)&amp;IF(G138="",""," "&amp;G138)&amp;IF(H138="",""," unique")&amp;IF(I138="",""," primary key")</f>
+        <v>ANSWERDATE date</v>
+      </c>
+      <c r="N138" s="78" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="L139" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N139" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="78">
+        <v>15</v>
+      </c>
+      <c r="B140" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="C140" s="160"/>
+      <c r="D140" s="161" t="s">
+        <v>297</v>
+      </c>
+      <c r="E140" s="162"/>
+      <c r="F140" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="G140" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="H140" s="163"/>
+      <c r="I140" s="163"/>
+      <c r="J140" s="163"/>
+      <c r="K140" s="162"/>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="B141" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C141" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D141" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E141" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F141" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G141" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H141" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I141" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J141" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="K141" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L141" s="78" t="str">
+        <f>"create table "&amp;D140&amp;"("</f>
+        <v>create table WARNING(</v>
+      </c>
+      <c r="N141" s="78" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="B142" s="54">
+        <v>1</v>
+      </c>
+      <c r="C142" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D142" s="53" t="str">
+        <f>"번호 ("&amp;D140&amp;"_SEQ.nextval)"</f>
+        <v>번호 (WARNING_SEQ.nextval)</v>
+      </c>
+      <c r="E142" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F142" s="54"/>
+      <c r="G142" s="54"/>
+      <c r="H142" s="54"/>
+      <c r="I142" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J142" s="54"/>
+      <c r="K142" s="55"/>
+      <c r="L142" s="78" t="str">
+        <f t="shared" ref="L142:L146" si="15">C142&amp;" "&amp;E142&amp;IF(E142="varchar2","("&amp;F142&amp;")","")&amp;IF(J142="",""," default "&amp;J142)&amp;IF(G142="",""," "&amp;G142)&amp;IF(H142="",""," unique")&amp;IF(I142="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N142" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="B143" s="54">
+        <v>2</v>
+      </c>
+      <c r="C143" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="F143" s="83">
+        <v>20</v>
+      </c>
+      <c r="G143" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="H143" s="83"/>
+      <c r="I143" s="83"/>
+      <c r="J143" s="83"/>
+      <c r="K143" s="85" t="s">
+        <v>387</v>
+      </c>
+      <c r="L143" s="78" t="str">
+        <f t="shared" si="15"/>
+        <v>NICKNAME varchar2(20) not null,</v>
+      </c>
+      <c r="N143" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="O143" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C143&amp;") references "&amp;K143</f>
+        <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="B144" s="110">
+        <v>3</v>
+      </c>
+      <c r="C144" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="D144" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="E144" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="F144" s="84"/>
+      <c r="G144" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="H144" s="84"/>
+      <c r="I144" s="84"/>
+      <c r="J144" s="84"/>
+      <c r="K144" s="85" t="s">
+        <v>386</v>
+      </c>
+      <c r="L144" s="78" t="str">
+        <f t="shared" si="15"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N137" s="78" t="s">
+      <c r="N144" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O137" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C137&amp;") references "&amp;K137</f>
+      <c r="O144" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C144&amp;") references "&amp;K144</f>
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
-      <c r="B138" s="54">
+    <row r="145" spans="2:14">
+      <c r="B145" s="54">
         <v>4</v>
       </c>
-      <c r="C138" s="55" t="s">
+      <c r="C145" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D138" s="55" t="s">
+      <c r="D145" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="E138" s="55" t="s">
+      <c r="E145" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F138" s="54">
+      <c r="F145" s="54">
         <v>30</v>
       </c>
-      <c r="G138" s="54"/>
-      <c r="H138" s="54"/>
-      <c r="I138" s="54"/>
-      <c r="J138" s="54"/>
-      <c r="K138" s="55"/>
-      <c r="L138" s="78" t="str">
-        <f t="shared" si="14"/>
+      <c r="G145" s="54"/>
+      <c r="H145" s="54"/>
+      <c r="I145" s="54"/>
+      <c r="J145" s="54"/>
+      <c r="K145" s="55"/>
+      <c r="L145" s="78" t="str">
+        <f t="shared" si="15"/>
         <v>WARNTYPE varchar2(30),</v>
       </c>
-      <c r="N138" s="78" t="s">
+      <c r="N145" s="78" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
-      <c r="B139" s="54">
+    <row r="146" spans="2:14">
+      <c r="B146" s="54">
         <v>5</v>
       </c>
-      <c r="C139" s="55" t="s">
+      <c r="C146" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D139" s="55" t="s">
+      <c r="D146" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="E139" s="55" t="s">
+      <c r="E146" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F139" s="54">
+      <c r="F146" s="54">
         <v>300</v>
       </c>
-      <c r="G139" s="54"/>
-      <c r="H139" s="54"/>
-      <c r="I139" s="54"/>
-      <c r="J139" s="54"/>
-      <c r="K139" s="55"/>
-      <c r="L139" s="78" t="str">
-        <f t="shared" si="14"/>
+      <c r="G146" s="54"/>
+      <c r="H146" s="54"/>
+      <c r="I146" s="54"/>
+      <c r="J146" s="54"/>
+      <c r="K146" s="55"/>
+      <c r="L146" s="78" t="str">
+        <f t="shared" si="15"/>
         <v>WARNWHY varchar2(300),</v>
       </c>
-      <c r="N139" s="78" t="s">
+      <c r="N146" s="78" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
-      <c r="B140" s="54">
+    <row r="147" spans="2:14">
+      <c r="B147" s="54">
         <v>6</v>
       </c>
-      <c r="C140" s="55" t="s">
+      <c r="C147" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="D140" s="55" t="s">
+      <c r="D147" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="E140" s="55" t="s">
+      <c r="E147" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F140" s="54"/>
-      <c r="G140" s="54"/>
-      <c r="H140" s="54"/>
-      <c r="I140" s="54"/>
-      <c r="J140" s="54" t="s">
+      <c r="F147" s="54"/>
+      <c r="G147" s="54"/>
+      <c r="H147" s="54"/>
+      <c r="I147" s="54"/>
+      <c r="J147" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="K140" s="55"/>
-      <c r="L140" s="78" t="str">
-        <f>C140&amp;" "&amp;E140&amp;IF(E140="varchar2","("&amp;F140&amp;")","")&amp;IF(J140="",""," default "&amp;J140)&amp;IF(G140="",""," "&amp;G140)&amp;IF(H140="",""," unique")&amp;IF(I140="",""," primary key")</f>
+      <c r="K147" s="55"/>
+      <c r="L147" s="78" t="str">
+        <f>C147&amp;" "&amp;E147&amp;IF(E147="varchar2","("&amp;F147&amp;")","")&amp;IF(J147="",""," default "&amp;J147)&amp;IF(G147="",""," "&amp;G147)&amp;IF(H147="",""," unique")&amp;IF(I147="",""," primary key")</f>
         <v>WARNTIME date default sysdate</v>
       </c>
-      <c r="N140" s="78" t="s">
+      <c r="N147" s="78" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
-      <c r="L141" s="78" t="s">
+    <row r="148" spans="2:14">
+      <c r="L148" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N141" s="78" t="s">
+      <c r="N148" s="78" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="56">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:K36"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -12360,45 +12568,45 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="G15:K15"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="G129:K129"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="G140:K140"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:K26"/>
     <mergeCell ref="B122:C122"/>
     <mergeCell ref="D122:E122"/>
     <mergeCell ref="G122:K122"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="G133:K133"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="B100:C100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12414,14 +12622,14 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="34.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" hidden="1">
@@ -12432,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="str">
-        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>MEMBER</v>
       </c>
     </row>
@@ -12445,7 +12653,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>MEMBER_AUTO</v>
       </c>
     </row>
@@ -12458,7 +12666,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>MEMBER_ADDR</v>
       </c>
     </row>
@@ -12471,7 +12679,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>POINT</v>
       </c>
     </row>
@@ -12481,7 +12689,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>BOARD</v>
       </c>
     </row>
@@ -12491,7 +12699,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>BOARD_REF</v>
       </c>
     </row>
@@ -12501,7 +12709,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>BOARD_IMAGE</v>
       </c>
     </row>
@@ -12511,7 +12719,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>BOARD_TERM</v>
       </c>
     </row>
@@ -12521,7 +12729,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>GOODS</v>
       </c>
     </row>
@@ -12531,7 +12739,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>GOODS_IMAGE</v>
       </c>
     </row>
@@ -12541,7 +12749,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>GOODS_SALES</v>
       </c>
     </row>
@@ -12551,7 +12759,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>ASSATALK</v>
       </c>
     </row>
@@ -12561,7 +12769,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>ASSATALK_KEYWORD</v>
       </c>
     </row>
@@ -12571,7 +12779,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>QUESTION</v>
       </c>
     </row>
@@ -12581,7 +12789,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
+        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>WARNING</v>
       </c>
     </row>

--- a/설계/테이블설계/1. 테이블정의서.xlsx
+++ b/설계/테이블설계/1. 테이블정의서.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\테이블설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1784A7D-207A-4BD3-91DB-C5F0C293F039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF2388A-A8B7-4796-B609-5618EA46F33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="599" activeTab="3" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="211005" sheetId="6" r:id="rId1"/>
     <sheet name="테이블 정의서" sheetId="10" state="hidden" r:id="rId2"/>
-    <sheet name="테이블 정의서(1009수정)" sheetId="11" r:id="rId3"/>
+    <sheet name="테이블 정의서(1026수정)" sheetId="11" r:id="rId3"/>
     <sheet name="시퀀스정의" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="444">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1384,10 +1384,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MEMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MEMBER(NICKNAME)</t>
   </si>
   <si>
@@ -1535,10 +1531,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MEMBER_AUTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>REGDATE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1568,6 +1560,14 @@
   </si>
   <si>
     <t>탈퇴일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_SUB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_MAIN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8364,8 +8364,8 @@
   </sheetPr>
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L37" sqref="L37:L42"/>
     </sheetView>
   </sheetViews>
@@ -8408,10 +8408,10 @@
       </c>
       <c r="K1" s="176"/>
       <c r="L1" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="M1" s="78" t="s">
         <v>414</v>
-      </c>
-      <c r="M1" s="78" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C4" s="160"/>
       <c r="D4" s="161" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="E4" s="162"/>
       <c r="F4" s="70" t="s">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="L5" s="78" t="str">
         <f>"create table "&amp;D4&amp;"("</f>
-        <v>create table MEMBER(</v>
+        <v>create table MEMBER_MAIN(</v>
       </c>
       <c r="N5" s="78" t="s">
         <v>298</v>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="D6" s="53" t="str">
         <f>"번호 ("&amp;D4&amp;"_SEQ.nextval)"</f>
-        <v>번호 (MEMBER_SEQ.nextval)</v>
+        <v>번호 (MEMBER_MAIN_SEQ.nextval)</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>128</v>
@@ -8531,7 +8531,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>206</v>
@@ -8552,7 +8552,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="107"/>
       <c r="L7" s="78" t="str">
-        <f t="shared" ref="L7:L11" si="0">C7&amp;" "&amp;E7&amp;IF(E7="varchar2","("&amp;F7&amp;")","")&amp;IF(J7="",""," default "&amp;J7)&amp;IF(G7="",""," "&amp;G7)&amp;IF(H7="",""," unique")&amp;IF(I7="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L7:L9" si="0">C7&amp;" "&amp;E7&amp;IF(E7="varchar2","("&amp;F7&amp;")","")&amp;IF(J7="",""," default "&amp;J7)&amp;IF(G7="",""," "&amp;G7)&amp;IF(H7="",""," unique")&amp;IF(I7="",""," primary key")&amp;","</f>
         <v>EMAIL varchar2(50) not null unique,</v>
       </c>
       <c r="N7" s="78" t="s">
@@ -8627,93 +8627,87 @@
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>193</v>
+        <v>419</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>281</v>
+        <v>421</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="F10" s="54">
-        <v>20</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>139</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="I10" s="54"/>
       <c r="J10" s="54"/>
-      <c r="K10" s="107"/>
+      <c r="K10" s="55" t="s">
+        <v>420</v>
+      </c>
       <c r="L10" s="78" t="str">
-        <f t="shared" si="0"/>
-        <v>NAME varchar2(20) not null,</v>
-      </c>
-      <c r="N10" s="78" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <f>C10&amp;" "&amp;E10&amp;IF(E10="varchar2","("&amp;F10&amp;")","")&amp;IF(J10="",""," default "&amp;J10)&amp;IF(G10="",""," "&amp;G10)&amp;IF(H10="",""," unique")&amp;IF(I10="",""," primary key")&amp;","</f>
+        <v>SESSIONID varchar2(100),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17">
       <c r="B11" s="54">
-        <v>6</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="54">
-        <v>10</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55" t="s">
-        <v>219</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" s="126" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" s="126" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="126" t="s">
+        <v>433</v>
       </c>
       <c r="L11" s="78" t="str">
-        <f t="shared" si="0"/>
-        <v>GENDER varchar2(10),</v>
-      </c>
-      <c r="N11" s="78" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="48">
+        <f>C11&amp;" "&amp;E11&amp;IF(E11="varchar2","("&amp;F11&amp;")","")&amp;IF(J11="",""," default "&amp;J11)&amp;IF(G11="",""," "&amp;G11)&amp;IF(H11="",""," unique")&amp;IF(I11="",""," primary key")&amp;","</f>
+        <v>LOGINTIME date,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17">
       <c r="B12" s="54">
-        <v>7</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="E12" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="126" t="s">
+        <v>428</v>
+      </c>
+      <c r="E12" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55" t="s">
-        <v>290</v>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="126" t="s">
+        <v>429</v>
       </c>
       <c r="L12" s="78" t="str">
         <f>C12&amp;" "&amp;E12&amp;IF(E12="varchar2","("&amp;F12&amp;")","")&amp;IF(J12="",""," default "&amp;J12)&amp;IF(G12="",""," "&amp;G12)&amp;IF(H12="",""," unique")&amp;IF(I12="",""," primary key")</f>
-        <v>STOREDATE date</v>
+        <v>REGDATE date default sysdate</v>
       </c>
       <c r="N12" s="78" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -8730,7 +8724,7 @@
       </c>
       <c r="C15" s="160"/>
       <c r="D15" s="161" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E15" s="162"/>
       <c r="F15" s="70" t="s">
@@ -8777,7 +8771,7 @@
       </c>
       <c r="L16" s="78" t="str">
         <f>"create table "&amp;D15&amp;"("</f>
-        <v>create table MEMBER_AUTO(</v>
+        <v>create table MEMBER_SUB(</v>
       </c>
       <c r="N16" s="78" t="s">
         <v>309</v>
@@ -8792,7 +8786,7 @@
       </c>
       <c r="D17" s="53" t="str">
         <f>"번호 ("&amp;D15&amp;"_SEQ.nextval)"</f>
-        <v>번호 (MEMBER_AUTO_SEQ.nextval)</v>
+        <v>번호 (MEMBER_SUB_SEQ.nextval)</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>128</v>
@@ -8806,7 +8800,7 @@
       <c r="J17" s="54"/>
       <c r="K17" s="55"/>
       <c r="L17" s="78" t="str">
-        <f t="shared" ref="L17:L23" si="1">C17&amp;" "&amp;E17&amp;IF(E17="varchar2","("&amp;F17&amp;")","")&amp;IF(J17="",""," default "&amp;J17)&amp;IF(G17="",""," "&amp;G17)&amp;IF(H17="",""," unique")&amp;IF(I17="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L17:L18" si="1">C17&amp;" "&amp;E17&amp;IF(E17="varchar2","("&amp;F17&amp;")","")&amp;IF(J17="",""," default "&amp;J17)&amp;IF(G17="",""," "&amp;G17)&amp;IF(H17="",""," unique")&amp;IF(I17="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N17" s="78" t="s">
@@ -8838,7 +8832,7 @@
       <c r="I18" s="73"/>
       <c r="J18" s="73"/>
       <c r="K18" s="74" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L18" s="78" t="str">
         <f t="shared" si="1"/>
@@ -8854,178 +8848,186 @@
     </row>
     <row r="19" spans="1:15">
       <c r="B19" s="54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F19" s="54">
+        <v>20</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
-      <c r="J19" s="54">
-        <v>0</v>
-      </c>
-      <c r="K19" s="107" t="s">
-        <v>285</v>
-      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="107"/>
       <c r="L19" s="78" t="str">
-        <f t="shared" si="1"/>
-        <v>WARNCOUNT number default 0,</v>
+        <f>C19&amp;" "&amp;E19&amp;IF(E19="varchar2","("&amp;F19&amp;")","")&amp;IF(J19="",""," default "&amp;J19)&amp;IF(G19="",""," "&amp;G19)&amp;IF(H19="",""," unique")&amp;IF(I19="",""," primary key")&amp;","</f>
+        <v>NAME varchar2(20) not null,</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="B20" s="54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F20" s="54">
+        <v>10</v>
+      </c>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="54">
+      <c r="J20" s="54"/>
+      <c r="K20" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="78" t="str">
+        <f>C20&amp;" "&amp;E20&amp;IF(E20="varchar2","("&amp;F20&amp;")","")&amp;IF(J20="",""," default "&amp;J20)&amp;IF(G20="",""," "&amp;G20)&amp;IF(H20="",""," unique")&amp;IF(I20="",""," primary key")&amp;","</f>
+        <v>GENDER varchar2(10),</v>
+      </c>
+      <c r="N20" s="78" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" s="54">
+        <v>3</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54">
         <v>0</v>
       </c>
-      <c r="K20" s="107" t="s">
+      <c r="K21" s="107" t="s">
+        <v>285</v>
+      </c>
+      <c r="L21" s="78" t="str">
+        <f>C21&amp;" "&amp;E21&amp;IF(E21="varchar2","("&amp;F21&amp;")","")&amp;IF(J21="",""," default "&amp;J21)&amp;IF(G21="",""," "&amp;G21)&amp;IF(H21="",""," unique")&amp;IF(I21="",""," primary key")&amp;","</f>
+        <v>WARNCOUNT number default 0,</v>
+      </c>
+      <c r="N21" s="78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="54">
+        <v>4</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54">
+        <v>0</v>
+      </c>
+      <c r="K22" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="L20" s="78" t="str">
-        <f t="shared" si="1"/>
+      <c r="L22" s="78" t="str">
+        <f>C22&amp;" "&amp;E22&amp;IF(E22="varchar2","("&amp;F22&amp;")","")&amp;IF(J22="",""," default "&amp;J22)&amp;IF(G22="",""," "&amp;G22)&amp;IF(H22="",""," unique")&amp;IF(I22="",""," primary key")&amp;","</f>
         <v>POINT number default 0,</v>
       </c>
-      <c r="N20" s="78" t="s">
+      <c r="N22" s="78" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="17">
-      <c r="B21" s="54">
-        <v>5</v>
-      </c>
-      <c r="C21" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="126" t="s">
-        <v>429</v>
-      </c>
-      <c r="E21" s="126" t="s">
+    <row r="23" spans="1:15" ht="17">
+      <c r="B23" s="54">
+        <v>6</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="126" t="s">
+        <v>430</v>
+      </c>
+      <c r="E23" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="126" t="s">
-        <v>430</v>
-      </c>
-      <c r="L21" s="78" t="str">
-        <f t="shared" si="1"/>
-        <v>REGDATE date,</v>
-      </c>
-      <c r="N21" s="78" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="17">
-      <c r="B22" s="54">
-        <v>6</v>
-      </c>
-      <c r="C22" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="126" t="s">
-        <v>431</v>
-      </c>
-      <c r="E22" s="126" t="s">
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="126" t="s">
+        <v>427</v>
+      </c>
+      <c r="L23" s="78" t="str">
+        <f>C23&amp;" "&amp;E23&amp;IF(E23="varchar2","("&amp;F23&amp;")","")&amp;IF(J23="",""," default "&amp;J23)&amp;IF(G23="",""," "&amp;G23)&amp;IF(H23="",""," unique")&amp;IF(I23="",""," primary key")&amp;","</f>
+        <v>MODDATE date default sysdate,</v>
+      </c>
+      <c r="N23" s="78" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="48">
+      <c r="B24" s="54">
+        <v>7</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125" t="s">
-        <v>157</v>
-      </c>
-      <c r="K22" s="126" t="s">
-        <v>428</v>
-      </c>
-      <c r="L22" s="78" t="str">
-        <f t="shared" si="1"/>
-        <v>MODDATE date default sysdate,</v>
-      </c>
-      <c r="N22" s="78" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="B23" s="54">
-        <v>7</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>422</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="54">
-        <v>100</v>
-      </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="L23" s="78" t="str">
-        <f t="shared" si="1"/>
-        <v>SESSIONID varchar2(100),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="17">
-      <c r="B24" s="54">
-        <v>8</v>
-      </c>
-      <c r="C24" s="126" t="s">
-        <v>432</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>433</v>
-      </c>
-      <c r="E24" s="126" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="126" t="s">
-        <v>434</v>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="55" t="s">
+        <v>290</v>
       </c>
       <c r="L24" s="78" t="str">
         <f>C24&amp;" "&amp;E24&amp;IF(E24="varchar2","("&amp;F24&amp;")","")&amp;IF(J24="",""," default "&amp;J24)&amp;IF(G24="",""," "&amp;G24)&amp;IF(H24="",""," unique")&amp;IF(I24="",""," primary key")</f>
-        <v>LOGINTIME date</v>
+        <v>STOREDATE date</v>
+      </c>
+      <c r="N24" s="78" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -9045,7 +9047,7 @@
       </c>
       <c r="C26" s="160"/>
       <c r="D26" s="161" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E26" s="162"/>
       <c r="F26" s="70" t="s">
@@ -9153,7 +9155,7 @@
       <c r="I29" s="73"/>
       <c r="J29" s="73"/>
       <c r="K29" s="74" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L29" s="78" t="str">
         <f t="shared" si="2"/>
@@ -9188,7 +9190,7 @@
       <c r="I30" s="54"/>
       <c r="J30" s="54"/>
       <c r="K30" s="107" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L30" s="78" t="str">
         <f t="shared" si="2"/>
@@ -9219,7 +9221,7 @@
       <c r="I31" s="54"/>
       <c r="J31" s="54"/>
       <c r="K31" s="107" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L31" s="78" t="str">
         <f t="shared" si="2"/>
@@ -9333,7 +9335,7 @@
       </c>
       <c r="C36" s="160"/>
       <c r="D36" s="161" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E36" s="162"/>
       <c r="F36" s="70" t="s">
@@ -9421,7 +9423,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D39" s="55" t="s">
         <v>32</v>
@@ -9483,10 +9485,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E41" s="55" t="s">
         <v>26</v>
@@ -9681,7 +9683,7 @@
         <v>274</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E48" s="55" t="s">
         <v>128</v>
@@ -9712,7 +9714,7 @@
         <v>275</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E49" s="55" t="s">
         <v>135</v>
@@ -9891,7 +9893,7 @@
       <c r="I55" s="73"/>
       <c r="J55" s="73"/>
       <c r="K55" s="74" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L55" s="78" t="str">
         <f t="shared" si="5"/>
@@ -10245,7 +10247,7 @@
       <c r="I67" s="93"/>
       <c r="J67" s="93"/>
       <c r="K67" s="92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L67" s="78" t="str">
         <f t="shared" si="6"/>
@@ -10971,7 +10973,7 @@
         <v>3</v>
       </c>
       <c r="C93" s="91" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D93" s="91" t="s">
         <v>137</v>
@@ -11062,22 +11064,22 @@
         <v>6</v>
       </c>
       <c r="C96" s="91" t="s">
+        <v>434</v>
+      </c>
+      <c r="D96" s="91" t="s">
+        <v>435</v>
+      </c>
+      <c r="E96" s="91" t="s">
         <v>436</v>
-      </c>
-      <c r="D96" s="91" t="s">
-        <v>437</v>
-      </c>
-      <c r="E96" s="91" t="s">
-        <v>438</v>
       </c>
       <c r="F96" s="124"/>
       <c r="G96" s="124" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H96" s="124"/>
       <c r="I96" s="124"/>
       <c r="J96" s="124" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K96" s="124"/>
       <c r="L96" s="78" t="str">
@@ -11093,7 +11095,7 @@
         <v>85</v>
       </c>
       <c r="D97" s="91" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E97" s="91" t="s">
         <v>4</v>
@@ -11107,10 +11109,10 @@
       <c r="H97" s="121"/>
       <c r="I97" s="121"/>
       <c r="J97" s="122" t="s">
+        <v>417</v>
+      </c>
+      <c r="K97" s="121" t="s">
         <v>418</v>
-      </c>
-      <c r="K97" s="121" t="s">
-        <v>419</v>
       </c>
       <c r="L97" s="78" t="str">
         <f t="shared" si="9"/>
@@ -11122,10 +11124,10 @@
         <v>8</v>
       </c>
       <c r="C98" s="91" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D98" s="91" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E98" s="91" t="s">
         <v>2</v>
@@ -11329,7 +11331,7 @@
       </c>
       <c r="C106" s="164"/>
       <c r="D106" s="165" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E106" s="165"/>
       <c r="F106" s="113" t="s">
@@ -11420,7 +11422,7 @@
         <v>134</v>
       </c>
       <c r="D109" s="92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E109" s="92" t="s">
         <v>135</v>
@@ -11472,7 +11474,7 @@
       <c r="I110" s="93"/>
       <c r="J110" s="93"/>
       <c r="K110" s="92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L110" s="78" t="str">
         <f t="shared" si="11"/>
@@ -11781,7 +11783,7 @@
       </c>
       <c r="C122" s="160"/>
       <c r="D122" s="161" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E122" s="162"/>
       <c r="F122" s="70" t="s">
@@ -11869,10 +11871,10 @@
         <v>2</v>
       </c>
       <c r="C125" s="55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D125" s="55" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E125" s="55" t="s">
         <v>4</v>
@@ -11902,10 +11904,10 @@
         <v>3</v>
       </c>
       <c r="C126" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D126" s="55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E126" s="55" t="s">
         <v>4</v>
@@ -11920,7 +11922,7 @@
       <c r="I126" s="54"/>
       <c r="J126" s="54"/>
       <c r="K126" s="55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L126" s="78" t="str">
         <f t="shared" si="13"/>
@@ -11938,7 +11940,7 @@
         <v>122</v>
       </c>
       <c r="D127" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E127" s="55" t="s">
         <v>4</v>
@@ -12618,8 +12620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673B5F2D-4078-4D93-9D61-EE3F07480652}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -12634,14 +12636,14 @@
   <sheetData>
     <row r="1" spans="1:3" hidden="1">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="str">
-        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
-        <v>MEMBER</v>
+        <f>VLOOKUP(B1, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
+        <v>MEMBER_MAIN</v>
       </c>
     </row>
     <row r="2" spans="1:3" hidden="1">
@@ -12653,8 +12655,8 @@
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
-        <v>MEMBER_AUTO</v>
+        <f>VLOOKUP(B2, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
+        <v>MEMBER_SUB</v>
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1">
@@ -12666,20 +12668,20 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B3, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>MEMBER_ADDR</v>
       </c>
     </row>
     <row r="4" spans="1:3" hidden="1">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B4, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>POINT</v>
       </c>
     </row>
@@ -12689,7 +12691,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B5, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>BOARD</v>
       </c>
     </row>
@@ -12699,7 +12701,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B6, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>BOARD_REF</v>
       </c>
     </row>
@@ -12709,7 +12711,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B7, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>BOARD_IMAGE</v>
       </c>
     </row>
@@ -12719,7 +12721,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B8, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>BOARD_TERM</v>
       </c>
     </row>
@@ -12729,7 +12731,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B9, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>GOODS</v>
       </c>
     </row>
@@ -12739,7 +12741,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B10, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>GOODS_IMAGE</v>
       </c>
     </row>
@@ -12749,7 +12751,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B11, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>GOODS_SALES</v>
       </c>
     </row>
@@ -12759,7 +12761,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B12, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>ASSATALK</v>
       </c>
     </row>
@@ -12769,7 +12771,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B13, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>ASSATALK_KEYWORD</v>
       </c>
     </row>
@@ -12779,7 +12781,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B14, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>QUESTION</v>
       </c>
     </row>
@@ -12789,7 +12791,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$147,4,FALSE)</f>
+        <f>VLOOKUP(B15, '테이블 정의서(1026수정)'!$A$4:$E$147,4,FALSE)</f>
         <v>WARNING</v>
       </c>
     </row>
@@ -12801,7 +12803,7 @@
       </c>
       <c r="C18" t="str">
         <f>$A$1&amp;VLOOKUP(B18,$B$1:$C$15,2,FALSE)&amp;"_SEQ"</f>
-        <v>create sequence MEMBER_SEQ</v>
+        <v>create sequence MEMBER_MAIN_SEQ</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -12829,7 +12831,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ref="C22" si="1">$A$1&amp;VLOOKUP(B22,$B$1:$C$15,2,FALSE)&amp;"_SEQ"</f>
-        <v>create sequence MEMBER_AUTO_SEQ</v>
+        <v>create sequence MEMBER_SUB_SEQ</v>
       </c>
     </row>
     <row r="23" spans="2:3">
